--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14242E71-D692-DF4C-971A-00194695A98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B9031-688B-824A-B4D8-488ABB437607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="500" windowWidth="28900" windowHeight="16280" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -949,7 +949,7 @@
   <dimension ref="A1:G3729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1014,13 +1014,13 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B9031-688B-824A-B4D8-488ABB437607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE6626-DB80-6745-96FD-4866F7CC538B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="28900" windowHeight="16280" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -949,7 +949,7 @@
   <dimension ref="A1:G3729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -991,10 +991,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE6626-DB80-6745-96FD-4866F7CC538B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6F3D30-C674-DD40-9622-190ECD5165CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11191" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11193" uniqueCount="22">
   <si>
     <t>Estado</t>
   </si>
@@ -87,12 +87,15 @@
   <si>
     <t>SEM.31</t>
   </si>
+  <si>
+    <t>¡Racha activa!🎁</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +229,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC96208"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -569,8 +578,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,15 +956,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G3729"/>
+  <dimension ref="A1:H3729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,8 +986,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -999,8 +1012,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1085,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1131,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1315,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6F3D30-C674-DD40-9622-190ECD5165CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80DCED-660D-A248-97F7-16AC60DDCF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11193" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11194" uniqueCount="24">
   <si>
     <t>Estado</t>
   </si>
@@ -88,14 +88,20 @@
     <t>SEM.31</t>
   </si>
   <si>
-    <t>¡Racha activa!🎁</t>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>¡Racha activa!</t>
+  </si>
+  <si>
+    <t>¡Congelaste tu racha!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +235,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFC96208"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -578,9 +578,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,7 +958,7 @@
   <dimension ref="A1:H3729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,10 +986,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1011,8 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1037,6 +1036,9 @@
       </c>
       <c r="G3">
         <v>-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF96997D-6CF1-C844-A931-42D0A309DB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56719D14-469E-9F4C-8F85-6D9F408191CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="13">
   <si>
     <t>Estado</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>SEM.36</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Latam</t>
+  </si>
+  <si>
+    <t>Jetsmart</t>
   </si>
 </sst>
 </file>
@@ -562,12 +571,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -613,17 +625,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -964,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E286" sqref="E286"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="G463" sqref="G463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7785,6 +7787,4494 @@
       <c r="G284">
         <f t="shared" si="4"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" s="3">
+        <v>1875</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285">
+        <v>52</v>
+      </c>
+      <c r="F285">
+        <v>24</v>
+      </c>
+      <c r="G285">
+        <f>F285-E285</f>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="3">
+        <v>3567</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286">
+        <v>47</v>
+      </c>
+      <c r="F286">
+        <v>24</v>
+      </c>
+      <c r="G286">
+        <f t="shared" ref="G286:G349" si="5">F286-E286</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="3">
+        <v>9705</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287">
+        <v>45</v>
+      </c>
+      <c r="F287">
+        <v>24</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="5"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" s="3">
+        <v>1844</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288">
+        <v>45</v>
+      </c>
+      <c r="F288">
+        <v>24</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="5"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="3">
+        <v>2961</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289">
+        <v>44</v>
+      </c>
+      <c r="F289">
+        <v>24</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="3">
+        <v>3047</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E290">
+        <v>42</v>
+      </c>
+      <c r="F290">
+        <v>24</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="5"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" s="3">
+        <v>9982</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E291">
+        <v>42</v>
+      </c>
+      <c r="F291">
+        <v>24</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="5"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="3">
+        <v>3169</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292">
+        <v>40</v>
+      </c>
+      <c r="F292">
+        <v>24</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" s="3">
+        <v>9937</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E293">
+        <v>40</v>
+      </c>
+      <c r="F293">
+        <v>24</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" s="3">
+        <v>1131</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294">
+        <v>39</v>
+      </c>
+      <c r="F294">
+        <v>24</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="3">
+        <v>1598</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E295">
+        <v>38</v>
+      </c>
+      <c r="F295">
+        <v>24</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" s="3">
+        <v>9769</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E296">
+        <v>38</v>
+      </c>
+      <c r="F296">
+        <v>24</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>7</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" s="3">
+        <v>1894</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297">
+        <v>37</v>
+      </c>
+      <c r="F297">
+        <v>24</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" s="3">
+        <v>3730</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298">
+        <v>37</v>
+      </c>
+      <c r="F298">
+        <v>24</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" s="3">
+        <v>9480</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299">
+        <v>37</v>
+      </c>
+      <c r="F299">
+        <v>24</v>
+      </c>
+      <c r="G299">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" s="3">
+        <v>1738</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300">
+        <v>36</v>
+      </c>
+      <c r="F300">
+        <v>24</v>
+      </c>
+      <c r="G300">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" s="3">
+        <v>3006</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301">
+        <v>36</v>
+      </c>
+      <c r="F301">
+        <v>24</v>
+      </c>
+      <c r="G301">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" s="3">
+        <v>3038</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302">
+        <v>36</v>
+      </c>
+      <c r="F302">
+        <v>24</v>
+      </c>
+      <c r="G302">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="3">
+        <v>3521</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E303">
+        <v>36</v>
+      </c>
+      <c r="F303">
+        <v>24</v>
+      </c>
+      <c r="G303">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" s="3">
+        <v>2889</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304">
+        <v>35</v>
+      </c>
+      <c r="F304">
+        <v>24</v>
+      </c>
+      <c r="G304">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" s="3">
+        <v>3414</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305">
+        <v>35</v>
+      </c>
+      <c r="F305">
+        <v>24</v>
+      </c>
+      <c r="G305">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" s="3">
+        <v>3607</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E306">
+        <v>35</v>
+      </c>
+      <c r="F306">
+        <v>24</v>
+      </c>
+      <c r="G306">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="3">
+        <v>3404</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E307">
+        <v>34</v>
+      </c>
+      <c r="F307">
+        <v>24</v>
+      </c>
+      <c r="G307">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" s="3">
+        <v>3487</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E308">
+        <v>34</v>
+      </c>
+      <c r="F308">
+        <v>24</v>
+      </c>
+      <c r="G308">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" s="3">
+        <v>3568</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309">
+        <v>34</v>
+      </c>
+      <c r="F309">
+        <v>24</v>
+      </c>
+      <c r="G309">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" s="3">
+        <v>3707</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310">
+        <v>34</v>
+      </c>
+      <c r="F310">
+        <v>24</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" s="3">
+        <v>1893</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311">
+        <v>33</v>
+      </c>
+      <c r="F311">
+        <v>24</v>
+      </c>
+      <c r="G311">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" s="3">
+        <v>3379</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E312">
+        <v>33</v>
+      </c>
+      <c r="F312">
+        <v>24</v>
+      </c>
+      <c r="G312">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E313">
+        <v>32</v>
+      </c>
+      <c r="F313">
+        <v>24</v>
+      </c>
+      <c r="G313">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314" s="3">
+        <v>1534</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314">
+        <v>32</v>
+      </c>
+      <c r="F314">
+        <v>24</v>
+      </c>
+      <c r="G314">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315" s="3">
+        <v>3215</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315">
+        <v>32</v>
+      </c>
+      <c r="F315">
+        <v>24</v>
+      </c>
+      <c r="G315">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" s="3">
+        <v>3488</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E316">
+        <v>32</v>
+      </c>
+      <c r="F316">
+        <v>24</v>
+      </c>
+      <c r="G316">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" s="3">
+        <v>3685</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317">
+        <v>32</v>
+      </c>
+      <c r="F317">
+        <v>24</v>
+      </c>
+      <c r="G317">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E318">
+        <v>32</v>
+      </c>
+      <c r="F318">
+        <v>24</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319" s="3">
+        <v>9053</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319">
+        <v>32</v>
+      </c>
+      <c r="F319">
+        <v>24</v>
+      </c>
+      <c r="G319">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320" s="3">
+        <v>9099</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320">
+        <v>32</v>
+      </c>
+      <c r="F320">
+        <v>24</v>
+      </c>
+      <c r="G320">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" s="3">
+        <v>9650</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321">
+        <v>32</v>
+      </c>
+      <c r="F321">
+        <v>24</v>
+      </c>
+      <c r="G321">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>7</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" s="3">
+        <v>1537</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322">
+        <v>31</v>
+      </c>
+      <c r="F322">
+        <v>24</v>
+      </c>
+      <c r="G322">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>7</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323" s="3">
+        <v>1874</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323">
+        <v>31</v>
+      </c>
+      <c r="F323">
+        <v>24</v>
+      </c>
+      <c r="G323">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C324" s="3">
+        <v>2545</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324">
+        <v>31</v>
+      </c>
+      <c r="F324">
+        <v>24</v>
+      </c>
+      <c r="G324">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" s="3">
+        <v>3036</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325">
+        <v>31</v>
+      </c>
+      <c r="F325">
+        <v>24</v>
+      </c>
+      <c r="G325">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" s="3">
+        <v>3341</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E326">
+        <v>31</v>
+      </c>
+      <c r="F326">
+        <v>24</v>
+      </c>
+      <c r="G326">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" s="3">
+        <v>9245</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327">
+        <v>31</v>
+      </c>
+      <c r="F327">
+        <v>24</v>
+      </c>
+      <c r="G327">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" s="3">
+        <v>9476</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328">
+        <v>31</v>
+      </c>
+      <c r="F328">
+        <v>24</v>
+      </c>
+      <c r="G328">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329" s="3">
+        <v>9630</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E329">
+        <v>31</v>
+      </c>
+      <c r="F329">
+        <v>24</v>
+      </c>
+      <c r="G329">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C330" s="3">
+        <v>2035</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330">
+        <v>30</v>
+      </c>
+      <c r="F330">
+        <v>24</v>
+      </c>
+      <c r="G330">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C331" s="3">
+        <v>2118</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E331">
+        <v>30</v>
+      </c>
+      <c r="F331">
+        <v>24</v>
+      </c>
+      <c r="G331">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" s="3">
+        <v>2609</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332">
+        <v>30</v>
+      </c>
+      <c r="F332">
+        <v>24</v>
+      </c>
+      <c r="G332">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" s="3">
+        <v>2674</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E333">
+        <v>30</v>
+      </c>
+      <c r="F333">
+        <v>24</v>
+      </c>
+      <c r="G333">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>7</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" s="3">
+        <v>3091</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334">
+        <v>30</v>
+      </c>
+      <c r="F334">
+        <v>24</v>
+      </c>
+      <c r="G334">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" s="3">
+        <v>3125</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E335">
+        <v>30</v>
+      </c>
+      <c r="F335">
+        <v>24</v>
+      </c>
+      <c r="G335">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" s="3">
+        <v>3299</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E336">
+        <v>30</v>
+      </c>
+      <c r="F336">
+        <v>24</v>
+      </c>
+      <c r="G336">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" s="3">
+        <v>3364</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337">
+        <v>30</v>
+      </c>
+      <c r="F337">
+        <v>24</v>
+      </c>
+      <c r="G337">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338" s="3">
+        <v>9875</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E338">
+        <v>30</v>
+      </c>
+      <c r="F338">
+        <v>24</v>
+      </c>
+      <c r="G338">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" s="3">
+        <v>2440</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339">
+        <v>29</v>
+      </c>
+      <c r="F339">
+        <v>24</v>
+      </c>
+      <c r="G339">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" s="3">
+        <v>2885</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340">
+        <v>29</v>
+      </c>
+      <c r="F340">
+        <v>24</v>
+      </c>
+      <c r="G340">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" s="3">
+        <v>3041</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341">
+        <v>29</v>
+      </c>
+      <c r="F341">
+        <v>24</v>
+      </c>
+      <c r="G341">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" s="3">
+        <v>2854</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342">
+        <v>28</v>
+      </c>
+      <c r="F342">
+        <v>24</v>
+      </c>
+      <c r="G342">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" s="3">
+        <v>3061</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E343">
+        <v>28</v>
+      </c>
+      <c r="F343">
+        <v>24</v>
+      </c>
+      <c r="G343">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344" s="3">
+        <v>3118</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344">
+        <v>28</v>
+      </c>
+      <c r="F344">
+        <v>24</v>
+      </c>
+      <c r="G344">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" s="3">
+        <v>3192</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E345">
+        <v>28</v>
+      </c>
+      <c r="F345">
+        <v>24</v>
+      </c>
+      <c r="G345">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" s="3">
+        <v>3242</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346">
+        <v>28</v>
+      </c>
+      <c r="F346">
+        <v>24</v>
+      </c>
+      <c r="G346">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" s="3">
+        <v>3636</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347">
+        <v>28</v>
+      </c>
+      <c r="F347">
+        <v>24</v>
+      </c>
+      <c r="G347">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348" s="3">
+        <v>3683</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E348">
+        <v>28</v>
+      </c>
+      <c r="F348">
+        <v>24</v>
+      </c>
+      <c r="G348">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" s="3">
+        <v>3784</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349">
+        <v>28</v>
+      </c>
+      <c r="F349">
+        <v>24</v>
+      </c>
+      <c r="G349">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350" s="3">
+        <v>3102</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E350">
+        <v>27</v>
+      </c>
+      <c r="F350">
+        <v>24</v>
+      </c>
+      <c r="G350">
+        <f t="shared" ref="G350:G413" si="6">F350-E350</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" s="3">
+        <v>3243</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E351">
+        <v>27</v>
+      </c>
+      <c r="F351">
+        <v>24</v>
+      </c>
+      <c r="G351">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" s="3">
+        <v>3591</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352">
+        <v>27</v>
+      </c>
+      <c r="F352">
+        <v>24</v>
+      </c>
+      <c r="G352">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" s="3">
+        <v>709</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E353">
+        <v>27</v>
+      </c>
+      <c r="F353">
+        <v>24</v>
+      </c>
+      <c r="G353">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354" s="3">
+        <v>9195</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354">
+        <v>27</v>
+      </c>
+      <c r="F354">
+        <v>24</v>
+      </c>
+      <c r="G354">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" s="3">
+        <v>1576</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E355">
+        <v>26</v>
+      </c>
+      <c r="F355">
+        <v>24</v>
+      </c>
+      <c r="G355">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" s="3">
+        <v>1997</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E356">
+        <v>26</v>
+      </c>
+      <c r="F356">
+        <v>24</v>
+      </c>
+      <c r="G356">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357" s="3">
+        <v>3206</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E357">
+        <v>26</v>
+      </c>
+      <c r="F357">
+        <v>24</v>
+      </c>
+      <c r="G357">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>7</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358" s="3">
+        <v>3788</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358">
+        <v>26</v>
+      </c>
+      <c r="F358">
+        <v>24</v>
+      </c>
+      <c r="G358">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359" s="3">
+        <v>3637</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359">
+        <v>26</v>
+      </c>
+      <c r="F359">
+        <v>24</v>
+      </c>
+      <c r="G359">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360" s="3">
+        <v>2890</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E360">
+        <v>25</v>
+      </c>
+      <c r="F360">
+        <v>24</v>
+      </c>
+      <c r="G360">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361" s="3">
+        <v>3014</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E361">
+        <v>25</v>
+      </c>
+      <c r="F361">
+        <v>24</v>
+      </c>
+      <c r="G361">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>7</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362" s="3">
+        <v>3114</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E362">
+        <v>25</v>
+      </c>
+      <c r="F362">
+        <v>24</v>
+      </c>
+      <c r="G362">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363" s="3">
+        <v>3153</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E363">
+        <v>25</v>
+      </c>
+      <c r="F363">
+        <v>24</v>
+      </c>
+      <c r="G363">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364" s="3">
+        <v>3518</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E364">
+        <v>25</v>
+      </c>
+      <c r="F364">
+        <v>24</v>
+      </c>
+      <c r="G364">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365" s="3">
+        <v>3679</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365">
+        <v>25</v>
+      </c>
+      <c r="F365">
+        <v>24</v>
+      </c>
+      <c r="G365">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366" s="3">
+        <v>3708</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E366">
+        <v>25</v>
+      </c>
+      <c r="F366">
+        <v>24</v>
+      </c>
+      <c r="G366">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>7</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367" s="3">
+        <v>3787</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E367">
+        <v>25</v>
+      </c>
+      <c r="F367">
+        <v>24</v>
+      </c>
+      <c r="G367">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" s="3">
+        <v>9172</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E368">
+        <v>25</v>
+      </c>
+      <c r="F368">
+        <v>24</v>
+      </c>
+      <c r="G368">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>7</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" s="3">
+        <v>9584</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369">
+        <v>25</v>
+      </c>
+      <c r="F369">
+        <v>24</v>
+      </c>
+      <c r="G369">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" s="3">
+        <v>9633</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370">
+        <v>25</v>
+      </c>
+      <c r="F370">
+        <v>24</v>
+      </c>
+      <c r="G370">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" s="3">
+        <v>9905</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371">
+        <v>25</v>
+      </c>
+      <c r="F371">
+        <v>24</v>
+      </c>
+      <c r="G371">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372" s="3">
+        <v>9074</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372">
+        <v>24</v>
+      </c>
+      <c r="F372">
+        <v>24</v>
+      </c>
+      <c r="G372">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C373" s="3">
+        <v>3113</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373">
+        <v>24</v>
+      </c>
+      <c r="F373">
+        <v>24</v>
+      </c>
+      <c r="G373">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374" s="3">
+        <v>3138</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374">
+        <v>24</v>
+      </c>
+      <c r="F374">
+        <v>24</v>
+      </c>
+      <c r="G374">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" s="3">
+        <v>3416</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375">
+        <v>24</v>
+      </c>
+      <c r="F375">
+        <v>24</v>
+      </c>
+      <c r="G375">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" s="3">
+        <v>3432</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E376">
+        <v>24</v>
+      </c>
+      <c r="F376">
+        <v>24</v>
+      </c>
+      <c r="G376">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" s="3">
+        <v>3623</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377">
+        <v>24</v>
+      </c>
+      <c r="F377">
+        <v>24</v>
+      </c>
+      <c r="G377">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>7</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378" s="3">
+        <v>3638</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E378">
+        <v>24</v>
+      </c>
+      <c r="F378">
+        <v>24</v>
+      </c>
+      <c r="G378">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>7</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379" s="3">
+        <v>9084</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379">
+        <v>24</v>
+      </c>
+      <c r="F379">
+        <v>24</v>
+      </c>
+      <c r="G379">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380" s="3">
+        <v>3159</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380">
+        <v>23</v>
+      </c>
+      <c r="F380">
+        <v>24</v>
+      </c>
+      <c r="G380">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381" s="3">
+        <v>3378</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E381">
+        <v>23</v>
+      </c>
+      <c r="F381">
+        <v>24</v>
+      </c>
+      <c r="G381">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" s="3">
+        <v>3686</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382">
+        <v>23</v>
+      </c>
+      <c r="F382">
+        <v>24</v>
+      </c>
+      <c r="G382">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>7</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383" s="3">
+        <v>3806</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E383">
+        <v>23</v>
+      </c>
+      <c r="F383">
+        <v>24</v>
+      </c>
+      <c r="G383">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C384" s="3">
+        <v>3039</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384">
+        <v>22</v>
+      </c>
+      <c r="F384">
+        <v>24</v>
+      </c>
+      <c r="G384">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>7</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C385" s="3">
+        <v>3132</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385">
+        <v>22</v>
+      </c>
+      <c r="F385">
+        <v>24</v>
+      </c>
+      <c r="G385">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>7</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C386" s="3">
+        <v>3238</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E386">
+        <v>22</v>
+      </c>
+      <c r="F386">
+        <v>24</v>
+      </c>
+      <c r="G386">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>7</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387" s="3">
+        <v>3461</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E387">
+        <v>22</v>
+      </c>
+      <c r="F387">
+        <v>24</v>
+      </c>
+      <c r="G387">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C388" s="3">
+        <v>3471</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388">
+        <v>22</v>
+      </c>
+      <c r="F388">
+        <v>24</v>
+      </c>
+      <c r="G388">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>7</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C389" s="3">
+        <v>3540</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E389">
+        <v>22</v>
+      </c>
+      <c r="F389">
+        <v>24</v>
+      </c>
+      <c r="G389">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C390" s="3">
+        <v>3725</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E390">
+        <v>22</v>
+      </c>
+      <c r="F390">
+        <v>24</v>
+      </c>
+      <c r="G390">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>7</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391" s="3">
+        <v>3786</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E391">
+        <v>22</v>
+      </c>
+      <c r="F391">
+        <v>24</v>
+      </c>
+      <c r="G391">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>7</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C392" s="3">
+        <v>9368</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392">
+        <v>22</v>
+      </c>
+      <c r="F392">
+        <v>24</v>
+      </c>
+      <c r="G392">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C393" s="3">
+        <v>952</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E393">
+        <v>22</v>
+      </c>
+      <c r="F393">
+        <v>24</v>
+      </c>
+      <c r="G393">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>7</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C394" s="3">
+        <v>127</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E394">
+        <v>21</v>
+      </c>
+      <c r="F394">
+        <v>24</v>
+      </c>
+      <c r="G394">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>7</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" s="3">
+        <v>629</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E395">
+        <v>21</v>
+      </c>
+      <c r="F395">
+        <v>24</v>
+      </c>
+      <c r="G395">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>7</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C396" s="3">
+        <v>9431</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396">
+        <v>21</v>
+      </c>
+      <c r="F396">
+        <v>24</v>
+      </c>
+      <c r="G396">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>7</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="3">
+        <v>9980</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E397">
+        <v>21</v>
+      </c>
+      <c r="F397">
+        <v>24</v>
+      </c>
+      <c r="G397">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" s="3">
+        <v>3411</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E398">
+        <v>20</v>
+      </c>
+      <c r="F398">
+        <v>24</v>
+      </c>
+      <c r="G398">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>7</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" s="3">
+        <v>3504</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E399">
+        <v>20</v>
+      </c>
+      <c r="F399">
+        <v>24</v>
+      </c>
+      <c r="G399">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>7</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C400" s="3">
+        <v>3621</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E400">
+        <v>20</v>
+      </c>
+      <c r="F400">
+        <v>24</v>
+      </c>
+      <c r="G400">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>7</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C401" s="3">
+        <v>3230</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E401">
+        <v>19</v>
+      </c>
+      <c r="F401">
+        <v>24</v>
+      </c>
+      <c r="G401">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C402" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E402">
+        <v>19</v>
+      </c>
+      <c r="F402">
+        <v>24</v>
+      </c>
+      <c r="G402">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403" s="3">
+        <v>9376</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E403">
+        <v>19</v>
+      </c>
+      <c r="F403">
+        <v>24</v>
+      </c>
+      <c r="G403">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404" s="3">
+        <v>3549</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E404">
+        <v>18</v>
+      </c>
+      <c r="F404">
+        <v>24</v>
+      </c>
+      <c r="G404">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>7</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C405" s="3">
+        <v>5162</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E405">
+        <v>18</v>
+      </c>
+      <c r="F405">
+        <v>24</v>
+      </c>
+      <c r="G405">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>7</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C406" s="3">
+        <v>9619</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E406">
+        <v>18</v>
+      </c>
+      <c r="F406">
+        <v>24</v>
+      </c>
+      <c r="G406">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>7</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C407" s="3">
+        <v>1843</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E407">
+        <v>17</v>
+      </c>
+      <c r="F407">
+        <v>24</v>
+      </c>
+      <c r="G407">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" s="3">
+        <v>3460</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E408">
+        <v>17</v>
+      </c>
+      <c r="F408">
+        <v>24</v>
+      </c>
+      <c r="G408">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>7</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C409" s="3">
+        <v>3729</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409">
+        <v>17</v>
+      </c>
+      <c r="F409">
+        <v>24</v>
+      </c>
+      <c r="G409">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>7</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C410" s="3">
+        <v>3785</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E410">
+        <v>17</v>
+      </c>
+      <c r="F410">
+        <v>24</v>
+      </c>
+      <c r="G410">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" s="3">
+        <v>1532</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E411">
+        <v>16</v>
+      </c>
+      <c r="F411">
+        <v>24</v>
+      </c>
+      <c r="G411">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>7</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C412" s="3">
+        <v>3167</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E412">
+        <v>16</v>
+      </c>
+      <c r="F412">
+        <v>24</v>
+      </c>
+      <c r="G412">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>7</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C413" s="3">
+        <v>3194</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E413">
+        <v>15</v>
+      </c>
+      <c r="F413">
+        <v>24</v>
+      </c>
+      <c r="G413">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>7</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C414" s="3">
+        <v>3289</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414">
+        <v>15</v>
+      </c>
+      <c r="F414">
+        <v>24</v>
+      </c>
+      <c r="G414">
+        <f t="shared" ref="G414:G471" si="7">F414-E414</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415" s="3">
+        <v>3447</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E415">
+        <v>15</v>
+      </c>
+      <c r="F415">
+        <v>24</v>
+      </c>
+      <c r="G415">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>7</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C416" s="3">
+        <v>3634</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E416">
+        <v>15</v>
+      </c>
+      <c r="F416">
+        <v>24</v>
+      </c>
+      <c r="G416">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C417" s="3">
+        <v>3748</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417">
+        <v>14</v>
+      </c>
+      <c r="F417">
+        <v>24</v>
+      </c>
+      <c r="G417">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>7</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C418" s="3">
+        <v>3335</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E418">
+        <v>14</v>
+      </c>
+      <c r="F418">
+        <v>24</v>
+      </c>
+      <c r="G418">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>7</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419" s="3">
+        <v>3620</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E419">
+        <v>14</v>
+      </c>
+      <c r="F419">
+        <v>24</v>
+      </c>
+      <c r="G419">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C420" s="3">
+        <v>9461</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E420">
+        <v>14</v>
+      </c>
+      <c r="F420">
+        <v>24</v>
+      </c>
+      <c r="G420">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>7</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C421" s="3">
+        <v>9612</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E421">
+        <v>14</v>
+      </c>
+      <c r="F421">
+        <v>24</v>
+      </c>
+      <c r="G421">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>7</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C422" s="3">
+        <v>3724</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E422">
+        <v>13</v>
+      </c>
+      <c r="F422">
+        <v>24</v>
+      </c>
+      <c r="G422">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>7</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" s="3">
+        <v>9925</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E423">
+        <v>13</v>
+      </c>
+      <c r="F423">
+        <v>24</v>
+      </c>
+      <c r="G423">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>7</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C424" s="3">
+        <v>3070</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E424">
+        <v>12</v>
+      </c>
+      <c r="F424">
+        <v>24</v>
+      </c>
+      <c r="G424">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>7</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C425" s="3">
+        <v>3095</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E425">
+        <v>12</v>
+      </c>
+      <c r="F425">
+        <v>24</v>
+      </c>
+      <c r="G425">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>7</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C426" s="3">
+        <v>3357</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E426">
+        <v>12</v>
+      </c>
+      <c r="F426">
+        <v>24</v>
+      </c>
+      <c r="G426">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427" s="3">
+        <v>3718</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E427">
+        <v>12</v>
+      </c>
+      <c r="F427">
+        <v>24</v>
+      </c>
+      <c r="G427">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C428" s="3">
+        <v>3783</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E428">
+        <v>12</v>
+      </c>
+      <c r="F428">
+        <v>24</v>
+      </c>
+      <c r="G428">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C429" s="3">
+        <v>9369</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E429">
+        <v>12</v>
+      </c>
+      <c r="F429">
+        <v>24</v>
+      </c>
+      <c r="G429">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C430" s="3">
+        <v>224</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E430">
+        <v>11</v>
+      </c>
+      <c r="F430">
+        <v>24</v>
+      </c>
+      <c r="G430">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431" s="3">
+        <v>2867</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E431">
+        <v>11</v>
+      </c>
+      <c r="F431">
+        <v>24</v>
+      </c>
+      <c r="G431">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>7</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" s="3">
+        <v>3157</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E432">
+        <v>11</v>
+      </c>
+      <c r="F432">
+        <v>24</v>
+      </c>
+      <c r="G432">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>7</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C433" s="3">
+        <v>3517</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E433">
+        <v>11</v>
+      </c>
+      <c r="F433">
+        <v>24</v>
+      </c>
+      <c r="G433">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C434" s="3">
+        <v>9892</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E434">
+        <v>11</v>
+      </c>
+      <c r="F434">
+        <v>24</v>
+      </c>
+      <c r="G434">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>7</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" s="3">
+        <v>1896</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E435">
+        <v>10</v>
+      </c>
+      <c r="F435">
+        <v>24</v>
+      </c>
+      <c r="G435">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>7</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C436" s="3">
+        <v>2962</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E436">
+        <v>10</v>
+      </c>
+      <c r="F436">
+        <v>24</v>
+      </c>
+      <c r="G436">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>7</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" s="3">
+        <v>9196</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437">
+        <v>10</v>
+      </c>
+      <c r="F437">
+        <v>24</v>
+      </c>
+      <c r="G437">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438" s="3">
+        <v>9981</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E438">
+        <v>10</v>
+      </c>
+      <c r="F438">
+        <v>24</v>
+      </c>
+      <c r="G438">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>7</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439" s="3">
+        <v>3160</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E439">
+        <v>9</v>
+      </c>
+      <c r="F439">
+        <v>24</v>
+      </c>
+      <c r="G439">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>7</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C440" s="3">
+        <v>3309</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E440">
+        <v>9</v>
+      </c>
+      <c r="F440">
+        <v>24</v>
+      </c>
+      <c r="G440">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>7</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C441" s="3">
+        <v>3671</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E441">
+        <v>9</v>
+      </c>
+      <c r="F441">
+        <v>24</v>
+      </c>
+      <c r="G441">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>7</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C442" s="3">
+        <v>9869</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442">
+        <v>9</v>
+      </c>
+      <c r="F442">
+        <v>24</v>
+      </c>
+      <c r="G442">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>7</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443" s="3">
+        <v>3829</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E443">
+        <v>9</v>
+      </c>
+      <c r="F443">
+        <v>24</v>
+      </c>
+      <c r="G443">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>7</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C444" s="3">
+        <v>3758</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E444">
+        <v>8</v>
+      </c>
+      <c r="F444">
+        <v>24</v>
+      </c>
+      <c r="G444">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>7</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445" s="3">
+        <v>3426</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E445">
+        <v>7</v>
+      </c>
+      <c r="F445">
+        <v>24</v>
+      </c>
+      <c r="G445">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C446" s="3">
+        <v>3480</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E446">
+        <v>7</v>
+      </c>
+      <c r="F446">
+        <v>24</v>
+      </c>
+      <c r="G446">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" s="3">
+        <v>3649</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E447">
+        <v>7</v>
+      </c>
+      <c r="F447">
+        <v>24</v>
+      </c>
+      <c r="G447">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448" s="3">
+        <v>3726</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E448">
+        <v>7</v>
+      </c>
+      <c r="F448">
+        <v>24</v>
+      </c>
+      <c r="G448">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C449" s="3">
+        <v>9360</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E449">
+        <v>7</v>
+      </c>
+      <c r="F449">
+        <v>24</v>
+      </c>
+      <c r="G449">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C450" s="3">
+        <v>1451</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E450">
+        <v>6</v>
+      </c>
+      <c r="F450">
+        <v>24</v>
+      </c>
+      <c r="G450">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451" s="3">
+        <v>3233</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E451">
+        <v>6</v>
+      </c>
+      <c r="F451">
+        <v>24</v>
+      </c>
+      <c r="G451">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C452" s="3">
+        <v>3370</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E452">
+        <v>6</v>
+      </c>
+      <c r="F452">
+        <v>24</v>
+      </c>
+      <c r="G452">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" s="3">
+        <v>3682</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E453">
+        <v>6</v>
+      </c>
+      <c r="F453">
+        <v>24</v>
+      </c>
+      <c r="G453">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454" s="3">
+        <v>9026</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E454">
+        <v>6</v>
+      </c>
+      <c r="F454">
+        <v>24</v>
+      </c>
+      <c r="G454">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455" s="3">
+        <v>9129</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E455">
+        <v>6</v>
+      </c>
+      <c r="F455">
+        <v>24</v>
+      </c>
+      <c r="G455">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>7</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C456" s="3">
+        <v>3830</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E456">
+        <v>6</v>
+      </c>
+      <c r="F456">
+        <v>24</v>
+      </c>
+      <c r="G456">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>7</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C457" s="3">
+        <v>1583</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E457">
+        <v>5</v>
+      </c>
+      <c r="F457">
+        <v>24</v>
+      </c>
+      <c r="G457">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C458" s="3">
+        <v>2488</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E458">
+        <v>4</v>
+      </c>
+      <c r="F458">
+        <v>24</v>
+      </c>
+      <c r="G458">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>7</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" s="3">
+        <v>2931</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E459">
+        <v>4</v>
+      </c>
+      <c r="F459">
+        <v>24</v>
+      </c>
+      <c r="G459">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C460" s="3">
+        <v>3674</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E460">
+        <v>4</v>
+      </c>
+      <c r="F460">
+        <v>24</v>
+      </c>
+      <c r="G460">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C461" s="3">
+        <v>1772</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E461">
+        <v>3</v>
+      </c>
+      <c r="F461">
+        <v>24</v>
+      </c>
+      <c r="G461">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>7</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C462" s="3">
+        <v>9325</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E462">
+        <v>3</v>
+      </c>
+      <c r="F462">
+        <v>24</v>
+      </c>
+      <c r="G462">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>7</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C463" s="3">
+        <v>2930</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E463">
+        <v>2</v>
+      </c>
+      <c r="F463">
+        <v>24</v>
+      </c>
+      <c r="G463">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C464" s="3">
+        <v>3548</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E464">
+        <v>2</v>
+      </c>
+      <c r="F464">
+        <v>24</v>
+      </c>
+      <c r="G464">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>7</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C465" s="3">
+        <v>3761</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E465">
+        <v>2</v>
+      </c>
+      <c r="F465">
+        <v>24</v>
+      </c>
+      <c r="G465">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>7</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C466" s="3">
+        <v>9689</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E466">
+        <v>2</v>
+      </c>
+      <c r="F466">
+        <v>24</v>
+      </c>
+      <c r="G466">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C467" s="3">
+        <v>1809</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
+      <c r="F467">
+        <v>24</v>
+      </c>
+      <c r="G467">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>7</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C468" s="3">
+        <v>3782</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468">
+        <v>24</v>
+      </c>
+      <c r="G468">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>7</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C469" s="3">
+        <v>3813</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>24</v>
+      </c>
+      <c r="G469">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C470" s="3">
+        <v>9354</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>24</v>
+      </c>
+      <c r="G470">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C471" s="3">
+        <v>3673</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>24</v>
+      </c>
+      <c r="G471">
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56719D14-469E-9F4C-8F85-6D9F408191CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B5F32F-E724-4946-9320-4CA1730DF0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="17">
   <si>
     <t>Estado</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Jetsmart</t>
+  </si>
+  <si>
+    <t>Jockey Plaza - JP</t>
+  </si>
+  <si>
+    <t>Jockey Plaza - Olguin</t>
+  </si>
+  <si>
+    <t>Mall Bellavista - A</t>
+  </si>
+  <si>
+    <t>Mall Bellavista - B</t>
   </si>
 </sst>
 </file>
@@ -966,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G471"/>
+  <dimension ref="A1:G582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="G463" sqref="G463"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="G582" sqref="G567:G582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12275,6 +12287,2670 @@
       <c r="G471">
         <f t="shared" si="7"/>
         <v>24</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C472" s="1">
+        <v>376</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E472">
+        <v>35</v>
+      </c>
+      <c r="F472">
+        <v>6</v>
+      </c>
+      <c r="G472">
+        <f>F472-E472</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C473" s="1">
+        <v>7566</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E473">
+        <v>23</v>
+      </c>
+      <c r="F473">
+        <v>6</v>
+      </c>
+      <c r="G473">
+        <f t="shared" ref="G473:G536" si="8">F473-E473</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>7</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C474" s="1">
+        <v>2726</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E474">
+        <v>21</v>
+      </c>
+      <c r="F474">
+        <v>6</v>
+      </c>
+      <c r="G474">
+        <f t="shared" si="8"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C475" s="1">
+        <v>7635</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E475">
+        <v>18</v>
+      </c>
+      <c r="F475">
+        <v>6</v>
+      </c>
+      <c r="G475">
+        <f t="shared" si="8"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>7</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C476" s="1">
+        <v>7629</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E476">
+        <v>16</v>
+      </c>
+      <c r="F476">
+        <v>6</v>
+      </c>
+      <c r="G476">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>7</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C477" s="1">
+        <v>7438</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E477">
+        <v>14</v>
+      </c>
+      <c r="F477">
+        <v>6</v>
+      </c>
+      <c r="G477">
+        <f t="shared" si="8"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>7</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C478" s="1">
+        <v>9281</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E478">
+        <v>14</v>
+      </c>
+      <c r="F478">
+        <v>6</v>
+      </c>
+      <c r="G478">
+        <f t="shared" si="8"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>7</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C479" s="1">
+        <v>7581</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E479">
+        <v>13</v>
+      </c>
+      <c r="F479">
+        <v>6</v>
+      </c>
+      <c r="G479">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>7</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C480" s="1">
+        <v>9120</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E480">
+        <v>12</v>
+      </c>
+      <c r="F480">
+        <v>6</v>
+      </c>
+      <c r="G480">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>7</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C481" s="1">
+        <v>2736</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E481">
+        <v>11</v>
+      </c>
+      <c r="F481">
+        <v>6</v>
+      </c>
+      <c r="G481">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>7</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C482" s="1">
+        <v>446</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E482">
+        <v>11</v>
+      </c>
+      <c r="F482">
+        <v>6</v>
+      </c>
+      <c r="G482">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C483" s="1">
+        <v>7628</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E483">
+        <v>11</v>
+      </c>
+      <c r="F483">
+        <v>6</v>
+      </c>
+      <c r="G483">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>7</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C484" s="1">
+        <v>2210</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E484">
+        <v>10</v>
+      </c>
+      <c r="F484">
+        <v>6</v>
+      </c>
+      <c r="G484">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C485" s="1">
+        <v>9411</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E485">
+        <v>10</v>
+      </c>
+      <c r="F485">
+        <v>6</v>
+      </c>
+      <c r="G485">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>7</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C486" s="1">
+        <v>9802</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E486">
+        <v>10</v>
+      </c>
+      <c r="F486">
+        <v>6</v>
+      </c>
+      <c r="G486">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>7</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C487" s="1">
+        <v>7090</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E487">
+        <v>9</v>
+      </c>
+      <c r="F487">
+        <v>6</v>
+      </c>
+      <c r="G487">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>7</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C488" s="1">
+        <v>7051</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E488">
+        <v>7</v>
+      </c>
+      <c r="F488">
+        <v>6</v>
+      </c>
+      <c r="G488">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>7</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C489" s="1">
+        <v>7059</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E489">
+        <v>7</v>
+      </c>
+      <c r="F489">
+        <v>6</v>
+      </c>
+      <c r="G489">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C490" s="1">
+        <v>7591</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E490">
+        <v>7</v>
+      </c>
+      <c r="F490">
+        <v>6</v>
+      </c>
+      <c r="G490">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C491" s="1">
+        <v>9110</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E491">
+        <v>7</v>
+      </c>
+      <c r="F491">
+        <v>6</v>
+      </c>
+      <c r="G491">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>7</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C492" s="1">
+        <v>9366</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E492">
+        <v>7</v>
+      </c>
+      <c r="F492">
+        <v>6</v>
+      </c>
+      <c r="G492">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>7</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C493" s="1">
+        <v>7044</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E493">
+        <v>6</v>
+      </c>
+      <c r="F493">
+        <v>6</v>
+      </c>
+      <c r="G493">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C494" s="1">
+        <v>7055</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E494">
+        <v>6</v>
+      </c>
+      <c r="F494">
+        <v>6</v>
+      </c>
+      <c r="G494">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495" s="1">
+        <v>7092</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E495">
+        <v>6</v>
+      </c>
+      <c r="F495">
+        <v>6</v>
+      </c>
+      <c r="G495">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C496" s="1">
+        <v>7109</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E496">
+        <v>6</v>
+      </c>
+      <c r="F496">
+        <v>6</v>
+      </c>
+      <c r="G496">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>7</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C497" s="1">
+        <v>2849</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E497">
+        <v>5</v>
+      </c>
+      <c r="F497">
+        <v>6</v>
+      </c>
+      <c r="G497">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>7</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C498" s="1">
+        <v>7014</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E498">
+        <v>5</v>
+      </c>
+      <c r="F498">
+        <v>6</v>
+      </c>
+      <c r="G498">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C499" s="1">
+        <v>7032</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E499">
+        <v>5</v>
+      </c>
+      <c r="F499">
+        <v>6</v>
+      </c>
+      <c r="G499">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C500" s="1">
+        <v>7045</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E500">
+        <v>5</v>
+      </c>
+      <c r="F500">
+        <v>6</v>
+      </c>
+      <c r="G500">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C501" s="1">
+        <v>7559</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E501">
+        <v>5</v>
+      </c>
+      <c r="F501">
+        <v>6</v>
+      </c>
+      <c r="G501">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C502" s="1">
+        <v>9259</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E502">
+        <v>5</v>
+      </c>
+      <c r="F502">
+        <v>6</v>
+      </c>
+      <c r="G502">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>7</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C503" s="1">
+        <v>7097</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E503">
+        <v>4</v>
+      </c>
+      <c r="F503">
+        <v>6</v>
+      </c>
+      <c r="G503">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>7</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C504" s="1">
+        <v>7123</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E504">
+        <v>4</v>
+      </c>
+      <c r="F504">
+        <v>6</v>
+      </c>
+      <c r="G504">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>7</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C505" s="1">
+        <v>9424</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E505">
+        <v>4</v>
+      </c>
+      <c r="F505">
+        <v>6</v>
+      </c>
+      <c r="G505">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>7</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C506" s="1">
+        <v>7042</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E506">
+        <v>3</v>
+      </c>
+      <c r="F506">
+        <v>6</v>
+      </c>
+      <c r="G506">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C507" s="1">
+        <v>7071</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E507">
+        <v>3</v>
+      </c>
+      <c r="F507">
+        <v>6</v>
+      </c>
+      <c r="G507">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>7</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C508" s="1">
+        <v>7606</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E508">
+        <v>3</v>
+      </c>
+      <c r="F508">
+        <v>6</v>
+      </c>
+      <c r="G508">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>7</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C509" s="1">
+        <v>7632</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E509">
+        <v>3</v>
+      </c>
+      <c r="F509">
+        <v>6</v>
+      </c>
+      <c r="G509">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>7</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C510" s="1">
+        <v>3789</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E510">
+        <v>2</v>
+      </c>
+      <c r="F510">
+        <v>6</v>
+      </c>
+      <c r="G510">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C511" s="1">
+        <v>7046</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E511">
+        <v>2</v>
+      </c>
+      <c r="F511">
+        <v>6</v>
+      </c>
+      <c r="G511">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C512" s="1">
+        <v>7084</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E512">
+        <v>2</v>
+      </c>
+      <c r="F512">
+        <v>6</v>
+      </c>
+      <c r="G512">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>7</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C513" s="1">
+        <v>7402</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E513">
+        <v>2</v>
+      </c>
+      <c r="F513">
+        <v>6</v>
+      </c>
+      <c r="G513">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>7</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C514" s="1">
+        <v>7474</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E514">
+        <v>2</v>
+      </c>
+      <c r="F514">
+        <v>6</v>
+      </c>
+      <c r="G514">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>7</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C515" s="1">
+        <v>8001</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E515">
+        <v>2</v>
+      </c>
+      <c r="F515">
+        <v>6</v>
+      </c>
+      <c r="G515">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>7</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516" s="1">
+        <v>7026</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516">
+        <v>6</v>
+      </c>
+      <c r="G516">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C517" s="1">
+        <v>7068</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
+      <c r="F517">
+        <v>6</v>
+      </c>
+      <c r="G517">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>7</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C518" s="1">
+        <v>7082</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518">
+        <v>6</v>
+      </c>
+      <c r="G518">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>7</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C519" s="1">
+        <v>7398</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
+      <c r="F519">
+        <v>6</v>
+      </c>
+      <c r="G519">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>7</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C520" s="1">
+        <v>7567</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>6</v>
+      </c>
+      <c r="G520">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>7</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C521" s="1">
+        <v>7578</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>6</v>
+      </c>
+      <c r="G521">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>7</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C522" s="1">
+        <v>7580</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522">
+        <v>6</v>
+      </c>
+      <c r="G522">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>7</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C523" s="1">
+        <v>7622</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E523">
+        <v>1</v>
+      </c>
+      <c r="F523">
+        <v>6</v>
+      </c>
+      <c r="G523">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>7</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C524" s="1">
+        <v>7630</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524">
+        <v>6</v>
+      </c>
+      <c r="G524">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>7</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525" s="1">
+        <v>7631</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525">
+        <v>6</v>
+      </c>
+      <c r="G525">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>7</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C526" s="1">
+        <v>9443</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+      <c r="F526">
+        <v>6</v>
+      </c>
+      <c r="G526">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>7</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C527" s="1">
+        <v>9604</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E527">
+        <v>1</v>
+      </c>
+      <c r="F527">
+        <v>6</v>
+      </c>
+      <c r="G527">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>7</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C528" s="1">
+        <v>9761</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+      <c r="F528">
+        <v>6</v>
+      </c>
+      <c r="G528">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>7</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C529" s="1">
+        <v>1089</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>6</v>
+      </c>
+      <c r="G529">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>7</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C530" s="1">
+        <v>136</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>6</v>
+      </c>
+      <c r="G530">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>7</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531" s="1">
+        <v>1539</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>6</v>
+      </c>
+      <c r="G531">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>7</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532" s="1">
+        <v>1864</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>6</v>
+      </c>
+      <c r="G532">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533" s="1">
+        <v>3224</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>6</v>
+      </c>
+      <c r="G533">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>7</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534" s="1">
+        <v>3583</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>6</v>
+      </c>
+      <c r="G534">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>7</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535" s="1">
+        <v>3757</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>6</v>
+      </c>
+      <c r="G535">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>7</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536" s="1">
+        <v>7008</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>6</v>
+      </c>
+      <c r="G536">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>7</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537" s="1">
+        <v>7038</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>6</v>
+      </c>
+      <c r="G537">
+        <f t="shared" ref="G537:G582" si="9">F537-E537</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>7</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538" s="1">
+        <v>7066</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>6</v>
+      </c>
+      <c r="G538">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>7</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539" s="1">
+        <v>7085</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>6</v>
+      </c>
+      <c r="G539">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>7</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540" s="1">
+        <v>7116</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>6</v>
+      </c>
+      <c r="G540">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>7</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C541" s="1">
+        <v>7183</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>6</v>
+      </c>
+      <c r="G541">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>7</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542" s="1">
+        <v>7345</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>6</v>
+      </c>
+      <c r="G542">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>7</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543" s="1">
+        <v>7380</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>6</v>
+      </c>
+      <c r="G543">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>7</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544" s="1">
+        <v>7395</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>6</v>
+      </c>
+      <c r="G544">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>7</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C545" s="1">
+        <v>7417</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>6</v>
+      </c>
+      <c r="G545">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>7</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546" s="1">
+        <v>7494</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>6</v>
+      </c>
+      <c r="G546">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>7</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547" s="1">
+        <v>7517</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>6</v>
+      </c>
+      <c r="G547">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>7</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C548" s="1">
+        <v>7633</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>6</v>
+      </c>
+      <c r="G548">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>7</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549" s="1">
+        <v>9152</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>6</v>
+      </c>
+      <c r="G549">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>7</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550" s="1">
+        <v>9302</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>6</v>
+      </c>
+      <c r="G550">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" s="1">
+        <v>9334</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>6</v>
+      </c>
+      <c r="G551">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>7</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552" s="1">
+        <v>9383</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>6</v>
+      </c>
+      <c r="G552">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>7</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553" s="1">
+        <v>9384</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>6</v>
+      </c>
+      <c r="G553">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>7</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C554" s="1">
+        <v>9386</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>6</v>
+      </c>
+      <c r="G554">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>7</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C555" s="1">
+        <v>9387</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>6</v>
+      </c>
+      <c r="G555">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>7</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" s="1">
+        <v>9388</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
+      <c r="F556">
+        <v>6</v>
+      </c>
+      <c r="G556">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>7</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C557" s="1">
+        <v>9390</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>6</v>
+      </c>
+      <c r="G557">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>7</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C558" s="1">
+        <v>9391</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558">
+        <v>6</v>
+      </c>
+      <c r="G558">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>7</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559" s="1">
+        <v>9393</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+      <c r="F559">
+        <v>6</v>
+      </c>
+      <c r="G559">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>7</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C560" s="1">
+        <v>9395</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>6</v>
+      </c>
+      <c r="G560">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>7</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C561" s="1">
+        <v>9400</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+      <c r="F561">
+        <v>6</v>
+      </c>
+      <c r="G561">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>7</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C562" s="1">
+        <v>9404</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="F562">
+        <v>6</v>
+      </c>
+      <c r="G562">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>7</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C563" s="1">
+        <v>9405</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>6</v>
+      </c>
+      <c r="G563">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>7</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C564" s="1">
+        <v>9406</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>6</v>
+      </c>
+      <c r="G564">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>7</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C565" s="1">
+        <v>9409</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>6</v>
+      </c>
+      <c r="G565">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>7</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C566" s="1">
+        <v>9410</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>6</v>
+      </c>
+      <c r="G566">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>7</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567" s="1">
+        <v>9417</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>6</v>
+      </c>
+      <c r="G567">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>7</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C568" s="1">
+        <v>9418</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>6</v>
+      </c>
+      <c r="G568">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>7</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C569" s="1">
+        <v>9444</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+      <c r="F569">
+        <v>6</v>
+      </c>
+      <c r="G569">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>7</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C570" s="1">
+        <v>9445</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>6</v>
+      </c>
+      <c r="G570">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>7</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571" s="1">
+        <v>9447</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>6</v>
+      </c>
+      <c r="G571">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>7</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572" s="1">
+        <v>9492</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>6</v>
+      </c>
+      <c r="G572">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>7</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C573" s="1">
+        <v>9493</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>6</v>
+      </c>
+      <c r="G573">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>7</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C574" s="1">
+        <v>9494</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E574">
+        <v>0</v>
+      </c>
+      <c r="F574">
+        <v>6</v>
+      </c>
+      <c r="G574">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>7</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575" s="1">
+        <v>9543</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E575">
+        <v>0</v>
+      </c>
+      <c r="F575">
+        <v>6</v>
+      </c>
+      <c r="G575">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>7</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576" s="1">
+        <v>9572</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576">
+        <v>6</v>
+      </c>
+      <c r="G576">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>7</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" s="1">
+        <v>9678</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+      <c r="F577">
+        <v>6</v>
+      </c>
+      <c r="G577">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>7</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C578" s="1">
+        <v>9779</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+      <c r="F578">
+        <v>6</v>
+      </c>
+      <c r="G578">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>7</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" s="1">
+        <v>9797</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>6</v>
+      </c>
+      <c r="G579">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>7</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" s="1">
+        <v>9947</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+      <c r="F580">
+        <v>6</v>
+      </c>
+      <c r="G580">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>7</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581" s="1">
+        <v>3835</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+      <c r="F581">
+        <v>6</v>
+      </c>
+      <c r="G581">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>7</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582" s="1">
+        <v>9408</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+      <c r="F582">
+        <v>6</v>
+      </c>
+      <c r="G582">
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B70F2C7-51D1-BD47-BB65-28B4DF54F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FE8BB-7438-594D-ACA4-696BC4F1D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="19">
   <si>
     <t>Estado</t>
   </si>
@@ -91,12 +91,15 @@
   <si>
     <t>Aeropuerto</t>
   </si>
+  <si>
+    <t>SEM.37</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +246,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -586,7 +595,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,6 +603,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -991,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G879"/>
+  <dimension ref="A1:G1165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
+      <selection activeCell="A880" sqref="A880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22092,6 +22105,6486 @@
       <c r="G879">
         <f t="shared" si="14"/>
         <v>-6</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A880" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C880" s="5">
+        <v>2422</v>
+      </c>
+      <c r="D880" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E880" s="4">
+        <v>24</v>
+      </c>
+      <c r="F880" s="4">
+        <v>10</v>
+      </c>
+      <c r="G880" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A881" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C881" s="5">
+        <v>2416</v>
+      </c>
+      <c r="D881" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E881" s="4">
+        <v>21</v>
+      </c>
+      <c r="F881" s="4">
+        <v>10</v>
+      </c>
+      <c r="G881" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A882" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C882" s="5">
+        <v>9214</v>
+      </c>
+      <c r="D882" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E882" s="4">
+        <v>21</v>
+      </c>
+      <c r="F882" s="4">
+        <v>10</v>
+      </c>
+      <c r="G882" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A883" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C883" s="5">
+        <v>643</v>
+      </c>
+      <c r="D883" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E883" s="4">
+        <v>16</v>
+      </c>
+      <c r="F883" s="4">
+        <v>10</v>
+      </c>
+      <c r="G883" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A884" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C884" s="5">
+        <v>2446</v>
+      </c>
+      <c r="D884" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E884" s="4">
+        <v>16</v>
+      </c>
+      <c r="F884" s="4">
+        <v>10</v>
+      </c>
+      <c r="G884" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A885" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B885" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C885" s="5">
+        <v>2394</v>
+      </c>
+      <c r="D885" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E885" s="4">
+        <v>15</v>
+      </c>
+      <c r="F885" s="4">
+        <v>10</v>
+      </c>
+      <c r="G885" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A886" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B886" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C886" s="5">
+        <v>7065</v>
+      </c>
+      <c r="D886" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E886" s="4">
+        <v>15</v>
+      </c>
+      <c r="F886" s="4">
+        <v>10</v>
+      </c>
+      <c r="G886" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A887" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C887" s="5">
+        <v>9226</v>
+      </c>
+      <c r="D887" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E887" s="4">
+        <v>15</v>
+      </c>
+      <c r="F887" s="4">
+        <v>10</v>
+      </c>
+      <c r="G887" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A888" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C888" s="5">
+        <v>302</v>
+      </c>
+      <c r="D888" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E888" s="4">
+        <v>14</v>
+      </c>
+      <c r="F888" s="4">
+        <v>10</v>
+      </c>
+      <c r="G888" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A889" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C889" s="5">
+        <v>373</v>
+      </c>
+      <c r="D889" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E889" s="4">
+        <v>14</v>
+      </c>
+      <c r="F889" s="4">
+        <v>10</v>
+      </c>
+      <c r="G889" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A890" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C890" s="5">
+        <v>2520</v>
+      </c>
+      <c r="D890" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E890" s="4">
+        <v>14</v>
+      </c>
+      <c r="F890" s="4">
+        <v>10</v>
+      </c>
+      <c r="G890" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A891" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B891" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C891" s="5">
+        <v>2720</v>
+      </c>
+      <c r="D891" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E891" s="4">
+        <v>14</v>
+      </c>
+      <c r="F891" s="4">
+        <v>10</v>
+      </c>
+      <c r="G891" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A892" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C892" s="5">
+        <v>3775</v>
+      </c>
+      <c r="D892" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E892" s="4">
+        <v>14</v>
+      </c>
+      <c r="F892" s="4">
+        <v>10</v>
+      </c>
+      <c r="G892" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A893" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C893" s="5">
+        <v>9114</v>
+      </c>
+      <c r="D893" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E893" s="4">
+        <v>14</v>
+      </c>
+      <c r="F893" s="4">
+        <v>10</v>
+      </c>
+      <c r="G893" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A894" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C894" s="5">
+        <v>9234</v>
+      </c>
+      <c r="D894" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E894" s="4">
+        <v>14</v>
+      </c>
+      <c r="F894" s="4">
+        <v>10</v>
+      </c>
+      <c r="G894" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A895" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B895" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C895" s="5">
+        <v>2746</v>
+      </c>
+      <c r="D895" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E895" s="4">
+        <v>13</v>
+      </c>
+      <c r="F895" s="4">
+        <v>10</v>
+      </c>
+      <c r="G895" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A896" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C896" s="5">
+        <v>541</v>
+      </c>
+      <c r="D896" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E896" s="4">
+        <v>12</v>
+      </c>
+      <c r="F896" s="4">
+        <v>10</v>
+      </c>
+      <c r="G896" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A897" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B897" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C897" s="5">
+        <v>1854</v>
+      </c>
+      <c r="D897" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E897" s="4">
+        <v>12</v>
+      </c>
+      <c r="F897" s="4">
+        <v>10</v>
+      </c>
+      <c r="G897" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A898" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C898" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D898" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E898" s="4">
+        <v>12</v>
+      </c>
+      <c r="F898" s="4">
+        <v>10</v>
+      </c>
+      <c r="G898" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A899" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B899" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C899" s="5">
+        <v>2220</v>
+      </c>
+      <c r="D899" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E899" s="4">
+        <v>12</v>
+      </c>
+      <c r="F899" s="4">
+        <v>10</v>
+      </c>
+      <c r="G899" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A900" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C900" s="5">
+        <v>2479</v>
+      </c>
+      <c r="D900" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E900" s="4">
+        <v>12</v>
+      </c>
+      <c r="F900" s="4">
+        <v>10</v>
+      </c>
+      <c r="G900" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A901" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C901" s="5">
+        <v>2913</v>
+      </c>
+      <c r="D901" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E901" s="4">
+        <v>12</v>
+      </c>
+      <c r="F901" s="4">
+        <v>10</v>
+      </c>
+      <c r="G901" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A902" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C902" s="5">
+        <v>9174</v>
+      </c>
+      <c r="D902" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E902" s="4">
+        <v>12</v>
+      </c>
+      <c r="F902" s="4">
+        <v>10</v>
+      </c>
+      <c r="G902" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A903" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C903" s="5">
+        <v>9211</v>
+      </c>
+      <c r="D903" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E903" s="4">
+        <v>12</v>
+      </c>
+      <c r="F903" s="4">
+        <v>10</v>
+      </c>
+      <c r="G903" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A904" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C904" s="5">
+        <v>9216</v>
+      </c>
+      <c r="D904" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E904" s="4">
+        <v>12</v>
+      </c>
+      <c r="F904" s="4">
+        <v>10</v>
+      </c>
+      <c r="G904" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A905" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C905" s="5">
+        <v>411</v>
+      </c>
+      <c r="D905" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E905" s="4">
+        <v>11</v>
+      </c>
+      <c r="F905" s="4">
+        <v>10</v>
+      </c>
+      <c r="G905" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A906" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C906" s="5">
+        <v>596</v>
+      </c>
+      <c r="D906" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E906" s="4">
+        <v>11</v>
+      </c>
+      <c r="F906" s="4">
+        <v>10</v>
+      </c>
+      <c r="G906" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A907" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C907" s="5">
+        <v>1440</v>
+      </c>
+      <c r="D907" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E907" s="4">
+        <v>11</v>
+      </c>
+      <c r="F907" s="4">
+        <v>10</v>
+      </c>
+      <c r="G907" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A908" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C908" s="5">
+        <v>2168</v>
+      </c>
+      <c r="D908" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E908" s="4">
+        <v>11</v>
+      </c>
+      <c r="F908" s="4">
+        <v>10</v>
+      </c>
+      <c r="G908" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A909" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C909" s="5">
+        <v>9715</v>
+      </c>
+      <c r="D909" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E909" s="4">
+        <v>11</v>
+      </c>
+      <c r="F909" s="4">
+        <v>10</v>
+      </c>
+      <c r="G909" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A910" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C910" s="5">
+        <v>9883</v>
+      </c>
+      <c r="D910" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E910" s="4">
+        <v>11</v>
+      </c>
+      <c r="F910" s="4">
+        <v>10</v>
+      </c>
+      <c r="G910" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A911" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C911" s="5">
+        <v>9922</v>
+      </c>
+      <c r="D911" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E911" s="4">
+        <v>11</v>
+      </c>
+      <c r="F911" s="4">
+        <v>10</v>
+      </c>
+      <c r="G911" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A912" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C912" s="5">
+        <v>557</v>
+      </c>
+      <c r="D912" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E912" s="4">
+        <v>10</v>
+      </c>
+      <c r="F912" s="4">
+        <v>10</v>
+      </c>
+      <c r="G912" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A913" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C913" s="5">
+        <v>571</v>
+      </c>
+      <c r="D913" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E913" s="4">
+        <v>10</v>
+      </c>
+      <c r="F913" s="4">
+        <v>10</v>
+      </c>
+      <c r="G913" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A914" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C914" s="5">
+        <v>1915</v>
+      </c>
+      <c r="D914" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E914" s="4">
+        <v>10</v>
+      </c>
+      <c r="F914" s="4">
+        <v>10</v>
+      </c>
+      <c r="G914" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A915" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C915" s="5">
+        <v>2189</v>
+      </c>
+      <c r="D915" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E915" s="4">
+        <v>10</v>
+      </c>
+      <c r="F915" s="4">
+        <v>10</v>
+      </c>
+      <c r="G915" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A916" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C916" s="5">
+        <v>2246</v>
+      </c>
+      <c r="D916" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E916" s="4">
+        <v>10</v>
+      </c>
+      <c r="F916" s="4">
+        <v>10</v>
+      </c>
+      <c r="G916" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A917" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C917" s="5">
+        <v>3556</v>
+      </c>
+      <c r="D917" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E917" s="4">
+        <v>10</v>
+      </c>
+      <c r="F917" s="4">
+        <v>10</v>
+      </c>
+      <c r="G917" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A918" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C918" s="5">
+        <v>3598</v>
+      </c>
+      <c r="D918" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E918" s="4">
+        <v>10</v>
+      </c>
+      <c r="F918" s="4">
+        <v>10</v>
+      </c>
+      <c r="G918" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A919" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C919" s="5">
+        <v>3780</v>
+      </c>
+      <c r="D919" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E919" s="4">
+        <v>10</v>
+      </c>
+      <c r="F919" s="4">
+        <v>10</v>
+      </c>
+      <c r="G919" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A920" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C920" s="5">
+        <v>9381</v>
+      </c>
+      <c r="D920" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E920" s="4">
+        <v>10</v>
+      </c>
+      <c r="F920" s="4">
+        <v>10</v>
+      </c>
+      <c r="G920" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A921" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C921" s="5">
+        <v>9472</v>
+      </c>
+      <c r="D921" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E921" s="4">
+        <v>10</v>
+      </c>
+      <c r="F921" s="4">
+        <v>10</v>
+      </c>
+      <c r="G921" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A922" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C922" s="5">
+        <v>9811</v>
+      </c>
+      <c r="D922" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E922" s="4">
+        <v>10</v>
+      </c>
+      <c r="F922" s="4">
+        <v>10</v>
+      </c>
+      <c r="G922" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A923" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C923" s="5">
+        <v>561</v>
+      </c>
+      <c r="D923" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E923" s="4">
+        <v>9</v>
+      </c>
+      <c r="F923" s="4">
+        <v>10</v>
+      </c>
+      <c r="G923" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A924" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C924" s="5">
+        <v>633</v>
+      </c>
+      <c r="D924" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E924" s="4">
+        <v>9</v>
+      </c>
+      <c r="F924" s="4">
+        <v>10</v>
+      </c>
+      <c r="G924" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A925" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C925" s="5">
+        <v>674</v>
+      </c>
+      <c r="D925" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E925" s="4">
+        <v>9</v>
+      </c>
+      <c r="F925" s="4">
+        <v>10</v>
+      </c>
+      <c r="G925" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A926" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C926" s="5">
+        <v>1406</v>
+      </c>
+      <c r="D926" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E926" s="4">
+        <v>9</v>
+      </c>
+      <c r="F926" s="4">
+        <v>10</v>
+      </c>
+      <c r="G926" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A927" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B927" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C927" s="5">
+        <v>1868</v>
+      </c>
+      <c r="D927" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E927" s="4">
+        <v>9</v>
+      </c>
+      <c r="F927" s="4">
+        <v>10</v>
+      </c>
+      <c r="G927" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A928" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B928" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C928" s="5">
+        <v>2005</v>
+      </c>
+      <c r="D928" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E928" s="4">
+        <v>9</v>
+      </c>
+      <c r="F928" s="4">
+        <v>10</v>
+      </c>
+      <c r="G928" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A929" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B929" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C929" s="5">
+        <v>2039</v>
+      </c>
+      <c r="D929" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E929" s="4">
+        <v>9</v>
+      </c>
+      <c r="F929" s="4">
+        <v>10</v>
+      </c>
+      <c r="G929" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A930" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B930" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C930" s="5">
+        <v>2441</v>
+      </c>
+      <c r="D930" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E930" s="4">
+        <v>9</v>
+      </c>
+      <c r="F930" s="4">
+        <v>10</v>
+      </c>
+      <c r="G930" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A931" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B931" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C931" s="5">
+        <v>9220</v>
+      </c>
+      <c r="D931" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E931" s="4">
+        <v>9</v>
+      </c>
+      <c r="F931" s="4">
+        <v>10</v>
+      </c>
+      <c r="G931" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A932" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B932" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C932" s="5">
+        <v>9292</v>
+      </c>
+      <c r="D932" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E932" s="4">
+        <v>9</v>
+      </c>
+      <c r="F932" s="4">
+        <v>10</v>
+      </c>
+      <c r="G932" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A933" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B933" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C933" s="5">
+        <v>9636</v>
+      </c>
+      <c r="D933" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E933" s="4">
+        <v>9</v>
+      </c>
+      <c r="F933" s="4">
+        <v>10</v>
+      </c>
+      <c r="G933" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A934" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B934" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C934" s="5">
+        <v>9682</v>
+      </c>
+      <c r="D934" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E934" s="4">
+        <v>9</v>
+      </c>
+      <c r="F934" s="4">
+        <v>10</v>
+      </c>
+      <c r="G934" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A935" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C935" s="5">
+        <v>3848</v>
+      </c>
+      <c r="D935" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E935" s="4">
+        <v>9</v>
+      </c>
+      <c r="F935" s="4">
+        <v>10</v>
+      </c>
+      <c r="G935" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A936" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B936" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C936" s="5">
+        <v>412</v>
+      </c>
+      <c r="D936" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E936" s="4">
+        <v>8</v>
+      </c>
+      <c r="F936" s="4">
+        <v>10</v>
+      </c>
+      <c r="G936" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A937" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B937" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C937" s="5">
+        <v>460</v>
+      </c>
+      <c r="D937" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E937" s="4">
+        <v>8</v>
+      </c>
+      <c r="F937" s="4">
+        <v>10</v>
+      </c>
+      <c r="G937" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A938" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B938" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C938" s="5">
+        <v>467</v>
+      </c>
+      <c r="D938" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E938" s="4">
+        <v>8</v>
+      </c>
+      <c r="F938" s="4">
+        <v>10</v>
+      </c>
+      <c r="G938" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A939" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B939" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C939" s="5">
+        <v>507</v>
+      </c>
+      <c r="D939" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E939" s="4">
+        <v>8</v>
+      </c>
+      <c r="F939" s="4">
+        <v>10</v>
+      </c>
+      <c r="G939" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A940" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C940" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D940" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E940" s="4">
+        <v>8</v>
+      </c>
+      <c r="F940" s="4">
+        <v>10</v>
+      </c>
+      <c r="G940" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A941" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C941" s="5">
+        <v>2278</v>
+      </c>
+      <c r="D941" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E941" s="4">
+        <v>8</v>
+      </c>
+      <c r="F941" s="4">
+        <v>10</v>
+      </c>
+      <c r="G941" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A942" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C942" s="5">
+        <v>3532</v>
+      </c>
+      <c r="D942" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E942" s="4">
+        <v>8</v>
+      </c>
+      <c r="F942" s="4">
+        <v>10</v>
+      </c>
+      <c r="G942" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A943" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B943" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C943" s="5">
+        <v>3690</v>
+      </c>
+      <c r="D943" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E943" s="4">
+        <v>8</v>
+      </c>
+      <c r="F943" s="4">
+        <v>10</v>
+      </c>
+      <c r="G943" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A944" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C944" s="5">
+        <v>3754</v>
+      </c>
+      <c r="D944" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E944" s="4">
+        <v>8</v>
+      </c>
+      <c r="F944" s="4">
+        <v>10</v>
+      </c>
+      <c r="G944" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A945" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C945" s="5">
+        <v>3778</v>
+      </c>
+      <c r="D945" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E945" s="4">
+        <v>8</v>
+      </c>
+      <c r="F945" s="4">
+        <v>10</v>
+      </c>
+      <c r="G945" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A946" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B946" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C946" s="5">
+        <v>5032</v>
+      </c>
+      <c r="D946" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E946" s="4">
+        <v>8</v>
+      </c>
+      <c r="F946" s="4">
+        <v>10</v>
+      </c>
+      <c r="G946" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A947" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B947" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C947" s="5">
+        <v>9641</v>
+      </c>
+      <c r="D947" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E947" s="4">
+        <v>8</v>
+      </c>
+      <c r="F947" s="4">
+        <v>10</v>
+      </c>
+      <c r="G947" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A948" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B948" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C948" s="5">
+        <v>9642</v>
+      </c>
+      <c r="D948" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E948" s="4">
+        <v>8</v>
+      </c>
+      <c r="F948" s="4">
+        <v>10</v>
+      </c>
+      <c r="G948" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A949" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C949" s="5">
+        <v>380</v>
+      </c>
+      <c r="D949" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E949" s="4">
+        <v>7</v>
+      </c>
+      <c r="F949" s="4">
+        <v>10</v>
+      </c>
+      <c r="G949" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A950" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B950" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C950" s="5">
+        <v>423</v>
+      </c>
+      <c r="D950" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E950" s="4">
+        <v>7</v>
+      </c>
+      <c r="F950" s="4">
+        <v>10</v>
+      </c>
+      <c r="G950" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A951" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B951" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C951" s="5">
+        <v>539</v>
+      </c>
+      <c r="D951" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E951" s="4">
+        <v>7</v>
+      </c>
+      <c r="F951" s="4">
+        <v>10</v>
+      </c>
+      <c r="G951" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A952" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C952" s="5">
+        <v>722</v>
+      </c>
+      <c r="D952" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E952" s="4">
+        <v>7</v>
+      </c>
+      <c r="F952" s="4">
+        <v>10</v>
+      </c>
+      <c r="G952" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A953" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C953" s="5">
+        <v>1549</v>
+      </c>
+      <c r="D953" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E953" s="4">
+        <v>7</v>
+      </c>
+      <c r="F953" s="4">
+        <v>10</v>
+      </c>
+      <c r="G953" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A954" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C954" s="5">
+        <v>1779</v>
+      </c>
+      <c r="D954" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E954" s="4">
+        <v>7</v>
+      </c>
+      <c r="F954" s="4">
+        <v>10</v>
+      </c>
+      <c r="G954" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A955" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C955" s="5">
+        <v>2122</v>
+      </c>
+      <c r="D955" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E955" s="4">
+        <v>7</v>
+      </c>
+      <c r="F955" s="4">
+        <v>10</v>
+      </c>
+      <c r="G955" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A956" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C956" s="5">
+        <v>2135</v>
+      </c>
+      <c r="D956" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E956" s="4">
+        <v>7</v>
+      </c>
+      <c r="F956" s="4">
+        <v>10</v>
+      </c>
+      <c r="G956" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A957" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C957" s="5">
+        <v>2395</v>
+      </c>
+      <c r="D957" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E957" s="4">
+        <v>7</v>
+      </c>
+      <c r="F957" s="4">
+        <v>10</v>
+      </c>
+      <c r="G957" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A958" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C958" s="5">
+        <v>3398</v>
+      </c>
+      <c r="D958" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E958" s="4">
+        <v>7</v>
+      </c>
+      <c r="F958" s="4">
+        <v>10</v>
+      </c>
+      <c r="G958" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A959" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C959" s="5">
+        <v>3399</v>
+      </c>
+      <c r="D959" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E959" s="4">
+        <v>7</v>
+      </c>
+      <c r="F959" s="4">
+        <v>10</v>
+      </c>
+      <c r="G959" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A960" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C960" s="5">
+        <v>5130</v>
+      </c>
+      <c r="D960" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E960" s="4">
+        <v>7</v>
+      </c>
+      <c r="F960" s="4">
+        <v>10</v>
+      </c>
+      <c r="G960" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A961" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C961" s="5">
+        <v>5142</v>
+      </c>
+      <c r="D961" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E961" s="4">
+        <v>7</v>
+      </c>
+      <c r="F961" s="4">
+        <v>10</v>
+      </c>
+      <c r="G961" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A962" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C962" s="5">
+        <v>9177</v>
+      </c>
+      <c r="D962" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E962" s="4">
+        <v>7</v>
+      </c>
+      <c r="F962" s="4">
+        <v>10</v>
+      </c>
+      <c r="G962" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A963" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C963" s="5">
+        <v>9190</v>
+      </c>
+      <c r="D963" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E963" s="4">
+        <v>7</v>
+      </c>
+      <c r="F963" s="4">
+        <v>10</v>
+      </c>
+      <c r="G963" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A964" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C964" s="5">
+        <v>9241</v>
+      </c>
+      <c r="D964" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E964" s="4">
+        <v>7</v>
+      </c>
+      <c r="F964" s="4">
+        <v>10</v>
+      </c>
+      <c r="G964" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A965" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C965" s="5">
+        <v>9868</v>
+      </c>
+      <c r="D965" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E965" s="4">
+        <v>7</v>
+      </c>
+      <c r="F965" s="4">
+        <v>10</v>
+      </c>
+      <c r="G965" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A966" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C966" s="5">
+        <v>9896</v>
+      </c>
+      <c r="D966" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E966" s="4">
+        <v>7</v>
+      </c>
+      <c r="F966" s="4">
+        <v>10</v>
+      </c>
+      <c r="G966" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A967" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C967" s="5">
+        <v>515</v>
+      </c>
+      <c r="D967" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E967" s="4">
+        <v>6</v>
+      </c>
+      <c r="F967" s="4">
+        <v>10</v>
+      </c>
+      <c r="G967" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A968" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C968" s="5">
+        <v>553</v>
+      </c>
+      <c r="D968" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E968" s="4">
+        <v>6</v>
+      </c>
+      <c r="F968" s="4">
+        <v>10</v>
+      </c>
+      <c r="G968" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A969" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C969" s="5">
+        <v>659</v>
+      </c>
+      <c r="D969" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E969" s="4">
+        <v>6</v>
+      </c>
+      <c r="F969" s="4">
+        <v>10</v>
+      </c>
+      <c r="G969" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A970" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C970" s="5">
+        <v>2186</v>
+      </c>
+      <c r="D970" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E970" s="4">
+        <v>6</v>
+      </c>
+      <c r="F970" s="4">
+        <v>10</v>
+      </c>
+      <c r="G970" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A971" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C971" s="5">
+        <v>2308</v>
+      </c>
+      <c r="D971" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E971" s="4">
+        <v>6</v>
+      </c>
+      <c r="F971" s="4">
+        <v>10</v>
+      </c>
+      <c r="G971" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A972" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C972" s="5">
+        <v>2321</v>
+      </c>
+      <c r="D972" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E972" s="4">
+        <v>6</v>
+      </c>
+      <c r="F972" s="4">
+        <v>10</v>
+      </c>
+      <c r="G972" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A973" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C973" s="5">
+        <v>2390</v>
+      </c>
+      <c r="D973" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E973" s="4">
+        <v>6</v>
+      </c>
+      <c r="F973" s="4">
+        <v>10</v>
+      </c>
+      <c r="G973" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A974" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C974" s="5">
+        <v>2546</v>
+      </c>
+      <c r="D974" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E974" s="4">
+        <v>6</v>
+      </c>
+      <c r="F974" s="4">
+        <v>10</v>
+      </c>
+      <c r="G974" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A975" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C975" s="5">
+        <v>2547</v>
+      </c>
+      <c r="D975" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E975" s="4">
+        <v>6</v>
+      </c>
+      <c r="F975" s="4">
+        <v>10</v>
+      </c>
+      <c r="G975" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A976" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C976" s="5">
+        <v>2808</v>
+      </c>
+      <c r="D976" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E976" s="4">
+        <v>6</v>
+      </c>
+      <c r="F976" s="4">
+        <v>10</v>
+      </c>
+      <c r="G976" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A977" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C977" s="5">
+        <v>3719</v>
+      </c>
+      <c r="D977" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E977" s="4">
+        <v>6</v>
+      </c>
+      <c r="F977" s="4">
+        <v>10</v>
+      </c>
+      <c r="G977" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A978" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C978" s="5">
+        <v>3756</v>
+      </c>
+      <c r="D978" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E978" s="4">
+        <v>6</v>
+      </c>
+      <c r="F978" s="4">
+        <v>10</v>
+      </c>
+      <c r="G978" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A979" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C979" s="5">
+        <v>5023</v>
+      </c>
+      <c r="D979" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E979" s="4">
+        <v>6</v>
+      </c>
+      <c r="F979" s="4">
+        <v>10</v>
+      </c>
+      <c r="G979" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A980" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C980" s="5">
+        <v>7027</v>
+      </c>
+      <c r="D980" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E980" s="4">
+        <v>6</v>
+      </c>
+      <c r="F980" s="4">
+        <v>10</v>
+      </c>
+      <c r="G980" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A981" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C981" s="5">
+        <v>9112</v>
+      </c>
+      <c r="D981" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E981" s="4">
+        <v>6</v>
+      </c>
+      <c r="F981" s="4">
+        <v>10</v>
+      </c>
+      <c r="G981" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A982" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C982" s="5">
+        <v>9561</v>
+      </c>
+      <c r="D982" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E982" s="4">
+        <v>6</v>
+      </c>
+      <c r="F982" s="4">
+        <v>10</v>
+      </c>
+      <c r="G982" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A983" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C983" s="5">
+        <v>9839</v>
+      </c>
+      <c r="D983" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E983" s="4">
+        <v>6</v>
+      </c>
+      <c r="F983" s="4">
+        <v>10</v>
+      </c>
+      <c r="G983" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A984" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C984" s="5">
+        <v>420</v>
+      </c>
+      <c r="D984" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E984" s="4">
+        <v>6</v>
+      </c>
+      <c r="F984" s="4">
+        <v>10</v>
+      </c>
+      <c r="G984" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A985" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C985" s="5">
+        <v>660</v>
+      </c>
+      <c r="D985" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E985" s="4">
+        <v>5</v>
+      </c>
+      <c r="F985" s="4">
+        <v>10</v>
+      </c>
+      <c r="G985" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A986" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C986" s="5">
+        <v>688</v>
+      </c>
+      <c r="D986" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E986" s="4">
+        <v>5</v>
+      </c>
+      <c r="F986" s="4">
+        <v>10</v>
+      </c>
+      <c r="G986" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A987" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C987" s="5">
+        <v>1790</v>
+      </c>
+      <c r="D987" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E987" s="4">
+        <v>5</v>
+      </c>
+      <c r="F987" s="4">
+        <v>10</v>
+      </c>
+      <c r="G987" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A988" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C988" s="5">
+        <v>1833</v>
+      </c>
+      <c r="D988" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E988" s="4">
+        <v>5</v>
+      </c>
+      <c r="F988" s="4">
+        <v>10</v>
+      </c>
+      <c r="G988" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A989" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C989" s="5">
+        <v>3349</v>
+      </c>
+      <c r="D989" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E989" s="4">
+        <v>5</v>
+      </c>
+      <c r="F989" s="4">
+        <v>10</v>
+      </c>
+      <c r="G989" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A990" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C990" s="5">
+        <v>3535</v>
+      </c>
+      <c r="D990" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E990" s="4">
+        <v>5</v>
+      </c>
+      <c r="F990" s="4">
+        <v>10</v>
+      </c>
+      <c r="G990" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A991" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C991" s="5">
+        <v>9224</v>
+      </c>
+      <c r="D991" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E991" s="4">
+        <v>5</v>
+      </c>
+      <c r="F991" s="4">
+        <v>10</v>
+      </c>
+      <c r="G991" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A992" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C992" s="5">
+        <v>9237</v>
+      </c>
+      <c r="D992" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E992" s="4">
+        <v>5</v>
+      </c>
+      <c r="F992" s="4">
+        <v>10</v>
+      </c>
+      <c r="G992" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A993" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C993" s="5">
+        <v>9364</v>
+      </c>
+      <c r="D993" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E993" s="4">
+        <v>5</v>
+      </c>
+      <c r="F993" s="4">
+        <v>10</v>
+      </c>
+      <c r="G993" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A994" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C994" s="5">
+        <v>9470</v>
+      </c>
+      <c r="D994" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E994" s="4">
+        <v>5</v>
+      </c>
+      <c r="F994" s="4">
+        <v>10</v>
+      </c>
+      <c r="G994" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A995" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C995" s="5">
+        <v>9550</v>
+      </c>
+      <c r="D995" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E995" s="4">
+        <v>5</v>
+      </c>
+      <c r="F995" s="4">
+        <v>10</v>
+      </c>
+      <c r="G995" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A996" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C996" s="5">
+        <v>9605</v>
+      </c>
+      <c r="D996" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E996" s="4">
+        <v>5</v>
+      </c>
+      <c r="F996" s="4">
+        <v>10</v>
+      </c>
+      <c r="G996" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A997" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C997" s="5">
+        <v>365</v>
+      </c>
+      <c r="D997" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E997" s="4">
+        <v>4</v>
+      </c>
+      <c r="F997" s="4">
+        <v>10</v>
+      </c>
+      <c r="G997" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A998" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C998" s="5">
+        <v>529</v>
+      </c>
+      <c r="D998" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E998" s="4">
+        <v>4</v>
+      </c>
+      <c r="F998" s="4">
+        <v>10</v>
+      </c>
+      <c r="G998" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A999" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C999" s="5">
+        <v>627</v>
+      </c>
+      <c r="D999" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E999" s="4">
+        <v>4</v>
+      </c>
+      <c r="F999" s="4">
+        <v>10</v>
+      </c>
+      <c r="G999" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1000" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1000" s="5">
+        <v>692</v>
+      </c>
+      <c r="D1000" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1000" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1000" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1000" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1001" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1001" s="5">
+        <v>2047</v>
+      </c>
+      <c r="D1001" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1001" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1001" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1001" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1002" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1002" s="5">
+        <v>2104</v>
+      </c>
+      <c r="D1002" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1002" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1002" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1002" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1003" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1003" s="5">
+        <v>2349</v>
+      </c>
+      <c r="D1003" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1003" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1003" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1003" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1004" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1004" s="5">
+        <v>2928</v>
+      </c>
+      <c r="D1004" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1004" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1004" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1004" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1005" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1005" s="5">
+        <v>3575</v>
+      </c>
+      <c r="D1005" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1005" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1005" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1005" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1006" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1006" s="5">
+        <v>9071</v>
+      </c>
+      <c r="D1006" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1006" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1006" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1006" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1007" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1007" s="5">
+        <v>9204</v>
+      </c>
+      <c r="D1007" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1007" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1007" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1007" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1008" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1008" s="5">
+        <v>9471</v>
+      </c>
+      <c r="D1008" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1008" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1008" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1008" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1009" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1009" s="5">
+        <v>9670</v>
+      </c>
+      <c r="D1009" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1009" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1009" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1009" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1010" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1010" s="5">
+        <v>9740</v>
+      </c>
+      <c r="D1010" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1010" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1010" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1010" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1011" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1011" s="5">
+        <v>9880</v>
+      </c>
+      <c r="D1011" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1011" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1011" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1011" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1012" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1012" s="5">
+        <v>9964</v>
+      </c>
+      <c r="D1012" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1012" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1012" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1012" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1013" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1013" s="5">
+        <v>315</v>
+      </c>
+      <c r="D1013" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1013" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1013" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1013" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1014" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1014" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1014" s="5">
+        <v>559</v>
+      </c>
+      <c r="D1014" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1014" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1014" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1014" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1015" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1015" s="5">
+        <v>1713</v>
+      </c>
+      <c r="D1015" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1015" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1015" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1015" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1016" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1016" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1016" s="5">
+        <v>1981</v>
+      </c>
+      <c r="D1016" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1016" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1016" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1016" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1017" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1017" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1017" s="5">
+        <v>2227</v>
+      </c>
+      <c r="D1017" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1017" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1017" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1017" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1018" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1018" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1018" s="5">
+        <v>2367</v>
+      </c>
+      <c r="D1018" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1018" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1018" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1018" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1019" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1019" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1019" s="5">
+        <v>2784</v>
+      </c>
+      <c r="D1019" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1019" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1019" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1019" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1020" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1020" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1020" s="5">
+        <v>2790</v>
+      </c>
+      <c r="D1020" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1020" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1020" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1020" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1021" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1021" s="5">
+        <v>2836</v>
+      </c>
+      <c r="D1021" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1021" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1021" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1021" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1022" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1022" s="5">
+        <v>3049</v>
+      </c>
+      <c r="D1022" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1022" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1022" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1022" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1023" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1023" s="5">
+        <v>3513</v>
+      </c>
+      <c r="D1023" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1023" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1023" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1023" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1024" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1024" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1024" s="5">
+        <v>3641</v>
+      </c>
+      <c r="D1024" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1024" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1024" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1024" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1025" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1025" s="5">
+        <v>3659</v>
+      </c>
+      <c r="D1025" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1025" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1025" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1025" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1026" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1026" s="5">
+        <v>3750</v>
+      </c>
+      <c r="D1026" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1026" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1026" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1026" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1027" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1027" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1027" s="5">
+        <v>3752</v>
+      </c>
+      <c r="D1027" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1027" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1027" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1027" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1028" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1028" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1028" s="5">
+        <v>3799</v>
+      </c>
+      <c r="D1028" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1028" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1028" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1028" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1029" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1029" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1029" s="5">
+        <v>3820</v>
+      </c>
+      <c r="D1029" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1029" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1029" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1029" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1030" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1030" s="5">
+        <v>3824</v>
+      </c>
+      <c r="D1030" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1030" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1030" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1030" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1031" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1031" s="5">
+        <v>7106</v>
+      </c>
+      <c r="D1031" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1031" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1031" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1031" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1032" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1032" s="5">
+        <v>9121</v>
+      </c>
+      <c r="D1032" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1032" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1032" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1032" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1033" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1033" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1033" s="5">
+        <v>9199</v>
+      </c>
+      <c r="D1033" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1033" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1033" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1033" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1034" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1034" s="5">
+        <v>9228</v>
+      </c>
+      <c r="D1034" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1034" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1034" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1034" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1035" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1035" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1035" s="5">
+        <v>9231</v>
+      </c>
+      <c r="D1035" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1035" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1035" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1035" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1036" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1036" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1036" s="5">
+        <v>9329</v>
+      </c>
+      <c r="D1036" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1036" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1036" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1036" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1037" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1037" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1037" s="5">
+        <v>9340</v>
+      </c>
+      <c r="D1037" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1037" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1037" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1037" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1038" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1038" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1038" s="5">
+        <v>9365</v>
+      </c>
+      <c r="D1038" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1038" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1038" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1038" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1039" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1039" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1039" s="5">
+        <v>9484</v>
+      </c>
+      <c r="D1039" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1039" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1039" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1039" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1040" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1040" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1040" s="5">
+        <v>9609</v>
+      </c>
+      <c r="D1040" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1040" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1040" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1040" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1041" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1041" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1041" s="5">
+        <v>9617</v>
+      </c>
+      <c r="D1041" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1041" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1041" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1041" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1042" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1042" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1042" s="5">
+        <v>9850</v>
+      </c>
+      <c r="D1042" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1042" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1042" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1042" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1043" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1043" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1043" s="5">
+        <v>3847</v>
+      </c>
+      <c r="D1043" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1043" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1043" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1043" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1044" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1044" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1044" s="5">
+        <v>2910</v>
+      </c>
+      <c r="D1044" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1044" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1044" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1044" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1045" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1045" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1045" s="5">
+        <v>331</v>
+      </c>
+      <c r="D1045" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1045" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1045" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1045" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1046" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1046" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1046" s="5">
+        <v>361</v>
+      </c>
+      <c r="D1046" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1046" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1046" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1046" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1047" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1047" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1047" s="5">
+        <v>517</v>
+      </c>
+      <c r="D1047" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1047" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1047" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1047" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1048" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1048" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1048" s="5">
+        <v>658</v>
+      </c>
+      <c r="D1048" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1048" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1048" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1049" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1049" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1049" s="5">
+        <v>680</v>
+      </c>
+      <c r="D1049" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1049" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1049" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1049" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1050" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1050" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1050" s="5">
+        <v>2102</v>
+      </c>
+      <c r="D1050" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1050" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1050" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1050" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1051" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1051" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1051" s="5">
+        <v>2190</v>
+      </c>
+      <c r="D1051" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1051" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1051" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1051" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1052" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1052" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1052" s="5">
+        <v>2235</v>
+      </c>
+      <c r="D1052" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1052" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1052" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1052" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1053" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1053" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1053" s="5">
+        <v>2463</v>
+      </c>
+      <c r="D1053" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1053" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1053" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1053" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1054" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1054" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1054" s="5">
+        <v>2467</v>
+      </c>
+      <c r="D1054" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1054" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1054" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1054" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1055" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1055" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1055" s="5">
+        <v>2501</v>
+      </c>
+      <c r="D1055" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1055" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1055" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1056" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1056" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1056" s="5">
+        <v>2766</v>
+      </c>
+      <c r="D1056" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1056" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1056" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1056" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1057" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1057" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1057" s="5">
+        <v>2905</v>
+      </c>
+      <c r="D1057" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1057" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1057" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1057" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1058" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1058" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1058" s="5">
+        <v>3539</v>
+      </c>
+      <c r="D1058" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1058" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1058" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1058" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1059" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1059" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1059" s="5">
+        <v>3559</v>
+      </c>
+      <c r="D1059" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1059" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1059" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1059" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1060" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1060" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1060" s="5">
+        <v>3629</v>
+      </c>
+      <c r="D1060" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1060" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1060" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1060" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1061" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1061" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1061" s="5">
+        <v>9072</v>
+      </c>
+      <c r="D1061" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1061" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1061" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1061" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1062" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1062" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1062" s="5">
+        <v>9131</v>
+      </c>
+      <c r="D1062" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1062" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1062" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1062" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1063" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1063" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1063" s="5">
+        <v>9139</v>
+      </c>
+      <c r="D1063" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1063" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1063" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1063" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1064" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1064" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1064" s="5">
+        <v>9181</v>
+      </c>
+      <c r="D1064" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1064" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1064" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1064" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1065" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1065" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1065" s="5">
+        <v>9320</v>
+      </c>
+      <c r="D1065" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1065" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1065" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1065" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1066" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1066" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1066" s="5">
+        <v>9726</v>
+      </c>
+      <c r="D1066" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1066" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1066" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1066" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1067" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1067" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1067" s="5">
+        <v>9943</v>
+      </c>
+      <c r="D1067" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1067" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1067" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1067" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1068" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1068" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1068" s="5">
+        <v>9113</v>
+      </c>
+      <c r="D1068" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1068" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1068" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1068" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1069" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1069" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1069" s="5">
+        <v>1870</v>
+      </c>
+      <c r="D1069" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1069" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1069" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1069" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1070" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1070" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1070" s="5">
+        <v>208</v>
+      </c>
+      <c r="D1070" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1070" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1070" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1070" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1071" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1071" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1071" s="5">
+        <v>301</v>
+      </c>
+      <c r="D1071" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1071" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1071" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1071" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1072" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1072" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1072" s="5">
+        <v>479</v>
+      </c>
+      <c r="D1072" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1072" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1072" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1072" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1073" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1073" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1073" s="5">
+        <v>530</v>
+      </c>
+      <c r="D1073" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1073" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1073" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1073" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1074" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1074" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1074" s="5">
+        <v>662</v>
+      </c>
+      <c r="D1074" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1074" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1074" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1074" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1075" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1075" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1075" s="5">
+        <v>761</v>
+      </c>
+      <c r="D1075" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1075" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1075" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1075" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1076" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1076" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1076" s="5">
+        <v>987</v>
+      </c>
+      <c r="D1076" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1076" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1076" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1076" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1077" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1077" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1077" s="5">
+        <v>1423</v>
+      </c>
+      <c r="D1077" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1077" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1077" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1077" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1078" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1078" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1078" s="5">
+        <v>1580</v>
+      </c>
+      <c r="D1078" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1078" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1078" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1078" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1079" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1079" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1079" s="5">
+        <v>1604</v>
+      </c>
+      <c r="D1079" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1079" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1079" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1079" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1080" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1080" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1080" s="5">
+        <v>1714</v>
+      </c>
+      <c r="D1080" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1080" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1080" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1080" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1081" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1081" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1081" s="5">
+        <v>1799</v>
+      </c>
+      <c r="D1081" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1081" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1081" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1081" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1082" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1082" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1082" s="5">
+        <v>1826</v>
+      </c>
+      <c r="D1082" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1082" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1082" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1082" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1083" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1083" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1083" s="5">
+        <v>1850</v>
+      </c>
+      <c r="D1083" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1083" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1083" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1083" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1084" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1084" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1084" s="5">
+        <v>2031</v>
+      </c>
+      <c r="D1084" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1084" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1084" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1084" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1085" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1085" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1085" s="5">
+        <v>2060</v>
+      </c>
+      <c r="D1085" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1085" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1085" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1085" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1086" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1086" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1086" s="5">
+        <v>2099</v>
+      </c>
+      <c r="D1086" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1086" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1086" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1086" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1087" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1087" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1087" s="5">
+        <v>2163</v>
+      </c>
+      <c r="D1087" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1087" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1087" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1087" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1088" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1088" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1088" s="5">
+        <v>2218</v>
+      </c>
+      <c r="D1088" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1088" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1088" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1088" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1089" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1089" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1089" s="5">
+        <v>2341</v>
+      </c>
+      <c r="D1089" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1089" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1089" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1089" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1090" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1090" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1090" s="5">
+        <v>2410</v>
+      </c>
+      <c r="D1090" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1090" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1090" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1090" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1091" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1091" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1091" s="5">
+        <v>2516</v>
+      </c>
+      <c r="D1091" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1091" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1091" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1091" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1092" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1092" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1092" s="5">
+        <v>2631</v>
+      </c>
+      <c r="D1092" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1092" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1092" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1092" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1093" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1093" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1093" s="5">
+        <v>2654</v>
+      </c>
+      <c r="D1093" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1093" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1093" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1093" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1094" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1094" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1094" s="5">
+        <v>2753</v>
+      </c>
+      <c r="D1094" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1094" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1094" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1094" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1095" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1095" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1095" s="5">
+        <v>2755</v>
+      </c>
+      <c r="D1095" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1095" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1095" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1095" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1096" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1096" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1096" s="5">
+        <v>2814</v>
+      </c>
+      <c r="D1096" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1096" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1096" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1096" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1097" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1097" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1097" s="5">
+        <v>2871</v>
+      </c>
+      <c r="D1097" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1097" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1097" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1097" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1098" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1098" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1098" s="5">
+        <v>2911</v>
+      </c>
+      <c r="D1098" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1098" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1098" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1098" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1099" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1099" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1099" s="5">
+        <v>2916</v>
+      </c>
+      <c r="D1099" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1099" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1099" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1099" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1100" s="5">
+        <v>2925</v>
+      </c>
+      <c r="D1100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1100" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1100" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1101" s="5">
+        <v>3368</v>
+      </c>
+      <c r="D1101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1101" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1101" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1102" s="5">
+        <v>3381</v>
+      </c>
+      <c r="D1102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1102" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1102" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1103" s="5">
+        <v>3458</v>
+      </c>
+      <c r="D1103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1103" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1103" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1104" s="5">
+        <v>3534</v>
+      </c>
+      <c r="D1104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1104" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1104" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1105" s="5">
+        <v>3584</v>
+      </c>
+      <c r="D1105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1105" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1105" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1106" s="5">
+        <v>3655</v>
+      </c>
+      <c r="D1106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1106" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1106" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1106" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1107" s="5">
+        <v>3803</v>
+      </c>
+      <c r="D1107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1107" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1107" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1108" s="5">
+        <v>7602</v>
+      </c>
+      <c r="D1108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1108" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1108" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1108" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1109" s="5">
+        <v>9082</v>
+      </c>
+      <c r="D1109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1109" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1109" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1109" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1110" s="5">
+        <v>9119</v>
+      </c>
+      <c r="D1110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1110" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1110" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1111" s="5">
+        <v>9200</v>
+      </c>
+      <c r="D1111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1111" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1111" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1112" s="5">
+        <v>9701</v>
+      </c>
+      <c r="D1112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1112" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1112" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1112" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1113" s="5">
+        <v>9739</v>
+      </c>
+      <c r="D1113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1113" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1113" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1114" s="5">
+        <v>9794</v>
+      </c>
+      <c r="D1114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1114" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1114" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1115" s="5">
+        <v>2626</v>
+      </c>
+      <c r="D1115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1115" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1115" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1115" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1116" s="5">
+        <v>2727</v>
+      </c>
+      <c r="D1116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1116" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1116" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1117" s="5">
+        <v>523</v>
+      </c>
+      <c r="D1117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1117" s="4"/>
+      <c r="F1117" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1117" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1118" s="5">
+        <v>676</v>
+      </c>
+      <c r="D1118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1118" s="4"/>
+      <c r="F1118" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1118" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1119" s="5">
+        <v>797</v>
+      </c>
+      <c r="D1119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1119" s="4"/>
+      <c r="F1119" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1119" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1120" s="5">
+        <v>1087</v>
+      </c>
+      <c r="D1120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1120" s="4"/>
+      <c r="F1120" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1120" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1121" s="5">
+        <v>1433</v>
+      </c>
+      <c r="D1121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1121" s="4"/>
+      <c r="F1121" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1121" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1122" s="5">
+        <v>1459</v>
+      </c>
+      <c r="D1122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1122" s="4"/>
+      <c r="F1122" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1122" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1123" s="5">
+        <v>1540</v>
+      </c>
+      <c r="D1123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1123" s="4"/>
+      <c r="F1123" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1123" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1124" s="5">
+        <v>1785</v>
+      </c>
+      <c r="D1124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1124" s="4"/>
+      <c r="F1124" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1124" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1125" s="5">
+        <v>1820</v>
+      </c>
+      <c r="D1125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1125" s="4"/>
+      <c r="F1125" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1125" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1126" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1126" s="5">
+        <v>1827</v>
+      </c>
+      <c r="D1126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1126" s="4"/>
+      <c r="F1126" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1126" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1127" s="5">
+        <v>2006</v>
+      </c>
+      <c r="D1127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1127" s="4"/>
+      <c r="F1127" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1127" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1128" s="5">
+        <v>2082</v>
+      </c>
+      <c r="D1128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1128" s="4"/>
+      <c r="F1128" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1128" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1129" s="5">
+        <v>2285</v>
+      </c>
+      <c r="D1129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1129" s="4"/>
+      <c r="F1129" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1129" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1130" s="5">
+        <v>2322</v>
+      </c>
+      <c r="D1130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1130" s="4"/>
+      <c r="F1130" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1130" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1131" s="5">
+        <v>2331</v>
+      </c>
+      <c r="D1131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1131" s="4"/>
+      <c r="F1131" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1131" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1132" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1132" s="5">
+        <v>2364</v>
+      </c>
+      <c r="D1132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1132" s="4"/>
+      <c r="F1132" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1132" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1133" s="5">
+        <v>2406</v>
+      </c>
+      <c r="D1133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1133" s="4"/>
+      <c r="F1133" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1133" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1134" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1134" s="5">
+        <v>2512</v>
+      </c>
+      <c r="D1134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1134" s="4"/>
+      <c r="F1134" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1134" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1135" s="5">
+        <v>2581</v>
+      </c>
+      <c r="D1135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1135" s="4"/>
+      <c r="F1135" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1135" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1136" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1136" s="5">
+        <v>2586</v>
+      </c>
+      <c r="D1136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1136" s="4"/>
+      <c r="F1136" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1136" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1137" s="5">
+        <v>2649</v>
+      </c>
+      <c r="D1137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1137" s="4"/>
+      <c r="F1137" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1137" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1138" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1138" s="5">
+        <v>2672</v>
+      </c>
+      <c r="D1138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1138" s="4"/>
+      <c r="F1138" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1138" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1139" s="5">
+        <v>2763</v>
+      </c>
+      <c r="D1139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1139" s="4"/>
+      <c r="F1139" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1139" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1140" s="5">
+        <v>2795</v>
+      </c>
+      <c r="D1140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1140" s="4"/>
+      <c r="F1140" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1140" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1141" s="5">
+        <v>2884</v>
+      </c>
+      <c r="D1141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1141" s="4"/>
+      <c r="F1141" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1141" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1142" s="5">
+        <v>3158</v>
+      </c>
+      <c r="D1142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1142" s="4"/>
+      <c r="F1142" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1142" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1143" s="5">
+        <v>3531</v>
+      </c>
+      <c r="D1143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1143" s="4"/>
+      <c r="F1143" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1143" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1144" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1144" s="5">
+        <v>3572</v>
+      </c>
+      <c r="D1144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1144" s="4"/>
+      <c r="F1144" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1144" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1145" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1145" s="5">
+        <v>3619</v>
+      </c>
+      <c r="D1145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1145" s="4"/>
+      <c r="F1145" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1145" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1146" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1146" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1146" s="5">
+        <v>3630</v>
+      </c>
+      <c r="D1146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1146" s="4"/>
+      <c r="F1146" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1146" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1147" s="5">
+        <v>3699</v>
+      </c>
+      <c r="D1147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1147" s="4"/>
+      <c r="F1147" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1147" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1148" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1148" s="5">
+        <v>3700</v>
+      </c>
+      <c r="D1148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1148" s="4"/>
+      <c r="F1148" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1148" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1149" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1149" s="5">
+        <v>3751</v>
+      </c>
+      <c r="D1149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1149" s="4"/>
+      <c r="F1149" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1149" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1150" s="5">
+        <v>3802</v>
+      </c>
+      <c r="D1150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1150" s="4"/>
+      <c r="F1150" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1150" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1151" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1151" s="5">
+        <v>5002</v>
+      </c>
+      <c r="D1151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1151" s="4"/>
+      <c r="F1151" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1151" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1152" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1152" s="5">
+        <v>9022</v>
+      </c>
+      <c r="D1152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1152" s="4"/>
+      <c r="F1152" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1152" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1153" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1153" s="5">
+        <v>9218</v>
+      </c>
+      <c r="D1153" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1153" s="4"/>
+      <c r="F1153" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1153" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1154" s="5">
+        <v>9317</v>
+      </c>
+      <c r="D1154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1154" s="4"/>
+      <c r="F1154" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1154" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1155" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1155" s="5">
+        <v>9426</v>
+      </c>
+      <c r="D1155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1155" s="4"/>
+      <c r="F1155" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1155" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1156" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1156" s="5">
+        <v>9468</v>
+      </c>
+      <c r="D1156" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1156" s="4"/>
+      <c r="F1156" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1156" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1157" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1157" s="5">
+        <v>9614</v>
+      </c>
+      <c r="D1157" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1157" s="4"/>
+      <c r="F1157" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1157" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1158" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1158" s="5">
+        <v>9669</v>
+      </c>
+      <c r="D1158" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1158" s="4"/>
+      <c r="F1158" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1158" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1159" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1159" s="5">
+        <v>9791</v>
+      </c>
+      <c r="D1159" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1159" s="4"/>
+      <c r="F1159" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1159" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1160" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1160" s="5">
+        <v>9844</v>
+      </c>
+      <c r="D1160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1160" s="4"/>
+      <c r="F1160" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1160" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1161" s="5">
+        <v>9899</v>
+      </c>
+      <c r="D1161" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1161" s="4"/>
+      <c r="F1161" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1161" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1162" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1162" s="5">
+        <v>9973</v>
+      </c>
+      <c r="D1162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1162" s="4"/>
+      <c r="F1162" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1162" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1163" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1163" s="5">
+        <v>3846</v>
+      </c>
+      <c r="D1163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1163" s="4"/>
+      <c r="F1163" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1163" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1164" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1164" s="5">
+        <v>3823</v>
+      </c>
+      <c r="D1164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1164" s="4"/>
+      <c r="F1164" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1164" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1165" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1165" s="5">
+        <v>3696</v>
+      </c>
+      <c r="D1165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1165" s="4"/>
+      <c r="F1165" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1165" s="4">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FE8BB-7438-594D-ACA4-696BC4F1D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA4FD0-7773-AC42-A46B-914F73B643F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="19">
   <si>
     <t>Estado</t>
   </si>
@@ -1004,13 +1004,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G1165"/>
+  <dimension ref="A1:G1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
-      <selection activeCell="A880" sqref="A880"/>
+    <sheetView tabSelected="1" topLeftCell="A1318" workbookViewId="0">
+      <selection activeCell="G1343" sqref="G1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1019,10 +1022,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -27571,7 +27574,9 @@
       <c r="D1117" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1117" s="4"/>
+      <c r="E1117" s="4">
+        <v>0</v>
+      </c>
       <c r="F1117" s="4">
         <v>10</v>
       </c>
@@ -27592,7 +27597,9 @@
       <c r="D1118" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1118" s="4"/>
+      <c r="E1118" s="4">
+        <v>0</v>
+      </c>
       <c r="F1118" s="4">
         <v>10</v>
       </c>
@@ -27613,7 +27620,9 @@
       <c r="D1119" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1119" s="4"/>
+      <c r="E1119" s="4">
+        <v>0</v>
+      </c>
       <c r="F1119" s="4">
         <v>10</v>
       </c>
@@ -27634,7 +27643,9 @@
       <c r="D1120" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1120" s="4"/>
+      <c r="E1120" s="4">
+        <v>0</v>
+      </c>
       <c r="F1120" s="4">
         <v>10</v>
       </c>
@@ -27655,7 +27666,9 @@
       <c r="D1121" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1121" s="4"/>
+      <c r="E1121" s="4">
+        <v>0</v>
+      </c>
       <c r="F1121" s="4">
         <v>10</v>
       </c>
@@ -27676,7 +27689,9 @@
       <c r="D1122" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1122" s="4"/>
+      <c r="E1122" s="4">
+        <v>0</v>
+      </c>
       <c r="F1122" s="4">
         <v>10</v>
       </c>
@@ -27697,7 +27712,9 @@
       <c r="D1123" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1123" s="4"/>
+      <c r="E1123" s="4">
+        <v>0</v>
+      </c>
       <c r="F1123" s="4">
         <v>10</v>
       </c>
@@ -27718,7 +27735,9 @@
       <c r="D1124" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1124" s="4"/>
+      <c r="E1124" s="4">
+        <v>0</v>
+      </c>
       <c r="F1124" s="4">
         <v>10</v>
       </c>
@@ -27739,7 +27758,9 @@
       <c r="D1125" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1125" s="4"/>
+      <c r="E1125" s="4">
+        <v>0</v>
+      </c>
       <c r="F1125" s="4">
         <v>10</v>
       </c>
@@ -27760,7 +27781,9 @@
       <c r="D1126" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1126" s="4"/>
+      <c r="E1126" s="4">
+        <v>0</v>
+      </c>
       <c r="F1126" s="4">
         <v>10</v>
       </c>
@@ -27781,7 +27804,9 @@
       <c r="D1127" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1127" s="4"/>
+      <c r="E1127" s="4">
+        <v>0</v>
+      </c>
       <c r="F1127" s="4">
         <v>10</v>
       </c>
@@ -27802,7 +27827,9 @@
       <c r="D1128" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1128" s="4"/>
+      <c r="E1128" s="4">
+        <v>0</v>
+      </c>
       <c r="F1128" s="4">
         <v>10</v>
       </c>
@@ -27823,7 +27850,9 @@
       <c r="D1129" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1129" s="4"/>
+      <c r="E1129" s="4">
+        <v>0</v>
+      </c>
       <c r="F1129" s="4">
         <v>10</v>
       </c>
@@ -27844,7 +27873,9 @@
       <c r="D1130" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1130" s="4"/>
+      <c r="E1130" s="4">
+        <v>0</v>
+      </c>
       <c r="F1130" s="4">
         <v>10</v>
       </c>
@@ -27865,7 +27896,9 @@
       <c r="D1131" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1131" s="4"/>
+      <c r="E1131" s="4">
+        <v>0</v>
+      </c>
       <c r="F1131" s="4">
         <v>10</v>
       </c>
@@ -27886,7 +27919,9 @@
       <c r="D1132" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1132" s="4"/>
+      <c r="E1132" s="4">
+        <v>0</v>
+      </c>
       <c r="F1132" s="4">
         <v>10</v>
       </c>
@@ -27907,7 +27942,9 @@
       <c r="D1133" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1133" s="4"/>
+      <c r="E1133" s="4">
+        <v>0</v>
+      </c>
       <c r="F1133" s="4">
         <v>10</v>
       </c>
@@ -27928,7 +27965,9 @@
       <c r="D1134" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1134" s="4"/>
+      <c r="E1134" s="4">
+        <v>0</v>
+      </c>
       <c r="F1134" s="4">
         <v>10</v>
       </c>
@@ -27949,7 +27988,9 @@
       <c r="D1135" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1135" s="4"/>
+      <c r="E1135" s="4">
+        <v>0</v>
+      </c>
       <c r="F1135" s="4">
         <v>10</v>
       </c>
@@ -27970,7 +28011,9 @@
       <c r="D1136" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1136" s="4"/>
+      <c r="E1136" s="4">
+        <v>0</v>
+      </c>
       <c r="F1136" s="4">
         <v>10</v>
       </c>
@@ -27991,7 +28034,9 @@
       <c r="D1137" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1137" s="4"/>
+      <c r="E1137" s="4">
+        <v>0</v>
+      </c>
       <c r="F1137" s="4">
         <v>10</v>
       </c>
@@ -28012,7 +28057,9 @@
       <c r="D1138" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1138" s="4"/>
+      <c r="E1138" s="4">
+        <v>0</v>
+      </c>
       <c r="F1138" s="4">
         <v>10</v>
       </c>
@@ -28033,7 +28080,9 @@
       <c r="D1139" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1139" s="4"/>
+      <c r="E1139" s="4">
+        <v>0</v>
+      </c>
       <c r="F1139" s="4">
         <v>10</v>
       </c>
@@ -28054,7 +28103,9 @@
       <c r="D1140" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1140" s="4"/>
+      <c r="E1140" s="4">
+        <v>0</v>
+      </c>
       <c r="F1140" s="4">
         <v>10</v>
       </c>
@@ -28075,7 +28126,9 @@
       <c r="D1141" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1141" s="4"/>
+      <c r="E1141" s="4">
+        <v>0</v>
+      </c>
       <c r="F1141" s="4">
         <v>10</v>
       </c>
@@ -28096,7 +28149,9 @@
       <c r="D1142" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1142" s="4"/>
+      <c r="E1142" s="4">
+        <v>0</v>
+      </c>
       <c r="F1142" s="4">
         <v>10</v>
       </c>
@@ -28117,7 +28172,9 @@
       <c r="D1143" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1143" s="4"/>
+      <c r="E1143" s="4">
+        <v>0</v>
+      </c>
       <c r="F1143" s="4">
         <v>10</v>
       </c>
@@ -28138,7 +28195,9 @@
       <c r="D1144" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1144" s="4"/>
+      <c r="E1144" s="4">
+        <v>0</v>
+      </c>
       <c r="F1144" s="4">
         <v>10</v>
       </c>
@@ -28159,7 +28218,9 @@
       <c r="D1145" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1145" s="4"/>
+      <c r="E1145" s="4">
+        <v>0</v>
+      </c>
       <c r="F1145" s="4">
         <v>10</v>
       </c>
@@ -28180,7 +28241,9 @@
       <c r="D1146" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1146" s="4"/>
+      <c r="E1146" s="4">
+        <v>0</v>
+      </c>
       <c r="F1146" s="4">
         <v>10</v>
       </c>
@@ -28201,7 +28264,9 @@
       <c r="D1147" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1147" s="4"/>
+      <c r="E1147" s="4">
+        <v>0</v>
+      </c>
       <c r="F1147" s="4">
         <v>10</v>
       </c>
@@ -28222,7 +28287,9 @@
       <c r="D1148" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1148" s="4"/>
+      <c r="E1148" s="4">
+        <v>0</v>
+      </c>
       <c r="F1148" s="4">
         <v>10</v>
       </c>
@@ -28243,7 +28310,9 @@
       <c r="D1149" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1149" s="4"/>
+      <c r="E1149" s="4">
+        <v>0</v>
+      </c>
       <c r="F1149" s="4">
         <v>10</v>
       </c>
@@ -28264,7 +28333,9 @@
       <c r="D1150" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1150" s="4"/>
+      <c r="E1150" s="4">
+        <v>0</v>
+      </c>
       <c r="F1150" s="4">
         <v>10</v>
       </c>
@@ -28285,7 +28356,9 @@
       <c r="D1151" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1151" s="4"/>
+      <c r="E1151" s="4">
+        <v>0</v>
+      </c>
       <c r="F1151" s="4">
         <v>10</v>
       </c>
@@ -28306,7 +28379,9 @@
       <c r="D1152" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1152" s="4"/>
+      <c r="E1152" s="4">
+        <v>0</v>
+      </c>
       <c r="F1152" s="4">
         <v>10</v>
       </c>
@@ -28327,7 +28402,9 @@
       <c r="D1153" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1153" s="4"/>
+      <c r="E1153" s="4">
+        <v>0</v>
+      </c>
       <c r="F1153" s="4">
         <v>10</v>
       </c>
@@ -28348,7 +28425,9 @@
       <c r="D1154" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1154" s="4"/>
+      <c r="E1154" s="4">
+        <v>0</v>
+      </c>
       <c r="F1154" s="4">
         <v>10</v>
       </c>
@@ -28369,7 +28448,9 @@
       <c r="D1155" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1155" s="4"/>
+      <c r="E1155" s="4">
+        <v>0</v>
+      </c>
       <c r="F1155" s="4">
         <v>10</v>
       </c>
@@ -28390,7 +28471,9 @@
       <c r="D1156" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1156" s="4"/>
+      <c r="E1156" s="4">
+        <v>0</v>
+      </c>
       <c r="F1156" s="4">
         <v>10</v>
       </c>
@@ -28411,7 +28494,9 @@
       <c r="D1157" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1157" s="4"/>
+      <c r="E1157" s="4">
+        <v>0</v>
+      </c>
       <c r="F1157" s="4">
         <v>10</v>
       </c>
@@ -28432,7 +28517,9 @@
       <c r="D1158" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1158" s="4"/>
+      <c r="E1158" s="4">
+        <v>0</v>
+      </c>
       <c r="F1158" s="4">
         <v>10</v>
       </c>
@@ -28453,7 +28540,9 @@
       <c r="D1159" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1159" s="4"/>
+      <c r="E1159" s="4">
+        <v>0</v>
+      </c>
       <c r="F1159" s="4">
         <v>10</v>
       </c>
@@ -28474,7 +28563,9 @@
       <c r="D1160" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1160" s="4"/>
+      <c r="E1160" s="4">
+        <v>0</v>
+      </c>
       <c r="F1160" s="4">
         <v>10</v>
       </c>
@@ -28495,7 +28586,9 @@
       <c r="D1161" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1161" s="4"/>
+      <c r="E1161" s="4">
+        <v>0</v>
+      </c>
       <c r="F1161" s="4">
         <v>10</v>
       </c>
@@ -28516,7 +28609,9 @@
       <c r="D1162" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1162" s="4"/>
+      <c r="E1162" s="4">
+        <v>0</v>
+      </c>
       <c r="F1162" s="4">
         <v>10</v>
       </c>
@@ -28537,7 +28632,9 @@
       <c r="D1163" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1163" s="4"/>
+      <c r="E1163" s="4">
+        <v>0</v>
+      </c>
       <c r="F1163" s="4">
         <v>10</v>
       </c>
@@ -28558,7 +28655,9 @@
       <c r="D1164" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1164" s="4"/>
+      <c r="E1164" s="4">
+        <v>0</v>
+      </c>
       <c r="F1164" s="4">
         <v>10</v>
       </c>
@@ -28579,12 +28678,4246 @@
       <c r="D1165" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1165" s="4"/>
+      <c r="E1165" s="4">
+        <v>0</v>
+      </c>
       <c r="F1165" s="4">
         <v>10</v>
       </c>
       <c r="G1165" s="4">
         <v>-10</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1166" s="1">
+        <v>3726</v>
+      </c>
+      <c r="D1166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1166">
+        <v>48</v>
+      </c>
+      <c r="F1166">
+        <v>24</v>
+      </c>
+      <c r="G1166">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1167" s="1">
+        <v>9705</v>
+      </c>
+      <c r="D1167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1167">
+        <v>48</v>
+      </c>
+      <c r="F1167">
+        <v>24</v>
+      </c>
+      <c r="G1167">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1168" s="1">
+        <v>3460</v>
+      </c>
+      <c r="D1168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1168">
+        <v>47</v>
+      </c>
+      <c r="F1168">
+        <v>24</v>
+      </c>
+      <c r="G1168">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1169" s="1">
+        <v>1893</v>
+      </c>
+      <c r="D1169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1169">
+        <v>45</v>
+      </c>
+      <c r="F1169">
+        <v>24</v>
+      </c>
+      <c r="G1169">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1170" s="1">
+        <v>1894</v>
+      </c>
+      <c r="D1170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1170">
+        <v>45</v>
+      </c>
+      <c r="F1170">
+        <v>24</v>
+      </c>
+      <c r="G1170">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1171" s="1">
+        <v>2961</v>
+      </c>
+      <c r="D1171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1171">
+        <v>44</v>
+      </c>
+      <c r="F1171">
+        <v>24</v>
+      </c>
+      <c r="G1171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1172" s="1">
+        <v>9480</v>
+      </c>
+      <c r="D1172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1172">
+        <v>44</v>
+      </c>
+      <c r="F1172">
+        <v>24</v>
+      </c>
+      <c r="G1172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1173" s="1">
+        <v>9245</v>
+      </c>
+      <c r="D1173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1173">
+        <v>42</v>
+      </c>
+      <c r="F1173">
+        <v>24</v>
+      </c>
+      <c r="G1173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1174" s="1">
+        <v>3414</v>
+      </c>
+      <c r="D1174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1174">
+        <v>40</v>
+      </c>
+      <c r="F1174">
+        <v>24</v>
+      </c>
+      <c r="G1174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1175" s="1">
+        <v>9431</v>
+      </c>
+      <c r="D1175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1175">
+        <v>40</v>
+      </c>
+      <c r="F1175">
+        <v>24</v>
+      </c>
+      <c r="G1175">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1176" s="1">
+        <v>1844</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1176">
+        <v>39</v>
+      </c>
+      <c r="F1176">
+        <v>24</v>
+      </c>
+      <c r="G1176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1177" s="1">
+        <v>1875</v>
+      </c>
+      <c r="D1177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1177">
+        <v>39</v>
+      </c>
+      <c r="F1177">
+        <v>24</v>
+      </c>
+      <c r="G1177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1178" s="1">
+        <v>3169</v>
+      </c>
+      <c r="D1178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1178">
+        <v>39</v>
+      </c>
+      <c r="F1178">
+        <v>24</v>
+      </c>
+      <c r="G1178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1179" s="1">
+        <v>3192</v>
+      </c>
+      <c r="D1179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1179">
+        <v>39</v>
+      </c>
+      <c r="F1179">
+        <v>24</v>
+      </c>
+      <c r="G1179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1180" s="1">
+        <v>3471</v>
+      </c>
+      <c r="D1180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1180">
+        <v>39</v>
+      </c>
+      <c r="F1180">
+        <v>24</v>
+      </c>
+      <c r="G1180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1181" s="1">
+        <v>2854</v>
+      </c>
+      <c r="D1181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1181">
+        <v>37</v>
+      </c>
+      <c r="F1181">
+        <v>24</v>
+      </c>
+      <c r="G1181">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1182" s="1">
+        <v>3039</v>
+      </c>
+      <c r="D1182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1182">
+        <v>37</v>
+      </c>
+      <c r="F1182">
+        <v>24</v>
+      </c>
+      <c r="G1182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>3404</v>
+      </c>
+      <c r="D1183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1183">
+        <v>37</v>
+      </c>
+      <c r="F1183">
+        <v>24</v>
+      </c>
+      <c r="G1183">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>3521</v>
+      </c>
+      <c r="D1184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1184">
+        <v>37</v>
+      </c>
+      <c r="F1184">
+        <v>24</v>
+      </c>
+      <c r="G1184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>9099</v>
+      </c>
+      <c r="D1185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1185">
+        <v>36</v>
+      </c>
+      <c r="F1185">
+        <v>24</v>
+      </c>
+      <c r="G1185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>9937</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1186">
+        <v>36</v>
+      </c>
+      <c r="F1186">
+        <v>24</v>
+      </c>
+      <c r="G1186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>952</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1187">
+        <v>35</v>
+      </c>
+      <c r="F1187">
+        <v>24</v>
+      </c>
+      <c r="G1187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>1534</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1188">
+        <v>35</v>
+      </c>
+      <c r="F1188">
+        <v>24</v>
+      </c>
+      <c r="G1188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D1189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1189">
+        <v>35</v>
+      </c>
+      <c r="F1189">
+        <v>24</v>
+      </c>
+      <c r="G1189">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>3567</v>
+      </c>
+      <c r="D1190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1190">
+        <v>35</v>
+      </c>
+      <c r="F1190">
+        <v>24</v>
+      </c>
+      <c r="G1190">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1191" s="1">
+        <v>9982</v>
+      </c>
+      <c r="D1191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1191">
+        <v>35</v>
+      </c>
+      <c r="F1191">
+        <v>24</v>
+      </c>
+      <c r="G1191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>1537</v>
+      </c>
+      <c r="D1192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1192">
+        <v>34</v>
+      </c>
+      <c r="F1192">
+        <v>24</v>
+      </c>
+      <c r="G1192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>2118</v>
+      </c>
+      <c r="D1193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1193">
+        <v>34</v>
+      </c>
+      <c r="F1193">
+        <v>24</v>
+      </c>
+      <c r="G1193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1194" s="1">
+        <v>3364</v>
+      </c>
+      <c r="D1194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1194">
+        <v>34</v>
+      </c>
+      <c r="F1194">
+        <v>24</v>
+      </c>
+      <c r="G1194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1195" s="1">
+        <v>3487</v>
+      </c>
+      <c r="D1195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1195">
+        <v>34</v>
+      </c>
+      <c r="F1195">
+        <v>24</v>
+      </c>
+      <c r="G1195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1196" s="1">
+        <v>3638</v>
+      </c>
+      <c r="D1196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1196">
+        <v>34</v>
+      </c>
+      <c r="F1196">
+        <v>24</v>
+      </c>
+      <c r="G1196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1197" s="1">
+        <v>3038</v>
+      </c>
+      <c r="D1197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1197">
+        <v>33</v>
+      </c>
+      <c r="F1197">
+        <v>24</v>
+      </c>
+      <c r="G1197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>3299</v>
+      </c>
+      <c r="D1198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1198">
+        <v>33</v>
+      </c>
+      <c r="F1198">
+        <v>24</v>
+      </c>
+      <c r="G1198">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1199" s="1">
+        <v>3607</v>
+      </c>
+      <c r="D1199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1199">
+        <v>33</v>
+      </c>
+      <c r="F1199">
+        <v>24</v>
+      </c>
+      <c r="G1199">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1200" s="1">
+        <v>709</v>
+      </c>
+      <c r="D1200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1200">
+        <v>32</v>
+      </c>
+      <c r="F1200">
+        <v>24</v>
+      </c>
+      <c r="G1200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1201" s="1">
+        <v>1874</v>
+      </c>
+      <c r="D1201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1201">
+        <v>32</v>
+      </c>
+      <c r="F1201">
+        <v>24</v>
+      </c>
+      <c r="G1201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1202" s="1">
+        <v>3047</v>
+      </c>
+      <c r="D1202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1202">
+        <v>32</v>
+      </c>
+      <c r="F1202">
+        <v>24</v>
+      </c>
+      <c r="G1202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1203" s="1">
+        <v>3153</v>
+      </c>
+      <c r="D1203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1203">
+        <v>32</v>
+      </c>
+      <c r="F1203">
+        <v>24</v>
+      </c>
+      <c r="G1203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1204" s="1">
+        <v>3568</v>
+      </c>
+      <c r="D1204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1204">
+        <v>32</v>
+      </c>
+      <c r="F1204">
+        <v>24</v>
+      </c>
+      <c r="G1204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1205" s="1">
+        <v>3683</v>
+      </c>
+      <c r="D1205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1205">
+        <v>32</v>
+      </c>
+      <c r="F1205">
+        <v>24</v>
+      </c>
+      <c r="G1205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1206" s="1">
+        <v>3006</v>
+      </c>
+      <c r="D1206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1206">
+        <v>31</v>
+      </c>
+      <c r="F1206">
+        <v>24</v>
+      </c>
+      <c r="G1206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1207" s="1">
+        <v>3432</v>
+      </c>
+      <c r="D1207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1207">
+        <v>31</v>
+      </c>
+      <c r="F1207">
+        <v>24</v>
+      </c>
+      <c r="G1207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1208" s="1">
+        <v>3591</v>
+      </c>
+      <c r="D1208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1208">
+        <v>31</v>
+      </c>
+      <c r="F1208">
+        <v>24</v>
+      </c>
+      <c r="G1208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1209" s="1">
+        <v>3800</v>
+      </c>
+      <c r="D1209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1209">
+        <v>31</v>
+      </c>
+      <c r="F1209">
+        <v>24</v>
+      </c>
+      <c r="G1209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1210" s="1">
+        <v>9172</v>
+      </c>
+      <c r="D1210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1210">
+        <v>31</v>
+      </c>
+      <c r="F1210">
+        <v>24</v>
+      </c>
+      <c r="G1210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1211" s="1">
+        <v>2440</v>
+      </c>
+      <c r="D1211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1211">
+        <v>30</v>
+      </c>
+      <c r="F1211">
+        <v>24</v>
+      </c>
+      <c r="G1211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1212" s="1">
+        <v>2674</v>
+      </c>
+      <c r="D1212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1212">
+        <v>30</v>
+      </c>
+      <c r="F1212">
+        <v>24</v>
+      </c>
+      <c r="G1212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1213" s="1">
+        <v>3014</v>
+      </c>
+      <c r="D1213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1213">
+        <v>30</v>
+      </c>
+      <c r="F1213">
+        <v>24</v>
+      </c>
+      <c r="G1213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1214" s="1">
+        <v>3061</v>
+      </c>
+      <c r="D1214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1214">
+        <v>30</v>
+      </c>
+      <c r="F1214">
+        <v>24</v>
+      </c>
+      <c r="G1214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1215" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D1215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1215">
+        <v>30</v>
+      </c>
+      <c r="F1215">
+        <v>24</v>
+      </c>
+      <c r="G1215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1216" s="1">
+        <v>3102</v>
+      </c>
+      <c r="D1216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1216">
+        <v>30</v>
+      </c>
+      <c r="F1216">
+        <v>24</v>
+      </c>
+      <c r="G1216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1217" s="1">
+        <v>3335</v>
+      </c>
+      <c r="D1217" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1217">
+        <v>30</v>
+      </c>
+      <c r="F1217">
+        <v>24</v>
+      </c>
+      <c r="G1217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1218" s="1">
+        <v>3461</v>
+      </c>
+      <c r="D1218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1218">
+        <v>30</v>
+      </c>
+      <c r="F1218">
+        <v>24</v>
+      </c>
+      <c r="G1218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1219" s="1">
+        <v>3504</v>
+      </c>
+      <c r="D1219" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1219">
+        <v>30</v>
+      </c>
+      <c r="F1219">
+        <v>24</v>
+      </c>
+      <c r="G1219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1220" s="1">
+        <v>9650</v>
+      </c>
+      <c r="D1220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1220">
+        <v>30</v>
+      </c>
+      <c r="F1220">
+        <v>24</v>
+      </c>
+      <c r="G1220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1221" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D1221" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1221">
+        <v>29</v>
+      </c>
+      <c r="F1221">
+        <v>24</v>
+      </c>
+      <c r="G1221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1222" s="1">
+        <v>2890</v>
+      </c>
+      <c r="D1222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1222">
+        <v>29</v>
+      </c>
+      <c r="F1222">
+        <v>24</v>
+      </c>
+      <c r="G1222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1223" s="1">
+        <v>3041</v>
+      </c>
+      <c r="D1223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1223">
+        <v>29</v>
+      </c>
+      <c r="F1223">
+        <v>24</v>
+      </c>
+      <c r="G1223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1224" s="1">
+        <v>3157</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1224">
+        <v>29</v>
+      </c>
+      <c r="F1224">
+        <v>24</v>
+      </c>
+      <c r="G1224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1225" s="1">
+        <v>3518</v>
+      </c>
+      <c r="D1225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1225">
+        <v>29</v>
+      </c>
+      <c r="F1225">
+        <v>24</v>
+      </c>
+      <c r="G1225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1226" s="1">
+        <v>3621</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1226">
+        <v>29</v>
+      </c>
+      <c r="F1226">
+        <v>24</v>
+      </c>
+      <c r="G1226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1227" s="1">
+        <v>9875</v>
+      </c>
+      <c r="D1227" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1227">
+        <v>29</v>
+      </c>
+      <c r="F1227">
+        <v>24</v>
+      </c>
+      <c r="G1227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1228" s="1">
+        <v>1576</v>
+      </c>
+      <c r="D1228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1228">
+        <v>28</v>
+      </c>
+      <c r="F1228">
+        <v>24</v>
+      </c>
+      <c r="G1228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1229" s="1">
+        <v>2867</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1229">
+        <v>28</v>
+      </c>
+      <c r="F1229">
+        <v>24</v>
+      </c>
+      <c r="G1229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1230" s="1">
+        <v>2885</v>
+      </c>
+      <c r="D1230" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1230">
+        <v>28</v>
+      </c>
+      <c r="F1230">
+        <v>24</v>
+      </c>
+      <c r="G1230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1231" s="1">
+        <v>3243</v>
+      </c>
+      <c r="D1231" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1231">
+        <v>28</v>
+      </c>
+      <c r="F1231">
+        <v>24</v>
+      </c>
+      <c r="G1231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1232" s="1">
+        <v>3289</v>
+      </c>
+      <c r="D1232" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1232">
+        <v>28</v>
+      </c>
+      <c r="F1232">
+        <v>24</v>
+      </c>
+      <c r="G1232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1233" s="1">
+        <v>9053</v>
+      </c>
+      <c r="D1233" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1233">
+        <v>28</v>
+      </c>
+      <c r="F1233">
+        <v>24</v>
+      </c>
+      <c r="G1233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1234" s="1">
+        <v>9769</v>
+      </c>
+      <c r="D1234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1234">
+        <v>28</v>
+      </c>
+      <c r="F1234">
+        <v>24</v>
+      </c>
+      <c r="G1234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1235" s="1">
+        <v>3215</v>
+      </c>
+      <c r="D1235" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1235">
+        <v>27</v>
+      </c>
+      <c r="F1235">
+        <v>24</v>
+      </c>
+      <c r="G1235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1236" s="1">
+        <v>3725</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1236">
+        <v>27</v>
+      </c>
+      <c r="F1236">
+        <v>24</v>
+      </c>
+      <c r="G1236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1237" s="1">
+        <v>9084</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1237">
+        <v>27</v>
+      </c>
+      <c r="F1237">
+        <v>24</v>
+      </c>
+      <c r="G1237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1238" s="1">
+        <v>9195</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1238">
+        <v>27</v>
+      </c>
+      <c r="F1238">
+        <v>24</v>
+      </c>
+      <c r="G1238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1239" s="1">
+        <v>9630</v>
+      </c>
+      <c r="D1239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1239">
+        <v>27</v>
+      </c>
+      <c r="F1239">
+        <v>24</v>
+      </c>
+      <c r="G1239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1240" s="1">
+        <v>9905</v>
+      </c>
+      <c r="D1240" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1240">
+        <v>27</v>
+      </c>
+      <c r="F1240">
+        <v>24</v>
+      </c>
+      <c r="G1240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1241" s="1">
+        <v>629</v>
+      </c>
+      <c r="D1241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1241">
+        <v>26</v>
+      </c>
+      <c r="F1241">
+        <v>24</v>
+      </c>
+      <c r="G1241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1242" s="1">
+        <v>3206</v>
+      </c>
+      <c r="D1242" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1242">
+        <v>26</v>
+      </c>
+      <c r="F1242">
+        <v>24</v>
+      </c>
+      <c r="G1242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1243" s="1">
+        <v>3341</v>
+      </c>
+      <c r="D1243" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1243">
+        <v>26</v>
+      </c>
+      <c r="F1243">
+        <v>24</v>
+      </c>
+      <c r="G1243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1244" s="1">
+        <v>3378</v>
+      </c>
+      <c r="D1244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1244">
+        <v>26</v>
+      </c>
+      <c r="F1244">
+        <v>24</v>
+      </c>
+      <c r="G1244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1245" s="1">
+        <v>3488</v>
+      </c>
+      <c r="D1245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1245">
+        <v>26</v>
+      </c>
+      <c r="F1245">
+        <v>24</v>
+      </c>
+      <c r="G1245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1246" s="1">
+        <v>3637</v>
+      </c>
+      <c r="D1246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1246">
+        <v>26</v>
+      </c>
+      <c r="F1246">
+        <v>24</v>
+      </c>
+      <c r="G1246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1247" s="1">
+        <v>3685</v>
+      </c>
+      <c r="D1247" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1247">
+        <v>26</v>
+      </c>
+      <c r="F1247">
+        <v>24</v>
+      </c>
+      <c r="G1247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1248" s="1">
+        <v>3730</v>
+      </c>
+      <c r="D1248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1248">
+        <v>26</v>
+      </c>
+      <c r="F1248">
+        <v>24</v>
+      </c>
+      <c r="G1248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1249" s="1">
+        <v>9633</v>
+      </c>
+      <c r="D1249" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1249">
+        <v>26</v>
+      </c>
+      <c r="F1249">
+        <v>24</v>
+      </c>
+      <c r="G1249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1250" s="1">
+        <v>9948</v>
+      </c>
+      <c r="D1250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1250">
+        <v>26</v>
+      </c>
+      <c r="F1250">
+        <v>24</v>
+      </c>
+      <c r="G1250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1251" s="1">
+        <v>127</v>
+      </c>
+      <c r="D1251" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1251">
+        <v>25</v>
+      </c>
+      <c r="F1251">
+        <v>24</v>
+      </c>
+      <c r="G1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1252" s="1">
+        <v>2545</v>
+      </c>
+      <c r="D1252" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1252">
+        <v>25</v>
+      </c>
+      <c r="F1252">
+        <v>24</v>
+      </c>
+      <c r="G1252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1253" s="1">
+        <v>3138</v>
+      </c>
+      <c r="D1253" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1253">
+        <v>25</v>
+      </c>
+      <c r="F1253">
+        <v>24</v>
+      </c>
+      <c r="G1253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1254" s="1">
+        <v>3623</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1254">
+        <v>25</v>
+      </c>
+      <c r="F1254">
+        <v>24</v>
+      </c>
+      <c r="G1254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1255" s="1">
+        <v>3636</v>
+      </c>
+      <c r="D1255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1255">
+        <v>25</v>
+      </c>
+      <c r="F1255">
+        <v>24</v>
+      </c>
+      <c r="G1255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1256" s="1">
+        <v>3707</v>
+      </c>
+      <c r="D1256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1256">
+        <v>25</v>
+      </c>
+      <c r="F1256">
+        <v>24</v>
+      </c>
+      <c r="G1256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1257" s="1">
+        <v>3788</v>
+      </c>
+      <c r="D1257" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1257">
+        <v>25</v>
+      </c>
+      <c r="F1257">
+        <v>24</v>
+      </c>
+      <c r="G1257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1258" s="1">
+        <v>2889</v>
+      </c>
+      <c r="D1258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1258">
+        <v>24</v>
+      </c>
+      <c r="F1258">
+        <v>24</v>
+      </c>
+      <c r="G1258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1259" s="1">
+        <v>3679</v>
+      </c>
+      <c r="D1259" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1259">
+        <v>24</v>
+      </c>
+      <c r="F1259">
+        <v>24</v>
+      </c>
+      <c r="G1259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1260" s="1">
+        <v>3784</v>
+      </c>
+      <c r="D1260" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1260">
+        <v>24</v>
+      </c>
+      <c r="F1260">
+        <v>24</v>
+      </c>
+      <c r="G1260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1261" s="1">
+        <v>3786</v>
+      </c>
+      <c r="D1261" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1261">
+        <v>24</v>
+      </c>
+      <c r="F1261">
+        <v>24</v>
+      </c>
+      <c r="G1261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1262" s="1">
+        <v>9612</v>
+      </c>
+      <c r="D1262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1262">
+        <v>24</v>
+      </c>
+      <c r="F1262">
+        <v>24</v>
+      </c>
+      <c r="G1262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1263" s="1">
+        <v>1131</v>
+      </c>
+      <c r="D1263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1263">
+        <v>23</v>
+      </c>
+      <c r="F1263">
+        <v>24</v>
+      </c>
+      <c r="G1263">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1264" s="1">
+        <v>9074</v>
+      </c>
+      <c r="D1264" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1264">
+        <v>23</v>
+      </c>
+      <c r="F1264">
+        <v>24</v>
+      </c>
+      <c r="G1264">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1265" s="1">
+        <v>9376</v>
+      </c>
+      <c r="D1265" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1265">
+        <v>23</v>
+      </c>
+      <c r="F1265">
+        <v>24</v>
+      </c>
+      <c r="G1265">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1266" s="1">
+        <v>9619</v>
+      </c>
+      <c r="D1266" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1266">
+        <v>23</v>
+      </c>
+      <c r="F1266">
+        <v>24</v>
+      </c>
+      <c r="G1266">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1267" s="1">
+        <v>3787</v>
+      </c>
+      <c r="D1267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1267">
+        <v>22</v>
+      </c>
+      <c r="F1267">
+        <v>24</v>
+      </c>
+      <c r="G1267">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1268" s="1">
+        <v>9045</v>
+      </c>
+      <c r="D1268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1268">
+        <v>22</v>
+      </c>
+      <c r="F1268">
+        <v>24</v>
+      </c>
+      <c r="G1268">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1269" s="1">
+        <v>9584</v>
+      </c>
+      <c r="D1269" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1269">
+        <v>22</v>
+      </c>
+      <c r="F1269">
+        <v>24</v>
+      </c>
+      <c r="G1269">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1270" s="1">
+        <v>9980</v>
+      </c>
+      <c r="D1270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1270">
+        <v>22</v>
+      </c>
+      <c r="F1270">
+        <v>24</v>
+      </c>
+      <c r="G1270">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1271" s="1">
+        <v>3114</v>
+      </c>
+      <c r="D1271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1271">
+        <v>21</v>
+      </c>
+      <c r="F1271">
+        <v>24</v>
+      </c>
+      <c r="G1271">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1272" s="1">
+        <v>3708</v>
+      </c>
+      <c r="D1272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1272">
+        <v>21</v>
+      </c>
+      <c r="F1272">
+        <v>24</v>
+      </c>
+      <c r="G1272">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1273" s="1">
+        <v>3806</v>
+      </c>
+      <c r="D1273" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1273">
+        <v>21</v>
+      </c>
+      <c r="F1273">
+        <v>24</v>
+      </c>
+      <c r="G1273">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1274" s="1">
+        <v>1843</v>
+      </c>
+      <c r="D1274" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1274">
+        <v>20</v>
+      </c>
+      <c r="F1274">
+        <v>24</v>
+      </c>
+      <c r="G1274">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1275" s="1">
+        <v>3620</v>
+      </c>
+      <c r="D1275" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1275">
+        <v>20</v>
+      </c>
+      <c r="F1275">
+        <v>24</v>
+      </c>
+      <c r="G1275">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1276" s="1">
+        <v>3783</v>
+      </c>
+      <c r="D1276" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1276">
+        <v>20</v>
+      </c>
+      <c r="F1276">
+        <v>24</v>
+      </c>
+      <c r="G1276">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1277" s="1">
+        <v>1451</v>
+      </c>
+      <c r="D1277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1277">
+        <v>19</v>
+      </c>
+      <c r="F1277">
+        <v>24</v>
+      </c>
+      <c r="G1277">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1278" s="1">
+        <v>3113</v>
+      </c>
+      <c r="D1278" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1278">
+        <v>19</v>
+      </c>
+      <c r="F1278">
+        <v>24</v>
+      </c>
+      <c r="G1278">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1279" s="1">
+        <v>3118</v>
+      </c>
+      <c r="D1279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1279">
+        <v>19</v>
+      </c>
+      <c r="F1279">
+        <v>24</v>
+      </c>
+      <c r="G1279">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1280" s="1">
+        <v>3238</v>
+      </c>
+      <c r="D1280" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1280">
+        <v>19</v>
+      </c>
+      <c r="F1280">
+        <v>24</v>
+      </c>
+      <c r="G1280">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1281" s="1">
+        <v>3517</v>
+      </c>
+      <c r="D1281" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1281">
+        <v>19</v>
+      </c>
+      <c r="F1281">
+        <v>24</v>
+      </c>
+      <c r="G1281">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1282" s="1">
+        <v>3549</v>
+      </c>
+      <c r="D1282" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1282">
+        <v>19</v>
+      </c>
+      <c r="F1282">
+        <v>24</v>
+      </c>
+      <c r="G1282">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1283" s="1">
+        <v>3125</v>
+      </c>
+      <c r="D1283" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1283">
+        <v>18</v>
+      </c>
+      <c r="F1283">
+        <v>24</v>
+      </c>
+      <c r="G1283">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1284" s="1">
+        <v>3230</v>
+      </c>
+      <c r="D1284" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1284">
+        <v>18</v>
+      </c>
+      <c r="F1284">
+        <v>24</v>
+      </c>
+      <c r="G1284">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1285" s="1">
+        <v>3242</v>
+      </c>
+      <c r="D1285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1285">
+        <v>18</v>
+      </c>
+      <c r="F1285">
+        <v>24</v>
+      </c>
+      <c r="G1285">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1286" s="1">
+        <v>3540</v>
+      </c>
+      <c r="D1286" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1286">
+        <v>18</v>
+      </c>
+      <c r="F1286">
+        <v>24</v>
+      </c>
+      <c r="G1286">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1287" s="1">
+        <v>9892</v>
+      </c>
+      <c r="D1287" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1287">
+        <v>18</v>
+      </c>
+      <c r="F1287">
+        <v>24</v>
+      </c>
+      <c r="G1287">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1288" s="1">
+        <v>2609</v>
+      </c>
+      <c r="D1288" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1288">
+        <v>17</v>
+      </c>
+      <c r="F1288">
+        <v>24</v>
+      </c>
+      <c r="G1288">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1289" s="1">
+        <v>3159</v>
+      </c>
+      <c r="D1289" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1289">
+        <v>17</v>
+      </c>
+      <c r="F1289">
+        <v>24</v>
+      </c>
+      <c r="G1289">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1290" s="1">
+        <v>9869</v>
+      </c>
+      <c r="D1290" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1290">
+        <v>17</v>
+      </c>
+      <c r="F1290">
+        <v>24</v>
+      </c>
+      <c r="G1290">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1291" s="1">
+        <v>3416</v>
+      </c>
+      <c r="D1291" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1291">
+        <v>16</v>
+      </c>
+      <c r="F1291">
+        <v>24</v>
+      </c>
+      <c r="G1291">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1292" s="1">
+        <v>3729</v>
+      </c>
+      <c r="D1292" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1292">
+        <v>16</v>
+      </c>
+      <c r="F1292">
+        <v>24</v>
+      </c>
+      <c r="G1292">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1293" s="1">
+        <v>3777</v>
+      </c>
+      <c r="D1293" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1293">
+        <v>16</v>
+      </c>
+      <c r="F1293">
+        <v>24</v>
+      </c>
+      <c r="G1293">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1294" s="1">
+        <v>5162</v>
+      </c>
+      <c r="D1294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1294">
+        <v>16</v>
+      </c>
+      <c r="F1294">
+        <v>24</v>
+      </c>
+      <c r="G1294">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1295" s="1">
+        <v>224</v>
+      </c>
+      <c r="D1295" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1295">
+        <v>14</v>
+      </c>
+      <c r="F1295">
+        <v>24</v>
+      </c>
+      <c r="G1295">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1296" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D1296" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1296">
+        <v>14</v>
+      </c>
+      <c r="F1296">
+        <v>24</v>
+      </c>
+      <c r="G1296">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1297" s="1">
+        <v>3132</v>
+      </c>
+      <c r="D1297" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1297">
+        <v>14</v>
+      </c>
+      <c r="F1297">
+        <v>24</v>
+      </c>
+      <c r="G1297">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1298" s="1">
+        <v>3160</v>
+      </c>
+      <c r="D1298" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1298">
+        <v>14</v>
+      </c>
+      <c r="F1298">
+        <v>24</v>
+      </c>
+      <c r="G1298">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1299" s="1">
+        <v>3194</v>
+      </c>
+      <c r="D1299" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1299">
+        <v>14</v>
+      </c>
+      <c r="F1299">
+        <v>24</v>
+      </c>
+      <c r="G1299">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1300" s="1">
+        <v>3309</v>
+      </c>
+      <c r="D1300" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1300">
+        <v>14</v>
+      </c>
+      <c r="F1300">
+        <v>24</v>
+      </c>
+      <c r="G1300">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1301" s="1">
+        <v>3447</v>
+      </c>
+      <c r="D1301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1301">
+        <v>14</v>
+      </c>
+      <c r="F1301">
+        <v>24</v>
+      </c>
+      <c r="G1301">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1302" s="1">
+        <v>3829</v>
+      </c>
+      <c r="D1302" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1302">
+        <v>13</v>
+      </c>
+      <c r="F1302">
+        <v>24</v>
+      </c>
+      <c r="G1302">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1303" s="1">
+        <v>3830</v>
+      </c>
+      <c r="D1303" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1303">
+        <v>13</v>
+      </c>
+      <c r="F1303">
+        <v>24</v>
+      </c>
+      <c r="G1303">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1304" s="1">
+        <v>9369</v>
+      </c>
+      <c r="D1304" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1304">
+        <v>13</v>
+      </c>
+      <c r="F1304">
+        <v>24</v>
+      </c>
+      <c r="G1304">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1305" s="1">
+        <v>9026</v>
+      </c>
+      <c r="D1305" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1305">
+        <v>12</v>
+      </c>
+      <c r="F1305">
+        <v>24</v>
+      </c>
+      <c r="G1305">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1306" s="1">
+        <v>9981</v>
+      </c>
+      <c r="D1306" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1306">
+        <v>12</v>
+      </c>
+      <c r="F1306">
+        <v>24</v>
+      </c>
+      <c r="G1306">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1307" s="1">
+        <v>1896</v>
+      </c>
+      <c r="D1307" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1307">
+        <v>11</v>
+      </c>
+      <c r="F1307">
+        <v>24</v>
+      </c>
+      <c r="G1307">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1308" s="1">
+        <v>3091</v>
+      </c>
+      <c r="D1308" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1308">
+        <v>11</v>
+      </c>
+      <c r="F1308">
+        <v>24</v>
+      </c>
+      <c r="G1308">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1309" s="1">
+        <v>3379</v>
+      </c>
+      <c r="D1309" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1309">
+        <v>11</v>
+      </c>
+      <c r="F1309">
+        <v>24</v>
+      </c>
+      <c r="G1309">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1310" s="1">
+        <v>3606</v>
+      </c>
+      <c r="D1310" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1310">
+        <v>11</v>
+      </c>
+      <c r="F1310">
+        <v>24</v>
+      </c>
+      <c r="G1310">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1311" s="1">
+        <v>1598</v>
+      </c>
+      <c r="D1311" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1311">
+        <v>10</v>
+      </c>
+      <c r="F1311">
+        <v>24</v>
+      </c>
+      <c r="G1311">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1312" s="1">
+        <v>3850</v>
+      </c>
+      <c r="D1312" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1312">
+        <v>10</v>
+      </c>
+      <c r="F1312">
+        <v>24</v>
+      </c>
+      <c r="G1312">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1313" s="1">
+        <v>9360</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1313">
+        <v>10</v>
+      </c>
+      <c r="F1313">
+        <v>24</v>
+      </c>
+      <c r="G1313">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1314" s="1">
+        <v>3634</v>
+      </c>
+      <c r="D1314" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1314">
+        <v>9</v>
+      </c>
+      <c r="F1314">
+        <v>24</v>
+      </c>
+      <c r="G1314">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1315" s="1">
+        <v>9377</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1315">
+        <v>9</v>
+      </c>
+      <c r="F1315">
+        <v>24</v>
+      </c>
+      <c r="G1315">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1316" s="1">
+        <v>1772</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1316">
+        <v>8</v>
+      </c>
+      <c r="F1316">
+        <v>24</v>
+      </c>
+      <c r="G1316">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1317" s="1">
+        <v>2597</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1317">
+        <v>8</v>
+      </c>
+      <c r="F1317">
+        <v>24</v>
+      </c>
+      <c r="G1317">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1318" s="1">
+        <v>3682</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1318">
+        <v>8</v>
+      </c>
+      <c r="F1318">
+        <v>24</v>
+      </c>
+      <c r="G1318">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1319" s="1">
+        <v>3411</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1319">
+        <v>7</v>
+      </c>
+      <c r="F1319">
+        <v>24</v>
+      </c>
+      <c r="G1319">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1320" s="1">
+        <v>3671</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1320">
+        <v>7</v>
+      </c>
+      <c r="F1320">
+        <v>24</v>
+      </c>
+      <c r="G1320">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1321" s="1">
+        <v>9325</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1321">
+        <v>7</v>
+      </c>
+      <c r="F1321">
+        <v>24</v>
+      </c>
+      <c r="G1321">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1322" s="1">
+        <v>2035</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1322">
+        <v>6</v>
+      </c>
+      <c r="F1322">
+        <v>24</v>
+      </c>
+      <c r="G1322">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1323" s="1">
+        <v>3426</v>
+      </c>
+      <c r="D1323" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1323">
+        <v>6</v>
+      </c>
+      <c r="F1323">
+        <v>24</v>
+      </c>
+      <c r="G1323">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1324" s="1">
+        <v>3480</v>
+      </c>
+      <c r="D1324" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1324">
+        <v>6</v>
+      </c>
+      <c r="F1324">
+        <v>24</v>
+      </c>
+      <c r="G1324">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1325" s="1">
+        <v>3520</v>
+      </c>
+      <c r="D1325" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1325">
+        <v>6</v>
+      </c>
+      <c r="F1325">
+        <v>24</v>
+      </c>
+      <c r="G1325">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1326" s="1">
+        <v>3674</v>
+      </c>
+      <c r="D1326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1326">
+        <v>6</v>
+      </c>
+      <c r="F1326">
+        <v>24</v>
+      </c>
+      <c r="G1326">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1327" s="1">
+        <v>3718</v>
+      </c>
+      <c r="D1327" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1327">
+        <v>6</v>
+      </c>
+      <c r="F1327">
+        <v>24</v>
+      </c>
+      <c r="G1327">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1328" s="1">
+        <v>3036</v>
+      </c>
+      <c r="D1328" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1328">
+        <v>5</v>
+      </c>
+      <c r="F1328">
+        <v>24</v>
+      </c>
+      <c r="G1328">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1329" s="1">
+        <v>3370</v>
+      </c>
+      <c r="D1329" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1329">
+        <v>5</v>
+      </c>
+      <c r="F1329">
+        <v>24</v>
+      </c>
+      <c r="G1329">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1330" s="1">
+        <v>1583</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1330">
+        <v>4</v>
+      </c>
+      <c r="F1330">
+        <v>24</v>
+      </c>
+      <c r="G1330">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1331" s="1">
+        <v>2962</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1331">
+        <v>4</v>
+      </c>
+      <c r="F1331">
+        <v>24</v>
+      </c>
+      <c r="G1331">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1332" s="1">
+        <v>3130</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1332">
+        <v>4</v>
+      </c>
+      <c r="F1332">
+        <v>24</v>
+      </c>
+      <c r="G1332">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1333" s="1">
+        <v>3758</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1333">
+        <v>4</v>
+      </c>
+      <c r="F1333">
+        <v>24</v>
+      </c>
+      <c r="G1333">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1334" s="1">
+        <v>3849</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1334">
+        <v>4</v>
+      </c>
+      <c r="F1334">
+        <v>24</v>
+      </c>
+      <c r="G1334">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1335" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D1335" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1335">
+        <v>3</v>
+      </c>
+      <c r="F1335">
+        <v>24</v>
+      </c>
+      <c r="G1335">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1336" s="1">
+        <v>2930</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1336">
+        <v>3</v>
+      </c>
+      <c r="F1336">
+        <v>24</v>
+      </c>
+      <c r="G1336">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1337" s="1">
+        <v>9129</v>
+      </c>
+      <c r="D1337" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1337">
+        <v>3</v>
+      </c>
+      <c r="F1337">
+        <v>24</v>
+      </c>
+      <c r="G1337">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1338" s="1">
+        <v>9196</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1338">
+        <v>3</v>
+      </c>
+      <c r="F1338">
+        <v>24</v>
+      </c>
+      <c r="G1338">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1339" s="1">
+        <v>1809</v>
+      </c>
+      <c r="D1339" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1339">
+        <v>2</v>
+      </c>
+      <c r="F1339">
+        <v>24</v>
+      </c>
+      <c r="G1339">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1340" s="1">
+        <v>1846</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1340">
+        <v>2</v>
+      </c>
+      <c r="F1340">
+        <v>24</v>
+      </c>
+      <c r="G1340">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1341" s="1">
+        <v>2931</v>
+      </c>
+      <c r="D1341" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1341">
+        <v>2</v>
+      </c>
+      <c r="F1341">
+        <v>24</v>
+      </c>
+      <c r="G1341">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1342" s="1">
+        <v>3167</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1342">
+        <v>2</v>
+      </c>
+      <c r="F1342">
+        <v>24</v>
+      </c>
+      <c r="G1342">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1343" s="1">
+        <v>3613</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1343">
+        <v>2</v>
+      </c>
+      <c r="F1343">
+        <v>24</v>
+      </c>
+      <c r="G1343">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1344" s="1">
+        <v>9689</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1344">
+        <v>2</v>
+      </c>
+      <c r="F1344">
+        <v>24</v>
+      </c>
+      <c r="G1344">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1345" s="1">
+        <v>3003</v>
+      </c>
+      <c r="D1345" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1345">
+        <v>1</v>
+      </c>
+      <c r="F1345">
+        <v>24</v>
+      </c>
+      <c r="G1345">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1346" s="1">
+        <v>591</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1346">
+        <v>0</v>
+      </c>
+      <c r="F1346">
+        <v>24</v>
+      </c>
+      <c r="G1346">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1347" s="1">
+        <v>3649</v>
+      </c>
+      <c r="D1347" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1347">
+        <v>0</v>
+      </c>
+      <c r="F1347">
+        <v>24</v>
+      </c>
+      <c r="G1347">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1348" s="1">
+        <v>3748</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1348">
+        <v>0</v>
+      </c>
+      <c r="F1348">
+        <v>24</v>
+      </c>
+      <c r="G1348">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1349" s="1">
+        <v>3785</v>
+      </c>
+      <c r="D1349" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1349">
+        <v>0</v>
+      </c>
+      <c r="F1349">
+        <v>24</v>
+      </c>
+      <c r="G1349">
+        <v>-24</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814E216B-5848-C74D-8F46-6BEA397935A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5015535-D1A6-FC45-B548-D91498F7344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G1648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1420" workbookViewId="0">
-      <selection activeCell="I1341" sqref="I1341"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C110" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FAA0E9-4ECD-024B-BFA7-F5C1E60F0F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F19ED-89CC-4F4B-9410-C1AC5B0C8FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +621,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G1760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A909" workbookViewId="0">
-      <selection activeCell="G927" sqref="G927"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3756,15 +3759,15 @@
       <c r="D114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="3">
-        <v>5</v>
+      <c r="E114" s="10">
+        <v>10</v>
       </c>
       <c r="F114" s="1">
         <v>10</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="1"/>
-        <v>-5</v>
+        <f>E114-F114</f>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F19ED-89CC-4F4B-9410-C1AC5B0C8FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28268C44-6E3D-7444-A8D9-0CDA16A154A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G1760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" topLeftCell="A924" workbookViewId="0">
+      <selection activeCell="E942" sqref="E942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23631,15 +23631,15 @@
       <c r="D942" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E942" s="7">
-        <v>8</v>
+      <c r="E942" s="9">
+        <v>10</v>
       </c>
       <c r="F942" s="5">
         <v>10</v>
       </c>
       <c r="G942" s="1">
         <f t="shared" si="15"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28268C44-6E3D-7444-A8D9-0CDA16A154A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE65A0-90E2-C445-B4B2-A838005FEF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G1760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A924" workbookViewId="0">
-      <selection activeCell="E942" sqref="E942"/>
+    <sheetView tabSelected="1" topLeftCell="A1499" workbookViewId="0">
+      <selection activeCell="F1515" sqref="F1515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37431,15 +37431,15 @@
       <c r="D1517" t="s">
         <v>13</v>
       </c>
-      <c r="E1517" s="3">
-        <v>4</v>
+      <c r="E1517" s="10">
+        <v>6</v>
       </c>
       <c r="F1517" s="1">
         <v>6</v>
       </c>
       <c r="G1517" s="1">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1518" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE65A0-90E2-C445-B4B2-A838005FEF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432FC9CF-CFF7-044B-AB0B-E2E360E1E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5284" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6325" uniqueCount="18">
   <si>
     <t>Estado</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Bellavista</t>
+  </si>
+  <si>
+    <t>SEM.38</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,6 +627,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G1760"/>
+  <dimension ref="A1:G2107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1499" workbookViewId="0">
-      <selection activeCell="F1515" sqref="F1515"/>
+    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
+      <selection activeCell="E928" sqref="E928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3663,15 +3669,15 @@
       <c r="D110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="3">
-        <v>5</v>
+      <c r="E110" s="10">
+        <v>10</v>
       </c>
       <c r="F110" s="1">
         <v>10</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -23295,7 +23301,7 @@
       <c r="D928" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E928" s="7">
+      <c r="E928" s="11">
         <v>9</v>
       </c>
       <c r="F928" s="5">
@@ -43272,6 +43278,8334 @@
       <c r="G1760" s="1">
         <f t="shared" si="28"/>
         <v>-6</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1761" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1761" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1761" s="3">
+        <v>2422</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1761" s="1">
+        <v>22</v>
+      </c>
+      <c r="F1761" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1761" s="1">
+        <f>E1761-F1761</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1762" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1762" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1762" s="3">
+        <v>643</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1762" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1762" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1762" s="1">
+        <f t="shared" ref="G1762:G1825" si="29">E1762-F1762</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1763" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1763" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1763" s="3">
+        <v>9214</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1763" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1763" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1763" s="1">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1764" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1764" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1764" s="3">
+        <v>2416</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1764" s="1">
+        <v>19</v>
+      </c>
+      <c r="F1764" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1764" s="1">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1765" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1765" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1765" s="3">
+        <v>9883</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1765" s="1">
+        <v>19</v>
+      </c>
+      <c r="F1765" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1765" s="1">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1766" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1766" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1766" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1766" s="1">
+        <v>18</v>
+      </c>
+      <c r="F1766" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1766" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1767" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1767" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1767" s="3">
+        <v>2349</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1767" s="1">
+        <v>18</v>
+      </c>
+      <c r="F1767" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1767" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1768" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1768" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1768" s="3">
+        <v>5032</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1768" s="1">
+        <v>18</v>
+      </c>
+      <c r="F1768" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1768" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1769" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1769" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1769" s="3">
+        <v>9226</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1769" s="1">
+        <v>18</v>
+      </c>
+      <c r="F1769" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1769" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1770" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1770" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1770" s="3">
+        <v>1854</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1770" s="1">
+        <v>17</v>
+      </c>
+      <c r="F1770" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1770" s="1">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1771" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1771" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1771" s="3">
+        <v>2220</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1771" s="1">
+        <v>16</v>
+      </c>
+      <c r="F1771" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1771" s="1">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1772" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1772" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1772" s="3">
+        <v>3598</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1772" s="1">
+        <v>16</v>
+      </c>
+      <c r="F1772" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1772" s="1">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1773" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1773" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1773" s="3">
+        <v>2394</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1773" s="1">
+        <v>15</v>
+      </c>
+      <c r="F1773" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1773" s="1">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1774" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1774" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1774" s="3">
+        <v>3848</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1774" s="1">
+        <v>15</v>
+      </c>
+      <c r="F1774" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1774" s="1">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1775" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1775" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1775" s="3">
+        <v>9174</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1775" s="1">
+        <v>15</v>
+      </c>
+      <c r="F1775" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1775" s="1">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1776" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1776" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1776" s="3">
+        <v>302</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1776" s="1">
+        <v>14</v>
+      </c>
+      <c r="F1776" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1776" s="1">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1777" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1777" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1777" s="3">
+        <v>2446</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1777" s="1">
+        <v>14</v>
+      </c>
+      <c r="F1777" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1777" s="1">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1778" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1778" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1778" s="3">
+        <v>2547</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1778" s="1">
+        <v>14</v>
+      </c>
+      <c r="F1778" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1778" s="1">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1779" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1779" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1779" s="3">
+        <v>411</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1779" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1779" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1779" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1780" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1780" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1780" s="3">
+        <v>633</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1780" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1780" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1780" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1781" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1781" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1781" s="3">
+        <v>1915</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1781" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1781" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1781" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1782" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1782" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1782" s="3">
+        <v>2168</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1782" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1782" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1782" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1783" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1783" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1783" s="3">
+        <v>3754</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1783" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1783" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1783" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1784" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1784" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1784" s="3">
+        <v>9642</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1784" s="1">
+        <v>13</v>
+      </c>
+      <c r="F1784" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1784" s="1">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1785" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1785" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1785" s="3">
+        <v>380</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1785" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1785" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1785" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1786" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1786" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1786" s="3">
+        <v>467</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1786" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1786" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1786" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1787" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1787" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1787" s="3">
+        <v>596</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1787" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1787" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1787" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1788" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1788" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1788" s="3">
+        <v>722</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1788" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1788" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1788" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1789" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1789" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1789" s="3">
+        <v>2520</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1789" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1789" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1789" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1790" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1790" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1790" s="3">
+        <v>5142</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1790" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1790" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1790" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1791" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1791" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1791" s="3">
+        <v>7065</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1791" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1791" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1791" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1792" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1792" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1792" s="3">
+        <v>9114</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1792" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1792" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1792" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1793" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1793" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1793" s="3">
+        <v>9190</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1793" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1793" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1793" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1794" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1794" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1794" s="3">
+        <v>9211</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1794" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1794" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1794" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1795" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1795" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1795" s="3">
+        <v>412</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1795" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1795" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1795" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1796" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1796" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1796" s="3">
+        <v>420</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1796" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1796" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1796" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1797" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1797" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1797" s="3">
+        <v>541</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1797" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1797" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1797" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1798" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1798" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1798" s="3">
+        <v>561</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1798" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1798" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1798" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1799" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1799" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1799" s="3">
+        <v>571</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1799" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1799" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1799" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1800" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1800" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1800" s="3">
+        <v>1833</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1800" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1800" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1800" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1801" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1801" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1801" s="3">
+        <v>1868</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1801" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1801" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1801" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1802" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1802" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1802" s="3">
+        <v>2395</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1802" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1802" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1802" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1803" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1803" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1803" s="3">
+        <v>3775</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1803" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1803" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1803" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1804" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1804" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1804" s="3">
+        <v>9682</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1804" s="1">
+        <v>11</v>
+      </c>
+      <c r="F1804" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1804" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1805" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1805" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1805" s="3">
+        <v>659</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1805" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1805" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1805" s="1">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1806" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1806" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1806" s="3">
+        <v>2278</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1806" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1806" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1806" s="1">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1807" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1807" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1807" s="3">
+        <v>2746</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1807" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1807" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1807" s="1">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1808" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1808" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1808" s="3">
+        <v>3532</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1808" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1808" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1808" s="1">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1809" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1809" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1809" s="3">
+        <v>423</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1809" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1809" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1809" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1810" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1810" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1810" s="3">
+        <v>460</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1810" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1810" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1810" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1811" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1811" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1811" s="3">
+        <v>660</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1811" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1811" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1811" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1812" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1812" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1812" s="3">
+        <v>1440</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1812" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1812" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1812" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1813" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1813" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1813" s="3">
+        <v>2720</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1813" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1813" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1813" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1814" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1814" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1814" s="3">
+        <v>3398</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1814" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1814" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1814" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1815" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1815" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1815" s="3">
+        <v>3719</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1815" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1815" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1815" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1816" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1816" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1816" s="3">
+        <v>3780</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1816" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1816" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1816" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1817" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1817" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1817" s="3">
+        <v>7027</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1817" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1817" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1817" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1818" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1818" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1818" s="3">
+        <v>9204</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1818" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1818" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1818" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1819" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1819" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1819" s="3">
+        <v>9224</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1819" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1819" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1819" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1820" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1820" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1820" s="3">
+        <v>9292</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1820" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1820" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1820" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1821" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1821" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1821" s="3">
+        <v>9896</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1821" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1821" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1821" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1822" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1822" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1822" s="3">
+        <v>9964</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1822" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1822" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1822" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1823" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1823" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1823" s="3">
+        <v>365</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1823" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1823" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1823" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1824" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1824" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1824" s="3">
+        <v>557</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1824" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1824" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1824" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1825" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1825" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1825" s="3">
+        <v>627</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1825" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1825" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1825" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1826" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1826" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1826" s="3">
+        <v>688</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1826" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1826" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1826" s="1">
+        <f t="shared" ref="G1826:G1889" si="30">E1826-F1826</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1827" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1827" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1827" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1827" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1827" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1827" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1828" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1828" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1828" s="3">
+        <v>2030</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1828" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1828" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1828" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1829" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1829" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1829" s="3">
+        <v>3349</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1829" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1829" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1829" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1830" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1830" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1830" s="3">
+        <v>3690</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1830" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1830" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1830" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1831" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1831" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1831" s="3">
+        <v>3778</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1831" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1831" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1831" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1832" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1832" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1832" s="3">
+        <v>5023</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1832" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1832" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1832" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1833" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1833" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1833" s="3">
+        <v>9241</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1833" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1833" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1833" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1834" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1834" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1834" s="3">
+        <v>9609</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1834" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1834" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1834" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1835" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1835" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1835" s="3">
+        <v>553</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1835" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1835" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1835" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1836" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1836" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1836" s="3">
+        <v>1406</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1836" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1836" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1836" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1837" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1837" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1837" s="3">
+        <v>1779</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1837" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1837" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1837" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1838" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1838" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1838" s="3">
+        <v>2039</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1838" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1838" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1838" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1839" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1839" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1839" s="3">
+        <v>2186</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1839" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1839" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1839" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1840" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1840" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1840" s="3">
+        <v>3556</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1840" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1840" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1840" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1841" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1841" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1841" s="3">
+        <v>3656</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1841" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1841" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1841" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1842" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1842" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1842" s="3">
+        <v>3821</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1842" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1842" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1842" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1843" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1843" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1843" s="3">
+        <v>5130</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1843" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1843" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1843" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1844" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1844" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1844" s="3">
+        <v>9177</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1844" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1844" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1844" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1845" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1845" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1845" s="3">
+        <v>9470</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1845" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1845" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1845" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1846" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1846" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1846" s="3">
+        <v>9922</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1846" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1846" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1846" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1847" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1847" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1847" s="3">
+        <v>373</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1847" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1847" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1847" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1848" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1848" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1848" s="3">
+        <v>674</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1848" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1848" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1848" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1849" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1849" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1849" s="3">
+        <v>1790</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1849" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1849" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1849" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1850" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1850" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1850" s="3">
+        <v>2135</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1850" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1850" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1850" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1851" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1851" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1851" s="3">
+        <v>2190</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1851" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1851" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1851" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1852" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1852" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1852" s="3">
+        <v>2308</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1852" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1852" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1852" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1853" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1853" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1853" s="3">
+        <v>2546</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1853" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1853" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1853" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1854" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1854" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1854" s="3">
+        <v>9139</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1854" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1854" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1854" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1855" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1855" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1855" s="3">
+        <v>9471</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1855" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1855" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1855" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1856" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1856" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1856" s="3">
+        <v>9472</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1856" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1856" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1856" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1857" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1857" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1857" s="3">
+        <v>9636</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1857" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1857" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1857" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1858" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1858" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1858" s="3">
+        <v>9289</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1858" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1858" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1858" s="1">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1859" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1859" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1859" s="3">
+        <v>507</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1859" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1859" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1859" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1860" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1860" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1860" s="3">
+        <v>675</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1860" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1860" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1860" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1861" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1861" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1861" s="3">
+        <v>1826</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1861" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1861" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1861" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1862" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1862" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1862" s="3">
+        <v>2047</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1862" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1862" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1862" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1863" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1863" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1863" s="3">
+        <v>2910</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1863" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1863" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1863" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1864" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1864" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1864" s="3">
+        <v>2928</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1864" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1864" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1864" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1865" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1865" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1865" s="3">
+        <v>3535</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1865" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1865" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1865" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1866" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1866" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1866" s="3">
+        <v>3822</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1866" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1866" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1866" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1867" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1867" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1867" s="3">
+        <v>9121</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1867" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1867" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1867" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1868" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1868" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1868" s="3">
+        <v>9216</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1868" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1868" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1868" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1869" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1869" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1869" s="3">
+        <v>9365</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1869" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1869" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1869" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1870" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1870" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1870" s="3">
+        <v>9617</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1870" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1870" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1870" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1871" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1871" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1871" s="3">
+        <v>9715</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1871" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1871" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1871" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1872" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1872" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1872" s="3">
+        <v>9811</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1872" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1872" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1872" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1873" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1873" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1873" s="3">
+        <v>9850</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1873" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1873" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1873" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1874" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1874" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1874" s="3">
+        <v>3858</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1874" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1874" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1874" s="1">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1875" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1875" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1875" s="3">
+        <v>515</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1875" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1875" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1875" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1876" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1876" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1876" s="3">
+        <v>658</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1876" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1876" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1876" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1877" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1877" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1877" s="3">
+        <v>761</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1877" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1877" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1877" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1878" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1878" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1878" s="3">
+        <v>1459</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1878" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1878" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1878" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1879" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1879" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1879" s="3">
+        <v>1549</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1879" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1879" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1879" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1880" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1880" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1880" s="3">
+        <v>1580</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1880" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1880" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1880" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1881" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1881" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1881" s="3">
+        <v>1713</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1881" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1881" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1881" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1882" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1882" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1882" s="3">
+        <v>1850</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1882" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1882" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1882" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1883" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1883" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1883" s="3">
+        <v>1981</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1883" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1883" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1883" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1884" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1884" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1884" s="3">
+        <v>2060</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1884" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1884" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1884" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1885" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1885" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1885" s="3">
+        <v>2104</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1885" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1885" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1885" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1886" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1886" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1886" s="3">
+        <v>2189</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1886" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1886" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1886" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1887" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1887" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1887" s="3">
+        <v>2246</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1887" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1887" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1887" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1888" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1888" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1888" s="3">
+        <v>2321</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1888" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1888" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1888" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1889" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1889" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1889" s="3">
+        <v>2367</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1889" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1889" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1889" s="1">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1890" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1890" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1890" s="3">
+        <v>2753</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1890" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1890" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1890" s="1">
+        <f t="shared" ref="G1890:G1953" si="31">E1890-F1890</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1891" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1891" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1891" s="3">
+        <v>2913</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1891" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1891" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1891" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1892" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1892" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1892" s="3">
+        <v>3458</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1892" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1892" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1892" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1893" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1893" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1893" s="3">
+        <v>3820</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1893" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1893" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1893" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1894" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1894" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1894" s="3">
+        <v>7106</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1894" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1894" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1894" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1895" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1895" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1895" s="3">
+        <v>9031</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1895" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1895" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1895" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1896" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1896" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1896" s="3">
+        <v>9063</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1896" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1896" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1896" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1897" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1897" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1897" s="3">
+        <v>9131</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1897" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1897" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1897" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1898" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1898" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1898" s="3">
+        <v>9329</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1898" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1898" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1898" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1899" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1899" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1899" s="3">
+        <v>9340</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1899" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1899" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1899" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1900" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1900" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1900" s="3">
+        <v>9381</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1900" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1900" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1900" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1901" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1901" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1901" s="3">
+        <v>9561</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1901" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1901" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1901" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1902" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1902" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1902" s="3">
+        <v>9605</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1902" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1902" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1902" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1903" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1903" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1903" s="3">
+        <v>9701</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1903" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1903" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1903" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1904" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1904" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1904" s="3">
+        <v>9868</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1904" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1904" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1904" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1905" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1905" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1905" s="3">
+        <v>3856</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1905" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1905" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1905" s="1">
+        <f t="shared" si="31"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1906" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1906" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1906" s="3">
+        <v>504</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1906" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1906" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1906" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1907" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1907" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1907" s="3">
+        <v>517</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1907" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1907" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1907" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1908" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1908" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1908" s="3">
+        <v>666</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1908" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1908" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1908" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1909" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1909" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1909" s="3">
+        <v>2099</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1909" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1909" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1909" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1910" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1910" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1910" s="3">
+        <v>2122</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1910" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1910" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1910" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1911" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1911" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1911" s="3">
+        <v>2227</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1911" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1911" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1911" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1912" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1912" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1912" s="3">
+        <v>2235</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1912" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1912" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1912" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1913" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1913" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1913" s="3">
+        <v>2239</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1913" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1913" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1913" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1914" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1914" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1914" s="3">
+        <v>2285</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1914" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1914" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1914" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1915" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1915" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1915" s="3">
+        <v>2441</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1915" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1915" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1915" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1916" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1916" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1916" s="3">
+        <v>2479</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1916" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1916" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1916" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1917" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1917" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1917" s="3">
+        <v>2586</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1917" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1917" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1917" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1918" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1918" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1918" s="3">
+        <v>2808</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1918" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1918" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1918" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1919" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1919" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1919" s="3">
+        <v>3368</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1919" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1919" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1919" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1920" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1920" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1920" s="3">
+        <v>3513</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1920" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1920" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1920" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1921" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1921" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1921" s="3">
+        <v>3559</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1921" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1921" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1921" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1922" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1922" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1922" s="3">
+        <v>3629</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1922" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1922" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1922" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1923" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1923" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1923" s="3">
+        <v>3659</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1923" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1923" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1923" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1924" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1924" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1924" s="3">
+        <v>3751</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1924" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1924" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1924" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1925" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1925" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1925" s="3">
+        <v>7602</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1925" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1925" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1925" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1926" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1926" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1926" s="3">
+        <v>9181</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1926" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1926" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1926" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1927" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1927" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1927" s="3">
+        <v>9484</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1927" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1927" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1927" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1928" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1928" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1928" s="3">
+        <v>9670</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1928" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1928" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1928" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1929" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1929" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1929" s="3">
+        <v>9740</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1929" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1929" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1929" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1930" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1930" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1930" s="3">
+        <v>9839</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1930" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1930" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1930" s="1">
+        <f t="shared" si="31"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1931" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1931" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1931" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1931" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1931" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1931" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1932" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1932" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1932" s="3">
+        <v>301</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1932" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1932" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1932" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1933" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1933" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1933" s="3">
+        <v>315</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1933" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1933" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1933" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1934" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1934" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1934" s="3">
+        <v>529</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1934" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1934" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1934" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1935" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1935" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1935" s="3">
+        <v>539</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1935" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1935" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1935" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1936" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1936" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1936" s="3">
+        <v>692</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1936" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1936" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1936" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1937" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1937" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1937" s="3">
+        <v>1799</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1937" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1937" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1937" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1938" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1938" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1938" s="3">
+        <v>2082</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1938" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1938" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1938" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1939" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1939" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1939" s="3">
+        <v>2322</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1939" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1939" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1939" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1940" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1940" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1940" s="3">
+        <v>2341</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1940" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1940" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1940" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1941" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1941" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1941" s="3">
+        <v>2512</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1941" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1941" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1941" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1942" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1942" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1942" s="3">
+        <v>2631</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1942" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1942" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1942" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1943" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1943" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1943" s="3">
+        <v>2763</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1943" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1943" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1943" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1944" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1944" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1944" s="3">
+        <v>2784</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1944" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1944" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1944" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1945" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1945" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1945" s="3">
+        <v>2795</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1945" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1945" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1945" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1946" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1946" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1946" s="3">
+        <v>2871</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1946" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1946" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1946" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1947" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1947" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1947" s="3">
+        <v>3049</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1947" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1947" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1947" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1948" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1948" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1948" s="3">
+        <v>3557</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1948" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1948" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1948" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1949" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1949" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1949" s="3">
+        <v>3575</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1949" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1949" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1949" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1950" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1950" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1950" s="3">
+        <v>3619</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1950" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1950" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1950" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1951" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1951" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1951" s="3">
+        <v>3654</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1951" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1951" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1951" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1952" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1952" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1952" s="3">
+        <v>3755</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1952" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1952" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1952" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1953" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1953" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1953" s="3">
+        <v>3799</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1953" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1953" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1953" s="1">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1954" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1954" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1954" s="3">
+        <v>3824</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1954" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1954" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1954" s="1">
+        <f t="shared" ref="G1954:G2017" si="32">E1954-F1954</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1955" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1955" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1955" s="3">
+        <v>9071</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1955" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1955" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1955" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1956" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1956" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1956" s="3">
+        <v>9082</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1956" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1956" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1956" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1957" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1957" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1957" s="3">
+        <v>9112</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1957" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1957" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1957" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1958" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1958" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1958" s="3">
+        <v>9234</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1958" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1958" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1958" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1959" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1959" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1959" s="3">
+        <v>9364</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1959" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1959" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1959" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1960" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1960" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1960" s="3">
+        <v>9468</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1960" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1960" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1960" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1961" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1961" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1961" s="3">
+        <v>9550</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1961" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1961" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1961" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1962" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1962" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1962" s="3">
+        <v>9641</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1962" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1962" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1962" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1963" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1963" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1963" s="3">
+        <v>9669</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1963" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1963" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1963" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1964" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1964" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1964" s="3">
+        <v>9739</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1964" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1964" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1964" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1965" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1965" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1965" s="3">
+        <v>9789</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1965" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1965" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1965" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1966" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1966" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1966" s="3">
+        <v>9794</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1966" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1966" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1966" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1967" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1967" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1967" s="3">
+        <v>9828</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1967" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1967" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1967" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1968" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1968" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1968" s="3">
+        <v>9880</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1968" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1968" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1968" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1969" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1969" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1969" s="3">
+        <v>331</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1969" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1969" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1969" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1970" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1970" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1970" s="3">
+        <v>479</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1970" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1970" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1970" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1971" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1971" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1971" s="3">
+        <v>523</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1971" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1971" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1971" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1972" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1972" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1972" s="3">
+        <v>559</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1972" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1972" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1972" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1973" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1973" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1973" s="3">
+        <v>987</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1973" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1973" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1973" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1974" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1974" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1974" s="3">
+        <v>1785</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1974" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1974" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1974" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1975" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1975" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1975" s="3">
+        <v>2031</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1975" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1975" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1975" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1976" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1976" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1976" s="3">
+        <v>2096</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1976" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1976" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1976" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1977" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1977" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1977" s="3">
+        <v>2102</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1977" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1977" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1977" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1978" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1978" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1978" s="3">
+        <v>2252</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1978" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1978" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1978" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1979" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1979" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1979" s="3">
+        <v>2390</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1979" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1979" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1979" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1980" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1980" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1980" s="3">
+        <v>2410</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1980" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1980" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1980" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1981" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1981" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1981" s="3">
+        <v>2421</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1981" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1981" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1981" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1982" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1982" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1982" s="3">
+        <v>2463</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1982" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1982" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1982" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1983" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1983" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1983" s="3">
+        <v>2501</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1983" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1983" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1983" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1984" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1984" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1984" s="3">
+        <v>2581</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1984" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1984" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1984" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1985" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1985" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1985" s="3">
+        <v>2632</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1985" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1985" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1985" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1986" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1986" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1986" s="3">
+        <v>2755</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1986" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1986" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1986" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1987" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1987" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1987" s="3">
+        <v>2814</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1987" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1987" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1987" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1988" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1988" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1988" s="3">
+        <v>2836</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1988" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1988" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1988" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1989" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1989" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1989" s="3">
+        <v>2884</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1989" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1989" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1989" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1990" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1990" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1990" s="3">
+        <v>2916</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1990" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1990" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1990" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1991" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1991" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1991" s="3">
+        <v>3534</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1991" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1991" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1991" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1992" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1992" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1992" s="3">
+        <v>3655</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1992" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1992" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1992" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1993" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1993" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1993" s="3">
+        <v>3750</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1993" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1993" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1993" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1994" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1994" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1994" s="3">
+        <v>3781</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1994" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1994" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1994" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1995" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1995" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1995" s="3">
+        <v>3802</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1995" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1995" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1995" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1996" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1996" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1996" s="3">
+        <v>5002</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1996" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1996" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1996" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1997" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1997" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1997" s="3">
+        <v>9022</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1997" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1997" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1997" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1998" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1998" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1998" s="3">
+        <v>9072</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1998" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1998" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1998" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1999" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1999" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1999" s="3">
+        <v>9113</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1999" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1999" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1999" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2000" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2000" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2000" s="3">
+        <v>9119</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2000" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2000" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2000" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2001" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2001" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2001" s="3">
+        <v>9161</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2001" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2001" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2001" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2002" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2002" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2002" s="3">
+        <v>9228</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2002" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2002" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2002" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2003" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2003" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2003" s="3">
+        <v>9237</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2003" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2003" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2003" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2004" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2004" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2004" s="3">
+        <v>9320</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2004" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2004" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2004" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2005" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2005" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2005" s="3">
+        <v>9843</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2005" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2005" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2005" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2006" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2006" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2006" s="3">
+        <v>9943</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2006" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2006" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2006" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2007" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2007" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2007" s="3">
+        <v>9971</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2007" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2007" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2007" s="1">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2008" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2008" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2008" s="3">
+        <v>307</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2008" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2008" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2008" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2009" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2009" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2009" s="3">
+        <v>319</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2009" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2009" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2009" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2010" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2010" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2010" s="3">
+        <v>361</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2010" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2010" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2010" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2011" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2011" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2011" s="3">
+        <v>530</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2011" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2011" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2011" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2012" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2012" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2012" s="3">
+        <v>662</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2012" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2012" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2012" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2013" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2013" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2013" s="3">
+        <v>676</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2013" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2013" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2013" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2014" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2014" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2014" s="3">
+        <v>680</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2014" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2014" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2014" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2015" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2015" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2015" s="3">
+        <v>684</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2015" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2015" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2015" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2016" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2016" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2016" s="3">
+        <v>747</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2016" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2016" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2016" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2017" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2017" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2017" s="3">
+        <v>797</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2017" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2017" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2017" s="1">
+        <f t="shared" si="32"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2018" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2018" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2018" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2018" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2018" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2018" s="1">
+        <f t="shared" ref="G2018:G2081" si="33">E2018-F2018</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2019" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2019" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2019" s="3">
+        <v>1224</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2019" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2019" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2019" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2020" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2020" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2020" s="3">
+        <v>1423</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2020" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2020" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2020" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2021" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2021" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2021" s="3">
+        <v>1433</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2021" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2021" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2021" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2022" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2022" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2022" s="3">
+        <v>1540</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2022" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2022" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2022" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2023" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2023" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2023" s="3">
+        <v>1543</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2023" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2023" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2023" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2024" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2024" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2024" s="3">
+        <v>1604</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2024" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2024" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2024" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2025" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2025" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2025" s="3">
+        <v>1712</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2025" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2025" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2025" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2026" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2026" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2026" s="3">
+        <v>1714</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2026" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2026" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2026" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2027" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2027" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2027" s="3">
+        <v>1820</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2027" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2027" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2027" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2028" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2028" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2028" s="3">
+        <v>1827</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2028" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2028" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2028" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2029" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2029" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2029" s="3">
+        <v>1870</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2029" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2029" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2029" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2030" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2030" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2030" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2030" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2030" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2030" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2031" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2031" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2031" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2031" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2031" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2031" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2032" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2032" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2032" s="3">
+        <v>2061</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2032" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2032" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2032" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2033" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2033" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2033" s="3">
+        <v>2163</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2033" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2033" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2033" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2034" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2034" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2034" s="3">
+        <v>2218</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2034" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2034" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2034" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2035" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2035" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2035" s="3">
+        <v>2331</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2035" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2035" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2035" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2036" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2036" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2036" s="3">
+        <v>2364</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2036" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2036" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2036" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2037" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2037" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2037" s="3">
+        <v>2406</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2037" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2037" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2037" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2038" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2038" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2038" s="3">
+        <v>2467</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2038" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2038" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2038" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2039" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2039" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2039" s="3">
+        <v>2516</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2039" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2039" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2039" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2040" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2040" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2040" s="3">
+        <v>2626</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2040" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2040" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2040" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2041" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2041" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2041" s="3">
+        <v>2649</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2041" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2041" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2041" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2042" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2042" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2042" s="3">
+        <v>2652</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2042" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2042" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2042" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2043" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2043" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2043" s="3">
+        <v>2654</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2043" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2043" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2043" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2044" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2044" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2044" s="3">
+        <v>2672</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2044" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2044" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2044" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2045" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2045" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2045" s="3">
+        <v>2694</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2045" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2045" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2045" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2046" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2046" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2046" s="3">
+        <v>2721</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2046" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2046" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2046" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2047" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2047" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2047" s="3">
+        <v>2727</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2047" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2047" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2047" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2048" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2048" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2048" s="3">
+        <v>2748</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2048" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2048" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2048" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2049" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2049" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2049" s="3">
+        <v>2749</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2049" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2049" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2049" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2050" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2050" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2050" s="3">
+        <v>2766</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2050" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2050" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2050" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2051" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2051" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2051" s="3">
+        <v>2790</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2051" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2051" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2051" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2052" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2052" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2052" s="3">
+        <v>2815</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2052" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2052" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2052" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2053" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2053" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2053" s="3">
+        <v>2883</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2053" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2053" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2053" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2054" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2054" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2054" s="3">
+        <v>2896</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2054" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2054" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2054" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2055" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2055" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2055" s="3">
+        <v>2905</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2055" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2055" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2055" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2056" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2056" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2056" s="3">
+        <v>2911</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2056" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2056" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2056" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2057" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2057" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2057" s="3">
+        <v>2922</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2057" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2057" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2057" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2058" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2058" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2058" s="3">
+        <v>2925</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2058" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2058" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2058" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2059" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2059" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2059" s="3">
+        <v>3158</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2059" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2059" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2059" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2060" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2060" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2060" s="3">
+        <v>3365</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2060" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2060" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2060" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2061" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2061" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2061" s="3">
+        <v>3381</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2061" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2061" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2061" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2062" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2062" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2062" s="3">
+        <v>3399</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2062" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2062" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2062" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2063" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2063" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2063" s="3">
+        <v>3531</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2063" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2063" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2063" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2064" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2064" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2064" s="3">
+        <v>3539</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2064" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2064" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2064" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2065" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2065" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2065" s="3">
+        <v>3555</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2065" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2065" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2065" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2066" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2066" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2066" s="3">
+        <v>3572</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2066" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2066" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2066" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2067" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2067" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2067" s="3">
+        <v>3584</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2067" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2067" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2067" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2068" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2068" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2068" s="3">
+        <v>3625</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2068" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2068" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2068" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2069" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2069" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2069" s="3">
+        <v>3628</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2069" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2069" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2069" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2070" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2070" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2070" s="3">
+        <v>3630</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2070" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2070" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2070" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2071" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2071" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2071" s="3">
+        <v>3641</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2071" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2071" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2071" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2072" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2072" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2072" s="3">
+        <v>3696</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2072" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2072" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2072" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2073" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2073" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2073" s="3">
+        <v>3699</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2073" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2073" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2073" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2074" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2074" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2074" s="3">
+        <v>3700</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2074" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2074" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2074" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2075" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2075" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2075" s="3">
+        <v>3706</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2075" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2075" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2075" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2076" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2076" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2076" s="3">
+        <v>3752</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2076" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2076" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2076" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2077" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2077" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2077" s="3">
+        <v>3756</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2077" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2077" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2077" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2078" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2078" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2078" s="3">
+        <v>3774</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2078" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2078" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2078" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2079" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2079" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2079" s="3">
+        <v>3801</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2079" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2079" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2079" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2080" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2080" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2080" s="3">
+        <v>3803</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2080" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2080" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2080" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2081" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2081" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2081" s="3">
+        <v>3823</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2081" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2081" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2081" s="1">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2082" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2082" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2082" s="3">
+        <v>3846</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2082" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2082" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2082" s="1">
+        <f t="shared" ref="G2082:G2107" si="34">E2082-F2082</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2083" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2083" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2083" s="3">
+        <v>3847</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2083" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2083" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2083" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2084" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2084" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2084" s="3">
+        <v>9199</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2084" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2084" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2084" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2085" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2085" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2085" s="3">
+        <v>9200</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2085" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2085" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2085" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2086" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2086" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2086" s="3">
+        <v>9218</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2086" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2086" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2086" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2087" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2087" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2087" s="3">
+        <v>9220</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2087" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2087" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2087" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2088" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2088" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2088" s="3">
+        <v>9230</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2088" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2088" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2088" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2089" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2089" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2089" s="3">
+        <v>9231</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2089" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2089" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2089" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2090" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2090" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2090" s="3">
+        <v>9317</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2090" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2090" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2090" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2091" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2091" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2091" s="3">
+        <v>9319</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2091" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2091" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2091" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2092" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2092" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2092" s="3">
+        <v>9324</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2092" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2092" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2092" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2093" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2093" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2093" s="3">
+        <v>9358</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2093" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2093" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2093" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2094" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2094" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2094" s="3">
+        <v>9426</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2094" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2094" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2094" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2095" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2095" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2095" s="3">
+        <v>9607</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2095" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2095" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2095" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2096" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2096" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2096" s="3">
+        <v>9614</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2096" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2096" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2096" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2097" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2097" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2097" s="3">
+        <v>9683</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2097" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2097" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2097" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2098" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2098" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2098" s="3">
+        <v>9726</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2098" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2098" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2098" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2099" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2099" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2099" s="3">
+        <v>9791</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2099" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2099" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2099" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2100" s="3">
+        <v>9844</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2100" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2100" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2101" s="3">
+        <v>9899</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2101" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2101" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2102" s="3">
+        <v>9908</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2102" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2102" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2103" s="3">
+        <v>9946</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2103" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2103" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2104" s="3">
+        <v>9966</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2104" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2104" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2105" s="3">
+        <v>9973</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2105" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2105" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2106" s="3">
+        <v>3859</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2106" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2106" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2107" s="3">
+        <v>3857</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2107" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2107" s="1">
+        <f t="shared" si="34"/>
+        <v>-8</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E628BC-4287-934F-9B87-2B1F9835C0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C80125-E8FB-4543-9892-1FB188A1F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6961" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8005" uniqueCount="20">
   <si>
     <t>Estado</t>
   </si>
@@ -1031,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G2319"/>
+  <dimension ref="A1:G2667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2300" workbookViewId="0">
-      <selection activeCell="E1829" sqref="E1829:E2308"/>
+    <sheetView tabSelected="1" topLeftCell="A2314" workbookViewId="0">
+      <selection activeCell="G2319" sqref="G2319:G2667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -56263,7 +56263,7 @@
         <v>20</v>
       </c>
       <c r="G2301" s="3">
-        <f t="shared" ref="G2301:G2319" si="38">E2301-F2301</f>
+        <f t="shared" ref="G2301:G2364" si="38">E2301-F2301</f>
         <v>-20</v>
       </c>
     </row>
@@ -56697,6 +56697,8358 @@
       <c r="G2319" s="3">
         <f t="shared" si="38"/>
         <v>-20</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2320" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2320" s="3">
+        <v>818</v>
+      </c>
+      <c r="D2320" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2320" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2320" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2320" s="3">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2321" s="3">
+        <v>1890</v>
+      </c>
+      <c r="D2321" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2321" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2321" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2321" s="3">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2322" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2322" s="3">
+        <v>3695</v>
+      </c>
+      <c r="D2322" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2322" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2322" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2322" s="3">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2323" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2323" s="3">
+        <v>2502</v>
+      </c>
+      <c r="D2323" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2323" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2323" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2323" s="3">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2324" s="3">
+        <v>219</v>
+      </c>
+      <c r="D2324" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2324" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2324" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2324" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2325" s="3">
+        <v>763</v>
+      </c>
+      <c r="D2325" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2325" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2325" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2325" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2326" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2326" s="3">
+        <v>1541</v>
+      </c>
+      <c r="D2326" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2326" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2326" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2326" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2327" s="3">
+        <v>1891</v>
+      </c>
+      <c r="D2327" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2327" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2327" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2327" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2328" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2328" s="3">
+        <v>2356</v>
+      </c>
+      <c r="D2328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2328" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2328" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2328" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2329" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2329" s="3">
+        <v>3566</v>
+      </c>
+      <c r="D2329" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2329" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2329" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2329" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2330" s="3">
+        <v>3664</v>
+      </c>
+      <c r="D2330" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2330" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2330" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2330" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2331" s="3">
+        <v>9154</v>
+      </c>
+      <c r="D2331" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2331" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2331" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2331" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2332" s="3">
+        <v>291</v>
+      </c>
+      <c r="D2332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2332" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2332" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2332" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2333" s="3">
+        <v>795</v>
+      </c>
+      <c r="D2333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2333" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2333" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2333" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2334" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2334" s="3">
+        <v>826</v>
+      </c>
+      <c r="D2334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2334" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2334" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2334" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2335" s="3">
+        <v>831</v>
+      </c>
+      <c r="D2335" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2335" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2335" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2335" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2336" s="3">
+        <v>1480</v>
+      </c>
+      <c r="D2336" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2336" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2336" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2336" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2337" s="3">
+        <v>1482</v>
+      </c>
+      <c r="D2337" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2337" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2337" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2337" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2338" s="3">
+        <v>2086</v>
+      </c>
+      <c r="D2338" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2338" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2338" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2338" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2339" s="3">
+        <v>3079</v>
+      </c>
+      <c r="D2339" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2339" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2339" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2339" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2340" s="3">
+        <v>3768</v>
+      </c>
+      <c r="D2340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2340" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2340" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2340" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2341" s="3">
+        <v>3791</v>
+      </c>
+      <c r="D2341" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2341" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2341" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2341" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2342" s="3">
+        <v>3818</v>
+      </c>
+      <c r="D2342" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2342" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2342" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2342" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2343" s="3">
+        <v>9020</v>
+      </c>
+      <c r="D2343" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2343" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2343" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2343" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2344" s="3">
+        <v>9575</v>
+      </c>
+      <c r="D2344" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2344" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2344" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2344" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2345" s="3">
+        <v>9795</v>
+      </c>
+      <c r="D2345" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2345" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2345" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2345" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2346" s="3">
+        <v>9967</v>
+      </c>
+      <c r="D2346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2346" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2346" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2346" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2347" s="3">
+        <v>213</v>
+      </c>
+      <c r="D2347" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2347" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2347" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2347" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2348" s="3">
+        <v>220</v>
+      </c>
+      <c r="D2348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2348" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2348" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2348" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2349" s="3">
+        <v>793</v>
+      </c>
+      <c r="D2349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2349" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2349" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2349" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2350" s="3">
+        <v>927</v>
+      </c>
+      <c r="D2350" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2350" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2350" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2350" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2351" s="3">
+        <v>1429</v>
+      </c>
+      <c r="D2351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2351" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2351" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2351" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2352" s="3">
+        <v>1468</v>
+      </c>
+      <c r="D2352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2352" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2352" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2352" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2353" s="3">
+        <v>2810</v>
+      </c>
+      <c r="D2353" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2353" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2353" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2353" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2354" s="3">
+        <v>3595</v>
+      </c>
+      <c r="D2354" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2354" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2354" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2354" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2355" s="3">
+        <v>3666</v>
+      </c>
+      <c r="D2355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2355" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2355" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2355" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2356" s="3">
+        <v>3744</v>
+      </c>
+      <c r="D2356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2356" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2356" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2356" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2357" s="3">
+        <v>9448</v>
+      </c>
+      <c r="D2357" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2357" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2357" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2357" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2358" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2358" s="3">
+        <v>9527</v>
+      </c>
+      <c r="D2358" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2358" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2358" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2358" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2359" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2359" s="3">
+        <v>9686</v>
+      </c>
+      <c r="D2359" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2359" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2359" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2359" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2360" s="3">
+        <v>9938</v>
+      </c>
+      <c r="D2360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2360" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2360" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2360" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2361" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2361" s="3">
+        <v>3864</v>
+      </c>
+      <c r="D2361" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2361" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2361" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2361" s="3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2362" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2362" s="3">
+        <v>784</v>
+      </c>
+      <c r="D2362" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2362" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2362" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2362" s="3">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2363" s="3">
+        <v>785</v>
+      </c>
+      <c r="D2363" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2363" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2363" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2363" s="3">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2364" s="3">
+        <v>870</v>
+      </c>
+      <c r="D2364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2364" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2364" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2364" s="3">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2365" s="3">
+        <v>879</v>
+      </c>
+      <c r="D2365" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2365" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2365" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2365" s="3">
+        <f t="shared" ref="G2365:G2428" si="39">E2365-F2365</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2366" s="3">
+        <v>1401</v>
+      </c>
+      <c r="D2366" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2366" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2366" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2366" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2367" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2367" s="3">
+        <v>1420</v>
+      </c>
+      <c r="D2367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2367" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2367" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2367" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2368" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2368" s="3">
+        <v>2862</v>
+      </c>
+      <c r="D2368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2368" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2368" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2368" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2369" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2369" s="3">
+        <v>3180</v>
+      </c>
+      <c r="D2369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2369" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2369" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2369" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2370" s="3">
+        <v>3646</v>
+      </c>
+      <c r="D2370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2370" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2370" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2370" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2371" s="3">
+        <v>3662</v>
+      </c>
+      <c r="D2371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2371" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2371" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2371" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2372" s="3">
+        <v>3691</v>
+      </c>
+      <c r="D2372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2372" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2372" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2372" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2373" s="3">
+        <v>3811</v>
+      </c>
+      <c r="D2373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2373" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2373" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2373" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2374" s="3">
+        <v>3842</v>
+      </c>
+      <c r="D2374" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2374" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2374" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2374" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2375" s="3">
+        <v>9102</v>
+      </c>
+      <c r="D2375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2375" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2375" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2375" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2376" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2376" s="3">
+        <v>9620</v>
+      </c>
+      <c r="D2376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2376" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2376" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2376" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2377" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2377" s="3">
+        <v>9720</v>
+      </c>
+      <c r="D2377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2377" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2377" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2377" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2378" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2378" s="3">
+        <v>9935</v>
+      </c>
+      <c r="D2378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2378" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2378" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2378" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2379" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2379" s="3">
+        <v>3853</v>
+      </c>
+      <c r="D2379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2379" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2379" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2379" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2380" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2380" s="3">
+        <v>283</v>
+      </c>
+      <c r="D2380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2380" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2380" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2380" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2381" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2381" s="3">
+        <v>735</v>
+      </c>
+      <c r="D2381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2381" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2381" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2381" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2382" s="3">
+        <v>766</v>
+      </c>
+      <c r="D2382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2382" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2382" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2382" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2383" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2383" s="3">
+        <v>838</v>
+      </c>
+      <c r="D2383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2383" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2383" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2383" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2384" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2384" s="3">
+        <v>951</v>
+      </c>
+      <c r="D2384" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2384" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2384" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2384" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2385" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2385" s="3">
+        <v>985</v>
+      </c>
+      <c r="D2385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2385" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2385" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2385" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2386" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2386" s="3">
+        <v>1402</v>
+      </c>
+      <c r="D2386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2386" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2386" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2386" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2387" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2387" s="3">
+        <v>1410</v>
+      </c>
+      <c r="D2387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2387" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2387" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2387" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2388" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2388" s="3">
+        <v>1434</v>
+      </c>
+      <c r="D2388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2388" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2388" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2388" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2389" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2389" s="3">
+        <v>1466</v>
+      </c>
+      <c r="D2389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2389" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2389" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2389" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2390" s="3">
+        <v>1553</v>
+      </c>
+      <c r="D2390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2390" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2390" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2390" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2391" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2391" s="3">
+        <v>1675</v>
+      </c>
+      <c r="D2391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2391" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2391" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2391" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2392" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2392" s="3">
+        <v>1813</v>
+      </c>
+      <c r="D2392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2392" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2392" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2392" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2393" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2393" s="3">
+        <v>1878</v>
+      </c>
+      <c r="D2393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2393" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2393" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2393" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2394" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2394" s="3">
+        <v>2583</v>
+      </c>
+      <c r="D2394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2394" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2394" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2394" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2395" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2395" s="3">
+        <v>2851</v>
+      </c>
+      <c r="D2395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2395" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2395" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2395" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2396" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2396" s="3">
+        <v>2946</v>
+      </c>
+      <c r="D2396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2396" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2396" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2396" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2397" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2397" s="3">
+        <v>3278</v>
+      </c>
+      <c r="D2397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2397" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2397" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2397" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2398" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2398" s="3">
+        <v>3593</v>
+      </c>
+      <c r="D2398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2398" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2398" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2398" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2399" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2399" s="3">
+        <v>3643</v>
+      </c>
+      <c r="D2399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2399" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2399" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2399" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2400" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2400" s="3">
+        <v>3797</v>
+      </c>
+      <c r="D2400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2400" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2400" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2400" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2401" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2401" s="3">
+        <v>9296</v>
+      </c>
+      <c r="D2401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2401" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2401" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2401" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2402" s="3">
+        <v>9637</v>
+      </c>
+      <c r="D2402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2402" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2402" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2402" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2403" s="3">
+        <v>9658</v>
+      </c>
+      <c r="D2403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2403" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2403" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2403" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2404" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2404" s="3">
+        <v>9672</v>
+      </c>
+      <c r="D2404" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2404" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2404" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2404" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2405" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2405" s="3">
+        <v>9685</v>
+      </c>
+      <c r="D2405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2405" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2405" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2405" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2406" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2406" s="3">
+        <v>9742</v>
+      </c>
+      <c r="D2406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2406" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2406" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2406" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2407" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2407" s="3">
+        <v>3861</v>
+      </c>
+      <c r="D2407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2407" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2407" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2407" s="3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2408" s="3">
+        <v>222</v>
+      </c>
+      <c r="D2408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2408" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2408" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2408" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2409" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2409" s="3">
+        <v>717</v>
+      </c>
+      <c r="D2409" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2409" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2409" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2409" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2410" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2410" s="3">
+        <v>781</v>
+      </c>
+      <c r="D2410" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2410" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2410" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2410" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2411" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2411" s="3">
+        <v>794</v>
+      </c>
+      <c r="D2411" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2411" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2411" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2411" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2412" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2412" s="3">
+        <v>803</v>
+      </c>
+      <c r="D2412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2412" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2412" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2412" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2413" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2413" s="3">
+        <v>859</v>
+      </c>
+      <c r="D2413" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2413" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2413" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2413" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2414" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2414" s="3">
+        <v>1146</v>
+      </c>
+      <c r="D2414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2414" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2414" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2414" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2415" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2415" s="3">
+        <v>1416</v>
+      </c>
+      <c r="D2415" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2415" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2415" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2415" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2416" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2416" s="3">
+        <v>1443</v>
+      </c>
+      <c r="D2416" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2416" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2416" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2416" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2417" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2417" s="3">
+        <v>1485</v>
+      </c>
+      <c r="D2417" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2417" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2417" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2417" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2418" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2418" s="3">
+        <v>1487</v>
+      </c>
+      <c r="D2418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2418" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2418" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2418" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2419" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2419" s="3">
+        <v>1594</v>
+      </c>
+      <c r="D2419" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2419" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2419" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2419" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2420" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2420" s="3">
+        <v>1595</v>
+      </c>
+      <c r="D2420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2420" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2420" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2420" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2421" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2421" s="3">
+        <v>1847</v>
+      </c>
+      <c r="D2421" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2421" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2421" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2421" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2422" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2422" s="3">
+        <v>2852</v>
+      </c>
+      <c r="D2422" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2422" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2422" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2422" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2423" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2423" s="3">
+        <v>2874</v>
+      </c>
+      <c r="D2423" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2423" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2423" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2423" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2424" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2424" s="3">
+        <v>3198</v>
+      </c>
+      <c r="D2424" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2424" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2424" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2424" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2425" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2425" s="3">
+        <v>3424</v>
+      </c>
+      <c r="D2425" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2425" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2425" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2425" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2426" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2426" s="3">
+        <v>3576</v>
+      </c>
+      <c r="D2426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2426" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2426" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2426" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2427" s="3">
+        <v>3661</v>
+      </c>
+      <c r="D2427" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2427" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2427" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2427" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2428" s="3">
+        <v>3663</v>
+      </c>
+      <c r="D2428" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2428" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2428" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2428" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2429" s="3">
+        <v>3677</v>
+      </c>
+      <c r="D2429" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2429" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2429" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2429" s="3">
+        <f t="shared" ref="G2429:G2492" si="40">E2429-F2429</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2430" s="3">
+        <v>3735</v>
+      </c>
+      <c r="D2430" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2430" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2430" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2430" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2431" s="3">
+        <v>3767</v>
+      </c>
+      <c r="D2431" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2431" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2431" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2431" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2432" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2432" s="3">
+        <v>3809</v>
+      </c>
+      <c r="D2432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2432" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2432" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2432" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2433" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2433" s="3">
+        <v>3812</v>
+      </c>
+      <c r="D2433" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2433" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2433" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2433" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2434" s="3">
+        <v>3815</v>
+      </c>
+      <c r="D2434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2434" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2434" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2434" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2435" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2435" s="3">
+        <v>3834</v>
+      </c>
+      <c r="D2435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2435" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2435" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2435" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2436" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2436" s="3">
+        <v>3843</v>
+      </c>
+      <c r="D2436" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2436" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2436" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2436" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2437" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2437" s="3">
+        <v>9132</v>
+      </c>
+      <c r="D2437" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2437" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2437" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2437" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2438" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2438" s="3">
+        <v>9134</v>
+      </c>
+      <c r="D2438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2438" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2438" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2438" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2439" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2439" s="3">
+        <v>9246</v>
+      </c>
+      <c r="D2439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2439" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2439" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2439" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2440" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2440" s="3">
+        <v>9301</v>
+      </c>
+      <c r="D2440" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2440" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2440" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2440" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2441" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2441" s="3">
+        <v>9626</v>
+      </c>
+      <c r="D2441" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2441" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2441" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2441" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2442" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2442" s="3">
+        <v>9645</v>
+      </c>
+      <c r="D2442" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2442" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2442" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2442" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2443" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2443" s="3">
+        <v>9887</v>
+      </c>
+      <c r="D2443" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2443" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2443" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2443" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2444" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2444" s="3">
+        <v>679</v>
+      </c>
+      <c r="D2444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2444" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2444" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2444" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2445" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2445" s="3">
+        <v>846</v>
+      </c>
+      <c r="D2445" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2445" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2445" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2445" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2446" s="3">
+        <v>917</v>
+      </c>
+      <c r="D2446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2446" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2446" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2446" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2447" s="3">
+        <v>1624</v>
+      </c>
+      <c r="D2447" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2447" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2447" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2447" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2448" s="3">
+        <v>1812</v>
+      </c>
+      <c r="D2448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2448" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2448" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2448" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2449" s="3">
+        <v>1887</v>
+      </c>
+      <c r="D2449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2449" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2449" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2449" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2450" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2450" s="3">
+        <v>2653</v>
+      </c>
+      <c r="D2450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2450" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2450" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2450" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2451" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2451" s="3">
+        <v>2829</v>
+      </c>
+      <c r="D2451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2451" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2451" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2451" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2452" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2452" s="3">
+        <v>2848</v>
+      </c>
+      <c r="D2452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2452" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2452" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2452" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2453" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2453" s="3">
+        <v>2857</v>
+      </c>
+      <c r="D2453" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2453" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2453" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2453" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2454" s="3">
+        <v>2860</v>
+      </c>
+      <c r="D2454" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2454" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2454" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2454" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2455" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2455" s="3">
+        <v>2864</v>
+      </c>
+      <c r="D2455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2455" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2455" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2455" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2456" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2456" s="3">
+        <v>2875</v>
+      </c>
+      <c r="D2456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2456" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2456" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2456" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2457" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2457" s="3">
+        <v>2963</v>
+      </c>
+      <c r="D2457" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2457" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2457" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2457" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2458" s="3">
+        <v>2970</v>
+      </c>
+      <c r="D2458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2458" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2458" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2458" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2459" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2459" s="3">
+        <v>3236</v>
+      </c>
+      <c r="D2459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2459" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2459" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2459" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2460" s="3">
+        <v>3449</v>
+      </c>
+      <c r="D2460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2460" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2460" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2460" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2461" s="3">
+        <v>3509</v>
+      </c>
+      <c r="D2461" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2461" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2461" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2461" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2462" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2462" s="3">
+        <v>3703</v>
+      </c>
+      <c r="D2462" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2462" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2462" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2462" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2463" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2463" s="3">
+        <v>3766</v>
+      </c>
+      <c r="D2463" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2463" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2463" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2463" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2464" s="3">
+        <v>3770</v>
+      </c>
+      <c r="D2464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2464" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2464" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2464" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2465" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2465" s="3">
+        <v>3772</v>
+      </c>
+      <c r="D2465" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2465" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2465" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2465" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2466" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2466" s="3">
+        <v>3819</v>
+      </c>
+      <c r="D2466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2466" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2466" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2466" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2467" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2467" s="3">
+        <v>9158</v>
+      </c>
+      <c r="D2467" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2467" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2467" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2467" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2468" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2468" s="3">
+        <v>9434</v>
+      </c>
+      <c r="D2468" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2468" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2468" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2468" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2469" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2469" s="3">
+        <v>9665</v>
+      </c>
+      <c r="D2469" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2469" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2469" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2469" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2470" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2470" s="3">
+        <v>9950</v>
+      </c>
+      <c r="D2470" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2470" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2470" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2470" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2471" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2471" s="3">
+        <v>9952</v>
+      </c>
+      <c r="D2471" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2471" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2471" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2471" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2472" s="3">
+        <v>3851</v>
+      </c>
+      <c r="D2472" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2472" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2472" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2472" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2473" s="3">
+        <v>3860</v>
+      </c>
+      <c r="D2473" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2473" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2473" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2473" s="3">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2474" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2474" s="3">
+        <v>221</v>
+      </c>
+      <c r="D2474" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2474" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2474" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2474" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2475" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2475" s="3">
+        <v>233</v>
+      </c>
+      <c r="D2475" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2475" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2475" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2475" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2476" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2476" s="3">
+        <v>240</v>
+      </c>
+      <c r="D2476" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2476" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2476" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2476" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2477" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2477" s="3">
+        <v>243</v>
+      </c>
+      <c r="D2477" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2477" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2477" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2477" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2478" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2478" s="3">
+        <v>247</v>
+      </c>
+      <c r="D2478" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2478" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2478" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2478" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2479" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2479" s="3">
+        <v>248</v>
+      </c>
+      <c r="D2479" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2479" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2479" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2479" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2480" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2480" s="3">
+        <v>677</v>
+      </c>
+      <c r="D2480" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2480" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2480" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2480" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2481" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2481" s="3">
+        <v>707</v>
+      </c>
+      <c r="D2481" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2481" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2481" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2481" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2482" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2482" s="3">
+        <v>772</v>
+      </c>
+      <c r="D2482" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2482" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2482" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2482" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2483" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2483" s="3">
+        <v>837</v>
+      </c>
+      <c r="D2483" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2483" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2483" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2483" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2484" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2484" s="3">
+        <v>865</v>
+      </c>
+      <c r="D2484" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2484" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2484" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2484" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2485" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2485" s="3">
+        <v>970</v>
+      </c>
+      <c r="D2485" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2485" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2485" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2485" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2486" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2486" s="3">
+        <v>991</v>
+      </c>
+      <c r="D2486" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2486" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2486" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2486" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2487" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2487" s="3">
+        <v>1226</v>
+      </c>
+      <c r="D2487" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2487" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2487" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2487" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2488" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2488" s="3">
+        <v>1425</v>
+      </c>
+      <c r="D2488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2488" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2488" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2488" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2489" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2489" s="3">
+        <v>1437</v>
+      </c>
+      <c r="D2489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2489" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2489" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2489" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2490" s="3">
+        <v>1573</v>
+      </c>
+      <c r="D2490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2490" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2490" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2490" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2491" s="3">
+        <v>1601</v>
+      </c>
+      <c r="D2491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2491" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2491" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2491" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2492" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2492" s="3">
+        <v>1699</v>
+      </c>
+      <c r="D2492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2492" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2492" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2492" s="3">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2493" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2493" s="3">
+        <v>1773</v>
+      </c>
+      <c r="D2493" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2493" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2493" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2493" s="3">
+        <f t="shared" ref="G2493:G2556" si="41">E2493-F2493</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2494" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2494" s="3">
+        <v>1879</v>
+      </c>
+      <c r="D2494" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2494" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2494" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2494" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2495" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2495" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D2495" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2495" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2495" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2495" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2496" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2496" s="3">
+        <v>2275</v>
+      </c>
+      <c r="D2496" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2496" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2496" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2496" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2497" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2497" s="3">
+        <v>3294</v>
+      </c>
+      <c r="D2497" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2497" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2497" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2497" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2498" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2498" s="3">
+        <v>3529</v>
+      </c>
+      <c r="D2498" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2498" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2498" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2498" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2499" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2499" s="3">
+        <v>3545</v>
+      </c>
+      <c r="D2499" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2499" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2499" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2499" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2500" s="3">
+        <v>3697</v>
+      </c>
+      <c r="D2500" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2500" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2500" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2500" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2501" s="3">
+        <v>3742</v>
+      </c>
+      <c r="D2501" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2501" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2501" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2501" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2502" s="3">
+        <v>3746</v>
+      </c>
+      <c r="D2502" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2502" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2502" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2502" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2503" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2503" s="3">
+        <v>3765</v>
+      </c>
+      <c r="D2503" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2503" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2503" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2503" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2504" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2504" s="3">
+        <v>3795</v>
+      </c>
+      <c r="D2504" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2504" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2504" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2504" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2505" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2505" s="3">
+        <v>7597</v>
+      </c>
+      <c r="D2505" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2505" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2505" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2505" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2506" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2506" s="3">
+        <v>9017</v>
+      </c>
+      <c r="D2506" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2506" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2506" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2506" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2507" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2507" s="3">
+        <v>9333</v>
+      </c>
+      <c r="D2507" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2507" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2507" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2507" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2508" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2508" s="3">
+        <v>9624</v>
+      </c>
+      <c r="D2508" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2508" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2508" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2508" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2509" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2509" s="3">
+        <v>9767</v>
+      </c>
+      <c r="D2509" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2509" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2509" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2509" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2510" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2510" s="3">
+        <v>9953</v>
+      </c>
+      <c r="D2510" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2510" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2510" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2510" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2511" s="3">
+        <v>3852</v>
+      </c>
+      <c r="D2511" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2511" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2511" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2511" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2512" s="3">
+        <v>3855</v>
+      </c>
+      <c r="D2512" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2512" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2512" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2512" s="3">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2513" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2513" s="3">
+        <v>205</v>
+      </c>
+      <c r="D2513" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2513" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2513" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2513" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2514" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2514" s="3">
+        <v>210</v>
+      </c>
+      <c r="D2514" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2514" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2514" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2514" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2515" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2515" s="3">
+        <v>234</v>
+      </c>
+      <c r="D2515" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2515" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2515" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2515" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2516" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2516" s="3">
+        <v>239</v>
+      </c>
+      <c r="D2516" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2516" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2516" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2516" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2517" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2517" s="3">
+        <v>251</v>
+      </c>
+      <c r="D2517" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2517" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2517" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2517" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2518" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2518" s="3">
+        <v>292</v>
+      </c>
+      <c r="D2518" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2518" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2518" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2518" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2519" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2519" s="3">
+        <v>760</v>
+      </c>
+      <c r="D2519" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2519" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2519" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2519" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2520" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2520" s="3">
+        <v>790</v>
+      </c>
+      <c r="D2520" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2520" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2520" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2520" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2521" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2521" s="3">
+        <v>899</v>
+      </c>
+      <c r="D2521" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2521" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2521" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2521" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2522" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2522" s="3">
+        <v>902</v>
+      </c>
+      <c r="D2522" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2522" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2522" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2522" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2523" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2523" s="3">
+        <v>923</v>
+      </c>
+      <c r="D2523" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2523" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2523" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2523" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2524" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2524" s="3">
+        <v>1411</v>
+      </c>
+      <c r="D2524" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2524" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2524" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2524" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2525" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2525" s="3">
+        <v>1447</v>
+      </c>
+      <c r="D2525" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2525" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2525" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2525" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2526" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2526" s="3">
+        <v>1448</v>
+      </c>
+      <c r="D2526" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2526" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2526" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2526" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2527" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2527" s="3">
+        <v>1458</v>
+      </c>
+      <c r="D2527" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2527" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2527" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2527" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2528" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2528" s="3">
+        <v>1524</v>
+      </c>
+      <c r="D2528" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2528" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2528" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2528" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2529" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2529" s="3">
+        <v>1774</v>
+      </c>
+      <c r="D2529" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2529" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2529" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2529" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2530" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2530" s="3">
+        <v>1857</v>
+      </c>
+      <c r="D2530" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2530" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2530" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2530" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2531" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2531" s="3">
+        <v>2051</v>
+      </c>
+      <c r="D2531" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2531" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2531" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2531" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2532" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2532" s="3">
+        <v>2722</v>
+      </c>
+      <c r="D2532" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2532" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2532" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2532" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2533" s="3">
+        <v>2850</v>
+      </c>
+      <c r="D2533" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2533" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2533" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2533" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2534" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2534" s="3">
+        <v>3541</v>
+      </c>
+      <c r="D2534" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2534" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2534" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2534" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2535" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2535" s="3">
+        <v>3565</v>
+      </c>
+      <c r="D2535" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2535" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2535" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2535" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2536" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2536" s="3">
+        <v>3579</v>
+      </c>
+      <c r="D2536" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2536" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2536" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2536" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2537" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2537" s="3">
+        <v>3736</v>
+      </c>
+      <c r="D2537" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2537" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2537" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2537" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2538" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2538" s="3">
+        <v>3740</v>
+      </c>
+      <c r="D2538" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2538" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2538" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2538" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2539" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2539" s="3">
+        <v>3769</v>
+      </c>
+      <c r="D2539" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2539" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2539" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2539" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2540" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2540" s="3">
+        <v>3793</v>
+      </c>
+      <c r="D2540" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2540" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2540" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2540" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2541" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2541" s="3">
+        <v>3796</v>
+      </c>
+      <c r="D2541" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2541" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2541" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2541" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2542" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2542" s="3">
+        <v>3817</v>
+      </c>
+      <c r="D2542" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2542" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2542" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2542" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2543" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2543" s="3">
+        <v>3833</v>
+      </c>
+      <c r="D2543" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2543" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2543" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2543" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2544" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2544" s="3">
+        <v>9743</v>
+      </c>
+      <c r="D2544" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2544" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2544" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2544" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2545" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2545" s="3">
+        <v>9991</v>
+      </c>
+      <c r="D2545" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2545" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2545" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2545" s="3">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2546" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2546" s="3">
+        <v>207</v>
+      </c>
+      <c r="D2546" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2546" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2546" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2546" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2547" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2547" s="3">
+        <v>830</v>
+      </c>
+      <c r="D2547" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2547" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2547" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2547" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2548" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2548" s="3">
+        <v>847</v>
+      </c>
+      <c r="D2548" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2548" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2548" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2548" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2549" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2549" s="3">
+        <v>877</v>
+      </c>
+      <c r="D2549" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2549" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2549" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2549" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2550" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2550" s="3">
+        <v>988</v>
+      </c>
+      <c r="D2550" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2550" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2550" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2550" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2551" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D2551" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2551" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2551" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2551" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2552" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2552" s="3">
+        <v>1445</v>
+      </c>
+      <c r="D2552" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2552" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2552" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2552" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2553" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2553" s="3">
+        <v>1584</v>
+      </c>
+      <c r="D2553" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2553" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2553" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2553" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2554" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2554" s="3">
+        <v>1673</v>
+      </c>
+      <c r="D2554" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2554" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2554" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2554" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2555" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2555" s="3">
+        <v>1828</v>
+      </c>
+      <c r="D2555" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2555" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2555" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2555" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2556" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2556" s="3">
+        <v>2563</v>
+      </c>
+      <c r="D2556" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2556" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2556" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2556" s="3">
+        <f t="shared" si="41"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2557" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2557" s="3">
+        <v>2893</v>
+      </c>
+      <c r="D2557" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2557" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2557" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2557" s="3">
+        <f t="shared" ref="G2557:G2620" si="42">E2557-F2557</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2558" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2558" s="3">
+        <v>3562</v>
+      </c>
+      <c r="D2558" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2558" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2558" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2558" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2559" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2559" s="3">
+        <v>3594</v>
+      </c>
+      <c r="D2559" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2559" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2559" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2559" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2560" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2560" s="3">
+        <v>3731</v>
+      </c>
+      <c r="D2560" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2560" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2560" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2560" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2561" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2561" s="3">
+        <v>3771</v>
+      </c>
+      <c r="D2561" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2561" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2561" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2561" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2562" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2562" s="3">
+        <v>3814</v>
+      </c>
+      <c r="D2562" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2562" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2562" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2562" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2563" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2563" s="3">
+        <v>9744</v>
+      </c>
+      <c r="D2563" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2563" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2563" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2563" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2564" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2564" s="3">
+        <v>9820</v>
+      </c>
+      <c r="D2564" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2564" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2564" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2564" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2565" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2565" s="3">
+        <v>9834</v>
+      </c>
+      <c r="D2565" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2565" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2565" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2565" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2566" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2566" s="3">
+        <v>9849</v>
+      </c>
+      <c r="D2566" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2566" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2566" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2566" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2567" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2567" s="3">
+        <v>3863</v>
+      </c>
+      <c r="D2567" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2567" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2567" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2567" s="3">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2568" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2568" s="3">
+        <v>227</v>
+      </c>
+      <c r="D2568" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2568" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2568" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2568" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2569" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2569" s="3">
+        <v>245</v>
+      </c>
+      <c r="D2569" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2569" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2569" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2569" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2570" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2570" s="3">
+        <v>706</v>
+      </c>
+      <c r="D2570" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2570" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2570" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2570" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2571" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2571" s="3">
+        <v>715</v>
+      </c>
+      <c r="D2571" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2571" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2571" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2571" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2572" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2572" s="3">
+        <v>807</v>
+      </c>
+      <c r="D2572" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2572" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2572" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2572" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2573" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2573" s="3">
+        <v>926</v>
+      </c>
+      <c r="D2573" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2573" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2573" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2573" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2574" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2574" s="3">
+        <v>1441</v>
+      </c>
+      <c r="D2574" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2574" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2574" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2574" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2575" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2575" s="3">
+        <v>1502</v>
+      </c>
+      <c r="D2575" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2575" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2575" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2575" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2576" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2576" s="3">
+        <v>1567</v>
+      </c>
+      <c r="D2576" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2576" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2576" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2576" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2577" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2577" s="3">
+        <v>1603</v>
+      </c>
+      <c r="D2577" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2577" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2577" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2577" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2578" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2578" s="3">
+        <v>1698</v>
+      </c>
+      <c r="D2578" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2578" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2578" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2578" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2579" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2579" s="3">
+        <v>1792</v>
+      </c>
+      <c r="D2579" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2579" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2579" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2579" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2580" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2580" s="3">
+        <v>2549</v>
+      </c>
+      <c r="D2580" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2580" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2580" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2580" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2581" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2581" s="3">
+        <v>2941</v>
+      </c>
+      <c r="D2581" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2581" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2581" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2581" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2582" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2582" s="3">
+        <v>3694</v>
+      </c>
+      <c r="D2582" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2582" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2582" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2582" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2583" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2583" s="3">
+        <v>3741</v>
+      </c>
+      <c r="D2583" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2583" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2583" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2583" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2584" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2584" s="3">
+        <v>3790</v>
+      </c>
+      <c r="D2584" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2584" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2584" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2584" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2585" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2585" s="3">
+        <v>7028</v>
+      </c>
+      <c r="D2585" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2585" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2585" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2585" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2586" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2586" s="3">
+        <v>9490</v>
+      </c>
+      <c r="D2586" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2586" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2586" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2586" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2587" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2587" s="3">
+        <v>9656</v>
+      </c>
+      <c r="D2587" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2587" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2587" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2587" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2588" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2588" s="3">
+        <v>9921</v>
+      </c>
+      <c r="D2588" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2588" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2588" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2588" s="3">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2589" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2589" s="3">
+        <v>217</v>
+      </c>
+      <c r="D2589" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2589" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2589" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2589" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2590" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2590" s="3">
+        <v>223</v>
+      </c>
+      <c r="D2590" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2590" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2590" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2590" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2591" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2591" s="3">
+        <v>226</v>
+      </c>
+      <c r="D2591" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2591" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2591" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2591" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2592" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2592" s="3">
+        <v>230</v>
+      </c>
+      <c r="D2592" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2592" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2592" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2592" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2593" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2593" s="3">
+        <v>238</v>
+      </c>
+      <c r="D2593" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2593" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2593" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2593" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2594" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2594" s="3">
+        <v>290</v>
+      </c>
+      <c r="D2594" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2594" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2594" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2594" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2595" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2595" s="3">
+        <v>295</v>
+      </c>
+      <c r="D2595" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2595" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2595" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2595" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2596" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2596" s="3">
+        <v>748</v>
+      </c>
+      <c r="D2596" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2596" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2596" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2596" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2597" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2597" s="3">
+        <v>754</v>
+      </c>
+      <c r="D2597" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2597" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2597" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2597" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2598" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2598" s="3">
+        <v>756</v>
+      </c>
+      <c r="D2598" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2598" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2598" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2598" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2599" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2599" s="3">
+        <v>821</v>
+      </c>
+      <c r="D2599" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2599" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2599" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2599" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2600" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2600" s="3">
+        <v>836</v>
+      </c>
+      <c r="D2600" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2600" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2600" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2600" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2601" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2601" s="3">
+        <v>858</v>
+      </c>
+      <c r="D2601" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2601" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2601" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2601" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2602" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2602" s="3">
+        <v>903</v>
+      </c>
+      <c r="D2602" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2602" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2602" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2602" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2603" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2603" s="3">
+        <v>950</v>
+      </c>
+      <c r="D2603" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2603" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2603" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2603" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2604" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2604" s="3">
+        <v>979</v>
+      </c>
+      <c r="D2604" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2604" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2604" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2604" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2605" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2605" s="3">
+        <v>989</v>
+      </c>
+      <c r="D2605" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2605" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2605" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2605" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2606" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2606" s="3">
+        <v>1209</v>
+      </c>
+      <c r="D2606" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2606" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2606" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2606" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2607" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2607" s="3">
+        <v>1297</v>
+      </c>
+      <c r="D2607" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2607" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2607" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2607" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2608" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2608" s="3">
+        <v>1424</v>
+      </c>
+      <c r="D2608" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2608" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2608" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2608" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2609" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2609" s="3">
+        <v>1453</v>
+      </c>
+      <c r="D2609" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2609" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2609" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2609" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2610" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2610" s="3">
+        <v>1470</v>
+      </c>
+      <c r="D2610" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2610" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2610" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2610" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2611" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2611" s="3">
+        <v>1472</v>
+      </c>
+      <c r="D2611" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2611" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2611" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2611" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2612" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2612" s="3">
+        <v>1507</v>
+      </c>
+      <c r="D2612" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2612" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2612" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2612" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2613" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2613" s="3">
+        <v>1793</v>
+      </c>
+      <c r="D2613" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2613" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2613" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2613" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2614" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2614" s="3">
+        <v>1816</v>
+      </c>
+      <c r="D2614" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2614" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2614" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2614" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2615" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2615" s="3">
+        <v>1866</v>
+      </c>
+      <c r="D2615" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2615" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2615" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2615" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2616" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2616" s="3">
+        <v>2089</v>
+      </c>
+      <c r="D2616" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2616" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2616" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2616" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2617" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2617" s="3">
+        <v>2212</v>
+      </c>
+      <c r="D2617" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2617" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2617" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2617" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2618" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2618" s="3">
+        <v>2469</v>
+      </c>
+      <c r="D2618" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2618" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2618" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2618" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2619" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2619" s="3">
+        <v>2835</v>
+      </c>
+      <c r="D2619" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2619" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2619" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2619" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2620" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2620" s="3">
+        <v>2863</v>
+      </c>
+      <c r="D2620" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2620" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2620" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2620" s="3">
+        <f t="shared" si="42"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2621" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2621" s="3">
+        <v>2942</v>
+      </c>
+      <c r="D2621" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2621" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2621" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2621" s="3">
+        <f t="shared" ref="G2621:G2667" si="43">E2621-F2621</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2622" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2622" s="3">
+        <v>2943</v>
+      </c>
+      <c r="D2622" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2622" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2622" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2622" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2623" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2623" s="3">
+        <v>2944</v>
+      </c>
+      <c r="D2623" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2623" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2623" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2623" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2624" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2624" s="3">
+        <v>2945</v>
+      </c>
+      <c r="D2624" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2624" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2624" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2624" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2625" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2625" s="3">
+        <v>2947</v>
+      </c>
+      <c r="D2625" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2625" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2625" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2625" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2626" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2626" s="3">
+        <v>2948</v>
+      </c>
+      <c r="D2626" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2626" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2626" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2626" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2627" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2627" s="3">
+        <v>2949</v>
+      </c>
+      <c r="D2627" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2627" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2627" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2627" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2628" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2628" s="3">
+        <v>2950</v>
+      </c>
+      <c r="D2628" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2628" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2628" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2628" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2629" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2629" s="3">
+        <v>2951</v>
+      </c>
+      <c r="D2629" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2629" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2629" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2629" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2630" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2630" s="3">
+        <v>2952</v>
+      </c>
+      <c r="D2630" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2630" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2630" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2630" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2631" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2631" s="3">
+        <v>2954</v>
+      </c>
+      <c r="D2631" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2631" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2631" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2631" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2632" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2632" s="3">
+        <v>2955</v>
+      </c>
+      <c r="D2632" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2632" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2632" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2632" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2633" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2633" s="3">
+        <v>2956</v>
+      </c>
+      <c r="D2633" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2633" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2633" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2633" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2634" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2634" s="3">
+        <v>2958</v>
+      </c>
+      <c r="D2634" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2634" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2634" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2634" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2635" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2635" s="3">
+        <v>2960</v>
+      </c>
+      <c r="D2635" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2635" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2635" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2635" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2636" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2636" s="3">
+        <v>2965</v>
+      </c>
+      <c r="D2636" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2636" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2636" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2636" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2637" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2637" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2637" s="3">
+        <v>2969</v>
+      </c>
+      <c r="D2637" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2637" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2637" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2637" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2638" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2638" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2638" s="3">
+        <v>3081</v>
+      </c>
+      <c r="D2638" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2638" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2638" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2638" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2639" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2639" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2639" s="3">
+        <v>3386</v>
+      </c>
+      <c r="D2639" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2639" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2639" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2639" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2640" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2640" s="3">
+        <v>3428</v>
+      </c>
+      <c r="D2640" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2640" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2640" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2640" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2641" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2641" s="3">
+        <v>3543</v>
+      </c>
+      <c r="D2641" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2641" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2641" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2641" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2642" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2642" s="3">
+        <v>3590</v>
+      </c>
+      <c r="D2642" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2642" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2642" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2642" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2643" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2643" s="3">
+        <v>3592</v>
+      </c>
+      <c r="D2643" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2643" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2643" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2643" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2644" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2644" s="3">
+        <v>3650</v>
+      </c>
+      <c r="D2644" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2644" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2644" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2644" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2645" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2645" s="3">
+        <v>3733</v>
+      </c>
+      <c r="D2645" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2645" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2645" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2645" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2646" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2646" s="3">
+        <v>3734</v>
+      </c>
+      <c r="D2646" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2646" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2646" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2646" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2647" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2647" s="3">
+        <v>3763</v>
+      </c>
+      <c r="D2647" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2647" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2647" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2647" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2648" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2648" s="3">
+        <v>3764</v>
+      </c>
+      <c r="D2648" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2648" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2648" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2648" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2649" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2649" s="3">
+        <v>3792</v>
+      </c>
+      <c r="D2649" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2649" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2649" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2649" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2650" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2650" s="3">
+        <v>3798</v>
+      </c>
+      <c r="D2650" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2650" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2650" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2650" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2651" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2651" s="3">
+        <v>3810</v>
+      </c>
+      <c r="D2651" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2651" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2651" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2651" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2652" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2652" s="3">
+        <v>3831</v>
+      </c>
+      <c r="D2652" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2652" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2652" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2652" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2653" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2653" s="3">
+        <v>3832</v>
+      </c>
+      <c r="D2653" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2653" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2653" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2653" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2654" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2654" s="3">
+        <v>3837</v>
+      </c>
+      <c r="D2654" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2654" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2654" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2654" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2655" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2655" s="3">
+        <v>3839</v>
+      </c>
+      <c r="D2655" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2655" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2655" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2655" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2656" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2656" s="3">
+        <v>3840</v>
+      </c>
+      <c r="D2656" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2656" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2656" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2656" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2657" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2657" s="3">
+        <v>3841</v>
+      </c>
+      <c r="D2657" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2657" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2657" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2657" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2658" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2658" s="3">
+        <v>9004</v>
+      </c>
+      <c r="D2658" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2658" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2658" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2658" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2659" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2659" s="3">
+        <v>9035</v>
+      </c>
+      <c r="D2659" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2659" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2659" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2659" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2660" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2660" s="3">
+        <v>9382</v>
+      </c>
+      <c r="D2660" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2660" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2660" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2660" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2661" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2661" s="3">
+        <v>9610</v>
+      </c>
+      <c r="D2661" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2661" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2661" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2661" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2662" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2662" s="3">
+        <v>9684</v>
+      </c>
+      <c r="D2662" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2662" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2662" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2662" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2663" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2663" s="3">
+        <v>9837</v>
+      </c>
+      <c r="D2663" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2663" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2663" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2663" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2664" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2664" s="3">
+        <v>9891</v>
+      </c>
+      <c r="D2664" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2664" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2664" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2664" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2665" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2665" s="3">
+        <v>3865</v>
+      </c>
+      <c r="D2665" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2665" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2665" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2665" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2666" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2666" s="3">
+        <v>9063</v>
+      </c>
+      <c r="D2666" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2666" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2666" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2666" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2667" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2667" s="3">
+        <v>3365</v>
+      </c>
+      <c r="D2667" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2667" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2667" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2667" s="3">
+        <f t="shared" si="43"/>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C80125-E8FB-4543-9892-1FB188A1F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0AF09-0564-144A-8C68-49289129CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8005" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8344" uniqueCount="20">
   <si>
     <t>Estado</t>
   </si>
@@ -1031,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G2667"/>
+  <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2314" workbookViewId="0">
-      <selection activeCell="G2319" sqref="G2319:G2667"/>
+    <sheetView tabSelected="1" topLeftCell="A2728" workbookViewId="0">
+      <selection activeCell="E2789" sqref="E2789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -63943,7 +63943,7 @@
         <v>6</v>
       </c>
       <c r="G2621" s="3">
-        <f t="shared" ref="G2621:G2667" si="43">E2621-F2621</f>
+        <f t="shared" ref="G2621:G2684" si="43">E2621-F2621</f>
         <v>-6</v>
       </c>
     </row>
@@ -65048,6 +65048,2718 @@
       </c>
       <c r="G2667" s="3">
         <f t="shared" si="43"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2668" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2668" s="3">
+        <v>376</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2668" s="1">
+        <v>29</v>
+      </c>
+      <c r="F2668" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2668" s="3">
+        <f t="shared" si="43"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2669" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2669" s="3">
+        <v>7581</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2669" s="1">
+        <v>26</v>
+      </c>
+      <c r="F2669" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2669" s="3">
+        <f t="shared" si="43"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2670" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2670" s="3">
+        <v>2726</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2670" s="1">
+        <v>25</v>
+      </c>
+      <c r="F2670" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2670" s="3">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2671" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2671" s="3">
+        <v>9110</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2671" s="1">
+        <v>25</v>
+      </c>
+      <c r="F2671" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2671" s="3">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2672" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2672" s="3">
+        <v>7635</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2672" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2672" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2672" s="3">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2673" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2673" s="3">
+        <v>7628</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2673" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2673" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2673" s="3">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2674" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2674" s="3">
+        <v>7566</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2674" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2674" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2674" s="3">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2675" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2675" s="3">
+        <v>7059</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2675" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2675" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2675" s="3">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2676" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2676" s="3">
+        <v>7123</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2676" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2676" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2676" s="3">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2677" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2677" s="3">
+        <v>446</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2677" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2677" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2677" s="3">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2678" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2678" s="3">
+        <v>3789</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2678" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2678" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2678" s="3">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2679" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2679" s="3">
+        <v>7109</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2679" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2679" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2679" s="3">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2680" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2680" s="3">
+        <v>7438</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2680" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2680" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2680" s="3">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2681" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2681" s="3">
+        <v>9281</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2681" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2681" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2681" s="3">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2682" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2682" s="3">
+        <v>7051</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2682" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2682" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2682" s="3">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2683" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2683" s="3">
+        <v>7055</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2683" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2683" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2683" s="3">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2684" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2684" s="3">
+        <v>7090</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2684" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2684" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2684" s="3">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2685" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2685" s="3">
+        <v>7629</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2685" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2685" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2685" s="3">
+        <f t="shared" ref="G2685:G2748" si="44">E2685-F2685</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2686" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2686" s="3">
+        <v>2210</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2686" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2686" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2686" s="3">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2687" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2687" s="3">
+        <v>7591</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2687" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2687" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2687" s="3">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2688" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2688" s="3">
+        <v>9802</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2688" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2688" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2688" s="3">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2689" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2689" s="3">
+        <v>7044</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2689" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2689" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2689" s="3">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2690" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2690" s="3">
+        <v>2849</v>
+      </c>
+      <c r="D2690" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2690" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2690" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2690" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2691" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2691" s="3">
+        <v>9120</v>
+      </c>
+      <c r="D2691" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2691" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2691" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2691" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2692" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2692" s="3">
+        <v>9411</v>
+      </c>
+      <c r="D2692" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2692" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2692" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2692" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2693" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2693" s="3">
+        <v>7038</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2693" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2693" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2693" s="3">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2694" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2694" s="3">
+        <v>9259</v>
+      </c>
+      <c r="D2694" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2694" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2694" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2694" s="3">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2695" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2695" s="3">
+        <v>7071</v>
+      </c>
+      <c r="D2695" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2695" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2695" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2695" s="3">
+        <f t="shared" si="44"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2696" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2696" s="3">
+        <v>7092</v>
+      </c>
+      <c r="D2696" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2696" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2696" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2696" s="3">
+        <f t="shared" si="44"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2697" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2697" s="3">
+        <v>9302</v>
+      </c>
+      <c r="D2697" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2697" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2697" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2697" s="3">
+        <f t="shared" si="44"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2698" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2698" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2698" s="3">
+        <v>7042</v>
+      </c>
+      <c r="D2698" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2698" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2698" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2698" s="3">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2699" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2699" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2699" s="3">
+        <v>7045</v>
+      </c>
+      <c r="D2699" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2699" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2699" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2699" s="3">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2700" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2700" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2700" s="3">
+        <v>7084</v>
+      </c>
+      <c r="D2700" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2700" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2700" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2700" s="3">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2701" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2701" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2701" s="3">
+        <v>7580</v>
+      </c>
+      <c r="D2701" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2701" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2701" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2701" s="3">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2702" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2702" s="3">
+        <v>7631</v>
+      </c>
+      <c r="D2702" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2702" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2702" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2702" s="3">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2703" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2703" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2703" s="3">
+        <v>9443</v>
+      </c>
+      <c r="D2703" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2703" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2703" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2703" s="3">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2704" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2704" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2704" s="3">
+        <v>9543</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2704" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2704" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2704" s="3">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2705" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2705" s="3">
+        <v>7014</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2705" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2705" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2705" s="3">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2706" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2706" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2706" s="3">
+        <v>7032</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2706" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2706" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2706" s="3">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2707" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2707" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2707" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D2707" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2707" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2707" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2707" s="3">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2708" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2708" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2708" s="3">
+        <v>7632</v>
+      </c>
+      <c r="D2708" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2708" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2708" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2708" s="3">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2709" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2709" s="3">
+        <v>9334</v>
+      </c>
+      <c r="D2709" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2709" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2709" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2709" s="3">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2710" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2710" s="3">
+        <v>9604</v>
+      </c>
+      <c r="D2710" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2710" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2710" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2710" s="3">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2711" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2711" s="3">
+        <v>7046</v>
+      </c>
+      <c r="D2711" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2711" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2711" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2711" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2712" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2712" s="3">
+        <v>7116</v>
+      </c>
+      <c r="D2712" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2712" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2712" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2712" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2713" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2713" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2713" s="3">
+        <v>7398</v>
+      </c>
+      <c r="D2713" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2713" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2713" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2713" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2714" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2714" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2714" s="3">
+        <v>7559</v>
+      </c>
+      <c r="D2714" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2714" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2714" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2714" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2715" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2715" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2715" s="3">
+        <v>7578</v>
+      </c>
+      <c r="D2715" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2715" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2715" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2715" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2716" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2716" s="3">
+        <v>7606</v>
+      </c>
+      <c r="D2716" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2716" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2716" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2716" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2717" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2717" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2717" s="3">
+        <v>7622</v>
+      </c>
+      <c r="D2717" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2717" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2717" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2717" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2718" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2718" s="3">
+        <v>8001</v>
+      </c>
+      <c r="D2718" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2718" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2718" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2718" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2719" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2719" s="3">
+        <v>9152</v>
+      </c>
+      <c r="D2719" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2719" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2719" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2719" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2720" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2720" s="3">
+        <v>9395</v>
+      </c>
+      <c r="D2720" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2720" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2720" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2720" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2721" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2721" s="3">
+        <v>9424</v>
+      </c>
+      <c r="D2721" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2721" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2721" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2721" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2722" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2722" s="3">
+        <v>9761</v>
+      </c>
+      <c r="D2722" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2722" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2722" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2722" s="3">
+        <f t="shared" si="44"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2723" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2723" s="3">
+        <v>136</v>
+      </c>
+      <c r="D2723" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2723" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2723" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2723" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2724" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2724" s="3">
+        <v>1089</v>
+      </c>
+      <c r="D2724" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2724" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2724" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2724" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2725" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2725" s="3">
+        <v>1539</v>
+      </c>
+      <c r="D2725" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2725" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2725" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2725" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2726" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2726" s="3">
+        <v>1864</v>
+      </c>
+      <c r="D2726" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2726" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2726" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2726" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2727" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2727" s="3">
+        <v>2736</v>
+      </c>
+      <c r="D2727" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2727" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2727" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2727" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2728" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2728" s="3">
+        <v>3224</v>
+      </c>
+      <c r="D2728" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2728" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2728" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2728" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2729" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2729" s="3">
+        <v>3583</v>
+      </c>
+      <c r="D2729" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2729" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2729" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2729" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2730" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2730" s="3">
+        <v>3757</v>
+      </c>
+      <c r="D2730" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2730" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2730" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2730" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2731" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2731" s="3">
+        <v>3835</v>
+      </c>
+      <c r="D2731" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2731" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2731" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2731" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2732" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2732" s="3">
+        <v>3844</v>
+      </c>
+      <c r="D2732" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2732" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2732" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2732" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2733" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2733" s="3">
+        <v>7008</v>
+      </c>
+      <c r="D2733" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2733" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2733" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2733" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2734" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2734" s="3">
+        <v>7026</v>
+      </c>
+      <c r="D2734" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2734" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2734" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2734" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2735" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2735" s="3">
+        <v>7066</v>
+      </c>
+      <c r="D2735" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2735" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2735" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2735" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2736" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2736" s="3">
+        <v>7068</v>
+      </c>
+      <c r="D2736" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2736" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2736" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2736" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2737" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2737" s="3">
+        <v>7082</v>
+      </c>
+      <c r="D2737" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2737" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2737" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2737" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2738" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2738" s="3">
+        <v>7085</v>
+      </c>
+      <c r="D2738" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2738" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2738" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2738" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2739" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2739" s="3">
+        <v>7183</v>
+      </c>
+      <c r="D2739" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2739" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2739" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2739" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2740" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2740" s="3">
+        <v>7345</v>
+      </c>
+      <c r="D2740" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2740" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2740" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2740" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2741" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2741" s="3">
+        <v>7380</v>
+      </c>
+      <c r="D2741" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2741" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2741" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2741" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2742" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2742" s="3">
+        <v>7395</v>
+      </c>
+      <c r="D2742" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2742" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2742" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2742" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2743" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2743" s="3">
+        <v>7402</v>
+      </c>
+      <c r="D2743" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2743" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2743" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2743" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2744" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2744" s="3">
+        <v>7417</v>
+      </c>
+      <c r="D2744" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2744" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2744" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2744" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2745" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2745" s="3">
+        <v>7474</v>
+      </c>
+      <c r="D2745" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2745" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2745" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2745" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2746" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2746" s="3">
+        <v>7494</v>
+      </c>
+      <c r="D2746" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2746" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2746" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2746" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2747" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2747" s="3">
+        <v>7517</v>
+      </c>
+      <c r="D2747" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2747" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2747" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2747" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2748" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2748" s="3">
+        <v>7567</v>
+      </c>
+      <c r="D2748" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2748" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2748" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2748" s="3">
+        <f t="shared" si="44"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2749" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2749" s="3">
+        <v>7630</v>
+      </c>
+      <c r="D2749" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2749" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2749" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2749" s="3">
+        <f t="shared" ref="G2749:G2780" si="45">E2749-F2749</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2750" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2750" s="3">
+        <v>7633</v>
+      </c>
+      <c r="D2750" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2750" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2750" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2750" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2751" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2751" s="3">
+        <v>9366</v>
+      </c>
+      <c r="D2751" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2751" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2751" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2751" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2752" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2752" s="3">
+        <v>9383</v>
+      </c>
+      <c r="D2752" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2752" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2752" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2752" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2753" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2753" s="3">
+        <v>9384</v>
+      </c>
+      <c r="D2753" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2753" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2753" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2753" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2754" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2754" s="3">
+        <v>9386</v>
+      </c>
+      <c r="D2754" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2754" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2754" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2754" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2755" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2755" s="3">
+        <v>9387</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2755" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2755" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2755" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2756" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2756" s="3">
+        <v>9388</v>
+      </c>
+      <c r="D2756" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2756" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2756" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2756" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2757" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2757" s="3">
+        <v>9390</v>
+      </c>
+      <c r="D2757" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2757" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2757" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2757" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2758" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2758" s="3">
+        <v>9391</v>
+      </c>
+      <c r="D2758" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2758" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2758" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2758" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2759" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2759" s="3">
+        <v>9393</v>
+      </c>
+      <c r="D2759" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2759" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2759" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2759" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2760" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2760" s="3">
+        <v>9400</v>
+      </c>
+      <c r="D2760" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2760" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2760" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2760" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2761" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2761" s="3">
+        <v>9404</v>
+      </c>
+      <c r="D2761" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2761" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2761" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2761" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2762" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2762" s="3">
+        <v>9405</v>
+      </c>
+      <c r="D2762" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2762" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2762" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2762" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2763" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2763" s="3">
+        <v>9406</v>
+      </c>
+      <c r="D2763" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2763" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2763" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2763" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2764" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2764" s="3">
+        <v>9407</v>
+      </c>
+      <c r="D2764" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2764" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2764" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2764" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2765" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2765" s="3">
+        <v>9408</v>
+      </c>
+      <c r="D2765" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2765" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2765" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2765" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2766" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2766" s="3">
+        <v>9409</v>
+      </c>
+      <c r="D2766" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2766" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2766" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2766" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2767" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2767" s="3">
+        <v>9410</v>
+      </c>
+      <c r="D2767" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2767" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2767" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2767" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2768" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2768" s="3">
+        <v>9417</v>
+      </c>
+      <c r="D2768" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2768" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2768" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2768" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2769" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2769" s="3">
+        <v>9418</v>
+      </c>
+      <c r="D2769" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2769" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2769" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2769" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2770" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2770" s="3">
+        <v>9444</v>
+      </c>
+      <c r="D2770" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2770" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2770" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2770" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2771" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2771" s="3">
+        <v>9445</v>
+      </c>
+      <c r="D2771" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2771" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2771" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2771" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2772" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2772" s="3">
+        <v>9447</v>
+      </c>
+      <c r="D2772" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2772" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2772" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2772" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2773" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2773" s="3">
+        <v>9492</v>
+      </c>
+      <c r="D2773" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2773" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2773" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2773" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2774" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2774" s="3">
+        <v>9493</v>
+      </c>
+      <c r="D2774" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2774" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2774" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2774" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2775" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2775" s="3">
+        <v>9494</v>
+      </c>
+      <c r="D2775" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2775" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2775" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2775" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2776" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2776" s="3">
+        <v>9572</v>
+      </c>
+      <c r="D2776" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2776" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2776" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2776" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2777" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2777" s="3">
+        <v>9678</v>
+      </c>
+      <c r="D2777" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2777" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2777" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2777" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2778" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2778" s="3">
+        <v>9779</v>
+      </c>
+      <c r="D2778" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2778" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2778" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2778" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2779" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2779" s="3">
+        <v>9797</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2779" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2779" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2779" s="3">
+        <f t="shared" si="45"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2780" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2780" s="3">
+        <v>3867</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2780" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2780" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2780" s="3">
+        <f t="shared" si="45"/>
         <v>-6</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0AF09-0564-144A-8C68-49289129CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFD563-FA6A-6148-9593-94E9C1A8A374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -262,7 +262,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +448,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD86DCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -609,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,6 +645,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2728" workbookViewId="0">
-      <selection activeCell="E2789" sqref="E2789"/>
+    <sheetView tabSelected="1" topLeftCell="A850" workbookViewId="0">
+      <selection activeCell="C867" sqref="C867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18216,15 +18234,15 @@
       <c r="D716" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E716" s="3">
-        <v>5</v>
+      <c r="E716" s="11">
+        <v>6</v>
       </c>
       <c r="F716" s="1">
         <v>6</v>
       </c>
       <c r="G716" s="1">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -18936,15 +18954,15 @@
       <c r="D746" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E746" s="3">
-        <v>4</v>
+      <c r="E746" s="11">
+        <v>6</v>
       </c>
       <c r="F746" s="1">
         <v>6</v>
       </c>
       <c r="G746" s="1">
         <f t="shared" si="12"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
@@ -19272,15 +19290,15 @@
       <c r="D760" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E760" s="3">
-        <v>3</v>
+      <c r="E760" s="12">
+        <v>6</v>
       </c>
       <c r="F760" s="1">
         <v>6</v>
       </c>
       <c r="G760" s="1">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -19368,15 +19386,15 @@
       <c r="D764" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E764" s="3">
-        <v>3</v>
+      <c r="E764" s="12">
+        <v>6</v>
       </c>
       <c r="F764" s="1">
         <v>6</v>
       </c>
       <c r="G764" s="1">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
@@ -19944,15 +19962,15 @@
       <c r="D788" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E788" s="3">
-        <v>2</v>
+      <c r="E788" s="12">
+        <v>6</v>
       </c>
       <c r="F788" s="1">
         <v>6</v>
       </c>
       <c r="G788" s="1">
         <f t="shared" si="13"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -19968,15 +19986,15 @@
       <c r="D789" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E789" s="3">
-        <v>2</v>
+      <c r="E789" s="12">
+        <v>6</v>
       </c>
       <c r="F789" s="1">
         <v>6</v>
       </c>
       <c r="G789" s="1">
         <f t="shared" si="13"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
@@ -20328,15 +20346,15 @@
       <c r="D804" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E804" s="3">
-        <v>2</v>
+      <c r="E804" s="12">
+        <v>6</v>
       </c>
       <c r="F804" s="1">
         <v>6</v>
       </c>
       <c r="G804" s="1">
         <f t="shared" si="13"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -20424,15 +20442,15 @@
       <c r="D808" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E808" s="3">
-        <v>2</v>
+      <c r="E808" s="12">
+        <v>6</v>
       </c>
       <c r="F808" s="1">
         <v>6</v>
       </c>
       <c r="G808" s="1">
         <f t="shared" si="13"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -20592,15 +20610,15 @@
       <c r="D815" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E815" s="3">
-        <v>1</v>
+      <c r="E815" s="12">
+        <v>6</v>
       </c>
       <c r="F815" s="1">
         <v>6</v>
       </c>
       <c r="G815" s="1">
         <f t="shared" si="13"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -21720,15 +21738,15 @@
       <c r="D862" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E862" s="3">
-        <v>0</v>
+      <c r="E862" s="12">
+        <v>6</v>
       </c>
       <c r="F862" s="1">
         <v>6</v>
       </c>
       <c r="G862" s="1">
         <f t="shared" si="14"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.2">
@@ -21840,15 +21858,15 @@
       <c r="D867" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E867" s="3">
-        <v>0</v>
+      <c r="E867" s="12">
+        <v>6</v>
       </c>
       <c r="F867" s="1">
         <v>6</v>
       </c>
       <c r="G867" s="1">
         <f t="shared" si="14"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFD563-FA6A-6148-9593-94E9C1A8A374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE85F1-89C2-7E46-852D-393C7D159831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A850" workbookViewId="0">
-      <selection activeCell="C867" sqref="C867"/>
+    <sheetView tabSelected="1" topLeftCell="A1466" workbookViewId="0">
+      <selection activeCell="H1487" sqref="H1487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36762,15 +36762,15 @@
       <c r="D1488" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1488" s="3">
-        <v>5</v>
+      <c r="E1488" s="12">
+        <v>6</v>
       </c>
       <c r="F1488" s="1">
         <v>6</v>
       </c>
       <c r="G1488" s="1">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE85F1-89C2-7E46-852D-393C7D159831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC8CBC7-ED09-414E-8087-5333FEB400E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1466" workbookViewId="0">
-      <selection activeCell="H1487" sqref="H1487"/>
+    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
+      <selection activeCell="E748" sqref="E748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19002,15 +19002,15 @@
       <c r="D748" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E748" s="3">
-        <v>4</v>
+      <c r="E748" s="12">
+        <v>6</v>
       </c>
       <c r="F748" s="1">
         <v>6</v>
       </c>
       <c r="G748" s="1">
         <f t="shared" si="12"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC8CBC7-ED09-414E-8087-5333FEB400E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9A27C-9126-8841-B1DA-7EFCE6B11D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="9620" yWindow="500" windowWidth="19180" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
-      <selection activeCell="E748" sqref="E748"/>
+    <sheetView tabSelected="1" topLeftCell="A428" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E448" sqref="E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10626,15 +10626,15 @@
       <c r="D399" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E399" s="3">
-        <v>20</v>
+      <c r="E399" s="12">
+        <v>24</v>
       </c>
       <c r="F399" s="1">
         <v>24</v>
       </c>
       <c r="G399" s="1">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
@@ -10650,15 +10650,15 @@
       <c r="D400" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E400" s="3">
-        <v>20</v>
+      <c r="E400" s="12">
+        <v>24</v>
       </c>
       <c r="F400" s="1">
         <v>24</v>
       </c>
       <c r="G400" s="1">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -10794,15 +10794,15 @@
       <c r="D406" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E406" s="3">
-        <v>18</v>
+      <c r="E406" s="12">
+        <v>24</v>
       </c>
       <c r="F406" s="1">
         <v>24</v>
       </c>
       <c r="G406" s="1">
         <f t="shared" si="6"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -10842,15 +10842,15 @@
       <c r="D408" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E408" s="3">
-        <v>17</v>
+      <c r="E408" s="12">
+        <v>24</v>
       </c>
       <c r="F408" s="1">
         <v>24</v>
       </c>
       <c r="G408" s="1">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
@@ -11082,15 +11082,15 @@
       <c r="D418" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E418" s="3">
-        <v>14</v>
+      <c r="E418" s="12">
+        <v>24</v>
       </c>
       <c r="F418" s="1">
         <v>24</v>
       </c>
       <c r="G418" s="1">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
@@ -11802,15 +11802,15 @@
       <c r="D448" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E448" s="3">
-        <v>7</v>
+      <c r="E448" s="12">
+        <v>24</v>
       </c>
       <c r="F448" s="1">
         <v>24</v>
       </c>
       <c r="G448" s="1">
         <f t="shared" si="6"/>
-        <v>-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9A27C-9126-8841-B1DA-7EFCE6B11D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB78B5F-AB7B-A948-8D7E-21840224F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9620" yWindow="500" windowWidth="19180" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E448" sqref="E448"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G547" sqref="G547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12690,15 +12690,15 @@
       <c r="D485" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E485" s="3">
-        <v>2</v>
+      <c r="E485" s="11">
+        <v>6</v>
       </c>
       <c r="F485" s="1">
         <v>6</v>
       </c>
       <c r="G485" s="1">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
@@ -12834,15 +12834,15 @@
       <c r="D491" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E491" s="3">
-        <v>0</v>
+      <c r="E491" s="11">
+        <v>6</v>
       </c>
       <c r="F491" s="1">
         <v>6</v>
       </c>
       <c r="G491" s="1">
         <f t="shared" si="7"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
@@ -12906,15 +12906,15 @@
       <c r="D494" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E494" s="3">
-        <v>5</v>
+      <c r="E494" s="11">
+        <v>6</v>
       </c>
       <c r="F494" s="1">
         <v>6</v>
       </c>
       <c r="G494" s="1">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
@@ -13122,15 +13122,15 @@
       <c r="D503" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E503" s="3">
-        <v>2</v>
+      <c r="E503" s="11">
+        <v>6</v>
       </c>
       <c r="F503" s="1">
         <v>6</v>
       </c>
       <c r="G503" s="1">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
@@ -14058,15 +14058,15 @@
       <c r="D542" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E542" s="3">
-        <v>5</v>
+      <c r="E542" s="11">
+        <v>6</v>
       </c>
       <c r="F542" s="1">
         <v>6</v>
       </c>
       <c r="G542" s="1">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
@@ -14106,15 +14106,15 @@
       <c r="D544" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E544" s="3">
-        <v>0</v>
+      <c r="E544" s="11">
+        <v>6</v>
       </c>
       <c r="F544" s="1">
         <v>6</v>
       </c>
       <c r="G544" s="1">
         <f t="shared" si="8"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -14874,15 +14874,15 @@
       <c r="D576" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E576" s="3">
-        <v>1</v>
+      <c r="E576" s="11">
+        <v>6</v>
       </c>
       <c r="F576" s="1">
         <v>6</v>
       </c>
       <c r="G576" s="1">
         <f t="shared" si="8"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -41179,14 +41179,14 @@
         <v>15</v>
       </c>
       <c r="E1672" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1672" s="1">
         <v>6</v>
       </c>
       <c r="G1672" s="1">
         <f t="shared" si="27"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1673" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB78B5F-AB7B-A948-8D7E-21840224F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775079C4-6EE5-0240-AAAE-FC975A558946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9620" yWindow="500" windowWidth="19180" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G547" sqref="G547"/>
+    <sheetView tabSelected="1" topLeftCell="A1567" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C1587" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2850,15 +2850,15 @@
       <c r="D75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="3">
-        <v>8</v>
+      <c r="E75" s="11">
+        <v>10</v>
       </c>
       <c r="F75" s="1">
         <v>10</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2898,15 +2898,15 @@
       <c r="D77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="3">
-        <v>7</v>
+      <c r="E77" s="11">
+        <v>10</v>
       </c>
       <c r="F77" s="1">
         <v>10</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3258,15 +3258,15 @@
       <c r="D92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="3">
-        <v>6</v>
+      <c r="E92" s="11">
+        <v>10</v>
       </c>
       <c r="F92" s="1">
         <v>10</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3450,15 +3450,15 @@
       <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>6</v>
+      <c r="E100" s="11">
+        <v>10</v>
       </c>
       <c r="F100" s="1">
         <v>10</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3882,15 +3882,15 @@
       <c r="D118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="3">
-        <v>5</v>
+      <c r="E118" s="11">
+        <v>10</v>
       </c>
       <c r="F118" s="1">
         <v>10</v>
       </c>
       <c r="G118" s="1">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4050,15 +4050,15 @@
       <c r="D125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="3">
-        <v>4</v>
+      <c r="E125" s="11">
+        <v>10</v>
       </c>
       <c r="F125" s="1">
         <v>10</v>
       </c>
       <c r="G125" s="1">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4074,15 +4074,15 @@
       <c r="D126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="3">
-        <v>4</v>
+      <c r="E126" s="11">
+        <v>10</v>
       </c>
       <c r="F126" s="1">
         <v>10</v>
       </c>
       <c r="G126" s="1">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4410,15 +4410,15 @@
       <c r="D140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="3">
-        <v>4</v>
+      <c r="E140" s="11">
+        <v>10</v>
       </c>
       <c r="F140" s="1">
         <v>10</v>
       </c>
       <c r="G140" s="1">
         <f t="shared" si="2"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -5106,15 +5106,15 @@
       <c r="D169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="3">
-        <v>2</v>
+      <c r="E169" s="11">
+        <v>10</v>
       </c>
       <c r="F169" s="1">
         <v>10</v>
       </c>
       <c r="G169" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -5154,15 +5154,15 @@
       <c r="D171" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="3">
-        <v>2</v>
+      <c r="E171" s="11">
+        <v>10</v>
       </c>
       <c r="F171" s="1">
         <v>10</v>
       </c>
       <c r="G171" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -5202,15 +5202,15 @@
       <c r="D173" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E173" s="3">
-        <v>2</v>
+      <c r="E173" s="11">
+        <v>10</v>
       </c>
       <c r="F173" s="1">
         <v>10</v>
       </c>
       <c r="G173" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -5298,15 +5298,15 @@
       <c r="D177" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="3">
-        <v>2</v>
+      <c r="E177" s="11">
+        <v>10</v>
       </c>
       <c r="F177" s="1">
         <v>10</v>
       </c>
       <c r="G177" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -5562,15 +5562,15 @@
       <c r="D188" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E188" s="3">
-        <v>2</v>
+      <c r="E188" s="11">
+        <v>10</v>
       </c>
       <c r="F188" s="1">
         <v>10</v>
       </c>
       <c r="G188" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775079C4-6EE5-0240-AAAE-FC975A558946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7B910-8D40-5247-86D4-966C5044F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="500" windowWidth="19180" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1051,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1567" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C1587" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1806" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C1827" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23322,15 +23325,15 @@
       <c r="D928" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E928" s="7">
-        <v>9</v>
+      <c r="E928" s="9">
+        <v>10</v>
       </c>
       <c r="F928" s="5">
         <v>10</v>
       </c>
       <c r="G928" s="1">
         <f t="shared" si="15"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.2">
@@ -62514,15 +62517,15 @@
       <c r="D2561" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2561" s="1">
-        <v>2</v>
+      <c r="E2561" s="13">
+        <v>6</v>
       </c>
       <c r="F2561" s="1">
         <v>6</v>
       </c>
       <c r="G2561" s="3">
         <f t="shared" si="42"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2562" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7B910-8D40-5247-86D4-966C5044F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F247A-D1C4-6149-B2FF-FDDF4097958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1806" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C1827" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2182" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C2203" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11013,15 +11013,15 @@
       <c r="D415" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E415" s="3">
-        <v>15</v>
+      <c r="E415" s="11">
+        <v>24</v>
       </c>
       <c r="F415" s="1">
         <v>24</v>
       </c>
       <c r="G415" s="1">
         <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F247A-D1C4-6149-B2FF-FDDF4097958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF9E01-E7F8-E44C-B80D-AB4F02815112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G2780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2182" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C2203" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1870" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E1891" sqref="E1891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46437,15 +46437,15 @@
       <c r="D1891" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1891" s="1">
-        <v>4</v>
+      <c r="E1891" s="13">
+        <v>8</v>
       </c>
       <c r="F1891" s="1">
         <v>8</v>
       </c>
       <c r="G1891" s="1">
         <f t="shared" si="31"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E066F5D-0643-894B-A300-69C3CF53A979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C7D461-89CF-6E41-A74B-089C22179842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14360" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -728,6 +728,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD86DCD"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1058,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1325" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G1338" sqref="G1338"/>
+    <sheetView tabSelected="1" topLeftCell="A1582" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E1615" sqref="E1615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36672,15 +36678,15 @@
       <c r="D1484" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1484" s="7">
-        <v>5</v>
+      <c r="E1484" s="10">
+        <v>6</v>
       </c>
       <c r="F1484">
         <v>6</v>
       </c>
       <c r="G1484">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1485" spans="1:7" x14ac:dyDescent="0.2">
@@ -36696,15 +36702,15 @@
       <c r="D1485" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1485" s="7">
-        <v>5</v>
+      <c r="E1485" s="10">
+        <v>6</v>
       </c>
       <c r="F1485">
         <v>6</v>
       </c>
       <c r="G1485">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1486" spans="1:7" x14ac:dyDescent="0.2">
@@ -36720,15 +36726,15 @@
       <c r="D1486" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1486" s="7">
-        <v>5</v>
+      <c r="E1486" s="10">
+        <v>6</v>
       </c>
       <c r="F1486">
         <v>6</v>
       </c>
       <c r="G1486">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487" spans="1:7" x14ac:dyDescent="0.2">
@@ -36744,15 +36750,15 @@
       <c r="D1487" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1487" s="7">
-        <v>5</v>
+      <c r="E1487" s="10">
+        <v>6</v>
       </c>
       <c r="F1487">
         <v>6</v>
       </c>
       <c r="G1487">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488" spans="1:7" x14ac:dyDescent="0.2">
@@ -36768,7 +36774,7 @@
       <c r="D1488" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1488" s="10">
+      <c r="E1488" s="9">
         <v>6</v>
       </c>
       <c r="F1488">
@@ -36816,15 +36822,15 @@
       <c r="D1490" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1490" s="7">
-        <v>5</v>
+      <c r="E1490" s="10">
+        <v>6</v>
       </c>
       <c r="F1490">
         <v>6</v>
       </c>
       <c r="G1490">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1491" spans="1:7" x14ac:dyDescent="0.2">
@@ -36864,15 +36870,15 @@
       <c r="D1492" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1492" s="7">
-        <v>5</v>
+      <c r="E1492" s="10">
+        <v>6</v>
       </c>
       <c r="F1492">
         <v>6</v>
       </c>
       <c r="G1492">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493" spans="1:7" x14ac:dyDescent="0.2">
@@ -36888,15 +36894,15 @@
       <c r="D1493" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1493" s="7">
-        <v>5</v>
+      <c r="E1493" s="10">
+        <v>6</v>
       </c>
       <c r="F1493">
         <v>6</v>
       </c>
       <c r="G1493">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494" spans="1:7" x14ac:dyDescent="0.2">
@@ -36912,15 +36918,15 @@
       <c r="D1494" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1494" s="7">
-        <v>5</v>
+      <c r="E1494" s="10">
+        <v>6</v>
       </c>
       <c r="F1494">
         <v>6</v>
       </c>
       <c r="G1494">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1495" spans="1:7" x14ac:dyDescent="0.2">
@@ -36936,15 +36942,15 @@
       <c r="D1495" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1495" s="7">
-        <v>5</v>
+      <c r="E1495" s="10">
+        <v>6</v>
       </c>
       <c r="F1495">
         <v>6</v>
       </c>
       <c r="G1495">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1496" spans="1:7" x14ac:dyDescent="0.2">
@@ -36960,15 +36966,15 @@
       <c r="D1496" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1496" s="7">
-        <v>5</v>
+      <c r="E1496" s="10">
+        <v>6</v>
       </c>
       <c r="F1496">
         <v>6</v>
       </c>
       <c r="G1496">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1497" spans="1:7" x14ac:dyDescent="0.2">
@@ -37008,15 +37014,15 @@
       <c r="D1498" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1498" s="7">
-        <v>5</v>
+      <c r="E1498" s="10">
+        <v>6</v>
       </c>
       <c r="F1498">
         <v>6</v>
       </c>
       <c r="G1498">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1499" spans="1:7" x14ac:dyDescent="0.2">
@@ -37032,15 +37038,15 @@
       <c r="D1499" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1499" s="7">
-        <v>5</v>
+      <c r="E1499" s="10">
+        <v>6</v>
       </c>
       <c r="F1499">
         <v>6</v>
       </c>
       <c r="G1499">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1500" spans="1:7" x14ac:dyDescent="0.2">
@@ -37056,15 +37062,15 @@
       <c r="D1500" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1500" s="7">
-        <v>5</v>
+      <c r="E1500" s="10">
+        <v>6</v>
       </c>
       <c r="F1500">
         <v>6</v>
       </c>
       <c r="G1500">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1501" spans="1:7" x14ac:dyDescent="0.2">
@@ -37080,15 +37086,15 @@
       <c r="D1501" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1501" s="7">
-        <v>5</v>
+      <c r="E1501" s="10">
+        <v>6</v>
       </c>
       <c r="F1501">
         <v>6</v>
       </c>
       <c r="G1501">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1502" spans="1:7" x14ac:dyDescent="0.2">
@@ -37104,15 +37110,15 @@
       <c r="D1502" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1502" s="7">
-        <v>5</v>
+      <c r="E1502" s="10">
+        <v>6</v>
       </c>
       <c r="F1502">
         <v>6</v>
       </c>
       <c r="G1502">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1503" spans="1:7" x14ac:dyDescent="0.2">
@@ -37128,15 +37134,15 @@
       <c r="D1503" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1503" s="7">
-        <v>5</v>
+      <c r="E1503" s="10">
+        <v>6</v>
       </c>
       <c r="F1503">
         <v>6</v>
       </c>
       <c r="G1503">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1504" spans="1:7" x14ac:dyDescent="0.2">
@@ -37176,15 +37182,15 @@
       <c r="D1505" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1505" s="7">
-        <v>5</v>
+      <c r="E1505" s="10">
+        <v>6</v>
       </c>
       <c r="F1505">
         <v>6</v>
       </c>
       <c r="G1505">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1506" spans="1:7" x14ac:dyDescent="0.2">
@@ -37200,15 +37206,15 @@
       <c r="D1506" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1506" s="7">
-        <v>5</v>
+      <c r="E1506" s="10">
+        <v>6</v>
       </c>
       <c r="F1506">
         <v>6</v>
       </c>
       <c r="G1506">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1507" spans="1:7" x14ac:dyDescent="0.2">
@@ -37224,15 +37230,15 @@
       <c r="D1507" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1507" s="7">
-        <v>5</v>
+      <c r="E1507" s="10">
+        <v>6</v>
       </c>
       <c r="F1507">
         <v>6</v>
       </c>
       <c r="G1507">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1508" spans="1:7" x14ac:dyDescent="0.2">
@@ -37248,15 +37254,15 @@
       <c r="D1508" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1508" s="7">
-        <v>4</v>
+      <c r="E1508" s="10">
+        <v>6</v>
       </c>
       <c r="F1508">
         <v>6</v>
       </c>
       <c r="G1508">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509" spans="1:7" x14ac:dyDescent="0.2">
@@ -37272,15 +37278,15 @@
       <c r="D1509" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1509" s="7">
-        <v>4</v>
+      <c r="E1509" s="10">
+        <v>6</v>
       </c>
       <c r="F1509">
         <v>6</v>
       </c>
       <c r="G1509">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510" spans="1:7" x14ac:dyDescent="0.2">
@@ -37296,15 +37302,15 @@
       <c r="D1510" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1510" s="7">
-        <v>4</v>
+      <c r="E1510" s="10">
+        <v>6</v>
       </c>
       <c r="F1510">
         <v>6</v>
       </c>
       <c r="G1510">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511" spans="1:7" x14ac:dyDescent="0.2">
@@ -37344,15 +37350,15 @@
       <c r="D1512" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1512" s="7">
-        <v>4</v>
+      <c r="E1512" s="10">
+        <v>6</v>
       </c>
       <c r="F1512">
         <v>6</v>
       </c>
       <c r="G1512">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1513" spans="1:7" x14ac:dyDescent="0.2">
@@ -37416,15 +37422,15 @@
       <c r="D1515" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1515" s="7">
-        <v>4</v>
+      <c r="E1515" s="10">
+        <v>6</v>
       </c>
       <c r="F1515">
         <v>6</v>
       </c>
       <c r="G1515">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1516" spans="1:7" x14ac:dyDescent="0.2">
@@ -37440,15 +37446,15 @@
       <c r="D1516" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1516" s="7">
-        <v>4</v>
+      <c r="E1516" s="10">
+        <v>6</v>
       </c>
       <c r="F1516">
         <v>6</v>
       </c>
       <c r="G1516">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1517" spans="1:7" x14ac:dyDescent="0.2">
@@ -37512,15 +37518,15 @@
       <c r="D1519" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1519" s="7">
-        <v>4</v>
+      <c r="E1519" s="10">
+        <v>6</v>
       </c>
       <c r="F1519">
         <v>6</v>
       </c>
       <c r="G1519">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1520" spans="1:7" x14ac:dyDescent="0.2">
@@ -37560,15 +37566,15 @@
       <c r="D1521" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1521" s="7">
-        <v>4</v>
+      <c r="E1521" s="10">
+        <v>6</v>
       </c>
       <c r="F1521">
         <v>6</v>
       </c>
       <c r="G1521">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1522" spans="1:7" x14ac:dyDescent="0.2">
@@ -37608,15 +37614,15 @@
       <c r="D1523" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1523" s="7">
-        <v>4</v>
+      <c r="E1523" s="10">
+        <v>6</v>
       </c>
       <c r="F1523">
         <v>6</v>
       </c>
       <c r="G1523">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1524" spans="1:7" x14ac:dyDescent="0.2">
@@ -37728,15 +37734,15 @@
       <c r="D1528" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1528" s="7">
-        <v>4</v>
+      <c r="E1528" s="10">
+        <v>6</v>
       </c>
       <c r="F1528">
         <v>6</v>
       </c>
       <c r="G1528">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1529" spans="1:7" x14ac:dyDescent="0.2">
@@ -37752,15 +37758,15 @@
       <c r="D1529" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1529" s="7">
-        <v>4</v>
+      <c r="E1529" s="10">
+        <v>6</v>
       </c>
       <c r="F1529">
         <v>6</v>
       </c>
       <c r="G1529">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1530" spans="1:7" x14ac:dyDescent="0.2">
@@ -37800,15 +37806,15 @@
       <c r="D1531" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1531" s="7">
-        <v>3</v>
+      <c r="E1531" s="10">
+        <v>6</v>
       </c>
       <c r="F1531">
         <v>6</v>
       </c>
       <c r="G1531">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532" spans="1:7" x14ac:dyDescent="0.2">
@@ -37872,15 +37878,15 @@
       <c r="D1534" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1534" s="7">
-        <v>3</v>
+      <c r="E1534" s="10">
+        <v>6</v>
       </c>
       <c r="F1534">
         <v>6</v>
       </c>
       <c r="G1534">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535" spans="1:7" x14ac:dyDescent="0.2">
@@ -37896,15 +37902,15 @@
       <c r="D1535" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1535" s="7">
-        <v>3</v>
+      <c r="E1535" s="10">
+        <v>6</v>
       </c>
       <c r="F1535">
         <v>6</v>
       </c>
       <c r="G1535">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536" spans="1:7" x14ac:dyDescent="0.2">
@@ -37944,15 +37950,15 @@
       <c r="D1537" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1537" s="7">
-        <v>3</v>
+      <c r="E1537" s="10">
+        <v>6</v>
       </c>
       <c r="F1537">
         <v>6</v>
       </c>
       <c r="G1537">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1538" spans="1:7" x14ac:dyDescent="0.2">
@@ -37968,15 +37974,15 @@
       <c r="D1538" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1538" s="7">
-        <v>3</v>
+      <c r="E1538" s="10">
+        <v>6</v>
       </c>
       <c r="F1538">
         <v>6</v>
       </c>
       <c r="G1538">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1539" spans="1:7" x14ac:dyDescent="0.2">
@@ -37992,15 +37998,15 @@
       <c r="D1539" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1539" s="7">
-        <v>3</v>
+      <c r="E1539" s="10">
+        <v>6</v>
       </c>
       <c r="F1539">
         <v>6</v>
       </c>
       <c r="G1539">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540" spans="1:7" x14ac:dyDescent="0.2">
@@ -38016,15 +38022,15 @@
       <c r="D1540" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1540" s="7">
-        <v>3</v>
+      <c r="E1540" s="10">
+        <v>6</v>
       </c>
       <c r="F1540">
         <v>6</v>
       </c>
       <c r="G1540">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1541" spans="1:7" x14ac:dyDescent="0.2">
@@ -38088,15 +38094,15 @@
       <c r="D1543" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1543" s="7">
-        <v>3</v>
+      <c r="E1543" s="10">
+        <v>6</v>
       </c>
       <c r="F1543">
         <v>6</v>
       </c>
       <c r="G1543">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1544" spans="1:7" x14ac:dyDescent="0.2">
@@ -38184,15 +38190,15 @@
       <c r="D1547" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1547" s="7">
-        <v>3</v>
+      <c r="E1547" s="10">
+        <v>6</v>
       </c>
       <c r="F1547">
         <v>6</v>
       </c>
       <c r="G1547">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548" spans="1:7" x14ac:dyDescent="0.2">
@@ -38232,15 +38238,15 @@
       <c r="D1549" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1549" s="7">
-        <v>3</v>
+      <c r="E1549" s="10">
+        <v>6</v>
       </c>
       <c r="F1549">
         <v>6</v>
       </c>
       <c r="G1549">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1550" spans="1:7" x14ac:dyDescent="0.2">
@@ -38280,15 +38286,15 @@
       <c r="D1551" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1551" s="7">
-        <v>3</v>
+      <c r="E1551" s="10">
+        <v>6</v>
       </c>
       <c r="F1551">
         <v>6</v>
       </c>
       <c r="G1551">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1552" spans="1:7" x14ac:dyDescent="0.2">
@@ -38304,15 +38310,15 @@
       <c r="D1552" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1552" s="7">
-        <v>3</v>
+      <c r="E1552" s="10">
+        <v>6</v>
       </c>
       <c r="F1552">
         <v>6</v>
       </c>
       <c r="G1552">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553" spans="1:7" x14ac:dyDescent="0.2">
@@ -38328,15 +38334,15 @@
       <c r="D1553" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1553" s="7">
-        <v>3</v>
+      <c r="E1553" s="10">
+        <v>6</v>
       </c>
       <c r="F1553">
         <v>6</v>
       </c>
       <c r="G1553">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554" spans="1:7" x14ac:dyDescent="0.2">
@@ -38400,15 +38406,15 @@
       <c r="D1556" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1556" s="7">
-        <v>3</v>
+      <c r="E1556" s="10">
+        <v>6</v>
       </c>
       <c r="F1556">
         <v>6</v>
       </c>
       <c r="G1556">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1557" spans="1:7" x14ac:dyDescent="0.2">
@@ -38496,15 +38502,15 @@
       <c r="D1560" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1560" s="7">
-        <v>3</v>
+      <c r="E1560" s="10">
+        <v>6</v>
       </c>
       <c r="F1560">
         <v>6</v>
       </c>
       <c r="G1560">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1561" spans="1:7" x14ac:dyDescent="0.2">
@@ -38520,15 +38526,15 @@
       <c r="D1561" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1561" s="7">
-        <v>3</v>
+      <c r="E1561" s="10">
+        <v>6</v>
       </c>
       <c r="F1561">
         <v>6</v>
       </c>
       <c r="G1561">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1562" spans="1:7" x14ac:dyDescent="0.2">
@@ -38568,15 +38574,15 @@
       <c r="D1563" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1563" s="7">
-        <v>3</v>
+      <c r="E1563" s="10">
+        <v>6</v>
       </c>
       <c r="F1563">
         <v>6</v>
       </c>
       <c r="G1563">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1564" spans="1:7" x14ac:dyDescent="0.2">
@@ -38736,15 +38742,15 @@
       <c r="D1570" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1570" s="7">
-        <v>2</v>
+      <c r="E1570" s="10">
+        <v>6</v>
       </c>
       <c r="F1570">
         <v>6</v>
       </c>
       <c r="G1570">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1571" spans="1:7" x14ac:dyDescent="0.2">
@@ -38808,15 +38814,15 @@
       <c r="D1573" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1573" s="7">
-        <v>2</v>
+      <c r="E1573" s="10">
+        <v>6</v>
       </c>
       <c r="F1573">
         <v>6</v>
       </c>
       <c r="G1573">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1574" spans="1:7" x14ac:dyDescent="0.2">
@@ -38832,15 +38838,15 @@
       <c r="D1574" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1574" s="7">
-        <v>2</v>
+      <c r="E1574" s="10">
+        <v>6</v>
       </c>
       <c r="F1574">
         <v>6</v>
       </c>
       <c r="G1574">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575" spans="1:7" x14ac:dyDescent="0.2">
@@ -38904,15 +38910,15 @@
       <c r="D1577" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1577" s="7">
-        <v>2</v>
+      <c r="E1577" s="10">
+        <v>6</v>
       </c>
       <c r="F1577">
         <v>6</v>
       </c>
       <c r="G1577">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:7" x14ac:dyDescent="0.2">
@@ -38952,15 +38958,15 @@
       <c r="D1579" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1579" s="7">
-        <v>2</v>
+      <c r="E1579" s="10">
+        <v>6</v>
       </c>
       <c r="F1579">
         <v>6</v>
       </c>
       <c r="G1579">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:7" x14ac:dyDescent="0.2">
@@ -39000,15 +39006,15 @@
       <c r="D1581" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1581" s="7">
-        <v>2</v>
+      <c r="E1581" s="10">
+        <v>6</v>
       </c>
       <c r="F1581">
         <v>6</v>
       </c>
       <c r="G1581">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582" spans="1:7" x14ac:dyDescent="0.2">
@@ -39048,15 +39054,15 @@
       <c r="D1583" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1583" s="7">
-        <v>2</v>
+      <c r="E1583" s="10">
+        <v>6</v>
       </c>
       <c r="F1583">
         <v>6</v>
       </c>
       <c r="G1583">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1584" spans="1:7" x14ac:dyDescent="0.2">
@@ -39096,15 +39102,15 @@
       <c r="D1585" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1585" s="7">
-        <v>2</v>
+      <c r="E1585" s="10">
+        <v>6</v>
       </c>
       <c r="F1585">
         <v>6</v>
       </c>
       <c r="G1585">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1586" spans="1:7" x14ac:dyDescent="0.2">
@@ -39120,7 +39126,7 @@
       <c r="D1586" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1586" s="7">
+      <c r="E1586" s="10">
         <v>2</v>
       </c>
       <c r="F1586">
@@ -39192,15 +39198,15 @@
       <c r="D1589" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1589" s="7">
-        <v>2</v>
+      <c r="E1589" s="10">
+        <v>6</v>
       </c>
       <c r="F1589">
         <v>6</v>
       </c>
       <c r="G1589">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590" spans="1:7" x14ac:dyDescent="0.2">
@@ -39240,15 +39246,15 @@
       <c r="D1591" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1591" s="7">
-        <v>2</v>
+      <c r="E1591" s="10">
+        <v>6</v>
       </c>
       <c r="F1591">
         <v>6</v>
       </c>
       <c r="G1591">
         <f t="shared" si="25"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1592" spans="1:7" x14ac:dyDescent="0.2">
@@ -39264,15 +39270,15 @@
       <c r="D1592" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1592" s="7">
-        <v>1</v>
+      <c r="E1592" s="10">
+        <v>6</v>
       </c>
       <c r="F1592">
         <v>6</v>
       </c>
       <c r="G1592">
         <f t="shared" si="25"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1593" spans="1:7" x14ac:dyDescent="0.2">
@@ -39528,15 +39534,15 @@
       <c r="D1603" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1603" s="7">
-        <v>1</v>
+      <c r="E1603" s="10">
+        <v>6</v>
       </c>
       <c r="F1603">
         <v>6</v>
       </c>
       <c r="G1603">
         <f t="shared" si="25"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1604" spans="1:7" x14ac:dyDescent="0.2">
@@ -39624,15 +39630,15 @@
       <c r="D1607" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1607" s="7">
-        <v>1</v>
+      <c r="E1607" s="10">
+        <v>6</v>
       </c>
       <c r="F1607">
         <v>6</v>
       </c>
       <c r="G1607">
         <f t="shared" si="25"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1608" spans="1:7" x14ac:dyDescent="0.2">
@@ -39744,15 +39750,15 @@
       <c r="D1612" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1612" s="7">
-        <v>1</v>
+      <c r="E1612" s="10">
+        <v>6</v>
       </c>
       <c r="F1612">
         <v>6</v>
       </c>
       <c r="G1612">
         <f t="shared" si="26"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1613" spans="1:7" x14ac:dyDescent="0.2">
@@ -39768,15 +39774,15 @@
       <c r="D1613" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1613" s="7">
-        <v>1</v>
+      <c r="E1613" s="10">
+        <v>6</v>
       </c>
       <c r="F1613">
         <v>6</v>
       </c>
       <c r="G1613">
         <f t="shared" si="26"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1614" spans="1:7" x14ac:dyDescent="0.2">
@@ -39816,15 +39822,15 @@
       <c r="D1615" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1615" s="7">
-        <v>1</v>
+      <c r="E1615" s="10">
+        <v>6</v>
       </c>
       <c r="F1615">
         <v>6</v>
       </c>
       <c r="G1615">
         <f t="shared" si="26"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1616" spans="1:7" x14ac:dyDescent="0.2">
@@ -40032,15 +40038,15 @@
       <c r="D1624" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1624" s="7">
-        <v>0</v>
+      <c r="E1624" s="10">
+        <v>6</v>
       </c>
       <c r="F1624">
         <v>6</v>
       </c>
       <c r="G1624">
         <f t="shared" si="26"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625" spans="1:7" x14ac:dyDescent="0.2">
@@ -40176,15 +40182,15 @@
       <c r="D1630" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1630" s="7">
-        <v>0</v>
+      <c r="E1630" s="10">
+        <v>6</v>
       </c>
       <c r="F1630">
         <v>6</v>
       </c>
       <c r="G1630">
         <f t="shared" si="26"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631" spans="1:7" x14ac:dyDescent="0.2">
@@ -40224,15 +40230,15 @@
       <c r="D1632" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1632" s="7">
-        <v>0</v>
+      <c r="E1632" s="10">
+        <v>6</v>
       </c>
       <c r="F1632">
         <v>6</v>
       </c>
       <c r="G1632">
         <f t="shared" si="26"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1633" spans="1:7" x14ac:dyDescent="0.2">
@@ -40272,15 +40278,15 @@
       <c r="D1634" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1634" s="7">
-        <v>0</v>
+      <c r="E1634" s="10">
+        <v>6</v>
       </c>
       <c r="F1634">
         <v>6</v>
       </c>
       <c r="G1634">
         <f t="shared" si="26"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:7" x14ac:dyDescent="0.2">
@@ -40536,15 +40542,15 @@
       <c r="D1645" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1645" s="7">
-        <v>0</v>
+      <c r="E1645" s="10">
+        <v>6</v>
       </c>
       <c r="F1645">
         <v>6</v>
       </c>
       <c r="G1645">
         <f t="shared" si="26"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1646" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C7D461-89CF-6E41-A74B-089C22179842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4774F5-D51E-FA43-966B-FB10AEBC231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14360" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -627,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,6 +660,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1582" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E1615" sqref="E1615"/>
+    <sheetView tabSelected="1" topLeftCell="A1073" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E1112" sqref="E1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23838,15 +23844,15 @@
       <c r="D949" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E949" s="11">
-        <v>7</v>
+      <c r="E949" s="14">
+        <v>10</v>
       </c>
       <c r="F949" s="4">
         <v>10</v>
       </c>
       <c r="G949">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.2">
@@ -24030,15 +24036,15 @@
       <c r="D957" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E957" s="11">
-        <v>7</v>
+      <c r="E957" s="14">
+        <v>10</v>
       </c>
       <c r="F957" s="4">
         <v>10</v>
       </c>
       <c r="G957">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.2">
@@ -24126,15 +24132,15 @@
       <c r="D961" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E961" s="11">
-        <v>7</v>
+      <c r="E961" s="14">
+        <v>10</v>
       </c>
       <c r="F961" s="4">
         <v>10</v>
       </c>
       <c r="G961">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.2">
@@ -24150,15 +24156,15 @@
       <c r="D962" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E962" s="11">
-        <v>7</v>
+      <c r="E962" s="14">
+        <v>10</v>
       </c>
       <c r="F962" s="4">
         <v>10</v>
       </c>
       <c r="G962">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.2">
@@ -24294,15 +24300,15 @@
       <c r="D968" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E968" s="11">
-        <v>6</v>
+      <c r="E968" s="14">
+        <v>10</v>
       </c>
       <c r="F968" s="4">
         <v>10</v>
       </c>
       <c r="G968">
         <f t="shared" ref="G968:G1031" si="16">E968-F968</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.2">
@@ -24366,15 +24372,15 @@
       <c r="D971" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E971" s="11">
-        <v>6</v>
+      <c r="E971" s="14">
+        <v>10</v>
       </c>
       <c r="F971" s="4">
         <v>10</v>
       </c>
       <c r="G971">
         <f t="shared" si="16"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.2">
@@ -24462,15 +24468,15 @@
       <c r="D975" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E975" s="11">
-        <v>6</v>
+      <c r="E975" s="14">
+        <v>10</v>
       </c>
       <c r="F975" s="4">
         <v>10</v>
       </c>
       <c r="G975">
         <f t="shared" si="16"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.2">
@@ -24558,15 +24564,15 @@
       <c r="D979" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E979" s="11">
-        <v>6</v>
+      <c r="E979" s="14">
+        <v>10</v>
       </c>
       <c r="F979" s="4">
         <v>10</v>
       </c>
       <c r="G979">
         <f t="shared" si="16"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.2">
@@ -24582,15 +24588,15 @@
       <c r="D980" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E980" s="11">
-        <v>6</v>
+      <c r="E980" s="14">
+        <v>10</v>
       </c>
       <c r="F980" s="4">
         <v>10</v>
       </c>
       <c r="G980">
         <f t="shared" si="16"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.2">
@@ -24654,15 +24660,15 @@
       <c r="D983" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E983" s="11">
-        <v>6</v>
+      <c r="E983" s="14">
+        <v>10</v>
       </c>
       <c r="F983" s="4">
         <v>10</v>
       </c>
       <c r="G983">
         <f t="shared" si="16"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.2">
@@ -24678,15 +24684,15 @@
       <c r="D984" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E984" s="11">
-        <v>6</v>
+      <c r="E984" s="14">
+        <v>10</v>
       </c>
       <c r="F984" s="4">
         <v>10</v>
       </c>
       <c r="G984">
         <f t="shared" si="16"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.2">
@@ -24702,15 +24708,15 @@
       <c r="D985" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E985" s="11">
-        <v>5</v>
+      <c r="E985" s="14">
+        <v>10</v>
       </c>
       <c r="F985" s="4">
         <v>10</v>
       </c>
       <c r="G985">
         <f t="shared" si="16"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.2">
@@ -24774,15 +24780,15 @@
       <c r="D988" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E988" s="11">
-        <v>5</v>
+      <c r="E988" s="14">
+        <v>10</v>
       </c>
       <c r="F988" s="4">
         <v>10</v>
       </c>
       <c r="G988">
         <f t="shared" si="16"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.2">
@@ -24798,15 +24804,15 @@
       <c r="D989" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E989" s="11">
-        <v>5</v>
+      <c r="E989" s="14">
+        <v>10</v>
       </c>
       <c r="F989" s="4">
         <v>10</v>
       </c>
       <c r="G989">
         <f t="shared" si="16"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.2">
@@ -24846,15 +24852,15 @@
       <c r="D991" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E991" s="11">
-        <v>5</v>
+      <c r="E991" s="14">
+        <v>10</v>
       </c>
       <c r="F991" s="4">
         <v>10</v>
       </c>
       <c r="G991">
         <f t="shared" si="16"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.2">
@@ -24990,15 +24996,15 @@
       <c r="D997" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E997" s="11">
-        <v>4</v>
+      <c r="E997" s="14">
+        <v>10</v>
       </c>
       <c r="F997" s="4">
         <v>10</v>
       </c>
       <c r="G997">
         <f t="shared" si="16"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.2">
@@ -25134,15 +25140,15 @@
       <c r="D1003" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1003" s="11">
-        <v>4</v>
+      <c r="E1003" s="14">
+        <v>10</v>
       </c>
       <c r="F1003" s="4">
         <v>10</v>
       </c>
       <c r="G1003">
         <f t="shared" si="16"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
@@ -25158,7 +25164,7 @@
       <c r="D1004" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1004" s="11">
+      <c r="E1004" s="15">
         <v>4</v>
       </c>
       <c r="F1004" s="4">
@@ -25302,15 +25308,15 @@
       <c r="D1010" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1010" s="11">
-        <v>4</v>
+      <c r="E1010" s="14">
+        <v>10</v>
       </c>
       <c r="F1010" s="4">
         <v>10</v>
       </c>
       <c r="G1010">
         <f t="shared" si="16"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
@@ -25422,15 +25428,15 @@
       <c r="D1015" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1015" s="11">
-        <v>3</v>
+      <c r="E1015" s="14">
+        <v>10</v>
       </c>
       <c r="F1015" s="4">
         <v>10</v>
       </c>
       <c r="G1015">
         <f t="shared" si="16"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
@@ -25494,15 +25500,15 @@
       <c r="D1018" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1018" s="11">
-        <v>3</v>
+      <c r="E1018" s="14">
+        <v>10</v>
       </c>
       <c r="F1018" s="4">
         <v>10</v>
       </c>
       <c r="G1018">
         <f t="shared" si="16"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
@@ -25830,15 +25836,15 @@
       <c r="D1032" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1032" s="11">
-        <v>3</v>
+      <c r="E1032" s="14">
+        <v>10</v>
       </c>
       <c r="F1032" s="4">
         <v>10</v>
       </c>
       <c r="G1032">
         <f t="shared" ref="G1032:G1095" si="17">E1032-F1032</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
@@ -25926,15 +25932,15 @@
       <c r="D1036" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1036" s="11">
-        <v>3</v>
+      <c r="E1036" s="14">
+        <v>10</v>
       </c>
       <c r="F1036" s="4">
         <v>10</v>
       </c>
       <c r="G1036">
         <f t="shared" si="17"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
@@ -26046,15 +26052,15 @@
       <c r="D1041" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1041" s="11">
-        <v>3</v>
+      <c r="E1041" s="14">
+        <v>10</v>
       </c>
       <c r="F1041" s="4">
         <v>10</v>
       </c>
       <c r="G1041">
         <f t="shared" si="17"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
@@ -26118,15 +26124,15 @@
       <c r="D1044" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1044" s="11">
-        <v>3</v>
+      <c r="E1044" s="14">
+        <v>10</v>
       </c>
       <c r="F1044" s="4">
         <v>10</v>
       </c>
       <c r="G1044">
         <f t="shared" si="17"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
@@ -26190,15 +26196,15 @@
       <c r="D1047" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1047" s="11">
-        <v>2</v>
+      <c r="E1047" s="14">
+        <v>10</v>
       </c>
       <c r="F1047" s="4">
         <v>10</v>
       </c>
       <c r="G1047">
         <f t="shared" si="17"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
@@ -26574,15 +26580,15 @@
       <c r="D1063" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1063" s="11">
-        <v>2</v>
+      <c r="E1063" s="14">
+        <v>10</v>
       </c>
       <c r="F1063" s="4">
         <v>10</v>
       </c>
       <c r="G1063">
         <f t="shared" si="17"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
@@ -27318,15 +27324,15 @@
       <c r="D1094" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1094" s="11">
-        <v>1</v>
+      <c r="E1094" s="14">
+        <v>10</v>
       </c>
       <c r="F1094" s="4">
         <v>10</v>
       </c>
       <c r="G1094">
         <f t="shared" si="17"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
@@ -27750,15 +27756,15 @@
       <c r="D1112" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1112" s="11">
-        <v>1</v>
+      <c r="E1112" s="14">
+        <v>10</v>
       </c>
       <c r="F1112" s="4">
         <v>10</v>
       </c>
       <c r="G1112">
         <f t="shared" si="18"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4774F5-D51E-FA43-966B-FB10AEBC231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25704FE3-55D0-444A-80F3-FF1DA681BD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14360" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -627,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,9 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1073" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E1112" sqref="E1112"/>
+    <sheetView tabSelected="1" topLeftCell="A1656" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D1664" sqref="D1664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25164,7 +25161,7 @@
       <c r="D1004" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1004" s="15">
+      <c r="E1004" s="11">
         <v>4</v>
       </c>
       <c r="F1004" s="4">
@@ -41220,15 +41217,15 @@
       <c r="D1673" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1673" s="7">
-        <v>5</v>
+      <c r="E1673" s="10">
+        <v>6</v>
       </c>
       <c r="F1673">
         <v>6</v>
       </c>
       <c r="G1673">
         <f t="shared" si="27"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1674" spans="1:7" x14ac:dyDescent="0.2">
@@ -41316,15 +41313,15 @@
       <c r="D1677" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1677" s="7">
-        <v>3</v>
+      <c r="E1677" s="10">
+        <v>6</v>
       </c>
       <c r="F1677">
         <v>6</v>
       </c>
       <c r="G1677">
         <f t="shared" si="27"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:7" x14ac:dyDescent="0.2">
@@ -41532,15 +41529,15 @@
       <c r="D1686" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1686" s="7">
-        <v>2</v>
+      <c r="E1686" s="10">
+        <v>6</v>
       </c>
       <c r="F1686">
         <v>6</v>
       </c>
       <c r="G1686">
         <f t="shared" si="27"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1687" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25704FE3-55D0-444A-80F3-FF1DA681BD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F4E72-97B4-8A45-B4F8-6D25AF2680F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14360" windowHeight="16180" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1656" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D1664" sqref="D1664"/>
+    <sheetView tabSelected="1" topLeftCell="A3215" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E3237" sqref="E3237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -78754,14 +78754,14 @@
         <v>12</v>
       </c>
       <c r="E3237">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3237">
         <v>20</v>
       </c>
       <c r="G3237">
         <f t="shared" si="53"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3238" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F4E72-97B4-8A45-B4F8-6D25AF2680F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B884FEE-01E7-6A42-BE47-91EB3FA69383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3215" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E3237" sqref="E3237"/>
+    <sheetView tabSelected="1" topLeftCell="A2158" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C2180" sqref="C2180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31569,15 +31569,15 @@
       <c r="D1271" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1271" s="7">
-        <v>21</v>
+      <c r="E1271" s="9">
+        <v>24</v>
       </c>
       <c r="F1271">
         <v>24</v>
       </c>
       <c r="G1271">
         <f t="shared" si="20"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B884FEE-01E7-6A42-BE47-91EB3FA69383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31628B31-9307-B94B-B72B-E8D02E4B05BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="15420" windowHeight="16120" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,6 +661,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2158" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C2180" sqref="C2180"/>
+    <sheetView tabSelected="1" topLeftCell="A2676" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H2699" sqref="H2699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3537,15 +3544,15 @@
       <c r="D103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="7">
-        <v>6</v>
+      <c r="E103" s="10">
+        <v>10</v>
       </c>
       <c r="F103">
         <v>10</v>
       </c>
       <c r="G103">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -11001,15 +11008,15 @@
       <c r="D414" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E414" s="7">
-        <v>15</v>
+      <c r="E414" s="10">
+        <v>24</v>
       </c>
       <c r="F414">
         <v>24</v>
       </c>
       <c r="G414">
         <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
@@ -11121,15 +11128,15 @@
       <c r="D419" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E419" s="7">
-        <v>14</v>
+      <c r="E419" s="10">
+        <v>24</v>
       </c>
       <c r="F419">
         <v>24</v>
       </c>
       <c r="G419">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
@@ -11145,15 +11152,15 @@
       <c r="D420" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E420" s="7">
-        <v>14</v>
+      <c r="E420" s="10">
+        <v>24</v>
       </c>
       <c r="F420">
         <v>24</v>
       </c>
       <c r="G420">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
@@ -24057,15 +24064,15 @@
       <c r="D958" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E958" s="11">
-        <v>7</v>
+      <c r="E958" s="14">
+        <v>10</v>
       </c>
       <c r="F958" s="4">
         <v>10</v>
       </c>
       <c r="G958">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.2">
@@ -24729,15 +24736,15 @@
       <c r="D986" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E986" s="11">
-        <v>5</v>
+      <c r="E986" s="14">
+        <v>10</v>
       </c>
       <c r="F986" s="4">
         <v>10</v>
       </c>
       <c r="G986">
         <f t="shared" si="16"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.2">
@@ -31593,15 +31600,15 @@
       <c r="D1272" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1272" s="7">
-        <v>21</v>
+      <c r="E1272" s="10">
+        <v>24</v>
       </c>
       <c r="F1272">
         <v>24</v>
       </c>
       <c r="G1272">
         <f t="shared" si="20"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.2">
@@ -31953,15 +31960,15 @@
       <c r="D1287" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1287" s="7">
-        <v>18</v>
+      <c r="E1287" s="10">
+        <v>24</v>
       </c>
       <c r="F1287">
         <v>24</v>
       </c>
       <c r="G1287">
         <f t="shared" si="20"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.2">
@@ -32049,15 +32056,15 @@
       <c r="D1291" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1291" s="7">
-        <v>16</v>
+      <c r="E1291" s="10">
+        <v>24</v>
       </c>
       <c r="F1291">
         <v>24</v>
       </c>
       <c r="G1291">
         <f t="shared" si="21"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.2">
@@ -32577,15 +32584,15 @@
       <c r="D1313" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1313" s="7">
-        <v>10</v>
+      <c r="E1313" s="15">
+        <v>24</v>
       </c>
       <c r="F1313">
         <v>24</v>
       </c>
       <c r="G1313">
         <f t="shared" si="21"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.2">
@@ -45513,15 +45520,15 @@
       <c r="D1852" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1852">
-        <v>6</v>
+      <c r="E1852" s="16">
+        <v>8</v>
       </c>
       <c r="F1852">
         <v>8</v>
       </c>
       <c r="G1852">
         <f t="shared" si="30"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1853" spans="1:7" x14ac:dyDescent="0.2">
@@ -46161,15 +46168,15 @@
       <c r="D1879" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1879">
-        <v>4</v>
+      <c r="E1879" s="16">
+        <v>8</v>
       </c>
       <c r="F1879">
         <v>8</v>
       </c>
       <c r="G1879">
         <f t="shared" si="30"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1880" spans="1:7" x14ac:dyDescent="0.2">
@@ -46761,15 +46768,15 @@
       <c r="D1904" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1904">
-        <v>4</v>
+      <c r="E1904" s="16">
+        <v>8</v>
       </c>
       <c r="F1904">
         <v>8</v>
       </c>
       <c r="G1904">
         <f t="shared" si="31"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1905" spans="1:7" x14ac:dyDescent="0.2">
@@ -47217,15 +47224,15 @@
       <c r="D1923" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1923">
-        <v>3</v>
+      <c r="E1923" s="16">
+        <v>8</v>
       </c>
       <c r="F1923">
         <v>8</v>
       </c>
       <c r="G1923">
         <f t="shared" si="31"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924" spans="1:7" x14ac:dyDescent="0.2">
@@ -47361,15 +47368,15 @@
       <c r="D1929" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1929">
-        <v>3</v>
+      <c r="E1929" s="16">
+        <v>8</v>
       </c>
       <c r="F1929">
         <v>8</v>
       </c>
       <c r="G1929">
         <f t="shared" si="31"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1930" spans="1:7" x14ac:dyDescent="0.2">
@@ -48753,15 +48760,15 @@
       <c r="D1987" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1987">
-        <v>1</v>
+      <c r="E1987" s="16">
+        <v>8</v>
       </c>
       <c r="F1987">
         <v>8</v>
       </c>
       <c r="G1987">
         <f t="shared" si="32"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1988" spans="1:7" x14ac:dyDescent="0.2">
@@ -49401,15 +49408,15 @@
       <c r="D2014" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2014">
-        <v>0</v>
+      <c r="E2014" s="16">
+        <v>8</v>
       </c>
       <c r="F2014">
         <v>8</v>
       </c>
       <c r="G2014">
         <f t="shared" si="32"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2015" spans="1:7" x14ac:dyDescent="0.2">
@@ -54345,15 +54352,15 @@
       <c r="D2220" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2220" s="7">
-        <v>19</v>
+      <c r="E2220" s="10">
+        <v>20</v>
       </c>
       <c r="F2220" s="7">
         <v>20</v>
       </c>
       <c r="G2220" s="7">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2221" spans="1:7" x14ac:dyDescent="0.2">
@@ -54609,7 +54616,7 @@
       <c r="D2231" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2231" s="7">
+      <c r="E2231" s="17">
         <v>17</v>
       </c>
       <c r="F2231" s="7">
@@ -54657,15 +54664,15 @@
       <c r="D2233" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2233" s="7">
-        <v>17</v>
+      <c r="E2233" s="10">
+        <v>20</v>
       </c>
       <c r="F2233" s="7">
         <v>20</v>
       </c>
       <c r="G2233" s="7">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2234" spans="1:7" x14ac:dyDescent="0.2">
@@ -54945,15 +54952,15 @@
       <c r="D2245" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2245" s="7">
-        <v>14</v>
+      <c r="E2245" s="10">
+        <v>20</v>
       </c>
       <c r="F2245" s="7">
         <v>20</v>
       </c>
       <c r="G2245" s="7">
         <f t="shared" si="37"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2246" spans="1:7" x14ac:dyDescent="0.2">
@@ -55065,15 +55072,15 @@
       <c r="D2250" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2250" s="7">
-        <v>13</v>
+      <c r="E2250" s="10">
+        <v>20</v>
       </c>
       <c r="F2250" s="7">
         <v>20</v>
       </c>
       <c r="G2250" s="7">
         <f t="shared" si="37"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2251" spans="1:7" x14ac:dyDescent="0.2">
@@ -55209,15 +55216,15 @@
       <c r="D2256" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2256" s="7">
-        <v>11</v>
+      <c r="E2256" s="10">
+        <v>20</v>
       </c>
       <c r="F2256" s="7">
         <v>20</v>
       </c>
       <c r="G2256" s="7">
         <f t="shared" si="37"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2257" spans="1:7" x14ac:dyDescent="0.2">
@@ -55521,15 +55528,15 @@
       <c r="D2269" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2269" s="7">
-        <v>8</v>
+      <c r="E2269" s="10">
+        <v>20</v>
       </c>
       <c r="F2269" s="7">
         <v>20</v>
       </c>
       <c r="G2269" s="7">
         <f t="shared" si="37"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270" spans="1:7" x14ac:dyDescent="0.2">
@@ -56025,15 +56032,15 @@
       <c r="D2290" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2290" s="7">
-        <v>2</v>
+      <c r="E2290" s="10">
+        <v>20</v>
       </c>
       <c r="F2290" s="7">
         <v>20</v>
       </c>
       <c r="G2290" s="7">
         <f t="shared" si="37"/>
-        <v>-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2291" spans="1:7" x14ac:dyDescent="0.2">
@@ -59745,15 +59752,15 @@
       <c r="D2445" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2445">
-        <v>5</v>
+      <c r="E2445" s="16">
+        <v>6</v>
       </c>
       <c r="F2445">
         <v>6</v>
       </c>
       <c r="G2445" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2446" spans="1:7" x14ac:dyDescent="0.2">
@@ -59985,15 +59992,15 @@
       <c r="D2455" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2455">
-        <v>5</v>
+      <c r="E2455" s="16">
+        <v>6</v>
       </c>
       <c r="F2455">
         <v>6</v>
       </c>
       <c r="G2455" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2456" spans="1:7" x14ac:dyDescent="0.2">
@@ -60105,15 +60112,15 @@
       <c r="D2460" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2460">
-        <v>5</v>
+      <c r="E2460" s="16">
+        <v>6</v>
       </c>
       <c r="F2460">
         <v>6</v>
       </c>
       <c r="G2460" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2461" spans="1:7" x14ac:dyDescent="0.2">
@@ -60129,15 +60136,15 @@
       <c r="D2461" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2461">
-        <v>5</v>
+      <c r="E2461" s="16">
+        <v>6</v>
       </c>
       <c r="F2461">
         <v>6</v>
       </c>
       <c r="G2461" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:7" x14ac:dyDescent="0.2">
@@ -60249,15 +60256,15 @@
       <c r="D2466" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2466">
-        <v>5</v>
+      <c r="E2466" s="16">
+        <v>6</v>
       </c>
       <c r="F2466">
         <v>6</v>
       </c>
       <c r="G2466" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2467" spans="1:7" x14ac:dyDescent="0.2">
@@ -60321,15 +60328,15 @@
       <c r="D2469" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2469">
-        <v>5</v>
+      <c r="E2469" s="16">
+        <v>6</v>
       </c>
       <c r="F2469">
         <v>6</v>
       </c>
       <c r="G2469" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2470" spans="1:7" x14ac:dyDescent="0.2">
@@ -60345,15 +60352,15 @@
       <c r="D2470" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2470">
-        <v>5</v>
+      <c r="E2470" s="16">
+        <v>6</v>
       </c>
       <c r="F2470">
         <v>6</v>
       </c>
       <c r="G2470" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2471" spans="1:7" x14ac:dyDescent="0.2">
@@ -60369,15 +60376,15 @@
       <c r="D2471" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2471">
-        <v>5</v>
+      <c r="E2471" s="16">
+        <v>6</v>
       </c>
       <c r="F2471">
         <v>6</v>
       </c>
       <c r="G2471" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2472" spans="1:7" x14ac:dyDescent="0.2">
@@ -60393,15 +60400,15 @@
       <c r="D2472" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2472">
-        <v>5</v>
+      <c r="E2472" s="16">
+        <v>6</v>
       </c>
       <c r="F2472">
         <v>6</v>
       </c>
       <c r="G2472" s="7">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2473" spans="1:7" x14ac:dyDescent="0.2">
@@ -60441,15 +60448,15 @@
       <c r="D2474" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2474">
-        <v>4</v>
+      <c r="E2474" s="16">
+        <v>6</v>
       </c>
       <c r="F2474">
         <v>6</v>
       </c>
       <c r="G2474" s="7">
         <f t="shared" si="40"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2475" spans="1:7" x14ac:dyDescent="0.2">
@@ -60465,15 +60472,15 @@
       <c r="D2475" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2475">
-        <v>4</v>
+      <c r="E2475" s="16">
+        <v>6</v>
       </c>
       <c r="F2475">
         <v>6</v>
       </c>
       <c r="G2475" s="7">
         <f t="shared" si="40"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2476" spans="1:7" x14ac:dyDescent="0.2">
@@ -60633,15 +60640,15 @@
       <c r="D2482" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2482">
-        <v>4</v>
+      <c r="E2482" s="16">
+        <v>6</v>
       </c>
       <c r="F2482">
         <v>6</v>
       </c>
       <c r="G2482" s="7">
         <f t="shared" si="40"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2483" spans="1:7" x14ac:dyDescent="0.2">
@@ -60657,15 +60664,15 @@
       <c r="D2483" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2483">
-        <v>4</v>
+      <c r="E2483" s="16">
+        <v>6</v>
       </c>
       <c r="F2483">
         <v>6</v>
       </c>
       <c r="G2483" s="7">
         <f t="shared" si="40"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2484" spans="1:7" x14ac:dyDescent="0.2">
@@ -60681,15 +60688,15 @@
       <c r="D2484" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2484">
-        <v>4</v>
+      <c r="E2484" s="16">
+        <v>6</v>
       </c>
       <c r="F2484">
         <v>6</v>
       </c>
       <c r="G2484" s="7">
         <f t="shared" si="40"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485" spans="1:7" x14ac:dyDescent="0.2">
@@ -60825,15 +60832,15 @@
       <c r="D2490" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2490">
-        <v>4</v>
+      <c r="E2490" s="16">
+        <v>6</v>
       </c>
       <c r="F2490">
         <v>6</v>
       </c>
       <c r="G2490" s="7">
         <f t="shared" si="40"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491" spans="1:7" x14ac:dyDescent="0.2">
@@ -60873,15 +60880,15 @@
       <c r="D2492" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2492">
-        <v>4</v>
+      <c r="E2492" s="16">
+        <v>6</v>
       </c>
       <c r="F2492">
         <v>6</v>
       </c>
       <c r="G2492" s="7">
         <f t="shared" si="40"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2493" spans="1:7" x14ac:dyDescent="0.2">
@@ -60921,15 +60928,15 @@
       <c r="D2494" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2494">
-        <v>4</v>
+      <c r="E2494" s="16">
+        <v>6</v>
       </c>
       <c r="F2494">
         <v>6</v>
       </c>
       <c r="G2494" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2495" spans="1:7" x14ac:dyDescent="0.2">
@@ -60945,15 +60952,15 @@
       <c r="D2495" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2495">
-        <v>4</v>
+      <c r="E2495" s="16">
+        <v>6</v>
       </c>
       <c r="F2495">
         <v>6</v>
       </c>
       <c r="G2495" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2496" spans="1:7" x14ac:dyDescent="0.2">
@@ -61017,15 +61024,15 @@
       <c r="D2498" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2498">
-        <v>4</v>
+      <c r="E2498" s="16">
+        <v>6</v>
       </c>
       <c r="F2498">
         <v>6</v>
       </c>
       <c r="G2498" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="1:7" x14ac:dyDescent="0.2">
@@ -61041,15 +61048,15 @@
       <c r="D2499" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2499">
-        <v>4</v>
+      <c r="E2499" s="16">
+        <v>6</v>
       </c>
       <c r="F2499">
         <v>6</v>
       </c>
       <c r="G2499" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2500" spans="1:7" x14ac:dyDescent="0.2">
@@ -61089,15 +61096,15 @@
       <c r="D2501" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2501">
-        <v>4</v>
+      <c r="E2501" s="16">
+        <v>6</v>
       </c>
       <c r="F2501">
         <v>6</v>
       </c>
       <c r="G2501" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2502" spans="1:7" x14ac:dyDescent="0.2">
@@ -61209,15 +61216,15 @@
       <c r="D2506" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2506">
-        <v>4</v>
+      <c r="E2506" s="16">
+        <v>6</v>
       </c>
       <c r="F2506">
         <v>6</v>
       </c>
       <c r="G2506" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2507" spans="1:7" x14ac:dyDescent="0.2">
@@ -61233,15 +61240,15 @@
       <c r="D2507" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2507">
-        <v>4</v>
+      <c r="E2507" s="16">
+        <v>6</v>
       </c>
       <c r="F2507">
         <v>6</v>
       </c>
       <c r="G2507" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2508" spans="1:7" x14ac:dyDescent="0.2">
@@ -61257,15 +61264,15 @@
       <c r="D2508" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2508">
-        <v>4</v>
+      <c r="E2508" s="16">
+        <v>6</v>
       </c>
       <c r="F2508">
         <v>6</v>
       </c>
       <c r="G2508" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2509" spans="1:7" x14ac:dyDescent="0.2">
@@ -61353,15 +61360,15 @@
       <c r="D2512" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2512">
-        <v>4</v>
+      <c r="E2512" s="16">
+        <v>6</v>
       </c>
       <c r="F2512">
         <v>6</v>
       </c>
       <c r="G2512" s="7">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2513" spans="1:7" x14ac:dyDescent="0.2">
@@ -61377,15 +61384,15 @@
       <c r="D2513" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2513">
-        <v>3</v>
+      <c r="E2513" s="16">
+        <v>6</v>
       </c>
       <c r="F2513">
         <v>6</v>
       </c>
       <c r="G2513" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2514" spans="1:7" x14ac:dyDescent="0.2">
@@ -61401,15 +61408,15 @@
       <c r="D2514" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2514">
-        <v>3</v>
+      <c r="E2514" s="16">
+        <v>6</v>
       </c>
       <c r="F2514">
         <v>6</v>
       </c>
       <c r="G2514" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2515" spans="1:7" x14ac:dyDescent="0.2">
@@ -61449,15 +61456,15 @@
       <c r="D2516" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2516">
-        <v>3</v>
+      <c r="E2516" s="16">
+        <v>6</v>
       </c>
       <c r="F2516">
         <v>6</v>
       </c>
       <c r="G2516" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2517" spans="1:7" x14ac:dyDescent="0.2">
@@ -61569,15 +61576,15 @@
       <c r="D2521" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2521">
-        <v>3</v>
+      <c r="E2521" s="16">
+        <v>6</v>
       </c>
       <c r="F2521">
         <v>6</v>
       </c>
       <c r="G2521" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2522" spans="1:7" x14ac:dyDescent="0.2">
@@ -61761,15 +61768,15 @@
       <c r="D2529" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2529">
-        <v>3</v>
+      <c r="E2529" s="16">
+        <v>6</v>
       </c>
       <c r="F2529">
         <v>6</v>
       </c>
       <c r="G2529" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2530" spans="1:7" x14ac:dyDescent="0.2">
@@ -61833,15 +61840,15 @@
       <c r="D2532" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2532">
-        <v>3</v>
+      <c r="E2532" s="16">
+        <v>6</v>
       </c>
       <c r="F2532">
         <v>6</v>
       </c>
       <c r="G2532" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2533" spans="1:7" x14ac:dyDescent="0.2">
@@ -61857,15 +61864,15 @@
       <c r="D2533" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2533">
-        <v>3</v>
+      <c r="E2533" s="16">
+        <v>6</v>
       </c>
       <c r="F2533">
         <v>6</v>
       </c>
       <c r="G2533" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2534" spans="1:7" x14ac:dyDescent="0.2">
@@ -62145,15 +62152,15 @@
       <c r="D2545" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2545">
-        <v>3</v>
+      <c r="E2545" s="16">
+        <v>6</v>
       </c>
       <c r="F2545">
         <v>6</v>
       </c>
       <c r="G2545" s="7">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2546" spans="1:7" x14ac:dyDescent="0.2">
@@ -62169,15 +62176,15 @@
       <c r="D2546" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2546">
-        <v>2</v>
+      <c r="E2546" s="16">
+        <v>6</v>
       </c>
       <c r="F2546">
         <v>6</v>
       </c>
       <c r="G2546" s="7">
         <f t="shared" si="41"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2547" spans="1:7" x14ac:dyDescent="0.2">
@@ -62217,15 +62224,15 @@
       <c r="D2548" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2548">
-        <v>2</v>
+      <c r="E2548" s="16">
+        <v>6</v>
       </c>
       <c r="F2548">
         <v>6</v>
       </c>
       <c r="G2548" s="7">
         <f t="shared" si="41"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2549" spans="1:7" x14ac:dyDescent="0.2">
@@ -62241,15 +62248,15 @@
       <c r="D2549" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2549">
-        <v>2</v>
+      <c r="E2549" s="16">
+        <v>6</v>
       </c>
       <c r="F2549">
         <v>6</v>
       </c>
       <c r="G2549" s="7">
         <f t="shared" si="41"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2550" spans="1:7" x14ac:dyDescent="0.2">
@@ -62313,15 +62320,15 @@
       <c r="D2552" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2552">
-        <v>2</v>
+      <c r="E2552" s="16">
+        <v>6</v>
       </c>
       <c r="F2552">
         <v>6</v>
       </c>
       <c r="G2552" s="7">
         <f t="shared" si="41"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2553" spans="1:7" x14ac:dyDescent="0.2">
@@ -62409,15 +62416,15 @@
       <c r="D2556" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2556">
-        <v>2</v>
+      <c r="E2556" s="16">
+        <v>6</v>
       </c>
       <c r="F2556">
         <v>6</v>
       </c>
       <c r="G2556" s="7">
         <f t="shared" si="41"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2557" spans="1:7" x14ac:dyDescent="0.2">
@@ -62673,15 +62680,15 @@
       <c r="D2567" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2567">
-        <v>2</v>
+      <c r="E2567" s="16">
+        <v>6</v>
       </c>
       <c r="F2567">
         <v>6</v>
       </c>
       <c r="G2567" s="7">
         <f t="shared" si="42"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2568" spans="1:7" x14ac:dyDescent="0.2">
@@ -62697,15 +62704,15 @@
       <c r="D2568" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2568">
-        <v>1</v>
+      <c r="E2568" s="16">
+        <v>6</v>
       </c>
       <c r="F2568">
         <v>6</v>
       </c>
       <c r="G2568" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2569" spans="1:7" x14ac:dyDescent="0.2">
@@ -62769,15 +62776,15 @@
       <c r="D2571" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2571">
-        <v>1</v>
+      <c r="E2571" s="16">
+        <v>6</v>
       </c>
       <c r="F2571">
         <v>6</v>
       </c>
       <c r="G2571" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2572" spans="1:7" x14ac:dyDescent="0.2">
@@ -62793,15 +62800,15 @@
       <c r="D2572" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2572">
-        <v>1</v>
+      <c r="E2572" s="16">
+        <v>6</v>
       </c>
       <c r="F2572">
         <v>6</v>
       </c>
       <c r="G2572" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2573" spans="1:7" x14ac:dyDescent="0.2">
@@ -62817,15 +62824,15 @@
       <c r="D2573" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2573">
-        <v>1</v>
+      <c r="E2573" s="16">
+        <v>6</v>
       </c>
       <c r="F2573">
         <v>6</v>
       </c>
       <c r="G2573" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2574" spans="1:7" x14ac:dyDescent="0.2">
@@ -62937,15 +62944,15 @@
       <c r="D2578" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2578">
-        <v>1</v>
+      <c r="E2578" s="16">
+        <v>6</v>
       </c>
       <c r="F2578">
         <v>6</v>
       </c>
       <c r="G2578" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2579" spans="1:7" x14ac:dyDescent="0.2">
@@ -62961,15 +62968,15 @@
       <c r="D2579" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2579">
-        <v>1</v>
+      <c r="E2579" s="16">
+        <v>6</v>
       </c>
       <c r="F2579">
         <v>6</v>
       </c>
       <c r="G2579" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2580" spans="1:7" x14ac:dyDescent="0.2">
@@ -62985,15 +62992,15 @@
       <c r="D2580" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2580">
-        <v>1</v>
+      <c r="E2580" s="16">
+        <v>6</v>
       </c>
       <c r="F2580">
         <v>6</v>
       </c>
       <c r="G2580" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2581" spans="1:7" x14ac:dyDescent="0.2">
@@ -63057,15 +63064,15 @@
       <c r="D2583" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2583">
-        <v>1</v>
+      <c r="E2583" s="16">
+        <v>6</v>
       </c>
       <c r="F2583">
         <v>6</v>
       </c>
       <c r="G2583" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2584" spans="1:7" x14ac:dyDescent="0.2">
@@ -63105,15 +63112,15 @@
       <c r="D2585" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2585">
-        <v>1</v>
+      <c r="E2585" s="16">
+        <v>6</v>
       </c>
       <c r="F2585">
         <v>6</v>
       </c>
       <c r="G2585" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2586" spans="1:7" x14ac:dyDescent="0.2">
@@ -63153,15 +63160,15 @@
       <c r="D2587" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2587">
-        <v>1</v>
+      <c r="E2587" s="16">
+        <v>6</v>
       </c>
       <c r="F2587">
         <v>6</v>
       </c>
       <c r="G2587" s="7">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2588" spans="1:7" x14ac:dyDescent="0.2">
@@ -63249,15 +63256,15 @@
       <c r="D2591" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2591">
-        <v>0</v>
+      <c r="E2591" s="16">
+        <v>6</v>
       </c>
       <c r="F2591">
         <v>6</v>
       </c>
       <c r="G2591" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2592" spans="1:7" x14ac:dyDescent="0.2">
@@ -63273,15 +63280,15 @@
       <c r="D2592" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2592">
-        <v>0</v>
+      <c r="E2592" s="16">
+        <v>6</v>
       </c>
       <c r="F2592">
         <v>6</v>
       </c>
       <c r="G2592" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2593" spans="1:7" x14ac:dyDescent="0.2">
@@ -63441,15 +63448,15 @@
       <c r="D2599" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2599">
-        <v>0</v>
+      <c r="E2599" s="16">
+        <v>6</v>
       </c>
       <c r="F2599">
         <v>6</v>
       </c>
       <c r="G2599" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2600" spans="1:7" x14ac:dyDescent="0.2">
@@ -63465,15 +63472,15 @@
       <c r="D2600" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2600">
-        <v>0</v>
+      <c r="E2600" s="16">
+        <v>6</v>
       </c>
       <c r="F2600">
         <v>6</v>
       </c>
       <c r="G2600" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2601" spans="1:7" x14ac:dyDescent="0.2">
@@ -63489,15 +63496,15 @@
       <c r="D2601" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2601">
-        <v>0</v>
+      <c r="E2601" s="16">
+        <v>6</v>
       </c>
       <c r="F2601">
         <v>6</v>
       </c>
       <c r="G2601" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2602" spans="1:7" x14ac:dyDescent="0.2">
@@ -63633,15 +63640,15 @@
       <c r="D2607" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2607">
-        <v>0</v>
+      <c r="E2607" s="16">
+        <v>6</v>
       </c>
       <c r="F2607">
         <v>6</v>
       </c>
       <c r="G2607" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2608" spans="1:7" x14ac:dyDescent="0.2">
@@ -63705,15 +63712,15 @@
       <c r="D2610" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2610">
-        <v>0</v>
+      <c r="E2610" s="16">
+        <v>6</v>
       </c>
       <c r="F2610">
         <v>6</v>
       </c>
       <c r="G2610" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2611" spans="1:7" x14ac:dyDescent="0.2">
@@ -63777,15 +63784,15 @@
       <c r="D2613" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2613">
-        <v>0</v>
+      <c r="E2613" s="16">
+        <v>6</v>
       </c>
       <c r="F2613">
         <v>6</v>
       </c>
       <c r="G2613" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2614" spans="1:7" x14ac:dyDescent="0.2">
@@ -63801,15 +63808,15 @@
       <c r="D2614" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2614">
-        <v>0</v>
+      <c r="E2614" s="16">
+        <v>6</v>
       </c>
       <c r="F2614">
         <v>6</v>
       </c>
       <c r="G2614" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2615" spans="1:7" x14ac:dyDescent="0.2">
@@ -63873,15 +63880,15 @@
       <c r="D2617" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2617">
-        <v>0</v>
+      <c r="E2617" s="16">
+        <v>6</v>
       </c>
       <c r="F2617">
         <v>6</v>
       </c>
       <c r="G2617" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2618" spans="1:7" x14ac:dyDescent="0.2">
@@ -63921,15 +63928,15 @@
       <c r="D2619" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2619">
-        <v>0</v>
+      <c r="E2619" s="16">
+        <v>6</v>
       </c>
       <c r="F2619">
         <v>6</v>
       </c>
       <c r="G2619" s="7">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2620" spans="1:7" x14ac:dyDescent="0.2">
@@ -64041,15 +64048,15 @@
       <c r="D2624" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2624">
-        <v>0</v>
+      <c r="E2624" s="16">
+        <v>6</v>
       </c>
       <c r="F2624">
         <v>6</v>
       </c>
       <c r="G2624" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2625" spans="1:7" x14ac:dyDescent="0.2">
@@ -64305,15 +64312,15 @@
       <c r="D2635" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2635">
-        <v>0</v>
+      <c r="E2635" s="16">
+        <v>6</v>
       </c>
       <c r="F2635">
         <v>6</v>
       </c>
       <c r="G2635" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2636" spans="1:7" x14ac:dyDescent="0.2">
@@ -64473,15 +64480,15 @@
       <c r="D2642" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2642">
-        <v>0</v>
+      <c r="E2642" s="16">
+        <v>6</v>
       </c>
       <c r="F2642">
         <v>6</v>
       </c>
       <c r="G2642" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2643" spans="1:7" x14ac:dyDescent="0.2">
@@ -64689,15 +64696,15 @@
       <c r="D2651" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2651">
-        <v>0</v>
+      <c r="E2651" s="16">
+        <v>6</v>
       </c>
       <c r="F2651">
         <v>6</v>
       </c>
       <c r="G2651" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2652" spans="1:7" x14ac:dyDescent="0.2">
@@ -64809,15 +64816,15 @@
       <c r="D2656" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2656">
-        <v>0</v>
+      <c r="E2656" s="16">
+        <v>6</v>
       </c>
       <c r="F2656">
         <v>6</v>
       </c>
       <c r="G2656" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2657" spans="1:7" x14ac:dyDescent="0.2">
@@ -64857,15 +64864,15 @@
       <c r="D2658" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2658">
-        <v>0</v>
+      <c r="E2658" s="16">
+        <v>6</v>
       </c>
       <c r="F2658">
         <v>6</v>
       </c>
       <c r="G2658" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2659" spans="1:7" x14ac:dyDescent="0.2">
@@ -64881,15 +64888,15 @@
       <c r="D2659" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2659">
-        <v>0</v>
+      <c r="E2659" s="16">
+        <v>6</v>
       </c>
       <c r="F2659">
         <v>6</v>
       </c>
       <c r="G2659" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2660" spans="1:7" x14ac:dyDescent="0.2">
@@ -64953,15 +64960,15 @@
       <c r="D2662" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2662">
-        <v>0</v>
+      <c r="E2662" s="16">
+        <v>6</v>
       </c>
       <c r="F2662">
         <v>6</v>
       </c>
       <c r="G2662" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2663" spans="1:7" x14ac:dyDescent="0.2">
@@ -64977,15 +64984,15 @@
       <c r="D2663" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2663">
-        <v>0</v>
+      <c r="E2663" s="16">
+        <v>6</v>
       </c>
       <c r="F2663">
         <v>6</v>
       </c>
       <c r="G2663" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2664" spans="1:7" x14ac:dyDescent="0.2">
@@ -65049,15 +65056,15 @@
       <c r="D2666" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2666">
-        <v>0</v>
+      <c r="E2666" s="16">
+        <v>6</v>
       </c>
       <c r="F2666">
         <v>6</v>
       </c>
       <c r="G2666" s="7">
         <f t="shared" si="43"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2667" spans="1:7" x14ac:dyDescent="0.2">
@@ -65793,15 +65800,15 @@
       <c r="D2697" t="s">
         <v>15</v>
       </c>
-      <c r="E2697">
-        <v>4</v>
+      <c r="E2697" s="16">
+        <v>6</v>
       </c>
       <c r="F2697">
         <v>6</v>
       </c>
       <c r="G2697" s="7">
         <f t="shared" si="44"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2698" spans="1:7" x14ac:dyDescent="0.2">
@@ -65937,15 +65944,15 @@
       <c r="D2703" t="s">
         <v>15</v>
       </c>
-      <c r="E2703">
-        <v>3</v>
+      <c r="E2703" s="16">
+        <v>6</v>
       </c>
       <c r="F2703">
         <v>6</v>
       </c>
       <c r="G2703" s="7">
         <f t="shared" si="44"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2704" spans="1:7" x14ac:dyDescent="0.2">
@@ -66057,15 +66064,15 @@
       <c r="D2708" t="s">
         <v>15</v>
       </c>
-      <c r="E2708">
-        <v>2</v>
+      <c r="E2708" s="16">
+        <v>6</v>
       </c>
       <c r="F2708">
         <v>6</v>
       </c>
       <c r="G2708" s="7">
         <f t="shared" si="44"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2709" spans="1:7" x14ac:dyDescent="0.2">
@@ -66105,15 +66112,15 @@
       <c r="D2710" t="s">
         <v>15</v>
       </c>
-      <c r="E2710">
-        <v>2</v>
+      <c r="E2710" s="16">
+        <v>6</v>
       </c>
       <c r="F2710">
         <v>6</v>
       </c>
       <c r="G2710" s="7">
         <f t="shared" si="44"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2711" spans="1:7" x14ac:dyDescent="0.2">
@@ -78898,14 +78905,14 @@
         <v>11</v>
       </c>
       <c r="E3243">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3243">
         <v>20</v>
       </c>
       <c r="G3243">
         <f t="shared" si="53"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3244" spans="1:7" x14ac:dyDescent="0.2">
@@ -79593,15 +79600,15 @@
       <c r="D3272" t="s">
         <v>11</v>
       </c>
-      <c r="E3272">
-        <v>10</v>
+      <c r="E3272" s="16">
+        <v>20</v>
       </c>
       <c r="F3272">
         <v>20</v>
       </c>
       <c r="G3272">
         <f t="shared" si="54"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3273" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31628B31-9307-B94B-B72B-E8D02E4B05BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9EC4A-1084-F546-B7D4-6665DCDBEB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="15420" windowHeight="16120" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="15360" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,9 +667,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1074,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2676" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H2699" sqref="H2699"/>
+    <sheetView tabSelected="1" topLeftCell="A698" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E718" sqref="E718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10456,15 +10453,15 @@
       <c r="D391" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E391" s="7">
-        <v>22</v>
+      <c r="E391" s="9">
+        <v>24</v>
       </c>
       <c r="F391">
         <v>24</v>
       </c>
       <c r="G391">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
@@ -18304,15 +18301,15 @@
       <c r="D718" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E718" s="7">
-        <v>5</v>
+      <c r="E718" s="9">
+        <v>6</v>
       </c>
       <c r="F718">
         <v>6</v>
       </c>
       <c r="G718">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -54616,7 +54613,7 @@
       <c r="D2231" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2231" s="17">
+      <c r="E2231" s="7">
         <v>17</v>
       </c>
       <c r="F2231" s="7">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9EC4A-1084-F546-B7D4-6665DCDBEB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01EEC4A-ACD6-2748-8F45-0C9C144AABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="15360" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A698" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E718" sqref="E718"/>
+    <sheetView tabSelected="1" topLeftCell="A3263" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E3283" sqref="E3283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -79861,15 +79861,15 @@
       <c r="D3283" t="s">
         <v>11</v>
       </c>
-      <c r="E3283">
-        <v>9</v>
+      <c r="E3283" s="13">
+        <v>20</v>
       </c>
       <c r="F3283">
         <v>20</v>
       </c>
       <c r="G3283">
         <f t="shared" si="54"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3284" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01EEC4A-ACD6-2748-8F45-0C9C144AABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A13A59-CD95-4847-8A8C-9C4A79FE1DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="15360" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3263" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E3283" sqref="E3283"/>
+    <sheetView tabSelected="1" topLeftCell="A3227" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C3247" sqref="C3247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32293,15 +32293,15 @@
       <c r="D1301" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1301" s="7">
-        <v>14</v>
+      <c r="E1301" s="9">
+        <v>24</v>
       </c>
       <c r="F1301">
         <v>24</v>
       </c>
       <c r="G1301">
         <f t="shared" si="21"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A13A59-CD95-4847-8A8C-9C4A79FE1DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83958B1-A3C6-104E-AC8D-87D65601CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="15360" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -268,7 +268,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +466,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -627,7 +633,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,6 +673,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1071,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
   <dimension ref="A1:G3817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3227" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C3247" sqref="C3247"/>
+    <sheetView tabSelected="1" topLeftCell="A2220" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C2240" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11893,15 +11903,15 @@
       <c r="D451" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E451" s="7">
-        <v>6</v>
+      <c r="E451" s="18">
+        <v>24</v>
       </c>
       <c r="F451">
         <v>24</v>
       </c>
       <c r="G451">
         <f t="shared" si="7"/>
-        <v>-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
@@ -54829,15 +54839,15 @@
       <c r="D2240" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2240" s="7">
-        <v>15</v>
+      <c r="E2240" s="18">
+        <v>20</v>
       </c>
       <c r="F2240" s="7">
         <v>20</v>
       </c>
       <c r="G2240" s="7">
         <f t="shared" si="37"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2241" spans="1:7" x14ac:dyDescent="0.2">
@@ -79429,15 +79439,15 @@
       <c r="D3265" t="s">
         <v>11</v>
       </c>
-      <c r="E3265">
-        <v>12</v>
+      <c r="E3265" s="17">
+        <v>20</v>
       </c>
       <c r="F3265">
         <v>20</v>
       </c>
       <c r="G3265">
         <f t="shared" si="54"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3266" spans="1:7" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danae/Documents/GITHUB/directo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83958B1-A3C6-104E-AC8D-87D65601CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4F0F4-9D7B-6148-8DBD-C1F65423E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="15360" xr2:uid="{92037B7A-FC79-482E-9F0E-7B97B523F632}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11455" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12490" uniqueCount="23">
   <si>
     <t>Estado</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>FLOTA PROPIA</t>
+  </si>
+  <si>
+    <t>SEM.40</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66692CC7-8DCE-4D36-BCDD-B5FF51EBD094}">
-  <dimension ref="A1:G3817"/>
+  <dimension ref="A1:G4162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2220" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C2240" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3934" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G3824" sqref="G3824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -92696,6 +92699,8286 @@
       <c r="G3817">
         <f t="shared" si="63"/>
         <v>-6</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3818" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3818" s="1">
+        <v>633</v>
+      </c>
+      <c r="D3818" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3818">
+        <v>21</v>
+      </c>
+      <c r="F3818">
+        <v>8</v>
+      </c>
+      <c r="G3818">
+        <f>E3818-F3818</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3819" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3819" s="1">
+        <v>2349</v>
+      </c>
+      <c r="D3819" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3819">
+        <v>20</v>
+      </c>
+      <c r="F3819">
+        <v>8</v>
+      </c>
+      <c r="G3819">
+        <f t="shared" ref="G3819:G3882" si="64">E3819-F3819</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3820" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3820" s="1">
+        <v>3532</v>
+      </c>
+      <c r="D3820" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3820">
+        <v>19</v>
+      </c>
+      <c r="F3820">
+        <v>8</v>
+      </c>
+      <c r="G3820">
+        <f t="shared" si="64"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3821" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3821" s="1">
+        <v>411</v>
+      </c>
+      <c r="D3821" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3821">
+        <v>18</v>
+      </c>
+      <c r="F3821">
+        <v>8</v>
+      </c>
+      <c r="G3821">
+        <f t="shared" si="64"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3822" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3822" s="1">
+        <v>2446</v>
+      </c>
+      <c r="D3822" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3822">
+        <v>18</v>
+      </c>
+      <c r="F3822">
+        <v>8</v>
+      </c>
+      <c r="G3822">
+        <f t="shared" si="64"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3823" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3823" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D3823" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3823">
+        <v>17</v>
+      </c>
+      <c r="F3823">
+        <v>8</v>
+      </c>
+      <c r="G3823">
+        <f t="shared" si="64"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3824" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3824" s="1">
+        <v>9220</v>
+      </c>
+      <c r="D3824" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3824">
+        <v>17</v>
+      </c>
+      <c r="F3824">
+        <v>8</v>
+      </c>
+      <c r="G3824">
+        <f t="shared" si="64"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3825" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3825" s="1">
+        <v>9226</v>
+      </c>
+      <c r="D3825" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3825">
+        <v>17</v>
+      </c>
+      <c r="F3825">
+        <v>8</v>
+      </c>
+      <c r="G3825">
+        <f t="shared" si="64"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3826" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3826" s="1">
+        <v>302</v>
+      </c>
+      <c r="D3826" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3826">
+        <v>16</v>
+      </c>
+      <c r="F3826">
+        <v>8</v>
+      </c>
+      <c r="G3826">
+        <f t="shared" si="64"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3827" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3827" s="1">
+        <v>2416</v>
+      </c>
+      <c r="D3827" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3827">
+        <v>16</v>
+      </c>
+      <c r="F3827">
+        <v>8</v>
+      </c>
+      <c r="G3827">
+        <f t="shared" si="64"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3828" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3828" s="1">
+        <v>9883</v>
+      </c>
+      <c r="D3828" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3828">
+        <v>16</v>
+      </c>
+      <c r="F3828">
+        <v>8</v>
+      </c>
+      <c r="G3828">
+        <f t="shared" si="64"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3829" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3829" s="1">
+        <v>1854</v>
+      </c>
+      <c r="D3829" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3829">
+        <v>15</v>
+      </c>
+      <c r="F3829">
+        <v>8</v>
+      </c>
+      <c r="G3829">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3830" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3830" s="1">
+        <v>722</v>
+      </c>
+      <c r="D3830" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3830">
+        <v>14</v>
+      </c>
+      <c r="F3830">
+        <v>8</v>
+      </c>
+      <c r="G3830">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3831" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3831" s="1">
+        <v>1915</v>
+      </c>
+      <c r="D3831" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3831">
+        <v>14</v>
+      </c>
+      <c r="F3831">
+        <v>8</v>
+      </c>
+      <c r="G3831">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3832" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3832" s="1">
+        <v>3598</v>
+      </c>
+      <c r="D3832" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3832">
+        <v>14</v>
+      </c>
+      <c r="F3832">
+        <v>8</v>
+      </c>
+      <c r="G3832">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3833" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3833" s="1">
+        <v>9214</v>
+      </c>
+      <c r="D3833" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3833">
+        <v>14</v>
+      </c>
+      <c r="F3833">
+        <v>8</v>
+      </c>
+      <c r="G3833">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3834" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3834" s="1">
+        <v>9472</v>
+      </c>
+      <c r="D3834" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3834">
+        <v>14</v>
+      </c>
+      <c r="F3834">
+        <v>8</v>
+      </c>
+      <c r="G3834">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3835" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3835" s="1">
+        <v>1799</v>
+      </c>
+      <c r="D3835" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3835">
+        <v>13</v>
+      </c>
+      <c r="F3835">
+        <v>8</v>
+      </c>
+      <c r="G3835">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3836" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3836" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D3836" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3836">
+        <v>13</v>
+      </c>
+      <c r="F3836">
+        <v>8</v>
+      </c>
+      <c r="G3836">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3837" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3837" s="1">
+        <v>2168</v>
+      </c>
+      <c r="D3837" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3837">
+        <v>13</v>
+      </c>
+      <c r="F3837">
+        <v>8</v>
+      </c>
+      <c r="G3837">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3838" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3838" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D3838" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3838">
+        <v>13</v>
+      </c>
+      <c r="F3838">
+        <v>8</v>
+      </c>
+      <c r="G3838">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3839" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3839" s="1">
+        <v>3398</v>
+      </c>
+      <c r="D3839" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3839">
+        <v>13</v>
+      </c>
+      <c r="F3839">
+        <v>8</v>
+      </c>
+      <c r="G3839">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3840" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3840" s="1">
+        <v>3754</v>
+      </c>
+      <c r="D3840" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3840">
+        <v>13</v>
+      </c>
+      <c r="F3840">
+        <v>8</v>
+      </c>
+      <c r="G3840">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3841" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3841" s="1">
+        <v>5032</v>
+      </c>
+      <c r="D3841" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3841">
+        <v>13</v>
+      </c>
+      <c r="F3841">
+        <v>8</v>
+      </c>
+      <c r="G3841">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3842" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3842" s="1">
+        <v>412</v>
+      </c>
+      <c r="D3842" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3842">
+        <v>12</v>
+      </c>
+      <c r="F3842">
+        <v>8</v>
+      </c>
+      <c r="G3842">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3843" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3843" s="1">
+        <v>467</v>
+      </c>
+      <c r="D3843" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3843">
+        <v>12</v>
+      </c>
+      <c r="F3843">
+        <v>8</v>
+      </c>
+      <c r="G3843">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3844" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3844" s="1">
+        <v>561</v>
+      </c>
+      <c r="D3844" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3844">
+        <v>12</v>
+      </c>
+      <c r="F3844">
+        <v>8</v>
+      </c>
+      <c r="G3844">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3845" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3845" s="1">
+        <v>2422</v>
+      </c>
+      <c r="D3845" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3845">
+        <v>12</v>
+      </c>
+      <c r="F3845">
+        <v>8</v>
+      </c>
+      <c r="G3845">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3846" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3846" s="1">
+        <v>2520</v>
+      </c>
+      <c r="D3846" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3846">
+        <v>12</v>
+      </c>
+      <c r="F3846">
+        <v>8</v>
+      </c>
+      <c r="G3846">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3847" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3847" s="1">
+        <v>7065</v>
+      </c>
+      <c r="D3847" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3847">
+        <v>12</v>
+      </c>
+      <c r="F3847">
+        <v>8</v>
+      </c>
+      <c r="G3847">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3848" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3848" s="1">
+        <v>9216</v>
+      </c>
+      <c r="D3848" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3848">
+        <v>12</v>
+      </c>
+      <c r="F3848">
+        <v>8</v>
+      </c>
+      <c r="G3848">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3849" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3849" s="1">
+        <v>9484</v>
+      </c>
+      <c r="D3849" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3849">
+        <v>12</v>
+      </c>
+      <c r="F3849">
+        <v>8</v>
+      </c>
+      <c r="G3849">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3850" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3850" s="1">
+        <v>541</v>
+      </c>
+      <c r="D3850" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3850">
+        <v>11</v>
+      </c>
+      <c r="F3850">
+        <v>8</v>
+      </c>
+      <c r="G3850">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3851" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3851" s="1">
+        <v>571</v>
+      </c>
+      <c r="D3851" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3851">
+        <v>11</v>
+      </c>
+      <c r="F3851">
+        <v>8</v>
+      </c>
+      <c r="G3851">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3852" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3852" s="1">
+        <v>643</v>
+      </c>
+      <c r="D3852" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3852">
+        <v>11</v>
+      </c>
+      <c r="F3852">
+        <v>8</v>
+      </c>
+      <c r="G3852">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3853" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3853" s="1">
+        <v>2394</v>
+      </c>
+      <c r="D3853" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3853">
+        <v>11</v>
+      </c>
+      <c r="F3853">
+        <v>8</v>
+      </c>
+      <c r="G3853">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3854" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3854" s="1">
+        <v>2720</v>
+      </c>
+      <c r="D3854" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3854">
+        <v>11</v>
+      </c>
+      <c r="F3854">
+        <v>8</v>
+      </c>
+      <c r="G3854">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3855" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3855" s="1">
+        <v>9211</v>
+      </c>
+      <c r="D3855" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3855">
+        <v>11</v>
+      </c>
+      <c r="F3855">
+        <v>8</v>
+      </c>
+      <c r="G3855">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3856" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3856" s="1">
+        <v>9636</v>
+      </c>
+      <c r="D3856" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3856">
+        <v>11</v>
+      </c>
+      <c r="F3856">
+        <v>8</v>
+      </c>
+      <c r="G3856">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3857" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3857" s="1">
+        <v>373</v>
+      </c>
+      <c r="D3857" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3857">
+        <v>10</v>
+      </c>
+      <c r="F3857">
+        <v>8</v>
+      </c>
+      <c r="G3857">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3858" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3858" s="1">
+        <v>420</v>
+      </c>
+      <c r="D3858" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3858">
+        <v>10</v>
+      </c>
+      <c r="F3858">
+        <v>8</v>
+      </c>
+      <c r="G3858">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3859" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3859" s="1">
+        <v>507</v>
+      </c>
+      <c r="D3859" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3859">
+        <v>10</v>
+      </c>
+      <c r="F3859">
+        <v>8</v>
+      </c>
+      <c r="G3859">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3860" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3860" s="1">
+        <v>659</v>
+      </c>
+      <c r="D3860" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3860">
+        <v>10</v>
+      </c>
+      <c r="F3860">
+        <v>8</v>
+      </c>
+      <c r="G3860">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3861" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3861" s="1">
+        <v>1779</v>
+      </c>
+      <c r="D3861" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3861">
+        <v>10</v>
+      </c>
+      <c r="F3861">
+        <v>8</v>
+      </c>
+      <c r="G3861">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3862" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3862" s="1">
+        <v>2039</v>
+      </c>
+      <c r="D3862" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3862">
+        <v>10</v>
+      </c>
+      <c r="F3862">
+        <v>8</v>
+      </c>
+      <c r="G3862">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3863" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3863" s="1">
+        <v>2246</v>
+      </c>
+      <c r="D3863" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3863">
+        <v>10</v>
+      </c>
+      <c r="F3863">
+        <v>8</v>
+      </c>
+      <c r="G3863">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3864" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3864" s="1">
+        <v>2278</v>
+      </c>
+      <c r="D3864" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3864">
+        <v>10</v>
+      </c>
+      <c r="F3864">
+        <v>8</v>
+      </c>
+      <c r="G3864">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3865" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3865" s="1">
+        <v>3399</v>
+      </c>
+      <c r="D3865" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3865">
+        <v>10</v>
+      </c>
+      <c r="F3865">
+        <v>8</v>
+      </c>
+      <c r="G3865">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3866" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3866" s="1">
+        <v>3780</v>
+      </c>
+      <c r="D3866" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3866">
+        <v>10</v>
+      </c>
+      <c r="F3866">
+        <v>8</v>
+      </c>
+      <c r="G3866">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3867" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3867" s="1">
+        <v>9174</v>
+      </c>
+      <c r="D3867" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3867">
+        <v>10</v>
+      </c>
+      <c r="F3867">
+        <v>8</v>
+      </c>
+      <c r="G3867">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3868" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3868" s="1">
+        <v>9471</v>
+      </c>
+      <c r="D3868" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3868">
+        <v>10</v>
+      </c>
+      <c r="F3868">
+        <v>8</v>
+      </c>
+      <c r="G3868">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3869" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3869" s="1">
+        <v>596</v>
+      </c>
+      <c r="D3869" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3869">
+        <v>9</v>
+      </c>
+      <c r="F3869">
+        <v>8</v>
+      </c>
+      <c r="G3869">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3870" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3870" s="1">
+        <v>675</v>
+      </c>
+      <c r="D3870" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3870">
+        <v>9</v>
+      </c>
+      <c r="F3870">
+        <v>8</v>
+      </c>
+      <c r="G3870">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3871" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3871" s="1">
+        <v>1868</v>
+      </c>
+      <c r="D3871" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3871">
+        <v>9</v>
+      </c>
+      <c r="F3871">
+        <v>8</v>
+      </c>
+      <c r="G3871">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3872" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3872" s="1">
+        <v>2746</v>
+      </c>
+      <c r="D3872" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3872">
+        <v>9</v>
+      </c>
+      <c r="F3872">
+        <v>8</v>
+      </c>
+      <c r="G3872">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3873" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3873" s="1">
+        <v>3629</v>
+      </c>
+      <c r="D3873" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3873">
+        <v>9</v>
+      </c>
+      <c r="F3873">
+        <v>8</v>
+      </c>
+      <c r="G3873">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3874" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3874" s="1">
+        <v>3880</v>
+      </c>
+      <c r="D3874" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3874">
+        <v>9</v>
+      </c>
+      <c r="F3874">
+        <v>8</v>
+      </c>
+      <c r="G3874">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3875" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3875" s="1">
+        <v>7027</v>
+      </c>
+      <c r="D3875" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3875">
+        <v>9</v>
+      </c>
+      <c r="F3875">
+        <v>8</v>
+      </c>
+      <c r="G3875">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3876" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3876" s="1">
+        <v>9292</v>
+      </c>
+      <c r="D3876" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3876">
+        <v>9</v>
+      </c>
+      <c r="F3876">
+        <v>8</v>
+      </c>
+      <c r="G3876">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3877" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3877" s="1">
+        <v>9561</v>
+      </c>
+      <c r="D3877" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3877">
+        <v>9</v>
+      </c>
+      <c r="F3877">
+        <v>8</v>
+      </c>
+      <c r="G3877">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3878" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3878" s="1">
+        <v>380</v>
+      </c>
+      <c r="D3878" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3878">
+        <v>8</v>
+      </c>
+      <c r="F3878">
+        <v>8</v>
+      </c>
+      <c r="G3878">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3879" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3879" s="1">
+        <v>460</v>
+      </c>
+      <c r="D3879" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3879">
+        <v>8</v>
+      </c>
+      <c r="F3879">
+        <v>8</v>
+      </c>
+      <c r="G3879">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3880" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3880" s="1">
+        <v>515</v>
+      </c>
+      <c r="D3880" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3880">
+        <v>8</v>
+      </c>
+      <c r="F3880">
+        <v>8</v>
+      </c>
+      <c r="G3880">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3881" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3881" s="1">
+        <v>559</v>
+      </c>
+      <c r="D3881" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3881">
+        <v>8</v>
+      </c>
+      <c r="F3881">
+        <v>8</v>
+      </c>
+      <c r="G3881">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3882" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3882" s="1">
+        <v>1459</v>
+      </c>
+      <c r="D3882" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3882">
+        <v>8</v>
+      </c>
+      <c r="F3882">
+        <v>8</v>
+      </c>
+      <c r="G3882">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3883" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3883" s="1">
+        <v>1790</v>
+      </c>
+      <c r="D3883" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3883">
+        <v>8</v>
+      </c>
+      <c r="F3883">
+        <v>8</v>
+      </c>
+      <c r="G3883">
+        <f t="shared" ref="G3883:G3946" si="65">E3883-F3883</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3884" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3884" s="1">
+        <v>2122</v>
+      </c>
+      <c r="D3884" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3884">
+        <v>8</v>
+      </c>
+      <c r="F3884">
+        <v>8</v>
+      </c>
+      <c r="G3884">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3885" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3885" s="1">
+        <v>2218</v>
+      </c>
+      <c r="D3885" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3885">
+        <v>8</v>
+      </c>
+      <c r="F3885">
+        <v>8</v>
+      </c>
+      <c r="G3885">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3886" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3886" s="1">
+        <v>2913</v>
+      </c>
+      <c r="D3886" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3886">
+        <v>8</v>
+      </c>
+      <c r="F3886">
+        <v>8</v>
+      </c>
+      <c r="G3886">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3887" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3887" s="1">
+        <v>3349</v>
+      </c>
+      <c r="D3887" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3887">
+        <v>8</v>
+      </c>
+      <c r="F3887">
+        <v>8</v>
+      </c>
+      <c r="G3887">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3888" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3888" s="1">
+        <v>3557</v>
+      </c>
+      <c r="D3888" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3888">
+        <v>8</v>
+      </c>
+      <c r="F3888">
+        <v>8</v>
+      </c>
+      <c r="G3888">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3889" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3889" s="1">
+        <v>9204</v>
+      </c>
+      <c r="D3889" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3889">
+        <v>8</v>
+      </c>
+      <c r="F3889">
+        <v>8</v>
+      </c>
+      <c r="G3889">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3890" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3890" s="1">
+        <v>9289</v>
+      </c>
+      <c r="D3890" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3890">
+        <v>8</v>
+      </c>
+      <c r="F3890">
+        <v>8</v>
+      </c>
+      <c r="G3890">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3891" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3891" s="1">
+        <v>9922</v>
+      </c>
+      <c r="D3891" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3891">
+        <v>8</v>
+      </c>
+      <c r="F3891">
+        <v>8</v>
+      </c>
+      <c r="G3891">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3892" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3892" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3892" s="1">
+        <v>3904</v>
+      </c>
+      <c r="D3892" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3892">
+        <v>8</v>
+      </c>
+      <c r="F3892">
+        <v>8</v>
+      </c>
+      <c r="G3892">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3893" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3893" s="1">
+        <v>365</v>
+      </c>
+      <c r="D3893" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3893">
+        <v>7</v>
+      </c>
+      <c r="F3893">
+        <v>8</v>
+      </c>
+      <c r="G3893">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3894" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3894" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3894" s="1">
+        <v>553</v>
+      </c>
+      <c r="D3894" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3894">
+        <v>7</v>
+      </c>
+      <c r="F3894">
+        <v>8</v>
+      </c>
+      <c r="G3894">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3895" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3895" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3895" s="1">
+        <v>557</v>
+      </c>
+      <c r="D3895" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3895">
+        <v>7</v>
+      </c>
+      <c r="F3895">
+        <v>8</v>
+      </c>
+      <c r="G3895">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3896" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3896" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3896" s="1">
+        <v>1440</v>
+      </c>
+      <c r="D3896" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3896">
+        <v>7</v>
+      </c>
+      <c r="F3896">
+        <v>8</v>
+      </c>
+      <c r="G3896">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3897" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3897" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3897" s="1">
+        <v>1833</v>
+      </c>
+      <c r="D3897" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3897">
+        <v>7</v>
+      </c>
+      <c r="F3897">
+        <v>8</v>
+      </c>
+      <c r="G3897">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3898" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3898" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3898" s="1">
+        <v>2190</v>
+      </c>
+      <c r="D3898" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3898">
+        <v>7</v>
+      </c>
+      <c r="F3898">
+        <v>8</v>
+      </c>
+      <c r="G3898">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3899" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3899" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3899" s="1">
+        <v>2808</v>
+      </c>
+      <c r="D3899" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3899">
+        <v>7</v>
+      </c>
+      <c r="F3899">
+        <v>8</v>
+      </c>
+      <c r="G3899">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3900" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3900" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3900" s="1">
+        <v>2871</v>
+      </c>
+      <c r="D3900" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3900">
+        <v>7</v>
+      </c>
+      <c r="F3900">
+        <v>8</v>
+      </c>
+      <c r="G3900">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3901" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3901" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3901" s="1">
+        <v>3719</v>
+      </c>
+      <c r="D3901" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3901">
+        <v>7</v>
+      </c>
+      <c r="F3901">
+        <v>8</v>
+      </c>
+      <c r="G3901">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3902" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3902" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3902" s="1">
+        <v>3775</v>
+      </c>
+      <c r="D3902" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3902">
+        <v>7</v>
+      </c>
+      <c r="F3902">
+        <v>8</v>
+      </c>
+      <c r="G3902">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3903" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3903" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3903" s="1">
+        <v>3778</v>
+      </c>
+      <c r="D3903" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3903">
+        <v>7</v>
+      </c>
+      <c r="F3903">
+        <v>8</v>
+      </c>
+      <c r="G3903">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3904" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3904" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3904" s="1">
+        <v>9190</v>
+      </c>
+      <c r="D3904" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3904">
+        <v>7</v>
+      </c>
+      <c r="F3904">
+        <v>8</v>
+      </c>
+      <c r="G3904">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3905" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3905" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3905" s="1">
+        <v>9641</v>
+      </c>
+      <c r="D3905" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3905">
+        <v>7</v>
+      </c>
+      <c r="F3905">
+        <v>8</v>
+      </c>
+      <c r="G3905">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3906" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3906" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3906" s="1">
+        <v>9896</v>
+      </c>
+      <c r="D3906" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3906">
+        <v>7</v>
+      </c>
+      <c r="F3906">
+        <v>8</v>
+      </c>
+      <c r="G3906">
+        <f t="shared" si="65"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3907" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3907" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3907" s="1">
+        <v>674</v>
+      </c>
+      <c r="D3907" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3907">
+        <v>6</v>
+      </c>
+      <c r="F3907">
+        <v>8</v>
+      </c>
+      <c r="G3907">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3908" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3908" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3908" s="1">
+        <v>688</v>
+      </c>
+      <c r="D3908" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3908">
+        <v>6</v>
+      </c>
+      <c r="F3908">
+        <v>8</v>
+      </c>
+      <c r="G3908">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3909" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3909" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3909" s="1">
+        <v>1406</v>
+      </c>
+      <c r="D3909" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3909">
+        <v>6</v>
+      </c>
+      <c r="F3909">
+        <v>8</v>
+      </c>
+      <c r="G3909">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3910" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3910" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3910" s="1">
+        <v>2186</v>
+      </c>
+      <c r="D3910" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3910">
+        <v>6</v>
+      </c>
+      <c r="F3910">
+        <v>8</v>
+      </c>
+      <c r="G3910">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3911" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3911" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3911" s="1">
+        <v>2189</v>
+      </c>
+      <c r="D3911" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3911">
+        <v>6</v>
+      </c>
+      <c r="F3911">
+        <v>8</v>
+      </c>
+      <c r="G3911">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3912" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3912" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3912" s="1">
+        <v>2235</v>
+      </c>
+      <c r="D3912" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3912">
+        <v>6</v>
+      </c>
+      <c r="F3912">
+        <v>8</v>
+      </c>
+      <c r="G3912">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3913" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3913" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3913" s="1">
+        <v>2321</v>
+      </c>
+      <c r="D3913" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3913">
+        <v>6</v>
+      </c>
+      <c r="F3913">
+        <v>8</v>
+      </c>
+      <c r="G3913">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3914" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3914" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3914" s="1">
+        <v>2395</v>
+      </c>
+      <c r="D3914" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3914">
+        <v>6</v>
+      </c>
+      <c r="F3914">
+        <v>8</v>
+      </c>
+      <c r="G3914">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3915" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3915" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3915" s="1">
+        <v>2547</v>
+      </c>
+      <c r="D3915" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3915">
+        <v>6</v>
+      </c>
+      <c r="F3915">
+        <v>8</v>
+      </c>
+      <c r="G3915">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3916" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3916" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3916" s="1">
+        <v>3513</v>
+      </c>
+      <c r="D3916" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3916">
+        <v>6</v>
+      </c>
+      <c r="F3916">
+        <v>8</v>
+      </c>
+      <c r="G3916">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3917" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3917" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3917" s="1">
+        <v>3556</v>
+      </c>
+      <c r="D3917" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3917">
+        <v>6</v>
+      </c>
+      <c r="F3917">
+        <v>8</v>
+      </c>
+      <c r="G3917">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3918" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3918" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3918" s="1">
+        <v>3848</v>
+      </c>
+      <c r="D3918" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3918">
+        <v>6</v>
+      </c>
+      <c r="F3918">
+        <v>8</v>
+      </c>
+      <c r="G3918">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3919" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3919" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3919" s="1">
+        <v>5130</v>
+      </c>
+      <c r="D3919" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3919">
+        <v>6</v>
+      </c>
+      <c r="F3919">
+        <v>8</v>
+      </c>
+      <c r="G3919">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3920" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3920" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3920" s="1">
+        <v>9114</v>
+      </c>
+      <c r="D3920" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3920">
+        <v>6</v>
+      </c>
+      <c r="F3920">
+        <v>8</v>
+      </c>
+      <c r="G3920">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3921" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3921" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3921" s="1">
+        <v>9228</v>
+      </c>
+      <c r="D3921" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3921">
+        <v>6</v>
+      </c>
+      <c r="F3921">
+        <v>8</v>
+      </c>
+      <c r="G3921">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3922" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3922" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3922" s="1">
+        <v>9320</v>
+      </c>
+      <c r="D3922" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3922">
+        <v>6</v>
+      </c>
+      <c r="F3922">
+        <v>8</v>
+      </c>
+      <c r="G3922">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3923" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3923" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3923" s="1">
+        <v>9329</v>
+      </c>
+      <c r="D3923" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3923">
+        <v>6</v>
+      </c>
+      <c r="F3923">
+        <v>8</v>
+      </c>
+      <c r="G3923">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3924" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3924" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3924" s="1">
+        <v>9470</v>
+      </c>
+      <c r="D3924" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3924">
+        <v>6</v>
+      </c>
+      <c r="F3924">
+        <v>8</v>
+      </c>
+      <c r="G3924">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3925" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3925" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3925" s="1">
+        <v>423</v>
+      </c>
+      <c r="D3925" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3925">
+        <v>5</v>
+      </c>
+      <c r="F3925">
+        <v>8</v>
+      </c>
+      <c r="G3925">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3926" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3926" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3926" s="1">
+        <v>684</v>
+      </c>
+      <c r="D3926" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3926">
+        <v>5</v>
+      </c>
+      <c r="F3926">
+        <v>8</v>
+      </c>
+      <c r="G3926">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3927" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3927" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3927" s="1">
+        <v>2135</v>
+      </c>
+      <c r="D3927" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3927">
+        <v>5</v>
+      </c>
+      <c r="F3927">
+        <v>8</v>
+      </c>
+      <c r="G3927">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3928" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3928" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3928" s="1">
+        <v>2308</v>
+      </c>
+      <c r="D3928" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3928">
+        <v>5</v>
+      </c>
+      <c r="F3928">
+        <v>8</v>
+      </c>
+      <c r="G3928">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3929" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3929" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3929" s="1">
+        <v>2341</v>
+      </c>
+      <c r="D3929" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3929">
+        <v>5</v>
+      </c>
+      <c r="F3929">
+        <v>8</v>
+      </c>
+      <c r="G3929">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3930" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3930" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3930" s="1">
+        <v>2410</v>
+      </c>
+      <c r="D3930" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3930">
+        <v>5</v>
+      </c>
+      <c r="F3930">
+        <v>8</v>
+      </c>
+      <c r="G3930">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3931" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3931" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3931" s="1">
+        <v>2441</v>
+      </c>
+      <c r="D3931" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3931">
+        <v>5</v>
+      </c>
+      <c r="F3931">
+        <v>8</v>
+      </c>
+      <c r="G3931">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3932" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3932" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3932" s="1">
+        <v>3659</v>
+      </c>
+      <c r="D3932" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3932">
+        <v>5</v>
+      </c>
+      <c r="F3932">
+        <v>8</v>
+      </c>
+      <c r="G3932">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3933" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3933" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3933" s="1">
+        <v>3799</v>
+      </c>
+      <c r="D3933" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3933">
+        <v>5</v>
+      </c>
+      <c r="F3933">
+        <v>8</v>
+      </c>
+      <c r="G3933">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3934" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3934" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3934" s="1">
+        <v>5023</v>
+      </c>
+      <c r="D3934" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3934">
+        <v>5</v>
+      </c>
+      <c r="F3934">
+        <v>8</v>
+      </c>
+      <c r="G3934">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3935" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3935" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3935" s="1">
+        <v>9365</v>
+      </c>
+      <c r="D3935" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3935">
+        <v>5</v>
+      </c>
+      <c r="F3935">
+        <v>8</v>
+      </c>
+      <c r="G3935">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3936" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3936" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3936" s="1">
+        <v>9605</v>
+      </c>
+      <c r="D3936" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3936">
+        <v>5</v>
+      </c>
+      <c r="F3936">
+        <v>8</v>
+      </c>
+      <c r="G3936">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3937" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3937" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3937" s="1">
+        <v>9811</v>
+      </c>
+      <c r="D3937" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3937">
+        <v>5</v>
+      </c>
+      <c r="F3937">
+        <v>8</v>
+      </c>
+      <c r="G3937">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3938" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3938" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3938" s="1">
+        <v>9964</v>
+      </c>
+      <c r="D3938" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3938">
+        <v>5</v>
+      </c>
+      <c r="F3938">
+        <v>8</v>
+      </c>
+      <c r="G3938">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3939" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3939" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3939" s="1">
+        <v>3900</v>
+      </c>
+      <c r="D3939" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3939">
+        <v>5</v>
+      </c>
+      <c r="F3939">
+        <v>8</v>
+      </c>
+      <c r="G3939">
+        <f t="shared" si="65"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3940" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3940" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3940" s="1">
+        <v>761</v>
+      </c>
+      <c r="D3940" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3940">
+        <v>4</v>
+      </c>
+      <c r="F3940">
+        <v>8</v>
+      </c>
+      <c r="G3940">
+        <f t="shared" si="65"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3941" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3941" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3941" s="1">
+        <v>1785</v>
+      </c>
+      <c r="D3941" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3941">
+        <v>4</v>
+      </c>
+      <c r="F3941">
+        <v>8</v>
+      </c>
+      <c r="G3941">
+        <f t="shared" si="65"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3942" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3942" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3942" s="1">
+        <v>2163</v>
+      </c>
+      <c r="D3942" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3942">
+        <v>4</v>
+      </c>
+      <c r="F3942">
+        <v>8</v>
+      </c>
+      <c r="G3942">
+        <f t="shared" si="65"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3943" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3943" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3943" s="1">
+        <v>2227</v>
+      </c>
+      <c r="D3943" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3943">
+        <v>4</v>
+      </c>
+      <c r="F3943">
+        <v>8</v>
+      </c>
+      <c r="G3943">
+        <f t="shared" si="65"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3944" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3944" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3944" s="1">
+        <v>2239</v>
+      </c>
+      <c r="D3944" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3944">
+        <v>4</v>
+      </c>
+      <c r="F3944">
+        <v>8</v>
+      </c>
+      <c r="G3944">
+        <f t="shared" si="65"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3945" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3945" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3945" s="1">
+        <v>2285</v>
+      </c>
+      <c r="D3945" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3945">
+        <v>4</v>
+      </c>
+      <c r="F3945">
+        <v>8</v>
+      </c>
+      <c r="G3945">
+        <f t="shared" si="65"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3946" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3946" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3946" s="1">
+        <v>2631</v>
+      </c>
+      <c r="D3946" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3946">
+        <v>4</v>
+      </c>
+      <c r="F3946">
+        <v>8</v>
+      </c>
+      <c r="G3946">
+        <f t="shared" si="65"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3947" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3947" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3947" s="1">
+        <v>2755</v>
+      </c>
+      <c r="D3947" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3947">
+        <v>4</v>
+      </c>
+      <c r="F3947">
+        <v>8</v>
+      </c>
+      <c r="G3947">
+        <f t="shared" ref="G3947:G4010" si="66">E3947-F3947</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3948" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3948" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3948" s="1">
+        <v>2815</v>
+      </c>
+      <c r="D3948" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3948">
+        <v>4</v>
+      </c>
+      <c r="F3948">
+        <v>8</v>
+      </c>
+      <c r="G3948">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3949" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3949" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3949" s="1">
+        <v>3555</v>
+      </c>
+      <c r="D3949" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3949">
+        <v>4</v>
+      </c>
+      <c r="F3949">
+        <v>8</v>
+      </c>
+      <c r="G3949">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3950" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3950" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3950" s="1">
+        <v>3655</v>
+      </c>
+      <c r="D3950" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3950">
+        <v>4</v>
+      </c>
+      <c r="F3950">
+        <v>8</v>
+      </c>
+      <c r="G3950">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3951" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3951" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3951" s="1">
+        <v>9121</v>
+      </c>
+      <c r="D3951" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3951">
+        <v>4</v>
+      </c>
+      <c r="F3951">
+        <v>8</v>
+      </c>
+      <c r="G3951">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3952" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3952" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3952" s="1">
+        <v>9218</v>
+      </c>
+      <c r="D3952" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3952">
+        <v>4</v>
+      </c>
+      <c r="F3952">
+        <v>8</v>
+      </c>
+      <c r="G3952">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3953" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3953" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3953" s="1">
+        <v>9241</v>
+      </c>
+      <c r="D3953" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3953">
+        <v>4</v>
+      </c>
+      <c r="F3953">
+        <v>8</v>
+      </c>
+      <c r="G3953">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3954" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3954" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3954" s="1">
+        <v>9609</v>
+      </c>
+      <c r="D3954" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3954">
+        <v>4</v>
+      </c>
+      <c r="F3954">
+        <v>8</v>
+      </c>
+      <c r="G3954">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3955" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3955" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3955" s="1">
+        <v>9670</v>
+      </c>
+      <c r="D3955" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3955">
+        <v>4</v>
+      </c>
+      <c r="F3955">
+        <v>8</v>
+      </c>
+      <c r="G3955">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3956" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3956" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3956" s="1">
+        <v>9794</v>
+      </c>
+      <c r="D3956" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3956">
+        <v>4</v>
+      </c>
+      <c r="F3956">
+        <v>8</v>
+      </c>
+      <c r="G3956">
+        <f t="shared" si="66"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3957" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3957" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3957" s="1">
+        <v>517</v>
+      </c>
+      <c r="D3957" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3957">
+        <v>3</v>
+      </c>
+      <c r="F3957">
+        <v>8</v>
+      </c>
+      <c r="G3957">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3958" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3958" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3958" s="1">
+        <v>539</v>
+      </c>
+      <c r="D3958" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3958">
+        <v>3</v>
+      </c>
+      <c r="F3958">
+        <v>8</v>
+      </c>
+      <c r="G3958">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3959" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3959" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3959" s="1">
+        <v>658</v>
+      </c>
+      <c r="D3959" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3959">
+        <v>3</v>
+      </c>
+      <c r="F3959">
+        <v>8</v>
+      </c>
+      <c r="G3959">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3960" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3960" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3960" s="1">
+        <v>660</v>
+      </c>
+      <c r="D3960" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3960">
+        <v>3</v>
+      </c>
+      <c r="F3960">
+        <v>8</v>
+      </c>
+      <c r="G3960">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3961" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3961" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3961" s="1">
+        <v>1549</v>
+      </c>
+      <c r="D3961" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3961">
+        <v>3</v>
+      </c>
+      <c r="F3961">
+        <v>8</v>
+      </c>
+      <c r="G3961">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3962" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3962" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3962" s="1">
+        <v>1713</v>
+      </c>
+      <c r="D3962" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3962">
+        <v>3</v>
+      </c>
+      <c r="F3962">
+        <v>8</v>
+      </c>
+      <c r="G3962">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3963" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3963" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3963" s="1">
+        <v>1714</v>
+      </c>
+      <c r="D3963" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3963">
+        <v>3</v>
+      </c>
+      <c r="F3963">
+        <v>8</v>
+      </c>
+      <c r="G3963">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3964" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3964" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3964" s="1">
+        <v>1981</v>
+      </c>
+      <c r="D3964" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3964">
+        <v>3</v>
+      </c>
+      <c r="F3964">
+        <v>8</v>
+      </c>
+      <c r="G3964">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3965" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3965" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3965" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D3965" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3965">
+        <v>3</v>
+      </c>
+      <c r="F3965">
+        <v>8</v>
+      </c>
+      <c r="G3965">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3966" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3966" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3966" s="1">
+        <v>2047</v>
+      </c>
+      <c r="D3966" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3966">
+        <v>3</v>
+      </c>
+      <c r="F3966">
+        <v>8</v>
+      </c>
+      <c r="G3966">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3967" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3967" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3967" s="1">
+        <v>2197</v>
+      </c>
+      <c r="D3967" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3967">
+        <v>3</v>
+      </c>
+      <c r="F3967">
+        <v>8</v>
+      </c>
+      <c r="G3967">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3968" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3968" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3968" s="1">
+        <v>2322</v>
+      </c>
+      <c r="D3968" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3968">
+        <v>3</v>
+      </c>
+      <c r="F3968">
+        <v>8</v>
+      </c>
+      <c r="G3968">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3969" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3969" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3969" s="1">
+        <v>2546</v>
+      </c>
+      <c r="D3969" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3969">
+        <v>3</v>
+      </c>
+      <c r="F3969">
+        <v>8</v>
+      </c>
+      <c r="G3969">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3970" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3970" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3970" s="1">
+        <v>2586</v>
+      </c>
+      <c r="D3970" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3970">
+        <v>3</v>
+      </c>
+      <c r="F3970">
+        <v>8</v>
+      </c>
+      <c r="G3970">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3971" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3971" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3971" s="1">
+        <v>2721</v>
+      </c>
+      <c r="D3971" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3971">
+        <v>3</v>
+      </c>
+      <c r="F3971">
+        <v>8</v>
+      </c>
+      <c r="G3971">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3972" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3972" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3972" s="1">
+        <v>2884</v>
+      </c>
+      <c r="D3972" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3972">
+        <v>3</v>
+      </c>
+      <c r="F3972">
+        <v>8</v>
+      </c>
+      <c r="G3972">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3973" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3973" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3973" s="1">
+        <v>3559</v>
+      </c>
+      <c r="D3973" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3973">
+        <v>3</v>
+      </c>
+      <c r="F3973">
+        <v>8</v>
+      </c>
+      <c r="G3973">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3974" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3974" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3974" s="1">
+        <v>3858</v>
+      </c>
+      <c r="D3974" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3974">
+        <v>3</v>
+      </c>
+      <c r="F3974">
+        <v>8</v>
+      </c>
+      <c r="G3974">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3975" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3975" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3975" s="1">
+        <v>3878</v>
+      </c>
+      <c r="D3975" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3975">
+        <v>3</v>
+      </c>
+      <c r="F3975">
+        <v>8</v>
+      </c>
+      <c r="G3975">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3976" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3976" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3976" s="1">
+        <v>7602</v>
+      </c>
+      <c r="D3976" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3976">
+        <v>3</v>
+      </c>
+      <c r="F3976">
+        <v>8</v>
+      </c>
+      <c r="G3976">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3977" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3977" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3977" s="1">
+        <v>9177</v>
+      </c>
+      <c r="D3977" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3977">
+        <v>3</v>
+      </c>
+      <c r="F3977">
+        <v>8</v>
+      </c>
+      <c r="G3977">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3978" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3978" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3978" s="1">
+        <v>9200</v>
+      </c>
+      <c r="D3978" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3978">
+        <v>3</v>
+      </c>
+      <c r="F3978">
+        <v>8</v>
+      </c>
+      <c r="G3978">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3979" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3979" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3979" s="1">
+        <v>9224</v>
+      </c>
+      <c r="D3979" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3979">
+        <v>3</v>
+      </c>
+      <c r="F3979">
+        <v>8</v>
+      </c>
+      <c r="G3979">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3980" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3980" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3980" s="1">
+        <v>9231</v>
+      </c>
+      <c r="D3980" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3980">
+        <v>3</v>
+      </c>
+      <c r="F3980">
+        <v>8</v>
+      </c>
+      <c r="G3980">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3981" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3981" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3981" s="1">
+        <v>9682</v>
+      </c>
+      <c r="D3981" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3981">
+        <v>3</v>
+      </c>
+      <c r="F3981">
+        <v>8</v>
+      </c>
+      <c r="G3981">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3982" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3982" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3982" s="1">
+        <v>9715</v>
+      </c>
+      <c r="D3982" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3982">
+        <v>3</v>
+      </c>
+      <c r="F3982">
+        <v>8</v>
+      </c>
+      <c r="G3982">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3983" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3983" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3983" s="1">
+        <v>9880</v>
+      </c>
+      <c r="D3983" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3983">
+        <v>3</v>
+      </c>
+      <c r="F3983">
+        <v>8</v>
+      </c>
+      <c r="G3983">
+        <f t="shared" si="66"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3984" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3984" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3984" s="1">
+        <v>208</v>
+      </c>
+      <c r="D3984" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3984">
+        <v>2</v>
+      </c>
+      <c r="F3984">
+        <v>8</v>
+      </c>
+      <c r="G3984">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3985" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3985" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3985" s="1">
+        <v>307</v>
+      </c>
+      <c r="D3985" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3985">
+        <v>2</v>
+      </c>
+      <c r="F3985">
+        <v>8</v>
+      </c>
+      <c r="G3985">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3986" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3986" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3986" s="1">
+        <v>529</v>
+      </c>
+      <c r="D3986" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3986">
+        <v>2</v>
+      </c>
+      <c r="F3986">
+        <v>8</v>
+      </c>
+      <c r="G3986">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3987" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3987" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3987" s="1">
+        <v>627</v>
+      </c>
+      <c r="D3987" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3987">
+        <v>2</v>
+      </c>
+      <c r="F3987">
+        <v>8</v>
+      </c>
+      <c r="G3987">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3988" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3988" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3988" s="1">
+        <v>680</v>
+      </c>
+      <c r="D3988" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3988">
+        <v>2</v>
+      </c>
+      <c r="F3988">
+        <v>8</v>
+      </c>
+      <c r="G3988">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3989" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3989" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3989" s="1">
+        <v>692</v>
+      </c>
+      <c r="D3989" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3989">
+        <v>2</v>
+      </c>
+      <c r="F3989">
+        <v>8</v>
+      </c>
+      <c r="G3989">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3990" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3990" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3990" s="1">
+        <v>1850</v>
+      </c>
+      <c r="D3990" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3990">
+        <v>2</v>
+      </c>
+      <c r="F3990">
+        <v>8</v>
+      </c>
+      <c r="G3990">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3991" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3991" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3991" s="1">
+        <v>2082</v>
+      </c>
+      <c r="D3991" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3991">
+        <v>2</v>
+      </c>
+      <c r="F3991">
+        <v>8</v>
+      </c>
+      <c r="G3991">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3992" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3992" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3992" s="1">
+        <v>2104</v>
+      </c>
+      <c r="D3992" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3992">
+        <v>2</v>
+      </c>
+      <c r="F3992">
+        <v>8</v>
+      </c>
+      <c r="G3992">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3993" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3993" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3993" s="1">
+        <v>2390</v>
+      </c>
+      <c r="D3993" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3993">
+        <v>2</v>
+      </c>
+      <c r="F3993">
+        <v>8</v>
+      </c>
+      <c r="G3993">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3994" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3994" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3994" s="1">
+        <v>2694</v>
+      </c>
+      <c r="D3994" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3994">
+        <v>2</v>
+      </c>
+      <c r="F3994">
+        <v>8</v>
+      </c>
+      <c r="G3994">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3995" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3995" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3995" s="1">
+        <v>2749</v>
+      </c>
+      <c r="D3995" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3995">
+        <v>2</v>
+      </c>
+      <c r="F3995">
+        <v>8</v>
+      </c>
+      <c r="G3995">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3996" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3996" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3996" s="1">
+        <v>2763</v>
+      </c>
+      <c r="D3996" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3996">
+        <v>2</v>
+      </c>
+      <c r="F3996">
+        <v>8</v>
+      </c>
+      <c r="G3996">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3997" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3997" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3997" s="1">
+        <v>2910</v>
+      </c>
+      <c r="D3997" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3997">
+        <v>2</v>
+      </c>
+      <c r="F3997">
+        <v>8</v>
+      </c>
+      <c r="G3997">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3998" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3998" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3998" s="1">
+        <v>2928</v>
+      </c>
+      <c r="D3998" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3998">
+        <v>2</v>
+      </c>
+      <c r="F3998">
+        <v>8</v>
+      </c>
+      <c r="G3998">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3999" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3999" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3999" s="1">
+        <v>3049</v>
+      </c>
+      <c r="D3999" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3999">
+        <v>2</v>
+      </c>
+      <c r="F3999">
+        <v>8</v>
+      </c>
+      <c r="G3999">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4000" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4000" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4000" s="1">
+        <v>3368</v>
+      </c>
+      <c r="D4000" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4000">
+        <v>2</v>
+      </c>
+      <c r="F4000">
+        <v>8</v>
+      </c>
+      <c r="G4000">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4001" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4001" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4001" s="1">
+        <v>3575</v>
+      </c>
+      <c r="D4001" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4001">
+        <v>2</v>
+      </c>
+      <c r="F4001">
+        <v>8</v>
+      </c>
+      <c r="G4001">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4002" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4002" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4002" s="1">
+        <v>3879</v>
+      </c>
+      <c r="D4002" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4002">
+        <v>2</v>
+      </c>
+      <c r="F4002">
+        <v>8</v>
+      </c>
+      <c r="G4002">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4003" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4003" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4003" s="1">
+        <v>5142</v>
+      </c>
+      <c r="D4003" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4003">
+        <v>2</v>
+      </c>
+      <c r="F4003">
+        <v>8</v>
+      </c>
+      <c r="G4003">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4004" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4004" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4004" s="1">
+        <v>9071</v>
+      </c>
+      <c r="D4004" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4004">
+        <v>2</v>
+      </c>
+      <c r="F4004">
+        <v>8</v>
+      </c>
+      <c r="G4004">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4005" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4005" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4005" s="1">
+        <v>9119</v>
+      </c>
+      <c r="D4005" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4005">
+        <v>2</v>
+      </c>
+      <c r="F4005">
+        <v>8</v>
+      </c>
+      <c r="G4005">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4006" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4006" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4006" s="1">
+        <v>9131</v>
+      </c>
+      <c r="D4006" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4006">
+        <v>2</v>
+      </c>
+      <c r="F4006">
+        <v>8</v>
+      </c>
+      <c r="G4006">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4007" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4007" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4007" s="1">
+        <v>9181</v>
+      </c>
+      <c r="D4007" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4007">
+        <v>2</v>
+      </c>
+      <c r="F4007">
+        <v>8</v>
+      </c>
+      <c r="G4007">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4008" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4008" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4008" s="1">
+        <v>9317</v>
+      </c>
+      <c r="D4008" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4008">
+        <v>2</v>
+      </c>
+      <c r="F4008">
+        <v>8</v>
+      </c>
+      <c r="G4008">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4009" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4009" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4009" s="1">
+        <v>9364</v>
+      </c>
+      <c r="D4009" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4009">
+        <v>2</v>
+      </c>
+      <c r="F4009">
+        <v>8</v>
+      </c>
+      <c r="G4009">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4010" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4010" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4010" s="1">
+        <v>9550</v>
+      </c>
+      <c r="D4010" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4010">
+        <v>2</v>
+      </c>
+      <c r="F4010">
+        <v>8</v>
+      </c>
+      <c r="G4010">
+        <f t="shared" si="66"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4011" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4011" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4011" s="1">
+        <v>9617</v>
+      </c>
+      <c r="D4011" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4011">
+        <v>2</v>
+      </c>
+      <c r="F4011">
+        <v>8</v>
+      </c>
+      <c r="G4011">
+        <f t="shared" ref="G4011:G4074" si="67">E4011-F4011</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4012" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4012" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4012" s="1">
+        <v>9740</v>
+      </c>
+      <c r="D4012" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4012">
+        <v>2</v>
+      </c>
+      <c r="F4012">
+        <v>8</v>
+      </c>
+      <c r="G4012">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4013" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4013" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4013" s="1">
+        <v>9746</v>
+      </c>
+      <c r="D4013" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4013">
+        <v>2</v>
+      </c>
+      <c r="F4013">
+        <v>8</v>
+      </c>
+      <c r="G4013">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4014" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4014" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4014" s="1">
+        <v>9844</v>
+      </c>
+      <c r="D4014" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4014">
+        <v>2</v>
+      </c>
+      <c r="F4014">
+        <v>8</v>
+      </c>
+      <c r="G4014">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4015" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4015" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4015" s="1">
+        <v>9850</v>
+      </c>
+      <c r="D4015" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4015">
+        <v>2</v>
+      </c>
+      <c r="F4015">
+        <v>8</v>
+      </c>
+      <c r="G4015">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4016" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4016" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4016" s="1">
+        <v>9868</v>
+      </c>
+      <c r="D4016" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4016">
+        <v>2</v>
+      </c>
+      <c r="F4016">
+        <v>8</v>
+      </c>
+      <c r="G4016">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4017" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4017" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4017" s="1">
+        <v>9971</v>
+      </c>
+      <c r="D4017" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4017">
+        <v>2</v>
+      </c>
+      <c r="F4017">
+        <v>8</v>
+      </c>
+      <c r="G4017">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4018" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4018" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4018" s="1">
+        <v>3875</v>
+      </c>
+      <c r="D4018" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4018">
+        <v>2</v>
+      </c>
+      <c r="F4018">
+        <v>8</v>
+      </c>
+      <c r="G4018">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4019" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4019" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4019" s="1">
+        <v>3902</v>
+      </c>
+      <c r="D4019" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4019">
+        <v>2</v>
+      </c>
+      <c r="F4019">
+        <v>8</v>
+      </c>
+      <c r="G4019">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4020" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4020" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4020" s="1">
+        <v>301</v>
+      </c>
+      <c r="D4020" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4020">
+        <v>1</v>
+      </c>
+      <c r="F4020">
+        <v>8</v>
+      </c>
+      <c r="G4020">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4021" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4021" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4021" s="1">
+        <v>319</v>
+      </c>
+      <c r="D4021" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4021">
+        <v>1</v>
+      </c>
+      <c r="F4021">
+        <v>8</v>
+      </c>
+      <c r="G4021">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4022" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4022" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4022" s="1">
+        <v>331</v>
+      </c>
+      <c r="D4022" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4022">
+        <v>1</v>
+      </c>
+      <c r="F4022">
+        <v>8</v>
+      </c>
+      <c r="G4022">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4023" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4023" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4023" s="1">
+        <v>361</v>
+      </c>
+      <c r="D4023" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4023">
+        <v>1</v>
+      </c>
+      <c r="F4023">
+        <v>8</v>
+      </c>
+      <c r="G4023">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4024" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4024" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4024" s="1">
+        <v>504</v>
+      </c>
+      <c r="D4024" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4024">
+        <v>1</v>
+      </c>
+      <c r="F4024">
+        <v>8</v>
+      </c>
+      <c r="G4024">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4025" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4025" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4025" s="1">
+        <v>523</v>
+      </c>
+      <c r="D4025" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4025">
+        <v>1</v>
+      </c>
+      <c r="F4025">
+        <v>8</v>
+      </c>
+      <c r="G4025">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4026" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4026" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4026" s="1">
+        <v>666</v>
+      </c>
+      <c r="D4026" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4026">
+        <v>1</v>
+      </c>
+      <c r="F4026">
+        <v>8</v>
+      </c>
+      <c r="G4026">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4027" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4027" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4027" s="1">
+        <v>987</v>
+      </c>
+      <c r="D4027" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4027">
+        <v>1</v>
+      </c>
+      <c r="F4027">
+        <v>8</v>
+      </c>
+      <c r="G4027">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4028" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4028" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4028" s="1">
+        <v>1718</v>
+      </c>
+      <c r="D4028" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4028">
+        <v>1</v>
+      </c>
+      <c r="F4028">
+        <v>8</v>
+      </c>
+      <c r="G4028">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4029" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4029" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4029" s="1">
+        <v>1827</v>
+      </c>
+      <c r="D4029" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4029">
+        <v>1</v>
+      </c>
+      <c r="F4029">
+        <v>8</v>
+      </c>
+      <c r="G4029">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4030" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4030" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4030" s="1">
+        <v>2102</v>
+      </c>
+      <c r="D4030" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4030">
+        <v>1</v>
+      </c>
+      <c r="F4030">
+        <v>8</v>
+      </c>
+      <c r="G4030">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4031" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4031" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4031" s="1">
+        <v>2421</v>
+      </c>
+      <c r="D4031" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4031">
+        <v>1</v>
+      </c>
+      <c r="F4031">
+        <v>8</v>
+      </c>
+      <c r="G4031">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4032" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4032" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4032" s="1">
+        <v>2479</v>
+      </c>
+      <c r="D4032" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4032">
+        <v>1</v>
+      </c>
+      <c r="F4032">
+        <v>8</v>
+      </c>
+      <c r="G4032">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4033" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4033" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4033" s="1">
+        <v>2672</v>
+      </c>
+      <c r="D4033" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4033">
+        <v>1</v>
+      </c>
+      <c r="F4033">
+        <v>8</v>
+      </c>
+      <c r="G4033">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4034" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4034" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4034" s="1">
+        <v>2753</v>
+      </c>
+      <c r="D4034" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4034">
+        <v>1</v>
+      </c>
+      <c r="F4034">
+        <v>8</v>
+      </c>
+      <c r="G4034">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4035" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4035" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4035" s="1">
+        <v>2790</v>
+      </c>
+      <c r="D4035" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4035">
+        <v>1</v>
+      </c>
+      <c r="F4035">
+        <v>8</v>
+      </c>
+      <c r="G4035">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4036" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4036" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4036" s="1">
+        <v>2814</v>
+      </c>
+      <c r="D4036" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4036">
+        <v>1</v>
+      </c>
+      <c r="F4036">
+        <v>8</v>
+      </c>
+      <c r="G4036">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4037" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4037" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4037" s="1">
+        <v>2836</v>
+      </c>
+      <c r="D4037" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4037">
+        <v>1</v>
+      </c>
+      <c r="F4037">
+        <v>8</v>
+      </c>
+      <c r="G4037">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4038" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4038" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4038" s="1">
+        <v>2911</v>
+      </c>
+      <c r="D4038" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4038">
+        <v>1</v>
+      </c>
+      <c r="F4038">
+        <v>8</v>
+      </c>
+      <c r="G4038">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4039" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4039" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4039" s="1">
+        <v>2916</v>
+      </c>
+      <c r="D4039" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4039">
+        <v>1</v>
+      </c>
+      <c r="F4039">
+        <v>8</v>
+      </c>
+      <c r="G4039">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4040" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4040" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4040" s="1">
+        <v>3381</v>
+      </c>
+      <c r="D4040" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4040">
+        <v>1</v>
+      </c>
+      <c r="F4040">
+        <v>8</v>
+      </c>
+      <c r="G4040">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4041" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4041" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4041" s="1">
+        <v>3534</v>
+      </c>
+      <c r="D4041" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4041">
+        <v>1</v>
+      </c>
+      <c r="F4041">
+        <v>8</v>
+      </c>
+      <c r="G4041">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4042" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4042" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4042" s="1">
+        <v>3535</v>
+      </c>
+      <c r="D4042" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4042">
+        <v>1</v>
+      </c>
+      <c r="F4042">
+        <v>8</v>
+      </c>
+      <c r="G4042">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4043" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4043" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4043" s="1">
+        <v>3619</v>
+      </c>
+      <c r="D4043" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4043">
+        <v>1</v>
+      </c>
+      <c r="F4043">
+        <v>8</v>
+      </c>
+      <c r="G4043">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4044" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4044" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4044" s="1">
+        <v>3630</v>
+      </c>
+      <c r="D4044" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4044">
+        <v>1</v>
+      </c>
+      <c r="F4044">
+        <v>8</v>
+      </c>
+      <c r="G4044">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4045" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4045" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4045" s="1">
+        <v>3856</v>
+      </c>
+      <c r="D4045" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4045">
+        <v>1</v>
+      </c>
+      <c r="F4045">
+        <v>8</v>
+      </c>
+      <c r="G4045">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4046" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4046" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4046" s="1">
+        <v>5002</v>
+      </c>
+      <c r="D4046" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4046">
+        <v>1</v>
+      </c>
+      <c r="F4046">
+        <v>8</v>
+      </c>
+      <c r="G4046">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4047" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4047" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4047" s="1">
+        <v>9022</v>
+      </c>
+      <c r="D4047" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4047">
+        <v>1</v>
+      </c>
+      <c r="F4047">
+        <v>8</v>
+      </c>
+      <c r="G4047">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4048" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4048" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4048" s="1">
+        <v>9074</v>
+      </c>
+      <c r="D4048" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4048">
+        <v>1</v>
+      </c>
+      <c r="F4048">
+        <v>8</v>
+      </c>
+      <c r="G4048">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4049" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4049" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4049" s="1">
+        <v>9113</v>
+      </c>
+      <c r="D4049" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4049">
+        <v>1</v>
+      </c>
+      <c r="F4049">
+        <v>8</v>
+      </c>
+      <c r="G4049">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4050" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4050" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4050" s="1">
+        <v>9139</v>
+      </c>
+      <c r="D4050" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4050">
+        <v>1</v>
+      </c>
+      <c r="F4050">
+        <v>8</v>
+      </c>
+      <c r="G4050">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4051" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4051" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4051" s="1">
+        <v>9340</v>
+      </c>
+      <c r="D4051" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4051">
+        <v>1</v>
+      </c>
+      <c r="F4051">
+        <v>8</v>
+      </c>
+      <c r="G4051">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4052" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4052" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4052" s="1">
+        <v>9468</v>
+      </c>
+      <c r="D4052" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4052">
+        <v>1</v>
+      </c>
+      <c r="F4052">
+        <v>8</v>
+      </c>
+      <c r="G4052">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4053" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4053" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4053" s="1">
+        <v>9701</v>
+      </c>
+      <c r="D4053" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4053">
+        <v>1</v>
+      </c>
+      <c r="F4053">
+        <v>8</v>
+      </c>
+      <c r="G4053">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4054" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4054" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4054" s="1">
+        <v>9839</v>
+      </c>
+      <c r="D4054" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4054">
+        <v>1</v>
+      </c>
+      <c r="F4054">
+        <v>8</v>
+      </c>
+      <c r="G4054">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4055" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4055" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4055" s="1">
+        <v>3898</v>
+      </c>
+      <c r="D4055" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4055">
+        <v>1</v>
+      </c>
+      <c r="F4055">
+        <v>8</v>
+      </c>
+      <c r="G4055">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4056" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4056" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4056" s="1">
+        <v>3901</v>
+      </c>
+      <c r="D4056" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4056">
+        <v>1</v>
+      </c>
+      <c r="F4056">
+        <v>8</v>
+      </c>
+      <c r="G4056">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4057" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4057" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4057" s="1">
+        <v>3903</v>
+      </c>
+      <c r="D4057" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4057">
+        <v>1</v>
+      </c>
+      <c r="F4057">
+        <v>8</v>
+      </c>
+      <c r="G4057">
+        <f t="shared" si="67"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4058" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4058" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4058" s="1">
+        <v>315</v>
+      </c>
+      <c r="D4058" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4058">
+        <v>0</v>
+      </c>
+      <c r="F4058">
+        <v>8</v>
+      </c>
+      <c r="G4058">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4059" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4059" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4059" s="1">
+        <v>479</v>
+      </c>
+      <c r="D4059" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4059">
+        <v>0</v>
+      </c>
+      <c r="F4059">
+        <v>8</v>
+      </c>
+      <c r="G4059">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4060" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4060" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4060" s="1">
+        <v>530</v>
+      </c>
+      <c r="D4060" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4060">
+        <v>0</v>
+      </c>
+      <c r="F4060">
+        <v>8</v>
+      </c>
+      <c r="G4060">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4061" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4061" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4061" s="1">
+        <v>662</v>
+      </c>
+      <c r="D4061" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4061">
+        <v>0</v>
+      </c>
+      <c r="F4061">
+        <v>8</v>
+      </c>
+      <c r="G4061">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4062" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4062" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4062" s="1">
+        <v>676</v>
+      </c>
+      <c r="D4062" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4062">
+        <v>0</v>
+      </c>
+      <c r="F4062">
+        <v>8</v>
+      </c>
+      <c r="G4062">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4063" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4063" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4063" s="1">
+        <v>747</v>
+      </c>
+      <c r="D4063" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4063">
+        <v>0</v>
+      </c>
+      <c r="F4063">
+        <v>8</v>
+      </c>
+      <c r="G4063">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4064" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4064" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4064" s="1">
+        <v>748</v>
+      </c>
+      <c r="D4064" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4064">
+        <v>0</v>
+      </c>
+      <c r="F4064">
+        <v>8</v>
+      </c>
+      <c r="G4064">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4065" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4065" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4065" s="1">
+        <v>797</v>
+      </c>
+      <c r="D4065" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4065">
+        <v>0</v>
+      </c>
+      <c r="F4065">
+        <v>8</v>
+      </c>
+      <c r="G4065">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4066" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4066" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4066" s="1">
+        <v>953</v>
+      </c>
+      <c r="D4066" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4066">
+        <v>0</v>
+      </c>
+      <c r="F4066">
+        <v>8</v>
+      </c>
+      <c r="G4066">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4067" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4067" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4067" s="1">
+        <v>1087</v>
+      </c>
+      <c r="D4067" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4067">
+        <v>0</v>
+      </c>
+      <c r="F4067">
+        <v>8</v>
+      </c>
+      <c r="G4067">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4068" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4068" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4068" s="1">
+        <v>1433</v>
+      </c>
+      <c r="D4068" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4068">
+        <v>0</v>
+      </c>
+      <c r="F4068">
+        <v>8</v>
+      </c>
+      <c r="G4068">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4069" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4069" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4069" s="1">
+        <v>1540</v>
+      </c>
+      <c r="D4069" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4069">
+        <v>0</v>
+      </c>
+      <c r="F4069">
+        <v>8</v>
+      </c>
+      <c r="G4069">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4070" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4070" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4070" s="1">
+        <v>1573</v>
+      </c>
+      <c r="D4070" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4070">
+        <v>0</v>
+      </c>
+      <c r="F4070">
+        <v>8</v>
+      </c>
+      <c r="G4070">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4071" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4071" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4071" s="1">
+        <v>1580</v>
+      </c>
+      <c r="D4071" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4071">
+        <v>0</v>
+      </c>
+      <c r="F4071">
+        <v>8</v>
+      </c>
+      <c r="G4071">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4072" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4072" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4072" s="1">
+        <v>1604</v>
+      </c>
+      <c r="D4072" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4072">
+        <v>0</v>
+      </c>
+      <c r="F4072">
+        <v>8</v>
+      </c>
+      <c r="G4072">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4073" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4073" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4073" s="1">
+        <v>1820</v>
+      </c>
+      <c r="D4073" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4073">
+        <v>0</v>
+      </c>
+      <c r="F4073">
+        <v>8</v>
+      </c>
+      <c r="G4073">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4074" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4074" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4074" s="1">
+        <v>1826</v>
+      </c>
+      <c r="D4074" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4074">
+        <v>0</v>
+      </c>
+      <c r="F4074">
+        <v>8</v>
+      </c>
+      <c r="G4074">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4075" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4075" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4075" s="1">
+        <v>1870</v>
+      </c>
+      <c r="D4075" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4075">
+        <v>0</v>
+      </c>
+      <c r="F4075">
+        <v>8</v>
+      </c>
+      <c r="G4075">
+        <f t="shared" ref="G4075:G4138" si="68">E4075-F4075</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4076" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4076" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4076" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D4076" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4076">
+        <v>0</v>
+      </c>
+      <c r="F4076">
+        <v>8</v>
+      </c>
+      <c r="G4076">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4077" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4077" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4077" s="1">
+        <v>2031</v>
+      </c>
+      <c r="D4077" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4077">
+        <v>0</v>
+      </c>
+      <c r="F4077">
+        <v>8</v>
+      </c>
+      <c r="G4077">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4078" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4078" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4078" s="1">
+        <v>2060</v>
+      </c>
+      <c r="D4078" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4078">
+        <v>0</v>
+      </c>
+      <c r="F4078">
+        <v>8</v>
+      </c>
+      <c r="G4078">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4079" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4079" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4079" s="1">
+        <v>2096</v>
+      </c>
+      <c r="D4079" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4079">
+        <v>0</v>
+      </c>
+      <c r="F4079">
+        <v>8</v>
+      </c>
+      <c r="G4079">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4080" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4080" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4080" s="1">
+        <v>2099</v>
+      </c>
+      <c r="D4080" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4080">
+        <v>0</v>
+      </c>
+      <c r="F4080">
+        <v>8</v>
+      </c>
+      <c r="G4080">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4081" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4081" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4081" s="1">
+        <v>2252</v>
+      </c>
+      <c r="D4081" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4081">
+        <v>0</v>
+      </c>
+      <c r="F4081">
+        <v>8</v>
+      </c>
+      <c r="G4081">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4082" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4082" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4082" s="1">
+        <v>2331</v>
+      </c>
+      <c r="D4082" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4082">
+        <v>0</v>
+      </c>
+      <c r="F4082">
+        <v>8</v>
+      </c>
+      <c r="G4082">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4083" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4083" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4083" s="1">
+        <v>2364</v>
+      </c>
+      <c r="D4083" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4083">
+        <v>0</v>
+      </c>
+      <c r="F4083">
+        <v>8</v>
+      </c>
+      <c r="G4083">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4084" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4084" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4084" s="1">
+        <v>2367</v>
+      </c>
+      <c r="D4084" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4084">
+        <v>0</v>
+      </c>
+      <c r="F4084">
+        <v>8</v>
+      </c>
+      <c r="G4084">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4085" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4085" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4085" s="1">
+        <v>2406</v>
+      </c>
+      <c r="D4085" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4085">
+        <v>0</v>
+      </c>
+      <c r="F4085">
+        <v>8</v>
+      </c>
+      <c r="G4085">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4086" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4086" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4086" s="1">
+        <v>2463</v>
+      </c>
+      <c r="D4086" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4086">
+        <v>0</v>
+      </c>
+      <c r="F4086">
+        <v>8</v>
+      </c>
+      <c r="G4086">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4087" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4087" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4087" s="1">
+        <v>2467</v>
+      </c>
+      <c r="D4087" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4087">
+        <v>0</v>
+      </c>
+      <c r="F4087">
+        <v>8</v>
+      </c>
+      <c r="G4087">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4088" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4088" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4088" s="1">
+        <v>2501</v>
+      </c>
+      <c r="D4088" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4088">
+        <v>0</v>
+      </c>
+      <c r="F4088">
+        <v>8</v>
+      </c>
+      <c r="G4088">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4089" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4089" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4089" s="1">
+        <v>2512</v>
+      </c>
+      <c r="D4089" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4089">
+        <v>0</v>
+      </c>
+      <c r="F4089">
+        <v>8</v>
+      </c>
+      <c r="G4089">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4090" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4090" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4090" s="1">
+        <v>2516</v>
+      </c>
+      <c r="D4090" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4090">
+        <v>0</v>
+      </c>
+      <c r="F4090">
+        <v>8</v>
+      </c>
+      <c r="G4090">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4091" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4091" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4091" s="1">
+        <v>2581</v>
+      </c>
+      <c r="D4091" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4091">
+        <v>0</v>
+      </c>
+      <c r="F4091">
+        <v>8</v>
+      </c>
+      <c r="G4091">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4092" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4092" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4092" s="1">
+        <v>2626</v>
+      </c>
+      <c r="D4092" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4092">
+        <v>0</v>
+      </c>
+      <c r="F4092">
+        <v>8</v>
+      </c>
+      <c r="G4092">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4093" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4093" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4093" s="1">
+        <v>2632</v>
+      </c>
+      <c r="D4093" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4093">
+        <v>0</v>
+      </c>
+      <c r="F4093">
+        <v>8</v>
+      </c>
+      <c r="G4093">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4094" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4094" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4094" s="1">
+        <v>2649</v>
+      </c>
+      <c r="D4094" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4094">
+        <v>0</v>
+      </c>
+      <c r="F4094">
+        <v>8</v>
+      </c>
+      <c r="G4094">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4095" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4095" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4095" s="1">
+        <v>2652</v>
+      </c>
+      <c r="D4095" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4095">
+        <v>0</v>
+      </c>
+      <c r="F4095">
+        <v>8</v>
+      </c>
+      <c r="G4095">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4096" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4096" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4096" s="1">
+        <v>2654</v>
+      </c>
+      <c r="D4096" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4096">
+        <v>0</v>
+      </c>
+      <c r="F4096">
+        <v>8</v>
+      </c>
+      <c r="G4096">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4097" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4097" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4097" s="1">
+        <v>2727</v>
+      </c>
+      <c r="D4097" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4097">
+        <v>0</v>
+      </c>
+      <c r="F4097">
+        <v>8</v>
+      </c>
+      <c r="G4097">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4098" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4098" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4098" s="1">
+        <v>2748</v>
+      </c>
+      <c r="D4098" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4098">
+        <v>0</v>
+      </c>
+      <c r="F4098">
+        <v>8</v>
+      </c>
+      <c r="G4098">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4099" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4099" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4099" s="1">
+        <v>2766</v>
+      </c>
+      <c r="D4099" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4099">
+        <v>0</v>
+      </c>
+      <c r="F4099">
+        <v>8</v>
+      </c>
+      <c r="G4099">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4100" s="1">
+        <v>2784</v>
+      </c>
+      <c r="D4100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4100">
+        <v>0</v>
+      </c>
+      <c r="F4100">
+        <v>8</v>
+      </c>
+      <c r="G4100">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4101" s="1">
+        <v>2795</v>
+      </c>
+      <c r="D4101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4101">
+        <v>0</v>
+      </c>
+      <c r="F4101">
+        <v>8</v>
+      </c>
+      <c r="G4101">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4102" s="1">
+        <v>2905</v>
+      </c>
+      <c r="D4102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4102">
+        <v>0</v>
+      </c>
+      <c r="F4102">
+        <v>8</v>
+      </c>
+      <c r="G4102">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4103" s="1">
+        <v>2925</v>
+      </c>
+      <c r="D4103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4103">
+        <v>0</v>
+      </c>
+      <c r="F4103">
+        <v>8</v>
+      </c>
+      <c r="G4103">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4104" s="1">
+        <v>3365</v>
+      </c>
+      <c r="D4104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4104">
+        <v>0</v>
+      </c>
+      <c r="F4104">
+        <v>8</v>
+      </c>
+      <c r="G4104">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4105" s="1">
+        <v>3458</v>
+      </c>
+      <c r="D4105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4105">
+        <v>0</v>
+      </c>
+      <c r="F4105">
+        <v>8</v>
+      </c>
+      <c r="G4105">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4106" s="1">
+        <v>3531</v>
+      </c>
+      <c r="D4106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4106">
+        <v>0</v>
+      </c>
+      <c r="F4106">
+        <v>8</v>
+      </c>
+      <c r="G4106">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4107" s="1">
+        <v>3539</v>
+      </c>
+      <c r="D4107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4107">
+        <v>0</v>
+      </c>
+      <c r="F4107">
+        <v>8</v>
+      </c>
+      <c r="G4107">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4108" s="1">
+        <v>3572</v>
+      </c>
+      <c r="D4108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4108">
+        <v>0</v>
+      </c>
+      <c r="F4108">
+        <v>8</v>
+      </c>
+      <c r="G4108">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4109" s="1">
+        <v>3584</v>
+      </c>
+      <c r="D4109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4109">
+        <v>0</v>
+      </c>
+      <c r="F4109">
+        <v>8</v>
+      </c>
+      <c r="G4109">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4110" s="1">
+        <v>3628</v>
+      </c>
+      <c r="D4110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4110">
+        <v>0</v>
+      </c>
+      <c r="F4110">
+        <v>8</v>
+      </c>
+      <c r="G4110">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4111" s="1">
+        <v>3641</v>
+      </c>
+      <c r="D4111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4111">
+        <v>0</v>
+      </c>
+      <c r="F4111">
+        <v>8</v>
+      </c>
+      <c r="G4111">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4112" s="1">
+        <v>3654</v>
+      </c>
+      <c r="D4112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4112">
+        <v>0</v>
+      </c>
+      <c r="F4112">
+        <v>8</v>
+      </c>
+      <c r="G4112">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4113" s="1">
+        <v>3656</v>
+      </c>
+      <c r="D4113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4113">
+        <v>0</v>
+      </c>
+      <c r="F4113">
+        <v>8</v>
+      </c>
+      <c r="G4113">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4114" s="1">
+        <v>3690</v>
+      </c>
+      <c r="D4114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4114">
+        <v>0</v>
+      </c>
+      <c r="F4114">
+        <v>8</v>
+      </c>
+      <c r="G4114">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4115" s="1">
+        <v>3696</v>
+      </c>
+      <c r="D4115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4115">
+        <v>0</v>
+      </c>
+      <c r="F4115">
+        <v>8</v>
+      </c>
+      <c r="G4115">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4116" s="1">
+        <v>3699</v>
+      </c>
+      <c r="D4116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4116">
+        <v>0</v>
+      </c>
+      <c r="F4116">
+        <v>8</v>
+      </c>
+      <c r="G4116">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4117" s="1">
+        <v>3750</v>
+      </c>
+      <c r="D4117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4117">
+        <v>0</v>
+      </c>
+      <c r="F4117">
+        <v>8</v>
+      </c>
+      <c r="G4117">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4118" s="1">
+        <v>3752</v>
+      </c>
+      <c r="D4118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4118">
+        <v>0</v>
+      </c>
+      <c r="F4118">
+        <v>8</v>
+      </c>
+      <c r="G4118">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4119" s="1">
+        <v>3755</v>
+      </c>
+      <c r="D4119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4119">
+        <v>0</v>
+      </c>
+      <c r="F4119">
+        <v>8</v>
+      </c>
+      <c r="G4119">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4120" s="1">
+        <v>3756</v>
+      </c>
+      <c r="D4120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4120">
+        <v>0</v>
+      </c>
+      <c r="F4120">
+        <v>8</v>
+      </c>
+      <c r="G4120">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4121" s="1">
+        <v>3781</v>
+      </c>
+      <c r="D4121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4121">
+        <v>0</v>
+      </c>
+      <c r="F4121">
+        <v>8</v>
+      </c>
+      <c r="G4121">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4122" s="1">
+        <v>3802</v>
+      </c>
+      <c r="D4122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4122">
+        <v>0</v>
+      </c>
+      <c r="F4122">
+        <v>8</v>
+      </c>
+      <c r="G4122">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4123" s="1">
+        <v>3803</v>
+      </c>
+      <c r="D4123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4123">
+        <v>0</v>
+      </c>
+      <c r="F4123">
+        <v>8</v>
+      </c>
+      <c r="G4123">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4124" s="1">
+        <v>3820</v>
+      </c>
+      <c r="D4124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4124">
+        <v>0</v>
+      </c>
+      <c r="F4124">
+        <v>8</v>
+      </c>
+      <c r="G4124">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4125" s="1">
+        <v>3821</v>
+      </c>
+      <c r="D4125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4125">
+        <v>0</v>
+      </c>
+      <c r="F4125">
+        <v>8</v>
+      </c>
+      <c r="G4125">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4126" s="1">
+        <v>3822</v>
+      </c>
+      <c r="D4126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4126">
+        <v>0</v>
+      </c>
+      <c r="F4126">
+        <v>8</v>
+      </c>
+      <c r="G4126">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4127" s="1">
+        <v>3823</v>
+      </c>
+      <c r="D4127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4127">
+        <v>0</v>
+      </c>
+      <c r="F4127">
+        <v>8</v>
+      </c>
+      <c r="G4127">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4128" s="1">
+        <v>3824</v>
+      </c>
+      <c r="D4128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4128">
+        <v>0</v>
+      </c>
+      <c r="F4128">
+        <v>8</v>
+      </c>
+      <c r="G4128">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4129" s="1">
+        <v>3834</v>
+      </c>
+      <c r="D4129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4129">
+        <v>0</v>
+      </c>
+      <c r="F4129">
+        <v>8</v>
+      </c>
+      <c r="G4129">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4130" s="1">
+        <v>3846</v>
+      </c>
+      <c r="D4130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4130">
+        <v>0</v>
+      </c>
+      <c r="F4130">
+        <v>8</v>
+      </c>
+      <c r="G4130">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4131" s="1">
+        <v>3847</v>
+      </c>
+      <c r="D4131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4131">
+        <v>0</v>
+      </c>
+      <c r="F4131">
+        <v>8</v>
+      </c>
+      <c r="G4131">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4132" s="1">
+        <v>3857</v>
+      </c>
+      <c r="D4132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4132">
+        <v>0</v>
+      </c>
+      <c r="F4132">
+        <v>8</v>
+      </c>
+      <c r="G4132">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4133" s="1">
+        <v>3859</v>
+      </c>
+      <c r="D4133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4133">
+        <v>0</v>
+      </c>
+      <c r="F4133">
+        <v>8</v>
+      </c>
+      <c r="G4133">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4134" s="1">
+        <v>3877</v>
+      </c>
+      <c r="D4134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4134">
+        <v>0</v>
+      </c>
+      <c r="F4134">
+        <v>8</v>
+      </c>
+      <c r="G4134">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4135" s="1">
+        <v>7106</v>
+      </c>
+      <c r="D4135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4135">
+        <v>0</v>
+      </c>
+      <c r="F4135">
+        <v>8</v>
+      </c>
+      <c r="G4135">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4136" s="1">
+        <v>9031</v>
+      </c>
+      <c r="D4136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4136">
+        <v>0</v>
+      </c>
+      <c r="F4136">
+        <v>8</v>
+      </c>
+      <c r="G4136">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4137" s="1">
+        <v>9072</v>
+      </c>
+      <c r="D4137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4137">
+        <v>0</v>
+      </c>
+      <c r="F4137">
+        <v>8</v>
+      </c>
+      <c r="G4137">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4138" s="1">
+        <v>9082</v>
+      </c>
+      <c r="D4138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4138">
+        <v>0</v>
+      </c>
+      <c r="F4138">
+        <v>8</v>
+      </c>
+      <c r="G4138">
+        <f t="shared" si="68"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4139" s="1">
+        <v>9112</v>
+      </c>
+      <c r="D4139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4139">
+        <v>0</v>
+      </c>
+      <c r="F4139">
+        <v>8</v>
+      </c>
+      <c r="G4139">
+        <f t="shared" ref="G4139:G4162" si="69">E4139-F4139</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4140" s="1">
+        <v>9161</v>
+      </c>
+      <c r="D4140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4140">
+        <v>0</v>
+      </c>
+      <c r="F4140">
+        <v>8</v>
+      </c>
+      <c r="G4140">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4141" s="1">
+        <v>9199</v>
+      </c>
+      <c r="D4141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4141">
+        <v>0</v>
+      </c>
+      <c r="F4141">
+        <v>8</v>
+      </c>
+      <c r="G4141">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4142" s="1">
+        <v>9234</v>
+      </c>
+      <c r="D4142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4142">
+        <v>0</v>
+      </c>
+      <c r="F4142">
+        <v>8</v>
+      </c>
+      <c r="G4142">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4143" s="1">
+        <v>9237</v>
+      </c>
+      <c r="D4143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4143">
+        <v>0</v>
+      </c>
+      <c r="F4143">
+        <v>8</v>
+      </c>
+      <c r="G4143">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4144" s="1">
+        <v>9426</v>
+      </c>
+      <c r="D4144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4144">
+        <v>0</v>
+      </c>
+      <c r="F4144">
+        <v>8</v>
+      </c>
+      <c r="G4144">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4145" s="1">
+        <v>9642</v>
+      </c>
+      <c r="D4145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4145">
+        <v>0</v>
+      </c>
+      <c r="F4145">
+        <v>8</v>
+      </c>
+      <c r="G4145">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4146" s="1">
+        <v>9669</v>
+      </c>
+      <c r="D4146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4146">
+        <v>0</v>
+      </c>
+      <c r="F4146">
+        <v>8</v>
+      </c>
+      <c r="G4146">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4147" s="1">
+        <v>9726</v>
+      </c>
+      <c r="D4147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4147">
+        <v>0</v>
+      </c>
+      <c r="F4147">
+        <v>8</v>
+      </c>
+      <c r="G4147">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4148" s="1">
+        <v>9739</v>
+      </c>
+      <c r="D4148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4148">
+        <v>0</v>
+      </c>
+      <c r="F4148">
+        <v>8</v>
+      </c>
+      <c r="G4148">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4149" s="1">
+        <v>9791</v>
+      </c>
+      <c r="D4149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4149">
+        <v>0</v>
+      </c>
+      <c r="F4149">
+        <v>8</v>
+      </c>
+      <c r="G4149">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4150" s="1">
+        <v>9828</v>
+      </c>
+      <c r="D4150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4150">
+        <v>0</v>
+      </c>
+      <c r="F4150">
+        <v>8</v>
+      </c>
+      <c r="G4150">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4151" s="1">
+        <v>9843</v>
+      </c>
+      <c r="D4151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4151">
+        <v>0</v>
+      </c>
+      <c r="F4151">
+        <v>8</v>
+      </c>
+      <c r="G4151">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4152" s="1">
+        <v>9899</v>
+      </c>
+      <c r="D4152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4152">
+        <v>0</v>
+      </c>
+      <c r="F4152">
+        <v>8</v>
+      </c>
+      <c r="G4152">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4153" s="1">
+        <v>9943</v>
+      </c>
+      <c r="D4153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4153">
+        <v>0</v>
+      </c>
+      <c r="F4153">
+        <v>8</v>
+      </c>
+      <c r="G4153">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4154" s="1">
+        <v>9973</v>
+      </c>
+      <c r="D4154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4154">
+        <v>0</v>
+      </c>
+      <c r="F4154">
+        <v>8</v>
+      </c>
+      <c r="G4154">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4155" s="1">
+        <v>2098</v>
+      </c>
+      <c r="D4155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4155">
+        <v>0</v>
+      </c>
+      <c r="F4155">
+        <v>8</v>
+      </c>
+      <c r="G4155">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4156" s="1">
+        <v>9692</v>
+      </c>
+      <c r="D4156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4156">
+        <v>0</v>
+      </c>
+      <c r="F4156">
+        <v>8</v>
+      </c>
+      <c r="G4156">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4157" s="1">
+        <v>3897</v>
+      </c>
+      <c r="D4157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4157">
+        <v>0</v>
+      </c>
+      <c r="F4157">
+        <v>8</v>
+      </c>
+      <c r="G4157">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4158" s="1">
+        <v>3899</v>
+      </c>
+      <c r="D4158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4158">
+        <v>0</v>
+      </c>
+      <c r="F4158">
+        <v>8</v>
+      </c>
+      <c r="G4158">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4159" s="1">
+        <v>9191</v>
+      </c>
+      <c r="D4159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4159">
+        <v>0</v>
+      </c>
+      <c r="F4159">
+        <v>8</v>
+      </c>
+      <c r="G4159">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4160" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4160" s="1">
+        <v>3886</v>
+      </c>
+      <c r="D4160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4160">
+        <v>0</v>
+      </c>
+      <c r="F4160">
+        <v>8</v>
+      </c>
+      <c r="G4160">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4161" s="1">
+        <v>1224</v>
+      </c>
+      <c r="D4161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4161">
+        <v>0</v>
+      </c>
+      <c r="F4161">
+        <v>8</v>
+      </c>
+      <c r="G4161">
+        <f t="shared" si="69"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4162" s="1">
+        <v>3751</v>
+      </c>
+      <c r="D4162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4162">
+        <v>0</v>
+      </c>
+      <c r="F4162">
+        <v>8</v>
+      </c>
+      <c r="G4162">
+        <f t="shared" si="69"/>
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
